--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="AttProto" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -57,10 +57,7 @@
     <t>属性描述</t>
   </si>
   <si>
-    <t>百分比：10000=100%</t>
-  </si>
-  <si>
-    <t>10000=100%</t>
+    <t>需显示百分比</t>
   </si>
   <si>
     <t>每秒</t>
@@ -81,9 +78,15 @@
     <t>atk</t>
   </si>
   <si>
+    <t>atkPercent</t>
+  </si>
+  <si>
     <t>armor</t>
   </si>
   <si>
+    <t>armorPercent</t>
+  </si>
+  <si>
     <t>dmgInc</t>
   </si>
   <si>
@@ -102,9 +105,15 @@
     <t>moveSpeed</t>
   </si>
   <si>
+    <t>moveSpeedPercent</t>
+  </si>
+  <si>
     <t>atbSpeed</t>
   </si>
   <si>
+    <t>atbSpeedPercent</t>
+  </si>
+  <si>
     <t>effectHit</t>
   </si>
   <si>
@@ -114,6 +123,9 @@
     <t>maxHP</t>
   </si>
   <si>
+    <t>maxHPPercent</t>
+  </si>
+  <si>
     <t>maxMP</t>
   </si>
   <si>
@@ -198,9 +210,15 @@
     <t>攻击力</t>
   </si>
   <si>
+    <t>攻击力百分比</t>
+  </si>
+  <si>
     <t>护甲</t>
   </si>
   <si>
+    <t>护甲百分比</t>
+  </si>
+  <si>
     <t>总伤害加成</t>
   </si>
   <si>
@@ -219,9 +237,15 @@
     <t>战场移动速度</t>
   </si>
   <si>
+    <t>战场移动速度百分比</t>
+  </si>
+  <si>
     <t>时间槽速度</t>
   </si>
   <si>
+    <t>时间槽速度百分比</t>
+  </si>
+  <si>
     <t>技能效果命中</t>
   </si>
   <si>
@@ -231,6 +255,9 @@
     <t>血量上限</t>
   </si>
   <si>
+    <t>血量上限百分比</t>
+  </si>
+  <si>
     <t>蓝量上限</t>
   </si>
   <si>
@@ -337,6 +364,51 @@
   </si>
   <si>
     <t>demo版本怪物2</t>
+  </si>
+  <si>
+    <t>固定增加值</t>
+  </si>
+  <si>
+    <t>武器升级攻击力固定值</t>
+  </si>
+  <si>
+    <t>衣服升级防御力固定值</t>
+  </si>
+  <si>
+    <t>裤子升级生命值固定值</t>
+  </si>
+  <si>
+    <t>饰品升级暴击值固定值</t>
+  </si>
+  <si>
+    <t>单手剑1突破1次物理伤害加成值</t>
+  </si>
+  <si>
+    <t>单手剑1突破2次物理伤害加成值</t>
+  </si>
+  <si>
+    <t>单手剑1突破3次物理伤害加成值</t>
+  </si>
+  <si>
+    <t>单手剑1突破4次物理伤害加成值</t>
+  </si>
+  <si>
+    <t>单手剑1突破5次物理伤害加成值</t>
+  </si>
+  <si>
+    <t>单手剑2突破1次mp值增加固定值</t>
+  </si>
+  <si>
+    <t>单手剑2突破2次mp值增加固定值</t>
+  </si>
+  <si>
+    <t>单手剑2突破3次mp值增加固定值</t>
+  </si>
+  <si>
+    <t>单手剑2突破4次mp值增加固定值</t>
+  </si>
+  <si>
+    <t>单手剑2突破5次mp值增加固定值</t>
   </si>
 </sst>
 </file>
@@ -344,12 +416,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -365,15 +437,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,15 +494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -402,22 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,22 +526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,13 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,17 +548,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,22 +571,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -553,7 +620,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,19 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +758,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,85 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,42 +801,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,8 +832,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,6 +864,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,15 +894,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -821,17 +903,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,164 +926,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1017,13 +1084,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,54 +1103,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1417,7 +1485,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1983,7 +2051,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2230,38 +2298,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AT35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.35" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.35" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.35" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85" style="1" customWidth="1"/>
-    <col min="16" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="41" width="17.35" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6153846153846" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5384615384615" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.3846153846154" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5384615384615" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1538461538462" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.9230769230769" style="1" customWidth="1"/>
+    <col min="22" max="24" width="8" style="1" customWidth="1"/>
+    <col min="25" max="44" width="13" style="1" customWidth="1"/>
+    <col min="45" max="46" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:41">
+    <row r="1" ht="14" customHeight="1" spans="1:46">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2277,14 +2350,14 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="S1" s="3"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -2307,312 +2380,396 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
     </row>
-    <row r="2" ht="113" customHeight="1" spans="1:41">
+    <row r="2" ht="113" customHeight="1" spans="1:46">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>6</v>
+      <c r="AT2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:41">
+    <row r="3" ht="16.15" customHeight="1" spans="1:46">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="AQ3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:41">
+    <row r="4" ht="16.15" customHeight="1" spans="1:46">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AN4" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AO4" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:41">
+    <row r="5" ht="16.15" customHeight="1" spans="1:46">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2653,66 +2810,81 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:41">
+    <row r="6" ht="16.15" customHeight="1" spans="1:46">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -2728,751 +2900,2633 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>89</v>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:41">
+    <row r="7" ht="25" customHeight="1" spans="1:46">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="7">
+        <v>99</v>
+      </c>
+      <c r="E7" s="8">
         <v>440</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <v>636</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>500</v>
       </c>
-      <c r="I7" s="8">
+      <c r="K7" s="9">
         <v>5000</v>
       </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
         <v>150</v>
       </c>
-      <c r="M7" s="8">
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
         <v>150</v>
       </c>
-      <c r="N7" s="8">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9">
         <v>5000</v>
       </c>
-      <c r="O7" s="8">
+      <c r="S7" s="9">
         <v>3000</v>
       </c>
-      <c r="P7" s="8">
+      <c r="T7" s="9">
         <v>6600</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="U7" s="9"/>
+      <c r="V7" s="9">
         <v>2500</v>
       </c>
-      <c r="R7" s="8">
+      <c r="W7" s="9">
         <v>120</v>
       </c>
-      <c r="S7" s="10">
+      <c r="X7" s="11">
         <v>1000</v>
       </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="6" t="str">
-        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="6" t="str">
+        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO7" s="6" t="str">
-        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
+      <c r="AT7" s="6" t="str">
+        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:41">
+    <row r="8" ht="25" customHeight="1" spans="1:46">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="9">
+        <v>100</v>
+      </c>
+      <c r="E8" s="10">
         <v>550</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="10"/>
+      <c r="G8" s="9">
         <v>530</v>
       </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <v>500</v>
       </c>
-      <c r="I8" s="8">
+      <c r="K8" s="9">
         <v>5000</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
         <v>100</v>
       </c>
-      <c r="M8" s="8">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
         <v>100</v>
       </c>
-      <c r="N8" s="8">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9">
         <v>5000</v>
       </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
         <v>5500</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="U8" s="9"/>
+      <c r="V8" s="9">
         <v>2500</v>
       </c>
-      <c r="R8" s="8">
+      <c r="W8" s="9">
         <v>120</v>
       </c>
-      <c r="S8" s="10">
+      <c r="X8" s="11">
         <v>1000</v>
       </c>
-      <c r="T8" s="8">
+      <c r="Y8" s="9">
         <v>2000</v>
       </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="6" t="str">
-        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="6" t="str">
+        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO8" s="6" t="str">
-        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
+      <c r="AT8" s="6" t="str">
+        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:41">
+    <row r="9" ht="25" customHeight="1" spans="1:46">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="8">
+        <v>101</v>
+      </c>
+      <c r="E9" s="9">
         <v>660</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
         <v>424</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
         <v>1000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="J9" s="9">
         <v>500</v>
       </c>
-      <c r="I9" s="8">
+      <c r="K9" s="9">
         <v>6000</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
         <v>100</v>
       </c>
-      <c r="M9" s="8">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9">
         <v>100</v>
       </c>
-      <c r="N9" s="8">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9">
         <v>5000</v>
       </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
         <v>4400</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="U9" s="9"/>
+      <c r="V9" s="9">
         <v>2500</v>
       </c>
-      <c r="R9" s="8">
+      <c r="W9" s="9">
         <v>120</v>
       </c>
-      <c r="S9" s="10">
+      <c r="X9" s="11">
         <v>1000</v>
       </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8">
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
         <v>2000</v>
       </c>
-      <c r="X9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="6" t="str">
-        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="6" t="str">
+        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
-      <c r="AO9" s="6" t="str">
-        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
+      <c r="AT9" s="6" t="str">
+        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:41">
+    <row r="10" ht="25" customHeight="1" spans="1:46">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="8">
+        <v>103</v>
+      </c>
+      <c r="E10" s="9">
         <v>550</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
         <v>424</v>
       </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>500</v>
       </c>
-      <c r="I10" s="8">
+      <c r="K10" s="9">
         <v>5000</v>
       </c>
-      <c r="J10" s="8">
+      <c r="L10" s="9">
         <v>500</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>100</v>
       </c>
-      <c r="M10" s="8">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
         <v>100</v>
       </c>
-      <c r="N10" s="8">
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9">
         <v>5000</v>
       </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
         <v>4400</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="U10" s="9"/>
+      <c r="V10" s="9">
         <v>2500</v>
       </c>
-      <c r="R10" s="8">
+      <c r="W10" s="9">
         <v>120</v>
       </c>
-      <c r="S10" s="10">
+      <c r="X10" s="11">
         <v>1000</v>
       </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
         <v>500</v>
       </c>
-      <c r="W10" s="8">
-        <v>0</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="6" t="str">
-        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="6" t="str">
+        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO10" s="6" t="str">
-        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
+      <c r="AT10" s="6" t="str">
+        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:41">
+    <row r="11" ht="16.15" customHeight="1" spans="1:46">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="9">
+        <v>104</v>
+      </c>
+      <c r="E11" s="10">
         <v>300</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9">
         <v>500</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
         <v>500</v>
       </c>
-      <c r="I11" s="8">
+      <c r="K11" s="9">
         <v>5000</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
         <v>100</v>
       </c>
-      <c r="M11" s="8">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9">
         <v>100</v>
       </c>
-      <c r="N11" s="8">
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9">
         <v>5000</v>
       </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
         <v>3600</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="U11" s="9"/>
+      <c r="V11" s="9">
         <v>2500</v>
       </c>
-      <c r="R11" s="8">
+      <c r="W11" s="9">
         <v>120</v>
       </c>
-      <c r="S11" s="10">
+      <c r="X11" s="11">
         <v>1000</v>
       </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="6" t="str">
-        <f>T4:T13&amp;","&amp;U4:U13&amp;","&amp;V4:V13&amp;","&amp;W4:W13&amp;","&amp;X4:X13&amp;","&amp;Y4:Y13&amp;","&amp;Z4:Z13&amp;","&amp;AA4:AA13&amp;","&amp;AB4:AB13&amp;","&amp;AC4:AC13</f>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="6" t="str">
+        <f t="shared" ref="AS11:AS20" si="0">Y4:Y13&amp;","&amp;Z4:Z13&amp;","&amp;AA4:AA13&amp;","&amp;AB4:AB13&amp;","&amp;AC4:AC13&amp;","&amp;AD4:AD13&amp;","&amp;AE4:AE13&amp;","&amp;AF4:AF13&amp;","&amp;AG4:AG13&amp;","&amp;AH4:AH13</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO11" s="6" t="str">
-        <f>AD4:AD13&amp;","&amp;AE4:AE13&amp;","&amp;AF4:AF13&amp;","&amp;AG4:AG13&amp;","&amp;AH4:AH13&amp;","&amp;AI4:AI13&amp;","&amp;AJ4:AJ13&amp;","&amp;AK4:AK13&amp;","&amp;AL4:AL13&amp;","&amp;AM4:AM13</f>
+      <c r="AT11" s="6" t="str">
+        <f t="shared" ref="AT11:AT20" si="1">AI4:AI13&amp;","&amp;AJ4:AJ13&amp;","&amp;AK4:AK13&amp;","&amp;AL4:AL13&amp;","&amp;AM4:AM13&amp;","&amp;AN4:AN13&amp;","&amp;AO4:AO13&amp;","&amp;AP4:AP13&amp;","&amp;AQ4:AQ13&amp;","&amp;AR4:AR13</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:41">
+    <row r="12" customHeight="1" spans="3:46">
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="9">
+        <v>105</v>
+      </c>
+      <c r="E12" s="10">
         <v>450</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="10"/>
+      <c r="G12" s="9">
         <v>500</v>
       </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
         <v>500</v>
       </c>
-      <c r="I12" s="8">
+      <c r="K12" s="9">
         <v>5000</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
         <v>100</v>
       </c>
-      <c r="M12" s="8">
+      <c r="O12" s="9"/>
+      <c r="P12" s="9">
         <v>100</v>
       </c>
-      <c r="N12" s="8">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9">
         <v>5000</v>
       </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
         <v>3000</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="U12" s="9"/>
+      <c r="V12" s="9">
         <v>2500</v>
       </c>
-      <c r="R12" s="8">
+      <c r="W12" s="9">
         <v>120</v>
       </c>
-      <c r="S12" s="10">
+      <c r="X12" s="11">
         <v>1000</v>
       </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="6" t="str">
-        <f>T5:T14&amp;","&amp;U5:U14&amp;","&amp;V5:V14&amp;","&amp;W5:W14&amp;","&amp;X5:X14&amp;","&amp;Y5:Y14&amp;","&amp;Z5:Z14&amp;","&amp;AA5:AA14&amp;","&amp;AB5:AB14&amp;","&amp;AC5:AC14</f>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AO12" s="6" t="str">
-        <f>AD5:AD14&amp;","&amp;AE5:AE14&amp;","&amp;AF5:AF14&amp;","&amp;AG5:AG14&amp;","&amp;AH5:AH14&amp;","&amp;AI5:AI14&amp;","&amp;AJ5:AJ14&amp;","&amp;AK5:AK14&amp;","&amp;AL5:AL14&amp;","&amp;AM5:AM14</f>
+      <c r="AT12" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="3:46">
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1">
+        <v>50</v>
+      </c>
+      <c r="K13" s="1">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>50</v>
+      </c>
+      <c r="P13" s="1">
+        <v>50</v>
+      </c>
+      <c r="R13" s="1">
+        <v>25</v>
+      </c>
+      <c r="S13" s="1">
+        <v>25</v>
+      </c>
+      <c r="T13" s="1">
+        <v>500</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AS13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>50,50,50,50,50,50,50,50,50,50</v>
+      </c>
+      <c r="AT13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>50,50,50,50,50,50,50,50,50,50</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:46">
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:46">
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:46">
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>500</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:46">
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="6" t="str">
+        <f t="shared" ref="AS17:AS22" si="2">Y10:Y23&amp;","&amp;Z10:Z23&amp;","&amp;AA10:AA23&amp;","&amp;AB10:AB23&amp;","&amp;AC10:AC23&amp;","&amp;AD10:AD23&amp;","&amp;AE10:AE23&amp;","&amp;AF10:AF23&amp;","&amp;AG10:AG23&amp;","&amp;AH10:AH23</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT17" s="6" t="str">
+        <f t="shared" ref="AT17:AT22" si="3">AI10:AI23&amp;","&amp;AJ10:AJ23&amp;","&amp;AK10:AK23&amp;","&amp;AL10:AL23&amp;","&amp;AM10:AM23&amp;","&amp;AN10:AN23&amp;","&amp;AO10:AO23&amp;","&amp;AP10:AP23&amp;","&amp;AQ10:AQ23&amp;","&amp;AR10:AR23</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:46">
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>500</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>500,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT18" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:46">
+      <c r="C19" s="1">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1000,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:46">
+      <c r="C20" s="1">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1500,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT20" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:46">
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2000,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:46">
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>2500</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2500,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT22" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:46">
+      <c r="C23" s="1">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>100</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="6" t="str">
+        <f t="shared" ref="AS23:AS27" si="4">Y12:Y25&amp;","&amp;Z12:Z25&amp;","&amp;AA12:AA25&amp;","&amp;AB12:AB25&amp;","&amp;AC12:AC25&amp;","&amp;AD12:AD25&amp;","&amp;AE12:AE25&amp;","&amp;AF12:AF25&amp;","&amp;AG12:AG25&amp;","&amp;AH12:AH25</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT23" s="6" t="str">
+        <f t="shared" ref="AT23:AT27" si="5">AI12:AI25&amp;","&amp;AJ12:AJ25&amp;","&amp;AK12:AK25&amp;","&amp;AL12:AL25&amp;","&amp;AM12:AM25&amp;","&amp;AN12:AN25&amp;","&amp;AO12:AO25&amp;","&amp;AP12:AP25&amp;","&amp;AQ12:AQ25&amp;","&amp;AR12:AR25</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:46">
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>200</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT24" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:46">
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>300</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT25" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:46">
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>400</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT26" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:46">
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>500</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT27" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="45:46">
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="45:46">
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+    </row>
+    <row r="30" customHeight="1" spans="45:46">
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="45:46">
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="45:46">
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+    </row>
+    <row r="33" customHeight="1" spans="45:46">
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="45:46">
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="45:46">
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="AttProto" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -57,6 +57,9 @@
     <t>属性描述</t>
   </si>
   <si>
+    <t>程序除10000转化百分比</t>
+  </si>
+  <si>
     <t>需显示百分比</t>
   </si>
   <si>
@@ -366,7 +369,7 @@
     <t>demo版本怪物2</t>
   </si>
   <si>
-    <t>固定增加值</t>
+    <t>装备固定增加值</t>
   </si>
   <si>
     <t>武器升级攻击力固定值</t>
@@ -409,6 +412,9 @@
   </si>
   <si>
     <t>单手剑2突破5次mp值增加固定值</t>
+  </si>
+  <si>
+    <t>装备升级成长率</t>
   </si>
 </sst>
 </file>
@@ -416,15 +422,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -437,12 +454,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -450,41 +461,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF00B0F0"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -495,7 +474,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -504,6 +483,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,8 +518,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,42 +595,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -620,127 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +696,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,25 +816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,8 +860,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,10 +896,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -894,206 +948,185 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1103,54 +1136,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2298,39 +2331,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD2" workbookViewId="0">
+      <selection activeCell="AS27" sqref="AS27:AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6153846153846" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6166666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5384615384615" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.3846153846154" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5384615384615" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1538461538462" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.3833333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5416666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.15" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.75" style="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="1" customWidth="1"/>
     <col min="20" max="20" width="8" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.9230769230769" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.925" style="1" customWidth="1"/>
     <col min="22" max="24" width="8" style="1" customWidth="1"/>
     <col min="25" max="44" width="13" style="1" customWidth="1"/>
-    <col min="45" max="46" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="45" max="46" width="17.35" style="1" customWidth="1"/>
     <col min="47" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2393,649 +2426,651 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="7" t="s">
-        <v>3</v>
+      <c r="K2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>3</v>
+      <c r="Z2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:46">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="T3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="V3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="W3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="X3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Y3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="Z3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AA3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AB3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AC3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AD3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AE3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AF3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AG3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AH3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AI3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AK3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AL3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AM3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AN3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AO3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AP3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AR3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AS3" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:46">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="U4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="V4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="W4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="X4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Y4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AA4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AB4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AC4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AD4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AE4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AF4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AG4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AH4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AI4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AK4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AM4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AN4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AO4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AP4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AR4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AS4" s="6" t="s">
         <v>94</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:46">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:46">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>98</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:46">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="9">
         <v>440</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
         <v>636</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>500</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="10">
         <v>5000</v>
       </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
         <v>150</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
+      <c r="O7" s="10"/>
+      <c r="P7" s="10">
         <v>150</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10">
         <v>5000</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="10">
         <v>3000</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="10">
         <v>6600</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9">
+      <c r="U7" s="10"/>
+      <c r="V7" s="10">
         <v>2500</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="10">
         <v>120</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="14">
         <v>1000</v>
       </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="6" t="str">
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="8" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT7" s="6" t="str">
+      <c r="AT7" s="8" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3043,127 +3078,127 @@
     <row r="8" ht="25" customHeight="1" spans="1:46">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="11">
+        <v>550</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10">
+        <v>530</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>500</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
         <v>100</v>
       </c>
-      <c r="E8" s="10">
-        <v>550</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9">
-        <v>530</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>500</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10">
         <v>5000</v>
       </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>100</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9">
-        <v>5000</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
         <v>5500</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9">
+      <c r="U8" s="10"/>
+      <c r="V8" s="10">
         <v>2500</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="10">
         <v>120</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="14">
         <v>1000</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="10">
         <v>2000</v>
       </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="6" t="str">
+      <c r="Z8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="8" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT8" s="6" t="str">
+      <c r="AT8" s="8" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3171,127 +3206,127 @@
     <row r="9" ht="25" customHeight="1" spans="1:46">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="10">
         <v>660</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>424</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
         <v>1000</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>500</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>6000</v>
       </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
         <v>100</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10">
         <v>100</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10">
         <v>5000</v>
       </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
         <v>4400</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9">
+      <c r="U9" s="10"/>
+      <c r="V9" s="10">
         <v>2500</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="10">
         <v>120</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="14">
         <v>1000</v>
       </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
         <v>2000</v>
       </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="6" t="str">
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="8" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
-      <c r="AT9" s="6" t="str">
+      <c r="AT9" s="8" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3299,127 +3334,127 @@
     <row r="10" ht="25" customHeight="1" spans="1:46">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="10">
         <v>550</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
         <v>424</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <v>500</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <v>5000</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <v>500</v>
       </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
         <v>100</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10">
         <v>100</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10">
         <v>5000</v>
       </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
         <v>4400</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9">
+      <c r="U10" s="10"/>
+      <c r="V10" s="10">
         <v>2500</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="10">
         <v>120</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="14">
         <v>1000</v>
       </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="9">
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10">
         <v>500</v>
       </c>
-      <c r="AB10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="6" t="str">
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="8" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT10" s="6" t="str">
+      <c r="AT10" s="8" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3427,127 +3462,127 @@
     <row r="11" ht="16.15" customHeight="1" spans="1:46">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="10">
+        <v>105</v>
+      </c>
+      <c r="E11" s="11">
         <v>300</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9">
+      <c r="F11" s="11"/>
+      <c r="G11" s="10">
         <v>500</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>500</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <v>5000</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
         <v>100</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10">
         <v>100</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10">
         <v>5000</v>
       </c>
-      <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9">
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
         <v>3600</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9">
+      <c r="U11" s="10"/>
+      <c r="V11" s="10">
         <v>2500</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="10">
         <v>120</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="14">
         <v>1000</v>
       </c>
-      <c r="Y11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="6" t="str">
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="8" t="str">
         <f t="shared" ref="AS11:AS20" si="0">Y4:Y13&amp;","&amp;Z4:Z13&amp;","&amp;AA4:AA13&amp;","&amp;AB4:AB13&amp;","&amp;AC4:AC13&amp;","&amp;AD4:AD13&amp;","&amp;AE4:AE13&amp;","&amp;AF4:AF13&amp;","&amp;AG4:AG13&amp;","&amp;AH4:AH13</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT11" s="6" t="str">
+      <c r="AT11" s="8" t="str">
         <f t="shared" ref="AT11:AT20" si="1">AI4:AI13&amp;","&amp;AJ4:AJ13&amp;","&amp;AK4:AK13&amp;","&amp;AL4:AL13&amp;","&amp;AM4:AM13&amp;","&amp;AN4:AN13&amp;","&amp;AO4:AO13&amp;","&amp;AP4:AP13&amp;","&amp;AQ4:AQ13&amp;","&amp;AR4:AR13</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3557,123 +3592,123 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="10">
+        <v>106</v>
+      </c>
+      <c r="E12" s="11">
         <v>450</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9">
+      <c r="F12" s="11"/>
+      <c r="G12" s="10">
         <v>500</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>500</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10">
         <v>5000</v>
       </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
         <v>100</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9">
+      <c r="O12" s="10"/>
+      <c r="P12" s="10">
         <v>100</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10">
         <v>5000</v>
       </c>
-      <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
         <v>3000</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9">
+      <c r="U12" s="10"/>
+      <c r="V12" s="10">
         <v>2500</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="10">
         <v>120</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="14">
         <v>1000</v>
       </c>
-      <c r="Y12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="6" t="str">
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT12" s="6" t="str">
+      <c r="AT12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3683,7 +3718,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -3790,11 +3825,11 @@
       <c r="AR13" s="1">
         <v>50</v>
       </c>
-      <c r="AS13" s="6" t="str">
+      <c r="AS13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
-      <c r="AT13" s="6" t="str">
+      <c r="AT13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
@@ -3804,7 +3839,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -3911,11 +3946,11 @@
       <c r="AR14" s="1">
         <v>0</v>
       </c>
-      <c r="AS14" s="6" t="str">
+      <c r="AS14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT14" s="6" t="str">
+      <c r="AT14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3925,7 +3960,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -4032,11 +4067,11 @@
       <c r="AR15" s="1">
         <v>0</v>
       </c>
-      <c r="AS15" s="6" t="str">
+      <c r="AS15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT15" s="6" t="str">
+      <c r="AT15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4046,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -4153,11 +4188,11 @@
       <c r="AR16" s="1">
         <v>0</v>
       </c>
-      <c r="AS16" s="6" t="str">
+      <c r="AS16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT16" s="6" t="str">
+      <c r="AT16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4167,7 +4202,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -4274,11 +4309,11 @@
       <c r="AR17" s="1">
         <v>0</v>
       </c>
-      <c r="AS17" s="6" t="str">
+      <c r="AS17" s="8" t="str">
         <f t="shared" ref="AS17:AS22" si="2">Y10:Y23&amp;","&amp;Z10:Z23&amp;","&amp;AA10:AA23&amp;","&amp;AB10:AB23&amp;","&amp;AC10:AC23&amp;","&amp;AD10:AD23&amp;","&amp;AE10:AE23&amp;","&amp;AF10:AF23&amp;","&amp;AG10:AG23&amp;","&amp;AH10:AH23</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT17" s="6" t="str">
+      <c r="AT17" s="8" t="str">
         <f t="shared" ref="AT17:AT22" si="3">AI10:AI23&amp;","&amp;AJ10:AJ23&amp;","&amp;AK10:AK23&amp;","&amp;AL10:AL23&amp;","&amp;AM10:AM23&amp;","&amp;AN10:AN23&amp;","&amp;AO10:AO23&amp;","&amp;AP10:AP23&amp;","&amp;AQ10:AQ23&amp;","&amp;AR10:AR23</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4288,7 +4323,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -4395,11 +4430,11 @@
       <c r="AR18" s="1">
         <v>0</v>
       </c>
-      <c r="AS18" s="6" t="str">
+      <c r="AS18" s="8" t="str">
         <f t="shared" si="2"/>
         <v>500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT18" s="6" t="str">
+      <c r="AT18" s="8" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4409,7 +4444,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -4516,11 +4551,11 @@
       <c r="AR19" s="1">
         <v>0</v>
       </c>
-      <c r="AS19" s="6" t="str">
+      <c r="AS19" s="8" t="str">
         <f t="shared" si="2"/>
         <v>1000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT19" s="6" t="str">
+      <c r="AT19" s="8" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4530,7 +4565,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -4637,11 +4672,11 @@
       <c r="AR20" s="1">
         <v>0</v>
       </c>
-      <c r="AS20" s="6" t="str">
+      <c r="AS20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT20" s="6" t="str">
+      <c r="AT20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4651,7 +4686,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -4758,11 +4793,11 @@
       <c r="AR21" s="1">
         <v>0</v>
       </c>
-      <c r="AS21" s="6" t="str">
+      <c r="AS21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT21" s="6" t="str">
+      <c r="AT21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4772,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -4879,11 +4914,11 @@
       <c r="AR22" s="1">
         <v>0</v>
       </c>
-      <c r="AS22" s="6" t="str">
+      <c r="AS22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT22" s="6" t="str">
+      <c r="AT22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4893,7 +4928,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -5000,11 +5035,11 @@
       <c r="AR23" s="1">
         <v>0</v>
       </c>
-      <c r="AS23" s="6" t="str">
+      <c r="AS23" s="8" t="str">
         <f t="shared" ref="AS23:AS27" si="4">Y12:Y25&amp;","&amp;Z12:Z25&amp;","&amp;AA12:AA25&amp;","&amp;AB12:AB25&amp;","&amp;AC12:AC25&amp;","&amp;AD12:AD25&amp;","&amp;AE12:AE25&amp;","&amp;AF12:AF25&amp;","&amp;AG12:AG25&amp;","&amp;AH12:AH25</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT23" s="6" t="str">
+      <c r="AT23" s="8" t="str">
         <f t="shared" ref="AT23:AT27" si="5">AI12:AI25&amp;","&amp;AJ12:AJ25&amp;","&amp;AK12:AK25&amp;","&amp;AL12:AL25&amp;","&amp;AM12:AM25&amp;","&amp;AN12:AN25&amp;","&amp;AO12:AO25&amp;","&amp;AP12:AP25&amp;","&amp;AQ12:AQ25&amp;","&amp;AR12:AR25</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5014,7 +5049,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -5121,11 +5156,11 @@
       <c r="AR24" s="1">
         <v>0</v>
       </c>
-      <c r="AS24" s="6" t="str">
+      <c r="AS24" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT24" s="6" t="str">
+      <c r="AT24" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5135,7 +5170,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -5242,11 +5277,11 @@
       <c r="AR25" s="1">
         <v>0</v>
       </c>
-      <c r="AS25" s="6" t="str">
+      <c r="AS25" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT25" s="6" t="str">
+      <c r="AT25" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5256,7 +5291,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -5363,11 +5398,11 @@
       <c r="AR26" s="1">
         <v>0</v>
       </c>
-      <c r="AS26" s="6" t="str">
+      <c r="AS26" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT26" s="6" t="str">
+      <c r="AT26" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5377,7 +5412,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -5484,46 +5519,178 @@
       <c r="AR27" s="1">
         <v>0</v>
       </c>
-      <c r="AS27" s="6" t="str">
+      <c r="AS27" s="8" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT27" s="6" t="str">
+      <c r="AT27" s="8" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="45:46">
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
+    <row r="28" customHeight="1" spans="3:46">
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>50</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>30</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>30</v>
+      </c>
+      <c r="R28" s="1">
+        <v>30</v>
+      </c>
+      <c r="S28" s="1">
+        <v>30</v>
+      </c>
+      <c r="T28" s="1">
+        <v>100</v>
+      </c>
+      <c r="U28" s="1">
+        <v>20</v>
+      </c>
+      <c r="V28" s="1">
+        <v>30</v>
+      </c>
+      <c r="W28" s="1">
+        <v>2</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AS28" s="8" t="str">
+        <f>Y17:Y30&amp;","&amp;Z17:Z30&amp;","&amp;AA17:AA30&amp;","&amp;AB17:AB30&amp;","&amp;AC17:AC30&amp;","&amp;AD17:AD30&amp;","&amp;AE17:AE30&amp;","&amp;AF17:AF30&amp;","&amp;AG17:AG30&amp;","&amp;AH17:AH30</f>
+        <v>25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="AT28" s="8" t="str">
+        <f>AI17:AI30&amp;","&amp;AJ17:AJ30&amp;","&amp;AK17:AK30&amp;","&amp;AL17:AL30&amp;","&amp;AM17:AM30&amp;","&amp;AN17:AN30&amp;","&amp;AO17:AO30&amp;","&amp;AP17:AP30&amp;","&amp;AQ17:AQ30&amp;","&amp;AR17:AR30</f>
+        <v>25,25,25,25,25,25,25,25,25,25</v>
+      </c>
     </row>
     <row r="29" customHeight="1" spans="45:46">
-      <c r="AS29" s="6"/>
-      <c r="AT29" s="6"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
     </row>
     <row r="30" customHeight="1" spans="45:46">
-      <c r="AS30" s="6"/>
-      <c r="AT30" s="6"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
     </row>
     <row r="31" customHeight="1" spans="45:46">
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8"/>
     </row>
     <row r="32" customHeight="1" spans="45:46">
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8"/>
     </row>
     <row r="33" customHeight="1" spans="45:46">
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="6"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
     </row>
     <row r="34" customHeight="1" spans="45:46">
-      <c r="AS34" s="6"/>
-      <c r="AT34" s="6"/>
+      <c r="AS34" s="8"/>
+      <c r="AT34" s="8"/>
     </row>
     <row r="35" customHeight="1" spans="45:46">
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -54,6 +54,9 @@
     <t>待定</t>
   </si>
   <si>
+    <t>id段需规划，当前为测试用。之后会修正。</t>
+  </si>
+  <si>
     <t>属性描述</t>
   </si>
   <si>
@@ -369,7 +372,7 @@
     <t>demo版本怪物2</t>
   </si>
   <si>
-    <t>装备固定增加值</t>
+    <t>装备升级固定值（作废）</t>
   </si>
   <si>
     <t>武器升级攻击力固定值</t>
@@ -415,15 +418,37 @@
   </si>
   <si>
     <t>装备升级成长率</t>
+  </si>
+  <si>
+    <t>卡牌升级成长率</t>
+  </si>
+  <si>
+    <t>卡牌升级固定值</t>
+  </si>
+  <si>
+    <t>卡牌突破1次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破2次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破3次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破4次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破5次增加值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -473,6 +498,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -481,8 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,8 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,22 +566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -550,16 +582,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,6 +604,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -580,33 +620,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,13 +673,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +721,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,61 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,79 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,30 +882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -896,6 +897,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -907,26 +937,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,8 +959,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,10 +985,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,109 +997,91 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,30 +1090,51 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2335,15 +2363,15 @@
   <sheetPr/>
   <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD2" workbookViewId="0">
-      <selection activeCell="AS27" sqref="AS27:AT28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
@@ -2422,655 +2450,667 @@
     <row r="2" ht="113" customHeight="1" spans="1:46">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="13" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="13" t="s">
-        <v>4</v>
+      <c r="K2" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>4</v>
+      <c r="Z2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:46">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="V3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="W3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Y3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="Z3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AB3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AC3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AD3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AE3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AF3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AG3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AH3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AI3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AK3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AL3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AM3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AN3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AO3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AP3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AR3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AS3" s="7" t="s">
         <v>51</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:46">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="W4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Y4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="Z4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AA4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AB4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AC4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AD4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AE4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AF4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AG4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AH4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AI4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AK4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AL4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AM4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AO4" s="6" t="s">
+      <c r="AN4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AO4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AQ4" s="6" t="s">
+      <c r="AP4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AR4" s="6" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AR4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AT4" s="6" t="s">
+      <c r="AS4" s="7" t="s">
         <v>95</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:46">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:46">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AT6" s="6" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>99</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:46">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="10">
         <v>440</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
         <v>636</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
         <v>500</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="11">
         <v>5000</v>
       </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
         <v>150</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10">
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
         <v>150</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10">
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
         <v>5000</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="11">
         <v>3000</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="11">
         <v>6600</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10">
+      <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
         <v>2500</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="11">
         <v>120</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="15">
         <v>1000</v>
       </c>
-      <c r="Y7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="8" t="str">
+      <c r="Y7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT7" s="8" t="str">
+      <c r="AT7" s="9" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3078,127 +3118,137 @@
     <row r="8" ht="25" customHeight="1" spans="1:46">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="12">
         <v>550</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10">
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
         <v>530</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>500</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="11">
         <v>5000</v>
       </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
         <v>100</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10">
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
         <v>100</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10">
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
         <v>5000</v>
       </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
         <v>5500</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10">
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
         <v>2500</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="11">
         <v>120</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="15">
         <v>1000</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="11">
         <v>2000</v>
       </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="8" t="str">
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="9" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT8" s="8" t="str">
+      <c r="AT8" s="9" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3206,127 +3256,137 @@
     <row r="9" ht="25" customHeight="1" spans="1:46">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="11">
         <v>660</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
         <v>424</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
         <v>1000</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <v>500</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="11">
         <v>6000</v>
       </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
         <v>100</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10">
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
         <v>100</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10">
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
         <v>5000</v>
       </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+      <c r="T9" s="11">
         <v>4400</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10">
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
         <v>2500</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="11">
         <v>120</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="15">
         <v>1000</v>
       </c>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="10">
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="11">
         <v>2000</v>
       </c>
-      <c r="AC9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="8" t="str">
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="9" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
-      <c r="AT9" s="8" t="str">
+      <c r="AT9" s="9" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3334,127 +3394,137 @@
     <row r="10" ht="25" customHeight="1" spans="1:46">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="11">
         <v>550</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
         <v>424</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
         <v>500</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="11">
         <v>5000</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="11">
         <v>500</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
         <v>100</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10">
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
         <v>100</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10">
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
         <v>5000</v>
       </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
         <v>4400</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10">
+      <c r="U10" s="11">
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
         <v>2500</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="11">
         <v>120</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="15">
         <v>1000</v>
       </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="10">
+      <c r="Y10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11">
         <v>500</v>
       </c>
-      <c r="AB10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="8" t="str">
+      <c r="AB10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="9" t="str">
         <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT10" s="8" t="str">
+      <c r="AT10" s="9" t="str">
         <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3462,127 +3532,137 @@
     <row r="11" ht="16.15" customHeight="1" spans="1:46">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="11">
+        <v>106</v>
+      </c>
+      <c r="E11" s="12">
         <v>300</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
         <v>500</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>500</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="11">
         <v>5000</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
         <v>100</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10">
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
         <v>100</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10">
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
         <v>5000</v>
       </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
         <v>3600</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10">
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
         <v>2500</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="11">
         <v>120</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="15">
         <v>1000</v>
       </c>
-      <c r="Y11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="8" t="str">
+      <c r="Y11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="9" t="str">
         <f t="shared" ref="AS11:AS20" si="0">Y4:Y13&amp;","&amp;Z4:Z13&amp;","&amp;AA4:AA13&amp;","&amp;AB4:AB13&amp;","&amp;AC4:AC13&amp;","&amp;AD4:AD13&amp;","&amp;AE4:AE13&amp;","&amp;AF4:AF13&amp;","&amp;AG4:AG13&amp;","&amp;AH4:AH13</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT11" s="8" t="str">
+      <c r="AT11" s="9" t="str">
         <f t="shared" ref="AT11:AT20" si="1">AI4:AI13&amp;","&amp;AJ4:AJ13&amp;","&amp;AK4:AK13&amp;","&amp;AL4:AL13&amp;","&amp;AM4:AM13&amp;","&amp;AN4:AN13&amp;","&amp;AO4:AO13&amp;","&amp;AP4:AP13&amp;","&amp;AQ4:AQ13&amp;","&amp;AR4:AR13</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3592,123 +3672,133 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="11">
+        <v>107</v>
+      </c>
+      <c r="E12" s="12">
         <v>450</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10">
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
         <v>500</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>500</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="11">
         <v>5000</v>
       </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
         <v>100</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10">
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
         <v>100</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10">
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
         <v>5000</v>
       </c>
-      <c r="S12" s="10">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10">
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
         <v>3000</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10">
+      <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
         <v>2500</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="11">
         <v>120</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="15">
         <v>1000</v>
       </c>
-      <c r="Y12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="8" t="str">
+      <c r="Y12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT12" s="8" t="str">
+      <c r="AT12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3718,14 +3808,20 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
       </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
       <c r="G13" s="1">
         <v>30</v>
       </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
       <c r="I13" s="1">
         <v>50</v>
       </c>
@@ -3744,9 +3840,15 @@
       <c r="N13" s="1">
         <v>50</v>
       </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
       <c r="P13" s="1">
         <v>50</v>
       </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
       <c r="R13" s="1">
         <v>25</v>
       </c>
@@ -3756,6 +3858,9 @@
       <c r="T13" s="1">
         <v>500</v>
       </c>
+      <c r="U13" s="11">
+        <v>0</v>
+      </c>
       <c r="V13" s="1">
         <v>5</v>
       </c>
@@ -3825,11 +3930,11 @@
       <c r="AR13" s="1">
         <v>50</v>
       </c>
-      <c r="AS13" s="8" t="str">
+      <c r="AS13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
-      <c r="AT13" s="8" t="str">
+      <c r="AT13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
@@ -3839,14 +3944,20 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
       </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
@@ -3865,9 +3976,15 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
       <c r="R14" s="1">
         <v>0</v>
       </c>
@@ -3877,6 +3994,9 @@
       <c r="T14" s="1">
         <v>0</v>
       </c>
+      <c r="U14" s="11">
+        <v>0</v>
+      </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
@@ -3946,11 +4066,11 @@
       <c r="AR14" s="1">
         <v>0</v>
       </c>
-      <c r="AS14" s="8" t="str">
+      <c r="AS14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT14" s="8" t="str">
+      <c r="AT14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3960,14 +4080,20 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
         <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>30</v>
       </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
@@ -3986,9 +4112,15 @@
       <c r="N15" s="1">
         <v>0</v>
       </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
       <c r="R15" s="1">
         <v>0</v>
       </c>
@@ -3998,6 +4130,9 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
+      <c r="U15" s="11">
+        <v>0</v>
+      </c>
       <c r="V15" s="1">
         <v>0</v>
       </c>
@@ -4067,11 +4202,11 @@
       <c r="AR15" s="1">
         <v>0</v>
       </c>
-      <c r="AS15" s="8" t="str">
+      <c r="AS15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT15" s="8" t="str">
+      <c r="AT15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4081,14 +4216,20 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
@@ -4107,7 +4248,13 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
       <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
         <v>0</v>
       </c>
       <c r="R16" s="1">
@@ -4119,6 +4266,9 @@
       <c r="T16" s="1">
         <v>500</v>
       </c>
+      <c r="U16" s="11">
+        <v>0</v>
+      </c>
       <c r="V16" s="1">
         <v>0</v>
       </c>
@@ -4188,11 +4338,11 @@
       <c r="AR16" s="1">
         <v>0</v>
       </c>
-      <c r="AS16" s="8" t="str">
+      <c r="AS16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT16" s="8" t="str">
+      <c r="AT16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4202,12 +4352,18 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
       <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="1">
@@ -4228,9 +4384,15 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
       <c r="P17" s="1">
         <v>0</v>
       </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
@@ -4240,6 +4402,9 @@
       <c r="T17" s="1">
         <v>0</v>
       </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
       <c r="V17" s="1">
         <v>0</v>
       </c>
@@ -4309,11 +4474,11 @@
       <c r="AR17" s="1">
         <v>0</v>
       </c>
-      <c r="AS17" s="8" t="str">
+      <c r="AS17" s="9" t="str">
         <f t="shared" ref="AS17:AS22" si="2">Y10:Y23&amp;","&amp;Z10:Z23&amp;","&amp;AA10:AA23&amp;","&amp;AB10:AB23&amp;","&amp;AC10:AC23&amp;","&amp;AD10:AD23&amp;","&amp;AE10:AE23&amp;","&amp;AF10:AF23&amp;","&amp;AG10:AG23&amp;","&amp;AH10:AH23</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT17" s="8" t="str">
+      <c r="AT17" s="9" t="str">
         <f t="shared" ref="AT17:AT22" si="3">AI10:AI23&amp;","&amp;AJ10:AJ23&amp;","&amp;AK10:AK23&amp;","&amp;AL10:AL23&amp;","&amp;AM10:AM23&amp;","&amp;AN10:AN23&amp;","&amp;AO10:AO23&amp;","&amp;AP10:AP23&amp;","&amp;AQ10:AQ23&amp;","&amp;AR10:AR23</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4323,14 +4488,20 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
@@ -4349,9 +4520,15 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
       <c r="P18" s="1">
         <v>0</v>
       </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
@@ -4359,6 +4536,9 @@
         <v>0</v>
       </c>
       <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="11">
         <v>0</v>
       </c>
       <c r="V18" s="1">
@@ -4430,11 +4610,11 @@
       <c r="AR18" s="1">
         <v>0</v>
       </c>
-      <c r="AS18" s="8" t="str">
+      <c r="AS18" s="9" t="str">
         <f t="shared" si="2"/>
         <v>500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT18" s="8" t="str">
+      <c r="AT18" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4444,14 +4624,20 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
@@ -4470,9 +4656,15 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
       <c r="P19" s="1">
         <v>0</v>
       </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
@@ -4480,6 +4672,9 @@
         <v>0</v>
       </c>
       <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
         <v>0</v>
       </c>
       <c r="V19" s="1">
@@ -4551,11 +4746,11 @@
       <c r="AR19" s="1">
         <v>0</v>
       </c>
-      <c r="AS19" s="8" t="str">
+      <c r="AS19" s="9" t="str">
         <f t="shared" si="2"/>
         <v>1000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT19" s="8" t="str">
+      <c r="AT19" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4565,14 +4760,20 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
       <c r="G20" s="1">
         <v>0</v>
       </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
@@ -4591,9 +4792,15 @@
       <c r="N20" s="1">
         <v>0</v>
       </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
       <c r="P20" s="1">
         <v>0</v>
       </c>
+      <c r="Q20" s="11">
+        <v>0</v>
+      </c>
       <c r="R20" s="1">
         <v>0</v>
       </c>
@@ -4601,6 +4808,9 @@
         <v>0</v>
       </c>
       <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="11">
         <v>0</v>
       </c>
       <c r="V20" s="1">
@@ -4672,11 +4882,11 @@
       <c r="AR20" s="1">
         <v>0</v>
       </c>
-      <c r="AS20" s="8" t="str">
+      <c r="AS20" s="9" t="str">
         <f t="shared" si="2"/>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT20" s="8" t="str">
+      <c r="AT20" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4686,14 +4896,20 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
@@ -4712,9 +4928,15 @@
       <c r="N21" s="1">
         <v>0</v>
       </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
       <c r="P21" s="1">
         <v>0</v>
       </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
       <c r="R21" s="1">
         <v>0</v>
       </c>
@@ -4722,6 +4944,9 @@
         <v>0</v>
       </c>
       <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
         <v>0</v>
       </c>
       <c r="V21" s="1">
@@ -4793,11 +5018,11 @@
       <c r="AR21" s="1">
         <v>0</v>
       </c>
-      <c r="AS21" s="8" t="str">
+      <c r="AS21" s="9" t="str">
         <f t="shared" si="2"/>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT21" s="8" t="str">
+      <c r="AT21" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4807,14 +5032,20 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
@@ -4833,9 +5064,15 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
       <c r="P22" s="1">
         <v>0</v>
       </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
       <c r="R22" s="1">
         <v>0</v>
       </c>
@@ -4843,6 +5080,9 @@
         <v>0</v>
       </c>
       <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
         <v>0</v>
       </c>
       <c r="V22" s="1">
@@ -4914,11 +5154,11 @@
       <c r="AR22" s="1">
         <v>0</v>
       </c>
-      <c r="AS22" s="8" t="str">
+      <c r="AS22" s="9" t="str">
         <f t="shared" si="2"/>
         <v>2500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT22" s="8" t="str">
+      <c r="AT22" s="9" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4928,14 +5168,20 @@
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
       <c r="G23" s="1">
         <v>0</v>
       </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
@@ -4954,9 +5200,15 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
       <c r="P23" s="1">
         <v>0</v>
       </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
       <c r="R23" s="1">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
         <v>0</v>
       </c>
       <c r="V23" s="1">
@@ -5035,12 +5290,12 @@
       <c r="AR23" s="1">
         <v>0</v>
       </c>
-      <c r="AS23" s="8" t="str">
-        <f t="shared" ref="AS23:AS27" si="4">Y12:Y25&amp;","&amp;Z12:Z25&amp;","&amp;AA12:AA25&amp;","&amp;AB12:AB25&amp;","&amp;AC12:AC25&amp;","&amp;AD12:AD25&amp;","&amp;AE12:AE25&amp;","&amp;AF12:AF25&amp;","&amp;AG12:AG25&amp;","&amp;AH12:AH25</f>
+      <c r="AS23" s="9" t="str">
+        <f t="shared" ref="AS23:AS32" si="4">Y12:Y25&amp;","&amp;Z12:Z25&amp;","&amp;AA12:AA25&amp;","&amp;AB12:AB25&amp;","&amp;AC12:AC25&amp;","&amp;AD12:AD25&amp;","&amp;AE12:AE25&amp;","&amp;AF12:AF25&amp;","&amp;AG12:AG25&amp;","&amp;AH12:AH25</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT23" s="8" t="str">
-        <f t="shared" ref="AT23:AT27" si="5">AI12:AI25&amp;","&amp;AJ12:AJ25&amp;","&amp;AK12:AK25&amp;","&amp;AL12:AL25&amp;","&amp;AM12:AM25&amp;","&amp;AN12:AN25&amp;","&amp;AO12:AO25&amp;","&amp;AP12:AP25&amp;","&amp;AQ12:AQ25&amp;","&amp;AR12:AR25</f>
+      <c r="AT23" s="9" t="str">
+        <f t="shared" ref="AT23:AT32" si="5">AI12:AI25&amp;","&amp;AJ12:AJ25&amp;","&amp;AK12:AK25&amp;","&amp;AL12:AL25&amp;","&amp;AM12:AM25&amp;","&amp;AN12:AN25&amp;","&amp;AO12:AO25&amp;","&amp;AP12:AP25&amp;","&amp;AQ12:AQ25&amp;","&amp;AR12:AR25</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -5049,14 +5304,20 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
@@ -5075,9 +5336,15 @@
       <c r="N24" s="1">
         <v>0</v>
       </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
       <c r="P24" s="1">
         <v>0</v>
       </c>
+      <c r="Q24" s="11">
+        <v>0</v>
+      </c>
       <c r="R24" s="1">
         <v>0</v>
       </c>
@@ -5085,6 +5352,9 @@
         <v>0</v>
       </c>
       <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="11">
         <v>0</v>
       </c>
       <c r="V24" s="1">
@@ -5156,11 +5426,11 @@
       <c r="AR24" s="1">
         <v>0</v>
       </c>
-      <c r="AS24" s="8" t="str">
+      <c r="AS24" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT24" s="8" t="str">
+      <c r="AT24" s="9" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5170,14 +5440,20 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
@@ -5196,9 +5472,15 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
       <c r="R25" s="1">
         <v>0</v>
       </c>
@@ -5206,6 +5488,9 @@
         <v>0</v>
       </c>
       <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
         <v>0</v>
       </c>
       <c r="V25" s="1">
@@ -5277,11 +5562,11 @@
       <c r="AR25" s="1">
         <v>0</v>
       </c>
-      <c r="AS25" s="8" t="str">
+      <c r="AS25" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT25" s="8" t="str">
+      <c r="AT25" s="9" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5291,14 +5576,20 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
@@ -5317,9 +5608,15 @@
       <c r="N26" s="1">
         <v>0</v>
       </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
       <c r="P26" s="1">
         <v>0</v>
       </c>
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
       <c r="R26" s="1">
         <v>0</v>
       </c>
@@ -5327,6 +5624,9 @@
         <v>0</v>
       </c>
       <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="11">
         <v>0</v>
       </c>
       <c r="V26" s="1">
@@ -5398,11 +5698,11 @@
       <c r="AR26" s="1">
         <v>0</v>
       </c>
-      <c r="AS26" s="8" t="str">
+      <c r="AS26" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT26" s="8" t="str">
+      <c r="AT26" s="9" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5412,14 +5712,20 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
@@ -5438,9 +5744,15 @@
       <c r="N27" s="1">
         <v>0</v>
       </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
       <c r="P27" s="1">
         <v>0</v>
       </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
       <c r="R27" s="1">
         <v>0</v>
       </c>
@@ -5448,6 +5760,9 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
         <v>0</v>
       </c>
       <c r="V27" s="1">
@@ -5519,11 +5834,11 @@
       <c r="AR27" s="1">
         <v>0</v>
       </c>
-      <c r="AS27" s="8" t="str">
+      <c r="AS27" s="9" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT27" s="8" t="str">
+      <c r="AT27" s="9" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5532,8 +5847,8 @@
       <c r="C28" s="1">
         <v>50</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>122</v>
+      <c r="D28" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
@@ -5655,42 +5970,966 @@
       <c r="AR28" s="1">
         <v>25</v>
       </c>
-      <c r="AS28" s="8" t="str">
-        <f>Y17:Y30&amp;","&amp;Z17:Z30&amp;","&amp;AA17:AA30&amp;","&amp;AB17:AB30&amp;","&amp;AC17:AC30&amp;","&amp;AD17:AD30&amp;","&amp;AE17:AE30&amp;","&amp;AF17:AF30&amp;","&amp;AG17:AG30&amp;","&amp;AH17:AH30</f>
+      <c r="AS28" s="9" t="str">
+        <f t="shared" si="4"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
-      <c r="AT28" s="8" t="str">
-        <f>AI17:AI30&amp;","&amp;AJ17:AJ30&amp;","&amp;AK17:AK30&amp;","&amp;AL17:AL30&amp;","&amp;AM17:AM30&amp;","&amp;AN17:AN30&amp;","&amp;AO17:AO30&amp;","&amp;AP17:AP30&amp;","&amp;AQ17:AQ30&amp;","&amp;AR17:AR30</f>
+      <c r="AT28" s="9" t="str">
+        <f t="shared" si="5"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="45:46">
-      <c r="AS29" s="8"/>
-      <c r="AT29" s="8"/>
+    <row r="29" customHeight="1" spans="3:46">
+      <c r="C29" s="1">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>100</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>500</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT29" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="30" customHeight="1" spans="45:46">
-      <c r="AS30" s="8"/>
-      <c r="AT30" s="8"/>
+    <row r="30" customHeight="1" spans="3:46">
+      <c r="C30" s="1">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>500</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>500</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT30" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="31" customHeight="1" spans="45:46">
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8"/>
+    <row r="31" customHeight="1" spans="3:46">
+      <c r="C31" s="1">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="1">
+        <v>75</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>65</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>150</v>
+      </c>
+      <c r="J31" s="1">
+        <v>150</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>350</v>
+      </c>
+      <c r="S31" s="1">
+        <v>350</v>
+      </c>
+      <c r="T31" s="1">
+        <v>750</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="9" t="str">
+        <f t="shared" ref="AS31:AS35" si="6">Y20:Y33&amp;","&amp;Z20:Z33&amp;","&amp;AA20:AA33&amp;","&amp;AB20:AB33&amp;","&amp;AC20:AC33&amp;","&amp;AD20:AD33&amp;","&amp;AE20:AE33&amp;","&amp;AF20:AF33&amp;","&amp;AG20:AG33&amp;","&amp;AH20:AH33</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT31" s="9" t="str">
+        <f t="shared" ref="AT31:AT35" si="7">AI20:AI33&amp;","&amp;AJ20:AJ33&amp;","&amp;AK20:AK33&amp;","&amp;AL20:AL33&amp;","&amp;AM20:AM33&amp;","&amp;AN20:AN33&amp;","&amp;AO20:AO33&amp;","&amp;AP20:AP33&amp;","&amp;AQ20:AQ33&amp;","&amp;AR20:AR33</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="32" customHeight="1" spans="45:46">
-      <c r="AS32" s="8"/>
-      <c r="AT32" s="8"/>
+    <row r="32" customHeight="1" spans="3:46">
+      <c r="C32" s="1">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="1">
+        <v>125</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>115</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>250</v>
+      </c>
+      <c r="J32" s="1">
+        <v>250</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>650</v>
+      </c>
+      <c r="S32" s="1">
+        <v>650</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1250</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT32" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="33" customHeight="1" spans="45:46">
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="8"/>
+    <row r="33" customHeight="1" spans="3:46">
+      <c r="C33" s="1">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="1">
+        <v>175</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>165</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>350</v>
+      </c>
+      <c r="J33" s="1">
+        <v>350</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>950</v>
+      </c>
+      <c r="S33" s="1">
+        <v>950</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1750</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT33" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="34" customHeight="1" spans="45:46">
-      <c r="AS34" s="8"/>
-      <c r="AT34" s="8"/>
+    <row r="34" customHeight="1" spans="3:46">
+      <c r="C34" s="1">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="1">
+        <v>225</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>215</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>450</v>
+      </c>
+      <c r="J34" s="1">
+        <v>450</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1250</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1250</v>
+      </c>
+      <c r="T34" s="1">
+        <v>2250</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT34" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="35" customHeight="1" spans="45:46">
-      <c r="AS35" s="8"/>
-      <c r="AT35" s="8"/>
+    <row r="35" customHeight="1" spans="3:46">
+      <c r="C35" s="1">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="1">
+        <v>275</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>265</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>550</v>
+      </c>
+      <c r="J35" s="1">
+        <v>550</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1550</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1550</v>
+      </c>
+      <c r="T35" s="1">
+        <v>2750</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AT35" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -351,19 +351,19 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>demo版本防战</t>
-  </si>
-  <si>
-    <t>demo版本狂战</t>
-  </si>
-  <si>
-    <t>demo版本法师</t>
+    <t>demo版本防战，1级默认值</t>
+  </si>
+  <si>
+    <t>demo版本狂战，1级默认值</t>
+  </si>
+  <si>
+    <t>demo版本法师，1级默认值</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>demo版本治疗</t>
+    <t>demo版本治疗，1级默认值</t>
   </si>
   <si>
     <t>demo版本怪物1</t>
@@ -423,7 +423,7 @@
     <t>卡牌升级成长率</t>
   </si>
   <si>
-    <t>卡牌升级固定值</t>
+    <t>卡牌升级固定值，1级默认值</t>
   </si>
   <si>
     <t>卡牌突破1次增加值</t>
@@ -446,11 +446,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -491,22 +491,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,8 +514,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -532,6 +541,44 @@
       <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,23 +599,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,36 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -621,15 +622,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +673,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +799,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,157 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,6 +882,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -901,42 +919,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,9 +941,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,16 +964,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,133 +997,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2363,8 +2363,8 @@
   <sheetPr/>
   <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -6138,10 +6138,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -6150,19 +6150,19 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -6174,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X30" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" s="1">
         <v>0</v>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -54,7 +54,12 @@
     <t>待定</t>
   </si>
   <si>
-    <t>id段需规划，当前为测试用。之后会修正。</t>
+    <t>1-999英雄相关
+1000-1999怪物
+2000-2999装备
+3000-3999晶石
+4000-4999收集品
+逐步加</t>
   </si>
   <si>
     <t>属性描述</t>
@@ -372,6 +377,27 @@
     <t>demo版本怪物2</t>
   </si>
   <si>
+    <t>卡牌突破1次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破2次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破3次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破4次增加值</t>
+  </si>
+  <si>
+    <t>卡牌突破5次增加值</t>
+  </si>
+  <si>
+    <t>卡牌升级成长率</t>
+  </si>
+  <si>
+    <t>卡牌升级固定值，1级默认值</t>
+  </si>
+  <si>
     <t>装备升级固定值（作废）</t>
   </si>
   <si>
@@ -387,6 +413,9 @@
     <t>饰品升级暴击值固定值</t>
   </si>
   <si>
+    <t>装备升级成长率</t>
+  </si>
+  <si>
     <t>单手剑1突破1次物理伤害加成值</t>
   </si>
   <si>
@@ -415,30 +444,6 @@
   </si>
   <si>
     <t>单手剑2突破5次mp值增加固定值</t>
-  </si>
-  <si>
-    <t>装备升级成长率</t>
-  </si>
-  <si>
-    <t>卡牌升级成长率</t>
-  </si>
-  <si>
-    <t>卡牌升级固定值，1级默认值</t>
-  </si>
-  <si>
-    <t>卡牌突破1次增加值</t>
-  </si>
-  <si>
-    <t>卡牌突破2次增加值</t>
-  </si>
-  <si>
-    <t>卡牌突破3次增加值</t>
-  </si>
-  <si>
-    <t>卡牌突破4次增加值</t>
-  </si>
-  <si>
-    <t>卡牌突破5次增加值</t>
   </si>
 </sst>
 </file>
@@ -446,11 +451,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -461,12 +466,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
@@ -491,8 +496,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -508,14 +520,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,22 +573,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,29 +595,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,7 +610,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,32 +633,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,13 +678,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +774,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,145 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,17 +890,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,34 +955,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,31 +984,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,133 +1002,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,8 +1140,8 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1154,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2363,15 +2368,15 @@
   <sheetPr/>
   <dimension ref="A1:AT35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
@@ -3245,11 +3250,11 @@
         <v>0</v>
       </c>
       <c r="AS8" s="9" t="str">
-        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
+        <f t="shared" ref="AS8:AS35" si="0">Y2:Y12&amp;","&amp;Z2:Z12&amp;","&amp;AA2:AA12&amp;","&amp;AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT8" s="9" t="str">
-        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
+        <f t="shared" ref="AT8:AT35" si="1">AI2:AI12&amp;","&amp;AJ2:AJ12&amp;","&amp;AK2:AK12&amp;","&amp;AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -3383,11 +3388,11 @@
         <v>0</v>
       </c>
       <c r="AS9" s="9" t="str">
-        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
+        <f t="shared" si="0"/>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
       <c r="AT9" s="9" t="str">
-        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -3521,11 +3526,11 @@
         <v>0</v>
       </c>
       <c r="AS10" s="9" t="str">
-        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
+        <f t="shared" si="0"/>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT10" s="9" t="str">
-        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -3659,11 +3664,11 @@
         <v>0</v>
       </c>
       <c r="AS11" s="9" t="str">
-        <f t="shared" ref="AS11:AS20" si="0">Y4:Y13&amp;","&amp;Z4:Z13&amp;","&amp;AA4:AA13&amp;","&amp;AB4:AB13&amp;","&amp;AC4:AC13&amp;","&amp;AD4:AD13&amp;","&amp;AE4:AE13&amp;","&amp;AF4:AF13&amp;","&amp;AG4:AG13&amp;","&amp;AH4:AH13</f>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT11" s="9" t="str">
-        <f t="shared" ref="AT11:AT20" si="1">AI4:AI13&amp;","&amp;AJ4:AJ13&amp;","&amp;AK4:AK13&amp;","&amp;AL4:AL13&amp;","&amp;AM4:AM13&amp;","&amp;AN4:AN13&amp;","&amp;AO4:AO13&amp;","&amp;AP4:AP13&amp;","&amp;AQ4:AQ13&amp;","&amp;AR4:AR13</f>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -3803,166 +3808,166 @@
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="13" ht="27" customHeight="1" spans="3:46">
+    <row r="13" customHeight="1" spans="3:46">
       <c r="C13" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
-      </c>
-      <c r="F13" s="10">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>30</v>
-      </c>
-      <c r="H13" s="11">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K13" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>50</v>
-      </c>
-      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="S13" s="1">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="T13" s="1">
-        <v>500</v>
-      </c>
-      <c r="U13" s="11">
+        <v>750</v>
+      </c>
+      <c r="U13" s="1">
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>50,50,50,50,50,50,50,50,50,50</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT13" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>50,50,50,50,50,50,50,50,50,50</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:46">
       <c r="C14" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E14" s="1">
-        <v>50</v>
-      </c>
-      <c r="F14" s="10">
+        <v>125</v>
+      </c>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+        <v>115</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -3976,25 +3981,25 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="1">
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="11">
+        <v>1250</v>
+      </c>
+      <c r="U14" s="1">
         <v>0</v>
       </c>
       <c r="V14" s="1">
@@ -4077,28 +4082,28 @@
     </row>
     <row r="15" customHeight="1" spans="3:46">
       <c r="C15" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
+        <v>175</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>30</v>
-      </c>
-      <c r="H15" s="11">
+        <v>165</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -4112,25 +4117,25 @@
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>0</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="1">
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
+        <v>1750</v>
+      </c>
+      <c r="U15" s="1">
         <v>0</v>
       </c>
       <c r="V15" s="1">
@@ -4213,28 +4218,28 @@
     </row>
     <row r="16" customHeight="1" spans="3:46">
       <c r="C16" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
+        <v>225</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
+        <v>215</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -4248,25 +4253,25 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="1">
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="T16" s="1">
-        <v>500</v>
-      </c>
-      <c r="U16" s="11">
+        <v>2250</v>
+      </c>
+      <c r="U16" s="1">
         <v>0</v>
       </c>
       <c r="V16" s="1">
@@ -4349,28 +4354,28 @@
     </row>
     <row r="17" customHeight="1" spans="3:46">
       <c r="C17" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
+        <v>275</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
+        <v>265</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J17" s="1">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -4384,25 +4389,25 @@
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="1">
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
+        <v>2750</v>
+      </c>
+      <c r="U17" s="1">
         <v>0</v>
       </c>
       <c r="V17" s="1">
@@ -4475,31 +4480,31 @@
         <v>0</v>
       </c>
       <c r="AS17" s="9" t="str">
-        <f t="shared" ref="AS17:AS22" si="2">Y10:Y23&amp;","&amp;Z10:Z23&amp;","&amp;AA10:AA23&amp;","&amp;AB10:AB23&amp;","&amp;AC10:AC23&amp;","&amp;AD10:AD23&amp;","&amp;AE10:AE23&amp;","&amp;AF10:AF23&amp;","&amp;AG10:AG23&amp;","&amp;AH10:AH23</f>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT17" s="9" t="str">
-        <f t="shared" ref="AT17:AT22" si="3">AI10:AI23&amp;","&amp;AJ10:AJ23&amp;","&amp;AK10:AK23&amp;","&amp;AL10:AL23&amp;","&amp;AM10:AM23&amp;","&amp;AN10:AN23&amp;","&amp;AO10:AO23&amp;","&amp;AP10:AP23&amp;","&amp;AQ10:AQ23&amp;","&amp;AR10:AR23</f>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:46">
       <c r="C18" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
@@ -4520,13 +4525,13 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="1">
         <v>0</v>
       </c>
       <c r="R18" s="1">
@@ -4536,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="11">
+        <v>100</v>
+      </c>
+      <c r="U18" s="1">
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -4551,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
@@ -4611,41 +4616,41 @@
         <v>0</v>
       </c>
       <c r="AS18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>500,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT18" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:46">
       <c r="C19" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -4654,40 +4659,40 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11">
+        <v>100</v>
+      </c>
+      <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1">
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="11">
+        <v>500</v>
+      </c>
+      <c r="U19" s="1">
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
@@ -4747,159 +4752,159 @@
         <v>0</v>
       </c>
       <c r="AS19" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1000,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT19" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:46">
+    <row r="20" ht="27" customHeight="1" spans="3:46">
       <c r="C20" s="1">
-        <v>14</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O20" s="11">
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="11">
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T20" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U20" s="11">
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X20" s="1">
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AQ20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR20" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AS20" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>1500,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
       <c r="AT20" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="1"/>
+        <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:46">
       <c r="C21" s="1">
-        <v>15</v>
+        <v>2001</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -4959,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -5019,17 +5024,17 @@
         <v>0</v>
       </c>
       <c r="AS21" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2000,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:46">
       <c r="C22" s="1">
-        <v>16</v>
+        <v>2002</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>117</v>
@@ -5041,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H22" s="11">
         <v>0</v>
@@ -5095,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>0</v>
@@ -5155,17 +5160,17 @@
         <v>0</v>
       </c>
       <c r="AS22" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2500,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT22" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:46">
       <c r="C23" s="1">
-        <v>17</v>
+        <v>2003</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>118</v>
@@ -5216,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U23" s="11">
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -5291,17 +5296,17 @@
         <v>0</v>
       </c>
       <c r="AS23" s="9" t="str">
-        <f t="shared" ref="AS23:AS32" si="4">Y12:Y25&amp;","&amp;Z12:Z25&amp;","&amp;AA12:AA25&amp;","&amp;AB12:AB25&amp;","&amp;AC12:AC25&amp;","&amp;AD12:AD25&amp;","&amp;AE12:AE25&amp;","&amp;AF12:AF25&amp;","&amp;AG12:AG25&amp;","&amp;AH12:AH25</f>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT23" s="9" t="str">
-        <f t="shared" ref="AT23:AT32" si="5">AI12:AI25&amp;","&amp;AJ12:AJ25&amp;","&amp;AK12:AK25&amp;","&amp;AL12:AL25&amp;","&amp;AM12:AM25&amp;","&amp;AN12:AN25&amp;","&amp;AO12:AO25&amp;","&amp;AP12:AP25&amp;","&amp;AQ12:AQ25&amp;","&amp;AR12:AR25</f>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:46">
       <c r="C24" s="1">
-        <v>18</v>
+        <v>2004</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>119</v>
@@ -5322,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -5358,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -5427,44 +5432,44 @@
         <v>0</v>
       </c>
       <c r="AS24" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT24" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:46">
       <c r="C25" s="1">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>120</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>20</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5472,108 +5477,108 @@
       <c r="N25" s="1">
         <v>0</v>
       </c>
-      <c r="O25" s="11">
-        <v>0</v>
+      <c r="O25" s="1">
+        <v>30</v>
       </c>
       <c r="P25" s="1">
         <v>0</v>
       </c>
-      <c r="Q25" s="11">
-        <v>0</v>
+      <c r="Q25" s="1">
+        <v>30</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="11">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="U25" s="1">
+        <v>20</v>
       </c>
       <c r="V25" s="1">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AN25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AP25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AQ25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AR25" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS25" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
       <c r="AT25" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="1"/>
+        <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:46">
       <c r="C26" s="1">
-        <v>20</v>
+        <v>2010</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>121</v>
@@ -5630,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W26" s="1">
         <v>0</v>
@@ -5639,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Z26" s="1">
         <v>0</v>
@@ -5699,17 +5704,17 @@
         <v>0</v>
       </c>
       <c r="AS26" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>500,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT26" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:46">
       <c r="C27" s="1">
-        <v>21</v>
+        <v>2011</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>122</v>
@@ -5766,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W27" s="1">
         <v>0</v>
@@ -5775,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" s="1">
         <v>0</v>
@@ -5835,44 +5840,44 @@
         <v>0</v>
       </c>
       <c r="AS27" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>1000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT27" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:46">
       <c r="C28" s="1">
-        <v>50</v>
-      </c>
-      <c r="D28" s="13" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5880,122 +5885,122 @@
       <c r="N28" s="1">
         <v>0</v>
       </c>
-      <c r="O28" s="1">
-        <v>30</v>
+      <c r="O28" s="11">
+        <v>0</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
       </c>
-      <c r="Q28" s="1">
-        <v>30</v>
+      <c r="Q28" s="11">
+        <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>100</v>
-      </c>
-      <c r="U28" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="U28" s="11">
+        <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>25</v>
+        <v>1500</v>
       </c>
       <c r="Z28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>25,25,25,25,25,25,25,25,25,25</v>
+        <f t="shared" si="0"/>
+        <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT28" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>25,25,25,25,25,25,25,25,25,25</v>
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:46">
       <c r="C29" s="1">
-        <v>60</v>
+        <v>2013</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
         <v>0</v>
       </c>
       <c r="I29" s="1">
@@ -6016,13 +6021,13 @@
       <c r="N29" s="1">
         <v>0</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="11">
         <v>0</v>
       </c>
       <c r="P29" s="1">
         <v>0</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="11">
         <v>0</v>
       </c>
       <c r="R29" s="1">
@@ -6032,13 +6037,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>100</v>
-      </c>
-      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -6047,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Z29" s="1">
         <v>0</v>
@@ -6107,41 +6112,41 @@
         <v>0</v>
       </c>
       <c r="AS29" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT29" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:46">
       <c r="C30" s="1">
-        <v>61</v>
+        <v>2014</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E30" s="1">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>30</v>
-      </c>
-      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
         <v>0</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -6150,41 +6155,41 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>100</v>
-      </c>
-      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>500</v>
-      </c>
-      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
         <v>0</v>
       </c>
       <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
         <v>2500</v>
       </c>
-      <c r="W30" s="1">
-        <v>120</v>
-      </c>
-      <c r="X30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
       <c r="Z30" s="1">
         <v>0</v>
       </c>
@@ -6243,38 +6248,38 @@
         <v>0</v>
       </c>
       <c r="AS30" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>2500,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT30" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:46">
       <c r="C31" s="1">
-        <v>70</v>
+        <v>2020</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E31" s="1">
-        <v>75</v>
-      </c>
-      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>65</v>
-      </c>
-      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -6288,29 +6293,29 @@
       <c r="N31" s="1">
         <v>0</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="11">
         <v>0</v>
       </c>
       <c r="P31" s="1">
         <v>0</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="11">
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>750</v>
-      </c>
-      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="11">
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -6379,38 +6384,38 @@
         <v>0</v>
       </c>
       <c r="AS31" s="9" t="str">
-        <f t="shared" ref="AS31:AS35" si="6">Y20:Y33&amp;","&amp;Z20:Z33&amp;","&amp;AA20:AA33&amp;","&amp;AB20:AB33&amp;","&amp;AC20:AC33&amp;","&amp;AD20:AD33&amp;","&amp;AE20:AE33&amp;","&amp;AF20:AF33&amp;","&amp;AG20:AG33&amp;","&amp;AH20:AH33</f>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT31" s="9" t="str">
-        <f t="shared" ref="AT31:AT35" si="7">AI20:AI33&amp;","&amp;AJ20:AJ33&amp;","&amp;AK20:AK33&amp;","&amp;AL20:AL33&amp;","&amp;AM20:AM33&amp;","&amp;AN20:AN33&amp;","&amp;AO20:AO33&amp;","&amp;AP20:AP33&amp;","&amp;AQ20:AQ33&amp;","&amp;AR20:AR33</f>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:46">
       <c r="C32" s="1">
-        <v>71</v>
+        <v>2021</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E32" s="1">
-        <v>125</v>
-      </c>
-      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>115</v>
-      </c>
-      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -6424,29 +6429,29 @@
       <c r="N32" s="1">
         <v>0</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="11">
         <v>0</v>
       </c>
       <c r="P32" s="1">
         <v>0</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="11">
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>1250</v>
-      </c>
-      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="11">
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
@@ -6515,38 +6520,38 @@
         <v>0</v>
       </c>
       <c r="AS32" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT32" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:46">
       <c r="C33" s="1">
-        <v>72</v>
+        <v>2022</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E33" s="1">
-        <v>175</v>
-      </c>
-      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>165</v>
-      </c>
-      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -6560,29 +6565,29 @@
       <c r="N33" s="1">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="11">
         <v>0</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="11">
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1750</v>
-      </c>
-      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="11">
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -6651,38 +6656,38 @@
         <v>0</v>
       </c>
       <c r="AS33" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT33" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:46">
       <c r="C34" s="1">
-        <v>73</v>
+        <v>2023</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E34" s="1">
-        <v>225</v>
-      </c>
-      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>215</v>
-      </c>
-      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -6696,29 +6701,29 @@
       <c r="N34" s="1">
         <v>0</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="11">
         <v>0</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="11">
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="T34" s="1">
-        <v>2250</v>
-      </c>
-      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="11">
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -6787,38 +6792,38 @@
         <v>0</v>
       </c>
       <c r="AS34" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT34" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:46">
       <c r="C35" s="1">
-        <v>74</v>
+        <v>2024</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E35" s="1">
-        <v>275</v>
-      </c>
-      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>265</v>
-      </c>
-      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -6832,29 +6837,29 @@
       <c r="N35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="11">
         <v>0</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="11">
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>2750</v>
-      </c>
-      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="11">
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -6923,11 +6928,11 @@
         <v>0</v>
       </c>
       <c r="AS35" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AT35" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="135">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -146,6 +146,12 @@
     <t>rage</t>
   </si>
   <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>dodge</t>
+  </si>
+  <si>
     <t>dmgPhysics</t>
   </si>
   <si>
@@ -278,6 +284,12 @@
     <t>怒气</t>
   </si>
   <si>
+    <t>命中值</t>
+  </si>
+  <si>
+    <t>闪避值</t>
+  </si>
+  <si>
     <t>物理系伤害加成</t>
   </si>
   <si>
@@ -293,19 +305,19 @@
     <t>风系伤害加成</t>
   </si>
   <si>
+    <t>雷系伤害加成</t>
+  </si>
+  <si>
     <t>时系伤害加成</t>
   </si>
   <si>
     <t>空系伤害加成</t>
   </si>
   <si>
-    <t>幻系伤害加成</t>
-  </si>
-  <si>
-    <t>光系伤害加成</t>
-  </si>
-  <si>
-    <t>暗系伤害加成</t>
+    <t>钢系伤害加成</t>
+  </si>
+  <si>
+    <t>灭系伤害加成</t>
   </si>
   <si>
     <t>物理系伤害抗性</t>
@@ -323,19 +335,19 @@
     <t>风系伤害抗性</t>
   </si>
   <si>
+    <t>雷系伤害抗性</t>
+  </si>
+  <si>
     <t>时系伤害抗性</t>
   </si>
   <si>
     <t>空系伤害抗性</t>
   </si>
   <si>
-    <t>幻系伤害抗性</t>
-  </si>
-  <si>
-    <t>光系伤害抗性</t>
-  </si>
-  <si>
-    <t>暗系伤害抗性</t>
+    <t>钢系伤害抗性</t>
+  </si>
+  <si>
+    <t>灭系伤害抗性</t>
   </si>
   <si>
     <t>各系伤害加层</t>
@@ -451,11 +463,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -503,11 +515,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,23 +561,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,10 +583,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,8 +598,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,17 +630,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,31 +645,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -684,7 +696,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +792,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,157 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,26 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -922,6 +914,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -933,6 +940,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,9 +970,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,22 +983,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,10 +1002,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,121 +1014,121 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,10 +1137,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2366,10 +2378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT35"/>
+  <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2395,12 +2407,14 @@
     <col min="20" max="20" width="8" style="1" customWidth="1"/>
     <col min="21" max="21" width="14.925" style="1" customWidth="1"/>
     <col min="22" max="24" width="8" style="1" customWidth="1"/>
-    <col min="25" max="44" width="13" style="1" customWidth="1"/>
-    <col min="45" max="46" width="17.35" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.375" style="1" customWidth="1"/>
+    <col min="27" max="46" width="13" style="1" customWidth="1"/>
+    <col min="47" max="48" width="17.35" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:46">
+    <row r="1" ht="14" customHeight="1" spans="1:48">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2451,8 +2465,10 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
     </row>
-    <row r="2" ht="113" customHeight="1" spans="1:46">
+    <row r="2" ht="113" customHeight="1" spans="1:48">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2553,14 +2569,20 @@
       <c r="AR2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:46">
+    <row r="3" ht="16.15" customHeight="1" spans="1:48">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -2697,149 +2719,161 @@
       <c r="AT3" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="AU3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:46">
+    <row r="4" ht="16.15" customHeight="1" spans="1:48">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AP4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AS4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AT4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:46">
+    <row r="5" ht="16.15" customHeight="1" spans="1:48">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2885,78 +2919,84 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:46">
+    <row r="6" ht="16.15" customHeight="1" spans="1:48">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
@@ -2975,21 +3015,23 @@
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
-      <c r="AS6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>100</v>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:46">
+    <row r="7" ht="25" customHeight="1" spans="1:48">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E7" s="10">
         <v>440</v>
@@ -3051,10 +3093,10 @@
       <c r="X7" s="15">
         <v>1000</v>
       </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
+      <c r="Y7" s="15">
+        <v>10000</v>
+      </c>
+      <c r="Z7" s="15">
         <v>0</v>
       </c>
       <c r="AA7" s="11">
@@ -3111,23 +3153,29 @@
       <c r="AR7" s="11">
         <v>0</v>
       </c>
-      <c r="AS7" s="9" t="str">
-        <f>Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11</f>
+      <c r="AS7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="9" t="str">
+        <f>AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT7" s="9" t="str">
-        <f>AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11</f>
+      <c r="AV7" s="9" t="str">
+        <f>AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:46">
+    <row r="8" ht="25" customHeight="1" spans="1:48">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E8" s="12">
         <v>550</v>
@@ -3189,15 +3237,15 @@
       <c r="X8" s="15">
         <v>1000</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="15">
+        <v>10000</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="11">
         <v>2000</v>
       </c>
-      <c r="Z8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>0</v>
-      </c>
       <c r="AB8" s="11">
         <v>0</v>
       </c>
@@ -3249,23 +3297,29 @@
       <c r="AR8" s="11">
         <v>0</v>
       </c>
-      <c r="AS8" s="9" t="str">
-        <f t="shared" ref="AS8:AS35" si="0">Y2:Y12&amp;","&amp;Z2:Z12&amp;","&amp;AA2:AA12&amp;","&amp;AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12</f>
+      <c r="AS8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="9" t="str">
+        <f t="shared" ref="AU8:AU35" si="0">AA2:AA12&amp;","&amp;AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT8" s="9" t="str">
-        <f t="shared" ref="AT8:AT35" si="1">AI2:AI12&amp;","&amp;AJ2:AJ12&amp;","&amp;AK2:AK12&amp;","&amp;AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12</f>
+      <c r="AV8" s="9" t="str">
+        <f t="shared" ref="AV8:AV35" si="1">AK2:AK12&amp;","&amp;AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:46">
+    <row r="9" ht="25" customHeight="1" spans="1:48">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E9" s="11">
         <v>660</v>
@@ -3327,24 +3381,24 @@
       <c r="X9" s="15">
         <v>1000</v>
       </c>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11">
+      <c r="Y9" s="15">
+        <v>10000</v>
+      </c>
+      <c r="Z9" s="15">
         <v>0</v>
       </c>
       <c r="AA9" s="11">
         <v>0</v>
       </c>
       <c r="AB9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
         <v>2000</v>
       </c>
-      <c r="AC9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>0</v>
-      </c>
       <c r="AE9" s="11">
         <v>0</v>
       </c>
@@ -3357,53 +3411,59 @@
       <c r="AH9" s="11">
         <v>0</v>
       </c>
-      <c r="AI9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>104</v>
+      <c r="AI9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>0</v>
       </c>
       <c r="AK9" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AL9" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AM9" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AN9" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AP9" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="9" t="str">
+        <v>108</v>
+      </c>
+      <c r="AR9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
-      <c r="AT9" s="9" t="str">
+      <c r="AV9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:46">
+    <row r="10" ht="25" customHeight="1" spans="1:48">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8">
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E10" s="11">
         <v>550</v>
@@ -3465,21 +3525,21 @@
       <c r="X10" s="15">
         <v>1000</v>
       </c>
-      <c r="Y10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="11">
+      <c r="Y10" s="15">
+        <v>10000</v>
+      </c>
+      <c r="Z10" s="15">
         <v>0</v>
       </c>
       <c r="AA10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11">
         <v>500</v>
       </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>0</v>
-      </c>
       <c r="AD10" s="11">
         <v>0</v>
       </c>
@@ -3525,23 +3585,29 @@
       <c r="AR10" s="11">
         <v>0</v>
       </c>
-      <c r="AS10" s="9" t="str">
+      <c r="AS10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT10" s="9" t="str">
+      <c r="AV10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:46">
+    <row r="11" ht="16.15" customHeight="1" spans="1:48">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E11" s="12">
         <v>300</v>
@@ -3603,10 +3669,10 @@
       <c r="X11" s="15">
         <v>1000</v>
       </c>
-      <c r="Y11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="11">
+      <c r="Y11" s="15">
+        <v>10000</v>
+      </c>
+      <c r="Z11" s="15">
         <v>0</v>
       </c>
       <c r="AA11" s="11">
@@ -3663,21 +3729,27 @@
       <c r="AR11" s="11">
         <v>0</v>
       </c>
-      <c r="AS11" s="9" t="str">
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT11" s="9" t="str">
+      <c r="AV11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:46">
+    <row r="12" customHeight="1" spans="3:48">
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E12" s="12">
         <v>450</v>
@@ -3739,10 +3811,10 @@
       <c r="X12" s="15">
         <v>1000</v>
       </c>
-      <c r="Y12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11">
+      <c r="Y12" s="15">
+        <v>10000</v>
+      </c>
+      <c r="Z12" s="15">
         <v>0</v>
       </c>
       <c r="AA12" s="11">
@@ -3799,21 +3871,27 @@
       <c r="AR12" s="11">
         <v>0</v>
       </c>
-      <c r="AS12" s="9" t="str">
+      <c r="AS12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT12" s="9" t="str">
+      <c r="AV12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:46">
+    <row r="13" customHeight="1" spans="3:48">
       <c r="C13" s="1">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1">
         <v>75</v>
@@ -3935,21 +4013,27 @@
       <c r="AR13" s="1">
         <v>0</v>
       </c>
-      <c r="AS13" s="9" t="str">
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT13" s="9" t="str">
+      <c r="AV13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:46">
+    <row r="14" customHeight="1" spans="3:48">
       <c r="C14" s="1">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1">
         <v>125</v>
@@ -4071,21 +4155,27 @@
       <c r="AR14" s="1">
         <v>0</v>
       </c>
-      <c r="AS14" s="9" t="str">
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT14" s="9" t="str">
+      <c r="AV14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:46">
+    <row r="15" customHeight="1" spans="3:48">
       <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E15" s="1">
         <v>175</v>
@@ -4207,21 +4297,27 @@
       <c r="AR15" s="1">
         <v>0</v>
       </c>
-      <c r="AS15" s="9" t="str">
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT15" s="9" t="str">
+      <c r="AV15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:46">
+    <row r="16" customHeight="1" spans="3:48">
       <c r="C16" s="1">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1">
         <v>225</v>
@@ -4343,21 +4439,27 @@
       <c r="AR16" s="1">
         <v>0</v>
       </c>
-      <c r="AS16" s="9" t="str">
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT16" s="9" t="str">
+      <c r="AV16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:46">
+    <row r="17" customHeight="1" spans="3:48">
       <c r="C17" s="1">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1">
         <v>275</v>
@@ -4479,21 +4581,27 @@
       <c r="AR17" s="1">
         <v>0</v>
       </c>
-      <c r="AS17" s="9" t="str">
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT17" s="9" t="str">
+      <c r="AV17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:46">
+    <row r="18" customHeight="1" spans="3:48">
       <c r="C18" s="1">
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
@@ -4615,21 +4723,27 @@
       <c r="AR18" s="1">
         <v>0</v>
       </c>
-      <c r="AS18" s="9" t="str">
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT18" s="9" t="str">
+      <c r="AV18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:46">
+    <row r="19" customHeight="1" spans="3:48">
       <c r="C19" s="1">
         <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
@@ -4751,21 +4865,27 @@
       <c r="AR19" s="1">
         <v>0</v>
       </c>
-      <c r="AS19" s="9" t="str">
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT19" s="9" t="str">
+      <c r="AV19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="20" ht="27" customHeight="1" spans="3:46">
+    <row r="20" ht="27" customHeight="1" spans="3:48">
       <c r="C20" s="1">
         <v>2000</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -4828,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1">
         <v>50</v>
@@ -4887,21 +5007,27 @@
       <c r="AR20" s="1">
         <v>50</v>
       </c>
-      <c r="AS20" s="9" t="str">
+      <c r="AS20" s="1">
+        <v>50</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>50</v>
+      </c>
+      <c r="AU20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
-      <c r="AT20" s="9" t="str">
+      <c r="AV20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:46">
+    <row r="21" customHeight="1" spans="3:48">
       <c r="C21" s="1">
         <v>2001</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -5023,21 +5149,27 @@
       <c r="AR21" s="1">
         <v>0</v>
       </c>
-      <c r="AS21" s="9" t="str">
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT21" s="9" t="str">
+      <c r="AV21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:46">
+    <row r="22" customHeight="1" spans="3:48">
       <c r="C22" s="1">
         <v>2002</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -5159,21 +5291,27 @@
       <c r="AR22" s="1">
         <v>0</v>
       </c>
-      <c r="AS22" s="9" t="str">
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT22" s="9" t="str">
+      <c r="AV22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:46">
+    <row r="23" customHeight="1" spans="3:48">
       <c r="C23" s="1">
         <v>2003</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -5295,21 +5433,27 @@
       <c r="AR23" s="1">
         <v>0</v>
       </c>
-      <c r="AS23" s="9" t="str">
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT23" s="9" t="str">
+      <c r="AV23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:46">
+    <row r="24" customHeight="1" spans="3:48">
       <c r="C24" s="1">
         <v>2004</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -5431,21 +5575,27 @@
       <c r="AR24" s="1">
         <v>0</v>
       </c>
-      <c r="AS24" s="9" t="str">
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT24" s="9" t="str">
+      <c r="AV24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:46">
+    <row r="25" customHeight="1" spans="3:48">
       <c r="C25" s="1">
         <v>2005</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -5508,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="1">
         <v>25</v>
@@ -5567,21 +5717,27 @@
       <c r="AR25" s="1">
         <v>25</v>
       </c>
-      <c r="AS25" s="9" t="str">
+      <c r="AS25" s="1">
+        <v>25</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>25</v>
+      </c>
+      <c r="AU25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
-      <c r="AT25" s="9" t="str">
+      <c r="AV25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:46">
+    <row r="26" customHeight="1" spans="3:48">
       <c r="C26" s="1">
         <v>2010</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -5644,14 +5800,14 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
         <v>500</v>
       </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
       <c r="AB26" s="1">
         <v>0</v>
       </c>
@@ -5703,21 +5859,27 @@
       <c r="AR26" s="1">
         <v>0</v>
       </c>
-      <c r="AS26" s="9" t="str">
+      <c r="AS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT26" s="9" t="str">
+      <c r="AV26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:46">
+    <row r="27" customHeight="1" spans="3:48">
       <c r="C27" s="1">
         <v>2011</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -5780,14 +5942,14 @@
         <v>0</v>
       </c>
       <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>1000</v>
       </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
       <c r="AB27" s="1">
         <v>0</v>
       </c>
@@ -5839,21 +6001,27 @@
       <c r="AR27" s="1">
         <v>0</v>
       </c>
-      <c r="AS27" s="9" t="str">
+      <c r="AS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT27" s="9" t="str">
+      <c r="AV27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:46">
+    <row r="28" customHeight="1" spans="3:48">
       <c r="C28" s="1">
         <v>2012</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -5916,14 +6084,14 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>1500</v>
       </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
       <c r="AB28" s="1">
         <v>0</v>
       </c>
@@ -5975,21 +6143,27 @@
       <c r="AR28" s="1">
         <v>0</v>
       </c>
-      <c r="AS28" s="9" t="str">
+      <c r="AS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT28" s="9" t="str">
+      <c r="AV28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="3:46">
+    <row r="29" customHeight="1" spans="3:48">
       <c r="C29" s="1">
         <v>2013</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -6052,14 +6226,14 @@
         <v>0</v>
       </c>
       <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2000</v>
       </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
       <c r="AB29" s="1">
         <v>0</v>
       </c>
@@ -6111,21 +6285,27 @@
       <c r="AR29" s="1">
         <v>0</v>
       </c>
-      <c r="AS29" s="9" t="str">
+      <c r="AS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT29" s="9" t="str">
+      <c r="AV29" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:46">
+    <row r="30" customHeight="1" spans="3:48">
       <c r="C30" s="1">
         <v>2014</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -6188,14 +6368,14 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
         <v>2500</v>
       </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
       <c r="AB30" s="1">
         <v>0</v>
       </c>
@@ -6247,21 +6427,27 @@
       <c r="AR30" s="1">
         <v>0</v>
       </c>
-      <c r="AS30" s="9" t="str">
+      <c r="AS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>2500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT30" s="9" t="str">
+      <c r="AV30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="3:46">
+    <row r="31" customHeight="1" spans="3:48">
       <c r="C31" s="1">
         <v>2020</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -6383,21 +6569,27 @@
       <c r="AR31" s="1">
         <v>0</v>
       </c>
-      <c r="AS31" s="9" t="str">
+      <c r="AS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT31" s="9" t="str">
+      <c r="AV31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="3:46">
+    <row r="32" customHeight="1" spans="3:48">
       <c r="C32" s="1">
         <v>2021</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -6519,21 +6711,27 @@
       <c r="AR32" s="1">
         <v>0</v>
       </c>
-      <c r="AS32" s="9" t="str">
+      <c r="AS32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT32" s="9" t="str">
+      <c r="AV32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:46">
+    <row r="33" customHeight="1" spans="3:48">
       <c r="C33" s="1">
         <v>2022</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -6655,21 +6853,27 @@
       <c r="AR33" s="1">
         <v>0</v>
       </c>
-      <c r="AS33" s="9" t="str">
+      <c r="AS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT33" s="9" t="str">
+      <c r="AV33" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:46">
+    <row r="34" customHeight="1" spans="3:48">
       <c r="C34" s="1">
         <v>2023</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -6791,21 +6995,27 @@
       <c r="AR34" s="1">
         <v>0</v>
       </c>
-      <c r="AS34" s="9" t="str">
+      <c r="AS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT34" s="9" t="str">
+      <c r="AV34" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:46">
+    <row r="35" customHeight="1" spans="3:48">
       <c r="C35" s="1">
         <v>2024</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -6927,11 +7137,17 @@
       <c r="AR35" s="1">
         <v>0</v>
       </c>
-      <c r="AS35" s="9" t="str">
+      <c r="AS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AT35" s="9" t="str">
+      <c r="AV35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -457,17 +457,59 @@
   <si>
     <t>单手剑2突破5次mp值增加固定值</t>
   </si>
+  <si>
+    <t>晶石升级成长率</t>
+  </si>
+  <si>
+    <t>晶石升级固定值</t>
+  </si>
+  <si>
+    <t>晶石位置1攻击力成长率</t>
+  </si>
+  <si>
+    <t>晶石位置1攻击力固定值</t>
+  </si>
+  <si>
+    <t>晶石位置2生命值成长率</t>
+  </si>
+  <si>
+    <t>晶石位置2生命值固定值</t>
+  </si>
+  <si>
+    <t>晶石位置3防御力成长率</t>
+  </si>
+  <si>
+    <t>晶石位置3防御力固定值</t>
+  </si>
+  <si>
+    <t>晶石位置4百分比时速成长率</t>
+  </si>
+  <si>
+    <t>晶石位置4百分比时速固定值</t>
+  </si>
+  <si>
+    <t>晶石位置4百分比移速成长率</t>
+  </si>
+  <si>
+    <t>晶石位置4百分比移速固定值</t>
+  </si>
+  <si>
+    <t>晶石位置4治疗量成长率</t>
+  </si>
+  <si>
+    <t>晶石位置4治疗量固定值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -508,6 +550,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -523,9 +573,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,9 +602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,8 +617,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,14 +651,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,9 +666,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,16 +679,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,40 +688,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,7 +732,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,169 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,17 +956,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,30 +1006,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -983,16 +1019,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,10 +1044,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,133 +1056,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2378,10 +2420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV35"/>
+  <dimension ref="A1:AV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3049,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="11">
         <v>5000</v>
@@ -3076,7 +3118,7 @@
         <v>5000</v>
       </c>
       <c r="S7" s="11">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="T7" s="11">
         <v>6600</v>
@@ -3130,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="11">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AL7" s="11">
         <v>0</v>
@@ -3165,7 +3207,7 @@
       </c>
       <c r="AV7" s="9" t="str">
         <f>AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:48">
@@ -3193,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="K8" s="11">
         <v>5000</v>
@@ -3334,16 +3376,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <v>1000</v>
-      </c>
-      <c r="J9" s="11">
-        <v>500</v>
       </c>
       <c r="K9" s="11">
         <v>6000</v>
       </c>
       <c r="L9" s="11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M9" s="11">
         <v>0</v>
@@ -3481,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K10" s="11">
         <v>5000</v>
       </c>
       <c r="L10" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M10" s="11">
         <v>0</v>
@@ -3625,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="11">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K11" s="11">
         <v>5000</v>
@@ -3767,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="11">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K12" s="11">
         <v>5000</v>
@@ -7150,6 +7192,422 @@
       <c r="AV35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:48">
+      <c r="C36" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6</v>
+      </c>
+      <c r="H36" s="1">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40</v>
+      </c>
+      <c r="J36" s="1">
+        <v>6</v>
+      </c>
+      <c r="K36" s="1">
+        <v>50</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>30</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>30</v>
+      </c>
+      <c r="R36" s="1">
+        <v>40</v>
+      </c>
+      <c r="S36" s="1">
+        <v>40</v>
+      </c>
+      <c r="T36" s="1">
+        <v>60</v>
+      </c>
+      <c r="U36" s="1">
+        <v>30</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>35</v>
+      </c>
+      <c r="AU36" s="9" t="str">
+        <f>AA30:AA40&amp;","&amp;AB30:AB40&amp;","&amp;AC30:AC40&amp;","&amp;AD30:AD40&amp;","&amp;AE30:AE40&amp;","&amp;AF30:AF40&amp;","&amp;AG30:AG40&amp;","&amp;AH30:AH40&amp;","&amp;AI30:AI40&amp;","&amp;AJ30:AJ40</f>
+        <v>0,35,35,35,35,35,35,35,35,35</v>
+      </c>
+      <c r="AV36" s="9" t="str">
+        <f>AK30:AK40&amp;","&amp;AL30:AL40&amp;","&amp;AM30:AM40&amp;","&amp;AN30:AN40&amp;","&amp;AO30:AO40&amp;","&amp;AP30:AP40&amp;","&amp;AQ30:AQ40&amp;","&amp;AR30:AR40&amp;","&amp;AS30:AS40&amp;","&amp;AT30:AT40</f>
+        <v>0,35,35,35,35,35,35,35,35,35</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:48">
+      <c r="C37" s="1">
+        <v>3001</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="1">
+        <v>60</v>
+      </c>
+      <c r="F37" s="1">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1">
+        <v>60</v>
+      </c>
+      <c r="H37" s="1">
+        <v>50</v>
+      </c>
+      <c r="I37" s="1">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1">
+        <v>90</v>
+      </c>
+      <c r="K37" s="1">
+        <v>50</v>
+      </c>
+      <c r="L37" s="1">
+        <v>50</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>50</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>50</v>
+      </c>
+      <c r="R37" s="1">
+        <v>50</v>
+      </c>
+      <c r="S37" s="1">
+        <v>50</v>
+      </c>
+      <c r="T37" s="1">
+        <v>600</v>
+      </c>
+      <c r="U37" s="1">
+        <v>50</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>50</v>
+      </c>
+      <c r="AU37" s="9" t="str">
+        <f>AA31:AA41&amp;","&amp;AB31:AB41&amp;","&amp;AC31:AC41&amp;","&amp;AD31:AD41&amp;","&amp;AE31:AE41&amp;","&amp;AF31:AF41&amp;","&amp;AG31:AG41&amp;","&amp;AH31:AH41&amp;","&amp;AI31:AI41&amp;","&amp;AJ31:AJ41</f>
+        <v>0,50,50,50,50,50,50,50,50,50</v>
+      </c>
+      <c r="AV37" s="9" t="str">
+        <f>AK31:AK41&amp;","&amp;AL31:AL41&amp;","&amp;AM31:AM41&amp;","&amp;AN31:AN41&amp;","&amp;AO31:AO41&amp;","&amp;AP31:AP41&amp;","&amp;AQ31:AQ41&amp;","&amp;AR31:AR41&amp;","&amp;AS31:AS41&amp;","&amp;AT31:AT41</f>
+        <v>0,50,50,50,50,50,50,50,50,50</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:5">
+      <c r="C38" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:5">
+      <c r="C39" s="1">
+        <v>3001</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:5">
+      <c r="C40" s="1">
+        <v>3002</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:5">
+      <c r="C41" s="1">
+        <v>3003</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:5">
+      <c r="C42" s="1">
+        <v>3004</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:5">
+      <c r="C43" s="1">
+        <v>3005</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:17">
+      <c r="C44" s="1">
+        <v>3006</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:17">
+      <c r="C45" s="1">
+        <v>3007</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:15">
+      <c r="C46" s="1">
+        <v>3008</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O46" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:15">
+      <c r="C47" s="1">
+        <v>3009</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O47" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:12">
+      <c r="C48" s="1">
+        <v>3010</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:12">
+      <c r="C49" s="1">
+        <v>3011</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L49" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="196">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -458,12 +458,6 @@
     <t>单手剑2突破5次mp值增加固定值</t>
   </si>
   <si>
-    <t>晶石升级成长率</t>
-  </si>
-  <si>
-    <t>晶石升级固定值</t>
-  </si>
-  <si>
     <t>晶石位置1攻击力成长率</t>
   </si>
   <si>
@@ -498,6 +492,153 @@
   </si>
   <si>
     <t>晶石位置4治疗量固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5地伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5水伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5火伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5风伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5雷伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5时伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5空伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5钢伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5灭伤害加成成长率</t>
+  </si>
+  <si>
+    <t>晶石位置5地伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5水伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5火伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5风伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5雷伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5时伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5空伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5钢伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置5灭伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6地伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6水伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6火伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6风伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6雷伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6时伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6空伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6钢伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6灭伤害抗性成长率</t>
+  </si>
+  <si>
+    <t>晶石位置6地伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6水伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6火伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6风伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6雷伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6时伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6空伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6钢伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石位置6灭伤害抗性固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性攻击力固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性防御力固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性生命值固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性百分比攻击力固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性百分比防御力固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性百分比生命值固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性效果命中固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性效果抵抗固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性总伤害加成固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性暴击值固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性暴击倍数固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性百分比时速固定值</t>
+  </si>
+  <si>
+    <t>晶石副属性百分比移速固定值</t>
   </si>
 </sst>
 </file>
@@ -506,10 +647,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -550,9 +691,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,45 +734,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,10 +751,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,8 +789,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -642,40 +813,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,19 +873,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,31 +921,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,25 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,13 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,7 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +1017,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,13 +1041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,24 +1053,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -942,34 +1083,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,12 +1125,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1044,10 +1198,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,137 +1210,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1220,6 +1374,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2420,10 +2576,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV49"/>
+  <dimension ref="A1:AV96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48:L49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3346,11 +3502,11 @@
         <v>0</v>
       </c>
       <c r="AU8" s="9" t="str">
-        <f t="shared" ref="AU8:AU35" si="0">AA2:AA12&amp;","&amp;AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12</f>
+        <f t="shared" ref="AU8:AU37" si="0">AA2:AA12&amp;","&amp;AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV8" s="9" t="str">
-        <f t="shared" ref="AV8:AV35" si="1">AK2:AK12&amp;","&amp;AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12</f>
+        <f t="shared" ref="AV8:AV37" si="1">AK2:AK12&amp;","&amp;AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -6760,11 +6916,11 @@
         <v>0</v>
       </c>
       <c r="AU32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>AA26:AA35&amp;","&amp;AB26:AB35&amp;","&amp;AC26:AC35&amp;","&amp;AD26:AD35&amp;","&amp;AE26:AE35&amp;","&amp;AF26:AF35&amp;","&amp;AG26:AG35&amp;","&amp;AH26:AH35&amp;","&amp;AI26:AI35&amp;","&amp;AJ26:AJ35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV32" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>AK26:AK35&amp;","&amp;AL26:AL35&amp;","&amp;AM26:AM35&amp;","&amp;AN26:AN35&amp;","&amp;AO26:AO35&amp;","&amp;AP26:AP35&amp;","&amp;AQ26:AQ35&amp;","&amp;AR26:AR35&amp;","&amp;AS26:AS35&amp;","&amp;AT26:AT35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -6902,11 +7058,11 @@
         <v>0</v>
       </c>
       <c r="AU33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>AA27:AA35&amp;","&amp;AB27:AB35&amp;","&amp;AC27:AC35&amp;","&amp;AD27:AD35&amp;","&amp;AE27:AE35&amp;","&amp;AF27:AF35&amp;","&amp;AG27:AG35&amp;","&amp;AH27:AH35&amp;","&amp;AI27:AI35&amp;","&amp;AJ27:AJ35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV33" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>AK27:AK35&amp;","&amp;AL27:AL35&amp;","&amp;AM27:AM35&amp;","&amp;AN27:AN35&amp;","&amp;AO27:AO35&amp;","&amp;AP27:AP35&amp;","&amp;AQ27:AQ35&amp;","&amp;AR27:AR35&amp;","&amp;AS27:AS35&amp;","&amp;AT27:AT35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -7044,11 +7200,11 @@
         <v>0</v>
       </c>
       <c r="AU34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>AA28:AA36&amp;","&amp;AB28:AB36&amp;","&amp;AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV34" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>AK28:AK36&amp;","&amp;AL28:AL36&amp;","&amp;AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -7186,11 +7342,11 @@
         <v>0</v>
       </c>
       <c r="AU35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>AA29:AA37&amp;","&amp;AB29:AB37&amp;","&amp;AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV35" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>AK29:AK37&amp;","&amp;AL29:AL37&amp;","&amp;AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -7205,25 +7361,25 @@
         <v>6</v>
       </c>
       <c r="F36" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -7232,25 +7388,25 @@
         <v>0</v>
       </c>
       <c r="O36" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T36" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U36" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V36" s="1">
         <v>0</v>
@@ -7271,69 +7427,69 @@
         <v>0</v>
       </c>
       <c r="AB36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AR36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="9" t="str">
-        <f>AA30:AA40&amp;","&amp;AB30:AB40&amp;","&amp;AC30:AC40&amp;","&amp;AD30:AD40&amp;","&amp;AE30:AE40&amp;","&amp;AF30:AF40&amp;","&amp;AG30:AG40&amp;","&amp;AH30:AH40&amp;","&amp;AI30:AI40&amp;","&amp;AJ30:AJ40</f>
-        <v>0,35,35,35,35,35,35,35,35,35</v>
+        <f>AA32:AA40&amp;","&amp;AB32:AB40&amp;","&amp;AC32:AC40&amp;","&amp;AD32:AD40&amp;","&amp;AE32:AE40&amp;","&amp;AF32:AF40&amp;","&amp;AG32:AG40&amp;","&amp;AH32:AH40&amp;","&amp;AI32:AI40&amp;","&amp;AJ32:AJ40</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV36" s="9" t="str">
-        <f>AK30:AK40&amp;","&amp;AL30:AL40&amp;","&amp;AM30:AM40&amp;","&amp;AN30:AN40&amp;","&amp;AO30:AO40&amp;","&amp;AP30:AP40&amp;","&amp;AQ30:AQ40&amp;","&amp;AR30:AR40&amp;","&amp;AS30:AS40&amp;","&amp;AT30:AT40</f>
-        <v>0,35,35,35,35,35,35,35,35,35</v>
+        <f>AK32:AK40&amp;","&amp;AL32:AL40&amp;","&amp;AM32:AM40&amp;","&amp;AN32:AN40&amp;","&amp;AO32:AO40&amp;","&amp;AP32:AP40&amp;","&amp;AQ32:AQ40&amp;","&amp;AR32:AR40&amp;","&amp;AS32:AS40&amp;","&amp;AT32:AT40</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:48">
@@ -7347,25 +7503,25 @@
         <v>60</v>
       </c>
       <c r="F37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -7374,25 +7530,25 @@
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P37" s="1">
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="U37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V37" s="1">
         <v>0</v>
@@ -7413,201 +7569,8447 @@
         <v>0</v>
       </c>
       <c r="AB37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="9" t="str">
-        <f>AA31:AA41&amp;","&amp;AB31:AB41&amp;","&amp;AC31:AC41&amp;","&amp;AD31:AD41&amp;","&amp;AE31:AE41&amp;","&amp;AF31:AF41&amp;","&amp;AG31:AG41&amp;","&amp;AH31:AH41&amp;","&amp;AI31:AI41&amp;","&amp;AJ31:AJ41</f>
-        <v>0,50,50,50,50,50,50,50,50,50</v>
+        <f>AA33:AA41&amp;","&amp;AB33:AB41&amp;","&amp;AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV37" s="9" t="str">
-        <f>AK31:AK41&amp;","&amp;AL31:AL41&amp;","&amp;AM31:AM41&amp;","&amp;AN31:AN41&amp;","&amp;AO31:AO41&amp;","&amp;AP31:AP41&amp;","&amp;AQ31:AQ41&amp;","&amp;AR31:AR41&amp;","&amp;AS31:AS41&amp;","&amp;AT31:AT41</f>
-        <v>0,50,50,50,50,50,50,50,50,50</v>
+        <f>AK33:AK41&amp;","&amp;AL33:AL41&amp;","&amp;AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:5">
+    <row r="38" customHeight="1" spans="3:48">
       <c r="C38" s="1">
-        <v>3000</v>
+        <v>3010</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="1">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="9" t="str">
+        <f>AA34:AA42&amp;","&amp;AB34:AB42&amp;","&amp;AC34:AC42&amp;","&amp;AD34:AD42&amp;","&amp;AE34:AE42&amp;","&amp;AF34:AF42&amp;","&amp;AG34:AG42&amp;","&amp;AH34:AH42&amp;","&amp;AI34:AI42&amp;","&amp;AJ34:AJ42</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV38" s="9" t="str">
+        <f>AK34:AK42&amp;","&amp;AL34:AL42&amp;","&amp;AM34:AM42&amp;","&amp;AN34:AN42&amp;","&amp;AO34:AO42&amp;","&amp;AP34:AP42&amp;","&amp;AQ34:AQ42&amp;","&amp;AR34:AR42&amp;","&amp;AS34:AS42&amp;","&amp;AT34:AT42</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:5">
+    <row r="39" customHeight="1" spans="3:48">
       <c r="C39" s="1">
-        <v>3001</v>
+        <v>3011</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E39" s="1">
-        <v>60</v>
+        <v>600</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="9" t="str">
+        <f>AA35:AA43&amp;","&amp;AB35:AB43&amp;","&amp;AC35:AC43&amp;","&amp;AD35:AD43&amp;","&amp;AE35:AE43&amp;","&amp;AF35:AF43&amp;","&amp;AG35:AG43&amp;","&amp;AH35:AH43&amp;","&amp;AI35:AI43&amp;","&amp;AJ35:AJ43</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV39" s="9" t="str">
+        <f>AK35:AK43&amp;","&amp;AL35:AL43&amp;","&amp;AM35:AM43&amp;","&amp;AN35:AN43&amp;","&amp;AO35:AO43&amp;","&amp;AP35:AP43&amp;","&amp;AQ35:AQ43&amp;","&amp;AR35:AR43&amp;","&amp;AS35:AS43&amp;","&amp;AT35:AT43</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="3:5">
+    <row r="40" customHeight="1" spans="3:48">
       <c r="C40" s="1">
-        <v>3002</v>
+        <v>3020</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="1">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="9" t="str">
+        <f>AA36:AA44&amp;","&amp;AB36:AB44&amp;","&amp;AC36:AC44&amp;","&amp;AD36:AD44&amp;","&amp;AE36:AE44&amp;","&amp;AF36:AF44&amp;","&amp;AG36:AG44&amp;","&amp;AH36:AH44&amp;","&amp;AI36:AI44&amp;","&amp;AJ36:AJ44</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV40" s="9" t="str">
+        <f>AK36:AK44&amp;","&amp;AL36:AL44&amp;","&amp;AM36:AM44&amp;","&amp;AN36:AN44&amp;","&amp;AO36:AO44&amp;","&amp;AP36:AP44&amp;","&amp;AQ36:AQ44&amp;","&amp;AR36:AR44&amp;","&amp;AS36:AS44&amp;","&amp;AT36:AT44</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:5">
+    <row r="41" customHeight="1" spans="3:48">
       <c r="C41" s="1">
-        <v>3003</v>
+        <v>3021</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E41" s="1">
-        <v>600</v>
+        <v>60</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="9" t="str">
+        <f>AA36:AA45&amp;","&amp;AB36:AB45&amp;","&amp;AC36:AC45&amp;","&amp;AD36:AD45&amp;","&amp;AE36:AE45&amp;","&amp;AF36:AF45&amp;","&amp;AG36:AG45&amp;","&amp;AH36:AH45&amp;","&amp;AI36:AI45&amp;","&amp;AJ36:AJ45</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV41" s="9" t="str">
+        <f>AK36:AK45&amp;","&amp;AL36:AL45&amp;","&amp;AM36:AM45&amp;","&amp;AN36:AN45&amp;","&amp;AO36:AO45&amp;","&amp;AP36:AP45&amp;","&amp;AQ36:AQ45&amp;","&amp;AR36:AR45&amp;","&amp;AS36:AS45&amp;","&amp;AT36:AT45</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="3:5">
+    <row r="42" customHeight="1" spans="3:48">
       <c r="C42" s="1">
-        <v>3004</v>
+        <v>3030</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E42" s="1">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>30</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="9" t="str">
+        <f>AA36:AA46&amp;","&amp;AB36:AB46&amp;","&amp;AC36:AC46&amp;","&amp;AD36:AD46&amp;","&amp;AE36:AE46&amp;","&amp;AF36:AF46&amp;","&amp;AG36:AG46&amp;","&amp;AH36:AH46&amp;","&amp;AI36:AI46&amp;","&amp;AJ36:AJ46</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV42" s="9" t="str">
+        <f>AK36:AK46&amp;","&amp;AL36:AL46&amp;","&amp;AM36:AM46&amp;","&amp;AN36:AN46&amp;","&amp;AO36:AO46&amp;","&amp;AP36:AP46&amp;","&amp;AQ36:AQ46&amp;","&amp;AR36:AR46&amp;","&amp;AS36:AS46&amp;","&amp;AT36:AT46</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="3:5">
+    <row r="43" customHeight="1" spans="3:48">
       <c r="C43" s="1">
-        <v>3005</v>
+        <v>3031</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E43" s="1">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>50</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="9" t="str">
+        <f>AA37:AA47&amp;","&amp;AB37:AB47&amp;","&amp;AC37:AC47&amp;","&amp;AD37:AD47&amp;","&amp;AE37:AE47&amp;","&amp;AF37:AF47&amp;","&amp;AG37:AG47&amp;","&amp;AH37:AH47&amp;","&amp;AI37:AI47&amp;","&amp;AJ37:AJ47</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV43" s="9" t="str">
+        <f>AK37:AK47&amp;","&amp;AL37:AL47&amp;","&amp;AM37:AM47&amp;","&amp;AN37:AN47&amp;","&amp;AO37:AO47&amp;","&amp;AP37:AP47&amp;","&amp;AQ37:AQ47&amp;","&amp;AR37:AR47&amp;","&amp;AS37:AS47&amp;","&amp;AT37:AT47</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:17">
+    <row r="44" customHeight="1" spans="3:48">
       <c r="C44" s="1">
-        <v>3006</v>
+        <v>3032</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>30</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
       <c r="Q44" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="9" t="str">
+        <f>AA38:AA48&amp;","&amp;AB38:AB48&amp;","&amp;AC38:AC48&amp;","&amp;AD38:AD48&amp;","&amp;AE38:AE48&amp;","&amp;AF38:AF48&amp;","&amp;AG38:AG48&amp;","&amp;AH38:AH48&amp;","&amp;AI38:AI48&amp;","&amp;AJ38:AJ48</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV44" s="9" t="str">
+        <f>AK38:AK48&amp;","&amp;AL38:AL48&amp;","&amp;AM38:AM48&amp;","&amp;AN38:AN48&amp;","&amp;AO38:AO48&amp;","&amp;AP38:AP48&amp;","&amp;AQ38:AQ48&amp;","&amp;AR38:AR48&amp;","&amp;AS38:AS48&amp;","&amp;AT38:AT48</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="3:17">
+    <row r="45" customHeight="1" spans="3:48">
       <c r="C45" s="1">
-        <v>3007</v>
+        <v>3033</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>50</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
       <c r="Q45" s="1">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="9" t="str">
+        <f>AA39:AA49&amp;","&amp;AB39:AB49&amp;","&amp;AC39:AC49&amp;","&amp;AD39:AD49&amp;","&amp;AE39:AE49&amp;","&amp;AF39:AF49&amp;","&amp;AG39:AG49&amp;","&amp;AH39:AH49&amp;","&amp;AI39:AI49&amp;","&amp;AJ39:AJ49</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV45" s="9" t="str">
+        <f>AK39:AK49&amp;","&amp;AL39:AL49&amp;","&amp;AM39:AM49&amp;","&amp;AN39:AN49&amp;","&amp;AO39:AO49&amp;","&amp;AP39:AP49&amp;","&amp;AQ39:AQ49&amp;","&amp;AR39:AR49&amp;","&amp;AS39:AS49&amp;","&amp;AT39:AT49</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="3:15">
+    <row r="46" customHeight="1" spans="3:48">
       <c r="C46" s="1">
-        <v>3008</v>
+        <v>3034</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>6</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="9" t="str">
+        <f>AA40:AA50&amp;","&amp;AB40:AB50&amp;","&amp;AC40:AC50&amp;","&amp;AD40:AD50&amp;","&amp;AE40:AE50&amp;","&amp;AF40:AF50&amp;","&amp;AG40:AG50&amp;","&amp;AH40:AH50&amp;","&amp;AI40:AI50&amp;","&amp;AJ40:AJ50</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV46" s="9" t="str">
+        <f>AK40:AK50&amp;","&amp;AL40:AL50&amp;","&amp;AM40:AM50&amp;","&amp;AN40:AN50&amp;","&amp;AO40:AO50&amp;","&amp;AP40:AP50&amp;","&amp;AQ40:AQ50&amp;","&amp;AR40:AR50&amp;","&amp;AS40:AS50&amp;","&amp;AT40:AT50</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="3:15">
+    <row r="47" customHeight="1" spans="3:48">
       <c r="C47" s="1">
-        <v>3009</v>
+        <v>3035</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>50</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="1">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="9" t="str">
+        <f>AA41:AA51&amp;","&amp;AB41:AB51&amp;","&amp;AC41:AC51&amp;","&amp;AD41:AD51&amp;","&amp;AE41:AE51&amp;","&amp;AF41:AF51&amp;","&amp;AG41:AG51&amp;","&amp;AH41:AH51&amp;","&amp;AI41:AI51&amp;","&amp;AJ41:AJ51</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV47" s="9" t="str">
+        <f>AK41:AK51&amp;","&amp;AL41:AL51&amp;","&amp;AM41:AM51&amp;","&amp;AN41:AN51&amp;","&amp;AO41:AO51&amp;","&amp;AP41:AP51&amp;","&amp;AQ41:AQ51&amp;","&amp;AR41:AR51&amp;","&amp;AS41:AS51&amp;","&amp;AT41:AT51</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="3:12">
+    <row r="48" customHeight="1" spans="3:48">
       <c r="C48" s="1">
-        <v>3010</v>
+        <v>3050</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
       <c r="L48" s="1">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="9" t="str">
+        <f>AA42:AA52&amp;","&amp;AB42:AB52&amp;","&amp;AC42:AC52&amp;","&amp;AD42:AD52&amp;","&amp;AE42:AE52&amp;","&amp;AF42:AF52&amp;","&amp;AG42:AG52&amp;","&amp;AH42:AH52&amp;","&amp;AI42:AI52&amp;","&amp;AJ42:AJ52</f>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV48" s="9" t="str">
+        <f>AK42:AK52&amp;","&amp;AL42:AL52&amp;","&amp;AM42:AM52&amp;","&amp;AN42:AN52&amp;","&amp;AO42:AO52&amp;","&amp;AP42:AP52&amp;","&amp;AQ42:AQ52&amp;","&amp;AR42:AR52&amp;","&amp;AS42:AS52&amp;","&amp;AT42:AT52</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="3:12">
+    <row r="49" customHeight="1" spans="3:48">
       <c r="C49" s="1">
-        <v>3011</v>
+        <v>3051</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
       <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="9" t="str">
+        <f t="shared" ref="AU49:AU83" si="2">AA43:AA53&amp;","&amp;AB43:AB53&amp;","&amp;AC43:AC53&amp;","&amp;AD43:AD53&amp;","&amp;AE43:AE53&amp;","&amp;AF43:AF53&amp;","&amp;AG43:AG53&amp;","&amp;AH43:AH53&amp;","&amp;AI43:AI53&amp;","&amp;AJ43:AJ53</f>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV49" s="9" t="str">
+        <f t="shared" ref="AV49:AV83" si="3">AK43:AK53&amp;","&amp;AL43:AL53&amp;","&amp;AM43:AM53&amp;","&amp;AN43:AN53&amp;","&amp;AO43:AO53&amp;","&amp;AP43:AP53&amp;","&amp;AQ43:AQ53&amp;","&amp;AR43:AR53&amp;","&amp;AS43:AS53&amp;","&amp;AT43:AT53</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:48">
+      <c r="C50" s="1">
+        <v>3052</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV50" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:48">
+      <c r="C51" s="1">
+        <v>3053</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV51" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:48">
+      <c r="C52" s="1">
+        <v>3054</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV52" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:48">
+      <c r="C53" s="1">
+        <v>3055</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV53" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:48">
+      <c r="C54" s="1">
+        <v>3056</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV54" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:48">
+      <c r="C55" s="1">
+        <v>3057</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV55" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:48">
+      <c r="C56" s="1">
+        <v>3058</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV56" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:48">
+      <c r="C57" s="1">
+        <v>3059</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="1">
         <v>50</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV57" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:48">
+      <c r="C58" s="1">
+        <v>3060</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV58" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:48">
+      <c r="C59" s="1">
+        <v>3061</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV59" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:48">
+      <c r="C60" s="1">
+        <v>3062</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU60" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV60" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:48">
+      <c r="C61" s="1">
+        <v>3063</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV61" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:48">
+      <c r="C62" s="1">
+        <v>3064</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV62" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:48">
+      <c r="C63" s="1">
+        <v>3065</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV63" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:48">
+      <c r="C64" s="1">
+        <v>3066</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV64" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:48">
+      <c r="C65" s="1">
+        <v>3067</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV65" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:48">
+      <c r="C66" s="1">
+        <v>3068</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV66" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:48">
+      <c r="C67" s="1">
+        <v>3069</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV67" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:48">
+      <c r="C68" s="1">
+        <v>3070</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV68" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:48">
+      <c r="C69" s="1">
+        <v>3071</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU69" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV69" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:48">
+      <c r="C70" s="1">
+        <v>3072</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV70" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:48">
+      <c r="C71" s="1">
+        <v>3073</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV71" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:48">
+      <c r="C72" s="1">
+        <v>3074</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV72" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:48">
+      <c r="C73" s="1">
+        <v>3075</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV73" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:48">
+      <c r="C74" s="1">
+        <v>3076</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0</v>
+      </c>
+      <c r="X74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU74" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,35,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV74" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:48">
+      <c r="C75" s="1">
+        <v>3077</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU75" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV75" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:48">
+      <c r="C76" s="1">
+        <v>3078</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1">
+        <v>0</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU76" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV76" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:48">
+      <c r="C77" s="1">
+        <v>3079</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0</v>
+      </c>
+      <c r="X77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU77" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV77" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:48">
+      <c r="C78" s="1">
+        <v>3080</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0</v>
+      </c>
+      <c r="V78" s="1">
+        <v>0</v>
+      </c>
+      <c r="W78" s="1">
+        <v>0</v>
+      </c>
+      <c r="X78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU78" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV78" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:48">
+      <c r="C79" s="1">
+        <v>3081</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
+      <c r="U79" s="1">
+        <v>0</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0</v>
+      </c>
+      <c r="X79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU79" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV79" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:48">
+      <c r="C80" s="1">
+        <v>3082</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU80" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV80" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:48">
+      <c r="C81" s="1">
+        <v>3083</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU81" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV81" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:48">
+      <c r="C82" s="1">
+        <v>3084</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0</v>
+      </c>
+      <c r="X82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU82" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV82" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:48">
+      <c r="C83" s="1">
+        <v>3085</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1">
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0</v>
+      </c>
+      <c r="V83" s="1">
+        <v>0</v>
+      </c>
+      <c r="W83" s="1">
+        <v>0</v>
+      </c>
+      <c r="X83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,50,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV83" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:48">
+      <c r="C84" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="1">
+        <v>90</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+      <c r="U84" s="1">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0</v>
+      </c>
+      <c r="W84" s="1">
+        <v>0</v>
+      </c>
+      <c r="X84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU84" s="9" t="str">
+        <f t="shared" ref="AU84:AU96" si="4">AA78:AA88&amp;","&amp;AB78:AB88&amp;","&amp;AC78:AC88&amp;","&amp;AD78:AD88&amp;","&amp;AE78:AE88&amp;","&amp;AF78:AF88&amp;","&amp;AG78:AG88&amp;","&amp;AH78:AH88&amp;","&amp;AI78:AI88&amp;","&amp;AJ78:AJ88</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV84" s="9" t="str">
+        <f t="shared" ref="AV84:AV96" si="5">AK78:AK88&amp;","&amp;AL78:AL88&amp;","&amp;AM78:AM88&amp;","&amp;AN78:AN88&amp;","&amp;AO78:AO88&amp;","&amp;AP78:AP88&amp;","&amp;AQ78:AQ88&amp;","&amp;AR78:AR88&amp;","&amp;AS78:AS88&amp;","&amp;AT78:AT88</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:48">
+      <c r="C85" s="1">
+        <v>3201</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>90</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1">
+        <v>0</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
+        <v>0</v>
+      </c>
+      <c r="X85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU85" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV85" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:48">
+      <c r="C86" s="1">
+        <v>3202</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>900</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
+        <v>0</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU86" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV86" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:48">
+      <c r="C87" s="1">
+        <v>3203</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>200</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0</v>
+      </c>
+      <c r="V87" s="1">
+        <v>0</v>
+      </c>
+      <c r="W87" s="1">
+        <v>0</v>
+      </c>
+      <c r="X87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU87" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV87" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:48">
+      <c r="C88" s="1">
+        <v>3204</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>200</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <v>0</v>
+      </c>
+      <c r="U88" s="1">
+        <v>0</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0</v>
+      </c>
+      <c r="W88" s="1">
+        <v>0</v>
+      </c>
+      <c r="X88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU88" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV88" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:48">
+      <c r="C89" s="1">
+        <v>3205</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <v>200</v>
+      </c>
+      <c r="V89" s="1">
+        <v>0</v>
+      </c>
+      <c r="W89" s="1">
+        <v>0</v>
+      </c>
+      <c r="X89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU89" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV89" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:48">
+      <c r="C90" s="1">
+        <v>3206</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>700</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1">
+        <v>0</v>
+      </c>
+      <c r="V90" s="1">
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
+        <v>0</v>
+      </c>
+      <c r="X90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU90" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV90" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:48">
+      <c r="C91" s="1">
+        <v>3207</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>800</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <v>0</v>
+      </c>
+      <c r="V91" s="1">
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
+        <v>0</v>
+      </c>
+      <c r="X91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU91" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV91" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:48">
+      <c r="C92" s="1">
+        <v>3208</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>300</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0</v>
+      </c>
+      <c r="U92" s="1">
+        <v>0</v>
+      </c>
+      <c r="V92" s="1">
+        <v>0</v>
+      </c>
+      <c r="W92" s="1">
+        <v>0</v>
+      </c>
+      <c r="X92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU92" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV92" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:48">
+      <c r="C93" s="1">
+        <v>3209</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>120</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0</v>
+      </c>
+      <c r="W93" s="1">
+        <v>0</v>
+      </c>
+      <c r="X93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU93" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV93" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:48">
+      <c r="C94" s="1">
+        <v>3210</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>300</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0</v>
+      </c>
+      <c r="U94" s="1">
+        <v>0</v>
+      </c>
+      <c r="V94" s="1">
+        <v>0</v>
+      </c>
+      <c r="W94" s="1">
+        <v>0</v>
+      </c>
+      <c r="X94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU94" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV94" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:48">
+      <c r="C95" s="1">
+        <v>3211</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>200</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0</v>
+      </c>
+      <c r="U95" s="1">
+        <v>0</v>
+      </c>
+      <c r="V95" s="1">
+        <v>0</v>
+      </c>
+      <c r="W95" s="1">
+        <v>0</v>
+      </c>
+      <c r="X95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU95" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV95" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:48">
+      <c r="C96" s="1">
+        <v>3212</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>200</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0</v>
+      </c>
+      <c r="U96" s="1">
+        <v>0</v>
+      </c>
+      <c r="V96" s="1">
+        <v>0</v>
+      </c>
+      <c r="W96" s="1">
+        <v>0</v>
+      </c>
+      <c r="X96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU96" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV96" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="199">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -690,17 +690,20 @@
   <si>
     <t>晶石副属性百分比移速固定值</t>
   </si>
+  <si>
+    <t>晶石副属性治疗量固定值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -741,73 +744,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -824,13 +760,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -846,8 +784,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +851,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -869,19 +881,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,25 +926,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,13 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,37 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1004,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,13 +1034,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,13 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,19 +1082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,17 +1152,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1180,15 +1181,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1204,11 +1196,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,17 +1226,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,10 +1251,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,133 +1263,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2629,10 +2632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV96"/>
+  <dimension ref="A1:AV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A66" sqref="$A66:$XFD83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -14231,7 +14234,7 @@
         <v>185</v>
       </c>
       <c r="E84" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F84" s="2">
         <v>0</v>
@@ -14357,11 +14360,11 @@
         <v>0</v>
       </c>
       <c r="AU84" s="10" t="str">
-        <f t="shared" ref="AU84:AU96" si="6">AA78:AA88&amp;","&amp;AB78:AB88&amp;","&amp;AC78:AC88&amp;","&amp;AD78:AD88&amp;","&amp;AE78:AE88&amp;","&amp;AF78:AF88&amp;","&amp;AG78:AG88&amp;","&amp;AH78:AH88&amp;","&amp;AI78:AI88&amp;","&amp;AJ78:AJ88</f>
+        <f t="shared" ref="AU84:AU97" si="6">AA78:AA88&amp;","&amp;AB78:AB88&amp;","&amp;AC78:AC88&amp;","&amp;AD78:AD88&amp;","&amp;AE78:AE88&amp;","&amp;AF78:AF88&amp;","&amp;AG78:AG88&amp;","&amp;AH78:AH88&amp;","&amp;AI78:AI88&amp;","&amp;AJ78:AJ88</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV84" s="10" t="str">
-        <f t="shared" ref="AV84:AV96" si="7">AK78:AK88&amp;","&amp;AL78:AL88&amp;","&amp;AM78:AM88&amp;","&amp;AN78:AN88&amp;","&amp;AO78:AO88&amp;","&amp;AP78:AP88&amp;","&amp;AQ78:AQ88&amp;","&amp;AR78:AR88&amp;","&amp;AS78:AS88&amp;","&amp;AT78:AT88</f>
+        <f t="shared" ref="AV84:AV97" si="7">AK78:AK88&amp;","&amp;AL78:AL88&amp;","&amp;AM78:AM88&amp;","&amp;AN78:AN88&amp;","&amp;AO78:AO88&amp;","&amp;AP78:AP88&amp;","&amp;AQ78:AQ88&amp;","&amp;AR78:AR88&amp;","&amp;AS78:AS88&amp;","&amp;AT78:AT88</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -14379,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -14560,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="T86" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="U86" s="2">
         <v>0</v>
@@ -14660,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="2">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G87" s="2">
         <v>0</v>
@@ -14808,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="2">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
@@ -14989,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="2">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="V89" s="2">
         <v>0</v>
@@ -15122,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="R90" s="2">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="S90" s="2">
         <v>0</v>
@@ -15267,7 +15270,7 @@
         <v>0</v>
       </c>
       <c r="S91" s="2">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="T91" s="2">
         <v>0</v>
@@ -15379,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="2">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -15524,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="2">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K93" s="2">
         <v>0</v>
@@ -15666,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="2">
-        <v>300</v>
+        <v>1025</v>
       </c>
       <c r="K94" s="2">
         <v>0</v>
@@ -15829,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="R95" s="2">
         <v>0</v>
@@ -15965,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="2">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="P96" s="2">
         <v>0</v>
@@ -16065,6 +16068,148 @@
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AV96" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:48">
+      <c r="C97" s="2">
+        <v>3213</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>170</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>650</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>0</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97" s="2">
+        <v>0</v>
+      </c>
+      <c r="U97" s="2">
+        <v>0</v>
+      </c>
+      <c r="V97" s="2">
+        <v>0</v>
+      </c>
+      <c r="W97" s="2">
+        <v>0</v>
+      </c>
+      <c r="X97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU97" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AV97" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -19,7 +19,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="N2" authorId="0">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -160,6 +160,9 @@
     <t>heal</t>
   </si>
   <si>
+    <t>healPercent</t>
+  </si>
+  <si>
     <t>realDmg</t>
   </si>
   <si>
@@ -295,7 +298,10 @@
     <t>暴击倍数加成</t>
   </si>
   <si>
-    <t>治疗强度增加</t>
+    <t>治疗强度</t>
+  </si>
+  <si>
+    <t>治疗强度百分比</t>
   </si>
   <si>
     <t>真实伤害</t>
@@ -691,7 +697,7 @@
     <t>晶石副属性百分比移速固定值</t>
   </si>
   <si>
-    <t>晶石副属性治疗量固定值</t>
+    <t>晶石副属性百分比治疗量固定值</t>
   </si>
 </sst>
 </file>
@@ -699,11 +705,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -744,100 +750,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,8 +773,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +790,83 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,7 +880,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,7 +932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,19 +956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,13 +974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,13 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1028,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,31 +1100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,43 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,11 +1154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,6 +1194,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1196,32 +1223,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,25 +1251,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,133 +1269,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2632,10 +2638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV97"/>
+  <dimension ref="A1:AW97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2651,24 +2657,25 @@
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.5416666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.3833333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.5416666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.15" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.925" style="2" customWidth="1"/>
-    <col min="22" max="24" width="8" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="14.375" style="2" customWidth="1"/>
-    <col min="27" max="46" width="13" style="2" customWidth="1"/>
-    <col min="47" max="48" width="17.35" style="2" customWidth="1"/>
-    <col min="49" max="16384" width="6" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.5416666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.3833333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.5416666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.15" style="2" customWidth="1"/>
+    <col min="19" max="19" width="12.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.925" style="2" customWidth="1"/>
+    <col min="23" max="25" width="8" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="14.375" style="2" customWidth="1"/>
+    <col min="28" max="47" width="13" style="2" customWidth="1"/>
+    <col min="48" max="49" width="17.35" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="6" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:48">
+    <row r="1" ht="14" customHeight="1" spans="1:49">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2688,11 +2695,11 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4"/>
+      <c r="S1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="3"/>
+      <c r="T1" s="4"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -2721,8 +2728,9 @@
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
     </row>
-    <row r="2" ht="113" customHeight="1" spans="1:48">
+    <row r="2" ht="113" customHeight="1" spans="1:49">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -2746,30 +2754,28 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="R2" s="6"/>
       <c r="S2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="6"/>
+      <c r="T2" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="U2" s="6"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="Y2" s="3"/>
       <c r="Z2" s="15" t="s">
         <v>5</v>
       </c>
@@ -2833,14 +2839,17 @@
       <c r="AT2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="3" t="s">
-        <v>9</v>
+      <c r="AU2" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="AW2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:48">
+    <row r="3" ht="16.15" customHeight="1" spans="1:49">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -2983,155 +2992,161 @@
       <c r="AV3" s="8" t="s">
         <v>56</v>
       </c>
+      <c r="AW3" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:48">
+    <row r="4" ht="16.15" customHeight="1" spans="1:49">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO4" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AR4" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:48">
+    <row r="5" ht="16.15" customHeight="1" spans="1:49">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3179,83 +3194,86 @@
       <c r="AT5" s="8"/>
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:48">
+    <row r="6" ht="16.15" customHeight="1" spans="1:49">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA6" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
@@ -3275,21 +3293,22 @@
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
-      <c r="AU6" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="AU6" s="8"/>
       <c r="AV6" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="AW6" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:48">
+    <row r="7" ht="25" customHeight="1" spans="1:49">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E7" s="11">
         <v>440</v>
@@ -3319,45 +3338,45 @@
         <v>0</v>
       </c>
       <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
         <v>100000</v>
       </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
       <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
         <v>40000</v>
       </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
       <c r="R7" s="12">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S7" s="12">
         <v>5000</v>
       </c>
       <c r="T7" s="12">
+        <v>5000</v>
+      </c>
+      <c r="U7" s="12">
         <v>6600</v>
       </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
       <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
         <v>2500</v>
       </c>
-      <c r="W7" s="12">
+      <c r="X7" s="12">
         <v>120</v>
       </c>
-      <c r="X7" s="16">
+      <c r="Y7" s="16">
         <v>1000</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Z7" s="16">
         <v>10000</v>
       </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="16">
         <v>0</v>
       </c>
       <c r="AB7" s="12">
@@ -3388,11 +3407,11 @@
         <v>0</v>
       </c>
       <c r="AK7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="12">
         <v>1500</v>
       </c>
-      <c r="AL7" s="12">
-        <v>0</v>
-      </c>
       <c r="AM7" s="12">
         <v>0</v>
       </c>
@@ -3417,23 +3436,26 @@
       <c r="AT7" s="12">
         <v>0</v>
       </c>
-      <c r="AU7" s="10" t="str">
-        <f>AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11</f>
+      <c r="AU7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="10" t="str">
+        <f>AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV7" s="10" t="str">
-        <f>AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11</f>
+      <c r="AW7" s="10" t="str">
+        <f>AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11&amp;","&amp;AU1:AU11</f>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:48">
+    <row r="8" ht="25" customHeight="1" spans="1:49">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E8" s="13">
         <v>550</v>
@@ -3463,50 +3485,50 @@
         <v>0</v>
       </c>
       <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
         <v>100000</v>
       </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
       <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
         <v>40000</v>
       </c>
-      <c r="Q8" s="12">
-        <v>0</v>
-      </c>
       <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
         <v>5000</v>
       </c>
-      <c r="S8" s="12">
-        <v>0</v>
-      </c>
       <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
         <v>5500</v>
       </c>
-      <c r="U8" s="12">
-        <v>0</v>
-      </c>
       <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
         <v>2500</v>
       </c>
-      <c r="W8" s="12">
+      <c r="X8" s="12">
         <v>120</v>
       </c>
-      <c r="X8" s="16">
+      <c r="Y8" s="16">
         <v>1000</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Z8" s="16">
         <v>10000</v>
       </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="12">
         <v>2000</v>
       </c>
-      <c r="AB8" s="12">
-        <v>0</v>
-      </c>
       <c r="AC8" s="12">
         <v>0</v>
       </c>
@@ -3561,23 +3583,26 @@
       <c r="AT8" s="12">
         <v>0</v>
       </c>
-      <c r="AU8" s="10" t="str">
-        <f t="shared" ref="AU8:AU37" si="0">AA2:AA12&amp;","&amp;AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12</f>
+      <c r="AU8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10" t="str">
+        <f t="shared" ref="AV8:AV37" si="0">AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12&amp;","&amp;AK2:AK12</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV8" s="10" t="str">
-        <f t="shared" ref="AV8:AV37" si="1">AK2:AK12&amp;","&amp;AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12</f>
+      <c r="AW8" s="10" t="str">
+        <f t="shared" ref="AW8:AW37" si="1">AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12&amp;","&amp;AU2:AU12</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:48">
+    <row r="9" ht="25" customHeight="1" spans="1:49">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E9" s="12">
         <v>660</v>
@@ -3607,45 +3632,45 @@
         <v>0</v>
       </c>
       <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
         <v>100000</v>
       </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
       <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
         <v>40000</v>
       </c>
-      <c r="Q9" s="12">
-        <v>0</v>
-      </c>
       <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
         <v>5000</v>
       </c>
-      <c r="S9" s="12">
-        <v>0</v>
-      </c>
       <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
         <v>4400</v>
       </c>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
       <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
         <v>2500</v>
       </c>
-      <c r="W9" s="12">
+      <c r="X9" s="12">
         <v>120</v>
       </c>
-      <c r="X9" s="16">
+      <c r="Y9" s="16">
         <v>1000</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Z9" s="16">
         <v>10000</v>
       </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="16">
         <v>0</v>
       </c>
       <c r="AB9" s="12">
@@ -3655,11 +3680,11 @@
         <v>0</v>
       </c>
       <c r="AD9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="12">
         <v>2000</v>
       </c>
-      <c r="AE9" s="12">
-        <v>0</v>
-      </c>
       <c r="AF9" s="12">
         <v>0</v>
       </c>
@@ -3675,53 +3700,56 @@
       <c r="AJ9" s="12">
         <v>0</v>
       </c>
-      <c r="AK9" s="17" t="s">
-        <v>110</v>
+      <c r="AK9" s="12">
+        <v>0</v>
       </c>
       <c r="AL9" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM9" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN9" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO9" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP9" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ9" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR9" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="10" t="str">
+        <v>112</v>
+      </c>
+      <c r="AT9" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
-      <c r="AV9" s="10" t="str">
+      <c r="AW9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:48">
+    <row r="10" ht="25" customHeight="1" spans="1:49">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E10" s="12">
         <v>550</v>
@@ -3751,56 +3779,56 @@
         <v>0</v>
       </c>
       <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
         <v>100000</v>
       </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
       <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
         <v>40000</v>
       </c>
-      <c r="Q10" s="12">
-        <v>0</v>
-      </c>
       <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
         <v>5000</v>
       </c>
-      <c r="S10" s="12">
-        <v>0</v>
-      </c>
       <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
         <v>4400</v>
       </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
       <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
         <v>2500</v>
       </c>
-      <c r="W10" s="12">
+      <c r="X10" s="12">
         <v>120</v>
       </c>
-      <c r="X10" s="16">
+      <c r="Y10" s="16">
         <v>1000</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Z10" s="16">
         <v>10000</v>
       </c>
-      <c r="Z10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="16">
         <v>0</v>
       </c>
       <c r="AB10" s="12">
         <v>0</v>
       </c>
       <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
         <v>500</v>
       </c>
-      <c r="AD10" s="12">
-        <v>0</v>
-      </c>
       <c r="AE10" s="12">
         <v>0</v>
       </c>
@@ -3849,23 +3877,26 @@
       <c r="AT10" s="12">
         <v>0</v>
       </c>
-      <c r="AU10" s="10" t="str">
+      <c r="AU10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV10" s="10" t="str">
+      <c r="AW10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:48">
+    <row r="11" ht="16.15" customHeight="1" spans="1:49">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="9">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E11" s="13">
         <v>300</v>
@@ -3895,45 +3926,45 @@
         <v>0</v>
       </c>
       <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
         <v>100</v>
       </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
       <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
         <v>100</v>
       </c>
-      <c r="Q11" s="12">
-        <v>0</v>
-      </c>
       <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
         <v>5000</v>
       </c>
-      <c r="S11" s="12">
-        <v>0</v>
-      </c>
       <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
         <v>3600</v>
       </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
       <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
         <v>2500</v>
       </c>
-      <c r="W11" s="12">
+      <c r="X11" s="12">
         <v>120</v>
       </c>
-      <c r="X11" s="16">
+      <c r="Y11" s="16">
         <v>1000</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Z11" s="16">
         <v>10000</v>
       </c>
-      <c r="Z11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="16">
         <v>0</v>
       </c>
       <c r="AB11" s="12">
@@ -3993,21 +4024,24 @@
       <c r="AT11" s="12">
         <v>0</v>
       </c>
-      <c r="AU11" s="10" t="str">
+      <c r="AU11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV11" s="10" t="str">
+      <c r="AW11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:48">
+    <row r="12" customHeight="1" spans="3:49">
       <c r="C12" s="2">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E12" s="13">
         <v>450</v>
@@ -4037,45 +4071,45 @@
         <v>0</v>
       </c>
       <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
         <v>100</v>
       </c>
-      <c r="O12" s="12">
-        <v>0</v>
-      </c>
       <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
         <v>100</v>
       </c>
-      <c r="Q12" s="12">
-        <v>0</v>
-      </c>
       <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
         <v>5000</v>
       </c>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
       <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
         <v>3000</v>
       </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
       <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
         <v>2500</v>
       </c>
-      <c r="W12" s="12">
+      <c r="X12" s="12">
         <v>120</v>
       </c>
-      <c r="X12" s="16">
+      <c r="Y12" s="16">
         <v>1000</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Z12" s="16">
         <v>10000</v>
       </c>
-      <c r="Z12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="12">
+      <c r="AA12" s="16">
         <v>0</v>
       </c>
       <c r="AB12" s="12">
@@ -4135,21 +4169,24 @@
       <c r="AT12" s="12">
         <v>0</v>
       </c>
-      <c r="AU12" s="10" t="str">
+      <c r="AU12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV12" s="10" t="str">
+      <c r="AW12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:48">
+    <row r="13" customHeight="1" spans="3:49">
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2">
         <v>75</v>
@@ -4175,7 +4212,7 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="12">
         <v>0</v>
       </c>
       <c r="N13" s="2">
@@ -4191,17 +4228,17 @@
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2">
         <v>350</v>
       </c>
       <c r="T13" s="2">
+        <v>350</v>
+      </c>
+      <c r="U13" s="2">
         <v>750</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
       <c r="V13" s="2">
         <v>0</v>
       </c>
@@ -4277,21 +4314,24 @@
       <c r="AT13" s="2">
         <v>0</v>
       </c>
-      <c r="AU13" s="10" t="str">
+      <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV13" s="10" t="str">
+      <c r="AW13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:48">
+    <row r="14" customHeight="1" spans="3:49">
       <c r="C14" s="2">
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2">
         <v>125</v>
@@ -4317,7 +4357,7 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="12">
         <v>0</v>
       </c>
       <c r="N14" s="2">
@@ -4333,17 +4373,17 @@
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2">
         <v>650</v>
       </c>
       <c r="T14" s="2">
+        <v>650</v>
+      </c>
+      <c r="U14" s="2">
         <v>1250</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
       <c r="V14" s="2">
         <v>0</v>
       </c>
@@ -4419,21 +4459,24 @@
       <c r="AT14" s="2">
         <v>0</v>
       </c>
-      <c r="AU14" s="10" t="str">
+      <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV14" s="10" t="str">
+      <c r="AW14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:48">
+    <row r="15" customHeight="1" spans="3:49">
       <c r="C15" s="2">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2">
         <v>175</v>
@@ -4459,7 +4502,7 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="12">
         <v>0</v>
       </c>
       <c r="N15" s="2">
@@ -4475,17 +4518,17 @@
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2">
         <v>950</v>
       </c>
       <c r="T15" s="2">
+        <v>950</v>
+      </c>
+      <c r="U15" s="2">
         <v>1750</v>
       </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
       <c r="V15" s="2">
         <v>0</v>
       </c>
@@ -4561,21 +4604,24 @@
       <c r="AT15" s="2">
         <v>0</v>
       </c>
-      <c r="AU15" s="10" t="str">
+      <c r="AU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV15" s="10" t="str">
+      <c r="AW15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:48">
+    <row r="16" customHeight="1" spans="3:49">
       <c r="C16" s="2">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2">
         <v>225</v>
@@ -4601,7 +4647,7 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="12">
         <v>0</v>
       </c>
       <c r="N16" s="2">
@@ -4617,17 +4663,17 @@
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2">
         <v>1250</v>
       </c>
       <c r="T16" s="2">
+        <v>1250</v>
+      </c>
+      <c r="U16" s="2">
         <v>2250</v>
       </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
       <c r="V16" s="2">
         <v>0</v>
       </c>
@@ -4703,21 +4749,24 @@
       <c r="AT16" s="2">
         <v>0</v>
       </c>
-      <c r="AU16" s="10" t="str">
+      <c r="AU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV16" s="10" t="str">
+      <c r="AW16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:48">
+    <row r="17" customHeight="1" spans="3:49">
       <c r="C17" s="2">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2">
         <v>275</v>
@@ -4743,7 +4792,7 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="12">
         <v>0</v>
       </c>
       <c r="N17" s="2">
@@ -4759,17 +4808,17 @@
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2">
         <v>1550</v>
       </c>
       <c r="T17" s="2">
+        <v>1550</v>
+      </c>
+      <c r="U17" s="2">
         <v>2750</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
       <c r="V17" s="2">
         <v>0</v>
       </c>
@@ -4845,21 +4894,24 @@
       <c r="AT17" s="2">
         <v>0</v>
       </c>
-      <c r="AU17" s="10" t="str">
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV17" s="10" t="str">
+      <c r="AW17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:48">
+    <row r="18" customHeight="1" spans="3:49">
       <c r="C18" s="2">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -4885,7 +4937,7 @@
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="12">
         <v>0</v>
       </c>
       <c r="N18" s="2">
@@ -4907,17 +4959,17 @@
         <v>0</v>
       </c>
       <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
         <v>100</v>
       </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
       <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
         <v>500</v>
       </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
       <c r="X18" s="2">
         <v>0</v>
       </c>
@@ -4987,21 +5039,24 @@
       <c r="AT18" s="2">
         <v>0</v>
       </c>
-      <c r="AU18" s="10" t="str">
+      <c r="AU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV18" s="10" t="str">
+      <c r="AW18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:48">
+    <row r="19" customHeight="1" spans="3:49">
       <c r="C19" s="2">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2">
         <v>50</v>
@@ -5027,45 +5082,45 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="12">
         <v>0</v>
       </c>
       <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>100</v>
       </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
       <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
         <v>100</v>
       </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
       <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>5000</v>
       </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
       <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
         <v>500</v>
       </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
       <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
         <v>2500</v>
       </c>
-      <c r="W19" s="2">
+      <c r="X19" s="2">
         <v>120</v>
       </c>
-      <c r="X19" s="2">
+      <c r="Y19" s="2">
         <v>1000</v>
       </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
       <c r="Z19" s="2">
         <v>0</v>
       </c>
@@ -5129,21 +5184,24 @@
       <c r="AT19" s="2">
         <v>0</v>
       </c>
-      <c r="AU19" s="10" t="str">
+      <c r="AU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV19" s="10" t="str">
+      <c r="AW19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="20" ht="27" customHeight="1" spans="3:48">
+    <row r="20" ht="27" customHeight="1" spans="3:49">
       <c r="C20" s="2">
         <v>2000</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E20" s="2">
         <v>50</v>
@@ -5169,41 +5227,41 @@
       <c r="L20" s="2">
         <v>25</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="12">
         <v>0</v>
       </c>
       <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <v>50</v>
       </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
         <v>50</v>
       </c>
-      <c r="Q20" s="12">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>25</v>
+      <c r="R20" s="12">
+        <v>0</v>
       </c>
       <c r="S20" s="2">
         <v>25</v>
       </c>
       <c r="T20" s="2">
+        <v>25</v>
+      </c>
+      <c r="U20" s="2">
         <v>500</v>
       </c>
-      <c r="U20" s="12">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>5</v>
+      <c r="V20" s="12">
+        <v>0</v>
       </c>
       <c r="W20" s="2">
         <v>5</v>
       </c>
       <c r="X20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="2">
         <v>0</v>
@@ -5212,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="2">
         <v>50</v>
@@ -5271,21 +5329,24 @@
       <c r="AT20" s="2">
         <v>50</v>
       </c>
-      <c r="AU20" s="10" t="str">
+      <c r="AU20" s="2">
+        <v>50</v>
+      </c>
+      <c r="AV20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
-      <c r="AV20" s="10" t="str">
+      <c r="AW20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:48">
+    <row r="21" customHeight="1" spans="3:49">
       <c r="C21" s="2">
         <v>2001</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E21" s="2">
         <v>50</v>
@@ -5311,22 +5372,22 @@
       <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="12">
         <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="12">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
         <v>0</v>
       </c>
       <c r="S21" s="2">
@@ -5335,10 +5396,10 @@
       <c r="T21" s="2">
         <v>0</v>
       </c>
-      <c r="U21" s="12">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="12">
         <v>0</v>
       </c>
       <c r="W21" s="2">
@@ -5413,21 +5474,24 @@
       <c r="AT21" s="2">
         <v>0</v>
       </c>
-      <c r="AU21" s="10" t="str">
+      <c r="AU21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV21" s="10" t="str">
+      <c r="AW21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:48">
+    <row r="22" customHeight="1" spans="3:49">
       <c r="C22" s="2">
         <v>2002</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -5453,22 +5517,22 @@
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="12">
         <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
-      <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
         <v>0</v>
       </c>
       <c r="S22" s="2">
@@ -5477,10 +5541,10 @@
       <c r="T22" s="2">
         <v>0</v>
       </c>
-      <c r="U22" s="12">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
         <v>0</v>
       </c>
       <c r="W22" s="2">
@@ -5555,21 +5619,24 @@
       <c r="AT22" s="2">
         <v>0</v>
       </c>
-      <c r="AU22" s="10" t="str">
+      <c r="AU22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV22" s="10" t="str">
+      <c r="AW22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:48">
+    <row r="23" customHeight="1" spans="3:49">
       <c r="C23" s="2">
         <v>2003</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -5595,34 +5662,34 @@
       <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="12">
         <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" s="12">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
         <v>0</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
       </c>
       <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
         <v>500</v>
       </c>
-      <c r="U23" s="12">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
+      <c r="V23" s="12">
         <v>0</v>
       </c>
       <c r="W23" s="2">
@@ -5697,21 +5764,24 @@
       <c r="AT23" s="2">
         <v>0</v>
       </c>
-      <c r="AU23" s="10" t="str">
+      <c r="AU23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV23" s="10" t="str">
+      <c r="AW23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:48">
+    <row r="24" customHeight="1" spans="3:49">
       <c r="C24" s="2">
         <v>2004</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -5737,22 +5807,22 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="12">
         <v>0</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
       </c>
-      <c r="O24" s="12">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="12">
         <v>0</v>
       </c>
       <c r="S24" s="2">
@@ -5761,10 +5831,10 @@
       <c r="T24" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="12">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
         <v>0</v>
       </c>
       <c r="W24" s="2">
@@ -5839,21 +5909,24 @@
       <c r="AT24" s="2">
         <v>0</v>
       </c>
-      <c r="AU24" s="10" t="str">
+      <c r="AU24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV24" s="10" t="str">
+      <c r="AW24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:48">
+    <row r="25" customHeight="1" spans="3:49">
       <c r="C25" s="2">
         <v>2005</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -5879,20 +5952,20 @@
       <c r="L25" s="2">
         <v>5</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="12">
         <v>0</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
       </c>
       <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
         <v>30</v>
       </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
       <c r="Q25" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>30</v>
@@ -5901,20 +5974,20 @@
         <v>30</v>
       </c>
       <c r="T25" s="2">
+        <v>30</v>
+      </c>
+      <c r="U25" s="2">
         <v>100</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V25" s="2">
         <v>20</v>
       </c>
-      <c r="V25" s="2">
+      <c r="W25" s="2">
         <v>30</v>
       </c>
-      <c r="W25" s="2">
+      <c r="X25" s="2">
         <v>2</v>
       </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
       <c r="Y25" s="2">
         <v>0</v>
       </c>
@@ -5922,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="2">
         <v>25</v>
@@ -5981,21 +6054,24 @@
       <c r="AT25" s="2">
         <v>25</v>
       </c>
-      <c r="AU25" s="10" t="str">
+      <c r="AU25" s="2">
+        <v>25</v>
+      </c>
+      <c r="AV25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
-      <c r="AV25" s="10" t="str">
+      <c r="AW25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:48">
+    <row r="26" customHeight="1" spans="3:49">
       <c r="C26" s="2">
         <v>2010</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -6021,22 +6097,22 @@
       <c r="L26" s="2">
         <v>0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="12">
         <v>0</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
       </c>
-      <c r="O26" s="12">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2">
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="12">
         <v>0</v>
       </c>
       <c r="S26" s="2">
@@ -6045,10 +6121,10 @@
       <c r="T26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="12">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2">
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
         <v>0</v>
       </c>
       <c r="W26" s="2">
@@ -6064,11 +6140,11 @@
         <v>0</v>
       </c>
       <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
         <v>500</v>
       </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
       <c r="AC26" s="2">
         <v>0</v>
       </c>
@@ -6123,21 +6199,24 @@
       <c r="AT26" s="2">
         <v>0</v>
       </c>
-      <c r="AU26" s="10" t="str">
+      <c r="AU26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV26" s="10" t="str">
+      <c r="AW26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:48">
+    <row r="27" customHeight="1" spans="3:49">
       <c r="C27" s="2">
         <v>2011</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -6163,22 +6242,22 @@
       <c r="L27" s="2">
         <v>0</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="12">
         <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="12">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="12">
         <v>0</v>
       </c>
       <c r="S27" s="2">
@@ -6187,10 +6266,10 @@
       <c r="T27" s="2">
         <v>0</v>
       </c>
-      <c r="U27" s="12">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2">
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="12">
         <v>0</v>
       </c>
       <c r="W27" s="2">
@@ -6206,11 +6285,11 @@
         <v>0</v>
       </c>
       <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
         <v>1000</v>
       </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
       <c r="AC27" s="2">
         <v>0</v>
       </c>
@@ -6265,21 +6344,24 @@
       <c r="AT27" s="2">
         <v>0</v>
       </c>
-      <c r="AU27" s="10" t="str">
+      <c r="AU27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV27" s="10" t="str">
+      <c r="AW27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:48">
+    <row r="28" customHeight="1" spans="3:49">
       <c r="C28" s="2">
         <v>2012</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -6305,22 +6387,22 @@
       <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="12">
         <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
       </c>
-      <c r="O28" s="12">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2">
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
         <v>0</v>
       </c>
       <c r="S28" s="2">
@@ -6329,10 +6411,10 @@
       <c r="T28" s="2">
         <v>0</v>
       </c>
-      <c r="U28" s="12">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="12">
         <v>0</v>
       </c>
       <c r="W28" s="2">
@@ -6348,11 +6430,11 @@
         <v>0</v>
       </c>
       <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
         <v>1500</v>
       </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
       <c r="AC28" s="2">
         <v>0</v>
       </c>
@@ -6407,21 +6489,24 @@
       <c r="AT28" s="2">
         <v>0</v>
       </c>
-      <c r="AU28" s="10" t="str">
+      <c r="AU28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV28" s="10" t="str">
+      <c r="AW28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="3:48">
+    <row r="29" customHeight="1" spans="3:49">
       <c r="C29" s="2">
         <v>2013</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -6447,22 +6532,22 @@
       <c r="L29" s="2">
         <v>0</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="12">
         <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
       </c>
-      <c r="O29" s="12">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="12">
         <v>0</v>
       </c>
       <c r="S29" s="2">
@@ -6471,10 +6556,10 @@
       <c r="T29" s="2">
         <v>0</v>
       </c>
-      <c r="U29" s="12">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2">
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
         <v>0</v>
       </c>
       <c r="W29" s="2">
@@ -6490,11 +6575,11 @@
         <v>0</v>
       </c>
       <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
         <v>2000</v>
       </c>
-      <c r="AB29" s="2">
-        <v>0</v>
-      </c>
       <c r="AC29" s="2">
         <v>0</v>
       </c>
@@ -6549,21 +6634,24 @@
       <c r="AT29" s="2">
         <v>0</v>
       </c>
-      <c r="AU29" s="10" t="str">
+      <c r="AU29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV29" s="10" t="str">
+      <c r="AW29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:48">
+    <row r="30" customHeight="1" spans="3:49">
       <c r="C30" s="2">
         <v>2014</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -6589,22 +6677,22 @@
       <c r="L30" s="2">
         <v>0</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="12">
         <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" s="12">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2">
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="12">
         <v>0</v>
       </c>
       <c r="S30" s="2">
@@ -6613,10 +6701,10 @@
       <c r="T30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="12">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2">
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="12">
         <v>0</v>
       </c>
       <c r="W30" s="2">
@@ -6632,11 +6720,11 @@
         <v>0</v>
       </c>
       <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
         <v>2500</v>
       </c>
-      <c r="AB30" s="2">
-        <v>0</v>
-      </c>
       <c r="AC30" s="2">
         <v>0</v>
       </c>
@@ -6691,21 +6779,24 @@
       <c r="AT30" s="2">
         <v>0</v>
       </c>
-      <c r="AU30" s="10" t="str">
+      <c r="AU30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV30" s="10" t="str">
+      <c r="AW30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="3:48">
+    <row r="31" customHeight="1" spans="3:49">
       <c r="C31" s="2">
         <v>2020</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -6731,22 +6822,22 @@
       <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="12">
         <v>0</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="12">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="12">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2">
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
         <v>0</v>
       </c>
       <c r="S31" s="2">
@@ -6755,15 +6846,15 @@
       <c r="T31" s="2">
         <v>0</v>
       </c>
-      <c r="U31" s="12">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
         <v>100</v>
       </c>
-      <c r="W31" s="2">
-        <v>0</v>
-      </c>
       <c r="X31" s="2">
         <v>0</v>
       </c>
@@ -6833,21 +6924,24 @@
       <c r="AT31" s="2">
         <v>0</v>
       </c>
-      <c r="AU31" s="10" t="str">
+      <c r="AU31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV31" s="10" t="str">
+      <c r="AW31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="3:48">
+    <row r="32" customHeight="1" spans="3:49">
       <c r="C32" s="2">
         <v>2021</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -6873,22 +6967,22 @@
       <c r="L32" s="2">
         <v>0</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="12">
         <v>0</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="O32" s="12">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="12">
         <v>0</v>
       </c>
       <c r="S32" s="2">
@@ -6897,15 +6991,15 @@
       <c r="T32" s="2">
         <v>0</v>
       </c>
-      <c r="U32" s="12">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2">
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
         <v>200</v>
       </c>
-      <c r="W32" s="2">
-        <v>0</v>
-      </c>
       <c r="X32" s="2">
         <v>0</v>
       </c>
@@ -6975,21 +7069,24 @@
       <c r="AT32" s="2">
         <v>0</v>
       </c>
-      <c r="AU32" s="10" t="str">
-        <f>AA26:AA35&amp;","&amp;AB26:AB35&amp;","&amp;AC26:AC35&amp;","&amp;AD26:AD35&amp;","&amp;AE26:AE35&amp;","&amp;AF26:AF35&amp;","&amp;AG26:AG35&amp;","&amp;AH26:AH35&amp;","&amp;AI26:AI35&amp;","&amp;AJ26:AJ35</f>
+      <c r="AU32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="10" t="str">
+        <f>AB26:AB35&amp;","&amp;AC26:AC35&amp;","&amp;AD26:AD35&amp;","&amp;AE26:AE35&amp;","&amp;AF26:AF35&amp;","&amp;AG26:AG35&amp;","&amp;AH26:AH35&amp;","&amp;AI26:AI35&amp;","&amp;AJ26:AJ35&amp;","&amp;AK26:AK35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV32" s="10" t="str">
-        <f>AK26:AK35&amp;","&amp;AL26:AL35&amp;","&amp;AM26:AM35&amp;","&amp;AN26:AN35&amp;","&amp;AO26:AO35&amp;","&amp;AP26:AP35&amp;","&amp;AQ26:AQ35&amp;","&amp;AR26:AR35&amp;","&amp;AS26:AS35&amp;","&amp;AT26:AT35</f>
+      <c r="AW32" s="10" t="str">
+        <f>AL26:AL35&amp;","&amp;AM26:AM35&amp;","&amp;AN26:AN35&amp;","&amp;AO26:AO35&amp;","&amp;AP26:AP35&amp;","&amp;AQ26:AQ35&amp;","&amp;AR26:AR35&amp;","&amp;AS26:AS35&amp;","&amp;AT26:AT35&amp;","&amp;AU26:AU35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:48">
+    <row r="33" customHeight="1" spans="3:49">
       <c r="C33" s="2">
         <v>2022</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -7015,22 +7112,22 @@
       <c r="L33" s="2">
         <v>0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="12">
         <v>0</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="12">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="12">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2">
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="12">
         <v>0</v>
       </c>
       <c r="S33" s="2">
@@ -7039,15 +7136,15 @@
       <c r="T33" s="2">
         <v>0</v>
       </c>
-      <c r="U33" s="12">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2">
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="12">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
         <v>300</v>
       </c>
-      <c r="W33" s="2">
-        <v>0</v>
-      </c>
       <c r="X33" s="2">
         <v>0</v>
       </c>
@@ -7117,21 +7214,24 @@
       <c r="AT33" s="2">
         <v>0</v>
       </c>
-      <c r="AU33" s="10" t="str">
-        <f>AA27:AA35&amp;","&amp;AB27:AB35&amp;","&amp;AC27:AC35&amp;","&amp;AD27:AD35&amp;","&amp;AE27:AE35&amp;","&amp;AF27:AF35&amp;","&amp;AG27:AG35&amp;","&amp;AH27:AH35&amp;","&amp;AI27:AI35&amp;","&amp;AJ27:AJ35</f>
+      <c r="AU33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="10" t="str">
+        <f>AB27:AB35&amp;","&amp;AC27:AC35&amp;","&amp;AD27:AD35&amp;","&amp;AE27:AE35&amp;","&amp;AF27:AF35&amp;","&amp;AG27:AG35&amp;","&amp;AH27:AH35&amp;","&amp;AI27:AI35&amp;","&amp;AJ27:AJ35&amp;","&amp;AK27:AK35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV33" s="10" t="str">
-        <f>AK27:AK35&amp;","&amp;AL27:AL35&amp;","&amp;AM27:AM35&amp;","&amp;AN27:AN35&amp;","&amp;AO27:AO35&amp;","&amp;AP27:AP35&amp;","&amp;AQ27:AQ35&amp;","&amp;AR27:AR35&amp;","&amp;AS27:AS35&amp;","&amp;AT27:AT35</f>
+      <c r="AW33" s="10" t="str">
+        <f>AL27:AL35&amp;","&amp;AM27:AM35&amp;","&amp;AN27:AN35&amp;","&amp;AO27:AO35&amp;","&amp;AP27:AP35&amp;","&amp;AQ27:AQ35&amp;","&amp;AR27:AR35&amp;","&amp;AS27:AS35&amp;","&amp;AT27:AT35&amp;","&amp;AU27:AU35</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:48">
+    <row r="34" customHeight="1" spans="3:49">
       <c r="C34" s="2">
         <v>2023</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -7157,22 +7257,22 @@
       <c r="L34" s="2">
         <v>0</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="12">
         <v>0</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="12">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="12">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2">
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="12">
         <v>0</v>
       </c>
       <c r="S34" s="2">
@@ -7181,15 +7281,15 @@
       <c r="T34" s="2">
         <v>0</v>
       </c>
-      <c r="U34" s="12">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2">
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="12">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
         <v>400</v>
       </c>
-      <c r="W34" s="2">
-        <v>0</v>
-      </c>
       <c r="X34" s="2">
         <v>0</v>
       </c>
@@ -7259,21 +7359,24 @@
       <c r="AT34" s="2">
         <v>0</v>
       </c>
-      <c r="AU34" s="10" t="str">
-        <f>AA28:AA36&amp;","&amp;AB28:AB36&amp;","&amp;AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36</f>
+      <c r="AU34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="10" t="str">
+        <f>AB28:AB36&amp;","&amp;AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36&amp;","&amp;AK28:AK36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV34" s="10" t="str">
-        <f>AK28:AK36&amp;","&amp;AL28:AL36&amp;","&amp;AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36</f>
+      <c r="AW34" s="10" t="str">
+        <f>AL28:AL36&amp;","&amp;AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36&amp;","&amp;AU28:AU36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:48">
+    <row r="35" customHeight="1" spans="3:49">
       <c r="C35" s="2">
         <v>2024</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -7299,22 +7402,22 @@
       <c r="L35" s="2">
         <v>0</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="12">
         <v>0</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="12">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="12">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12">
         <v>0</v>
       </c>
       <c r="S35" s="2">
@@ -7323,15 +7426,15 @@
       <c r="T35" s="2">
         <v>0</v>
       </c>
-      <c r="U35" s="12">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="12">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
         <v>500</v>
       </c>
-      <c r="W35" s="2">
-        <v>0</v>
-      </c>
       <c r="X35" s="2">
         <v>0</v>
       </c>
@@ -7401,21 +7504,24 @@
       <c r="AT35" s="2">
         <v>0</v>
       </c>
-      <c r="AU35" s="10" t="str">
-        <f>AA29:AA37&amp;","&amp;AB29:AB37&amp;","&amp;AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37</f>
+      <c r="AU35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="10" t="str">
+        <f>AB29:AB37&amp;","&amp;AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37&amp;","&amp;AK29:AK37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV35" s="10" t="str">
-        <f>AK29:AK37&amp;","&amp;AL29:AL37&amp;","&amp;AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37</f>
+      <c r="AW35" s="10" t="str">
+        <f>AL29:AL37&amp;","&amp;AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37&amp;","&amp;AU29:AU37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:48">
+    <row r="36" customHeight="1" spans="3:49">
       <c r="C36" s="2">
         <v>3000</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2">
         <v>6</v>
@@ -7441,7 +7547,7 @@
       <c r="L36" s="2">
         <v>0</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="12">
         <v>0</v>
       </c>
       <c r="N36" s="2">
@@ -7543,21 +7649,24 @@
       <c r="AT36" s="2">
         <v>0</v>
       </c>
-      <c r="AU36" s="10" t="str">
-        <f>AA32:AA40&amp;","&amp;AB32:AB40&amp;","&amp;AC32:AC40&amp;","&amp;AD32:AD40&amp;","&amp;AE32:AE40&amp;","&amp;AF32:AF40&amp;","&amp;AG32:AG40&amp;","&amp;AH32:AH40&amp;","&amp;AI32:AI40&amp;","&amp;AJ32:AJ40</f>
+      <c r="AU36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="10" t="str">
+        <f>AB32:AB40&amp;","&amp;AC32:AC40&amp;","&amp;AD32:AD40&amp;","&amp;AE32:AE40&amp;","&amp;AF32:AF40&amp;","&amp;AG32:AG40&amp;","&amp;AH32:AH40&amp;","&amp;AI32:AI40&amp;","&amp;AJ32:AJ40&amp;","&amp;AK32:AK40</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV36" s="10" t="str">
-        <f>AK32:AK40&amp;","&amp;AL32:AL40&amp;","&amp;AM32:AM40&amp;","&amp;AN32:AN40&amp;","&amp;AO32:AO40&amp;","&amp;AP32:AP40&amp;","&amp;AQ32:AQ40&amp;","&amp;AR32:AR40&amp;","&amp;AS32:AS40&amp;","&amp;AT32:AT40</f>
+      <c r="AW36" s="10" t="str">
+        <f>AL32:AL40&amp;","&amp;AM32:AM40&amp;","&amp;AN32:AN40&amp;","&amp;AO32:AO40&amp;","&amp;AP32:AP40&amp;","&amp;AQ32:AQ40&amp;","&amp;AR32:AR40&amp;","&amp;AS32:AS40&amp;","&amp;AT32:AT40&amp;","&amp;AU32:AU40</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:48">
+    <row r="37" customHeight="1" spans="3:49">
       <c r="C37" s="2">
         <v>3001</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E37" s="2">
         <v>60</v>
@@ -7583,7 +7692,7 @@
       <c r="L37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="12">
         <v>0</v>
       </c>
       <c r="N37" s="2">
@@ -7685,21 +7794,24 @@
       <c r="AT37" s="2">
         <v>0</v>
       </c>
-      <c r="AU37" s="10" t="str">
-        <f>AA33:AA41&amp;","&amp;AB33:AB41&amp;","&amp;AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41</f>
+      <c r="AU37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="10" t="str">
+        <f>AB33:AB41&amp;","&amp;AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41&amp;","&amp;AK33:AK41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV37" s="10" t="str">
-        <f>AK33:AK41&amp;","&amp;AL33:AL41&amp;","&amp;AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41</f>
+      <c r="AW37" s="10" t="str">
+        <f>AL33:AL41&amp;","&amp;AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41&amp;","&amp;AU33:AU41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:48">
+    <row r="38" customHeight="1" spans="3:49">
       <c r="C38" s="2">
         <v>3010</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2">
         <v>60</v>
@@ -7725,7 +7837,7 @@
       <c r="L38" s="2">
         <v>0</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="12">
         <v>0</v>
       </c>
       <c r="N38" s="2">
@@ -7827,21 +7939,24 @@
       <c r="AT38" s="2">
         <v>0</v>
       </c>
-      <c r="AU38" s="10" t="str">
-        <f>AA34:AA42&amp;","&amp;AB34:AB42&amp;","&amp;AC34:AC42&amp;","&amp;AD34:AD42&amp;","&amp;AE34:AE42&amp;","&amp;AF34:AF42&amp;","&amp;AG34:AG42&amp;","&amp;AH34:AH42&amp;","&amp;AI34:AI42&amp;","&amp;AJ34:AJ42</f>
+      <c r="AU38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="10" t="str">
+        <f>AB34:AB42&amp;","&amp;AC34:AC42&amp;","&amp;AD34:AD42&amp;","&amp;AE34:AE42&amp;","&amp;AF34:AF42&amp;","&amp;AG34:AG42&amp;","&amp;AH34:AH42&amp;","&amp;AI34:AI42&amp;","&amp;AJ34:AJ42&amp;","&amp;AK34:AK42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV38" s="10" t="str">
-        <f>AK34:AK42&amp;","&amp;AL34:AL42&amp;","&amp;AM34:AM42&amp;","&amp;AN34:AN42&amp;","&amp;AO34:AO42&amp;","&amp;AP34:AP42&amp;","&amp;AQ34:AQ42&amp;","&amp;AR34:AR42&amp;","&amp;AS34:AS42&amp;","&amp;AT34:AT42</f>
+      <c r="AW38" s="10" t="str">
+        <f>AL34:AL42&amp;","&amp;AM34:AM42&amp;","&amp;AN34:AN42&amp;","&amp;AO34:AO42&amp;","&amp;AP34:AP42&amp;","&amp;AQ34:AQ42&amp;","&amp;AR34:AR42&amp;","&amp;AS34:AS42&amp;","&amp;AT34:AT42&amp;","&amp;AU34:AU42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:48">
+    <row r="39" customHeight="1" spans="3:49">
       <c r="C39" s="2">
         <v>3011</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E39" s="2">
         <v>600</v>
@@ -7867,7 +7982,7 @@
       <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="12">
         <v>0</v>
       </c>
       <c r="N39" s="2">
@@ -7969,21 +8084,24 @@
       <c r="AT39" s="2">
         <v>0</v>
       </c>
-      <c r="AU39" s="10" t="str">
-        <f>AA35:AA43&amp;","&amp;AB35:AB43&amp;","&amp;AC35:AC43&amp;","&amp;AD35:AD43&amp;","&amp;AE35:AE43&amp;","&amp;AF35:AF43&amp;","&amp;AG35:AG43&amp;","&amp;AH35:AH43&amp;","&amp;AI35:AI43&amp;","&amp;AJ35:AJ43</f>
+      <c r="AU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="10" t="str">
+        <f>AB35:AB43&amp;","&amp;AC35:AC43&amp;","&amp;AD35:AD43&amp;","&amp;AE35:AE43&amp;","&amp;AF35:AF43&amp;","&amp;AG35:AG43&amp;","&amp;AH35:AH43&amp;","&amp;AI35:AI43&amp;","&amp;AJ35:AJ43&amp;","&amp;AK35:AK43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV39" s="10" t="str">
-        <f>AK35:AK43&amp;","&amp;AL35:AL43&amp;","&amp;AM35:AM43&amp;","&amp;AN35:AN43&amp;","&amp;AO35:AO43&amp;","&amp;AP35:AP43&amp;","&amp;AQ35:AQ43&amp;","&amp;AR35:AR43&amp;","&amp;AS35:AS43&amp;","&amp;AT35:AT43</f>
+      <c r="AW39" s="10" t="str">
+        <f>AL35:AL43&amp;","&amp;AM35:AM43&amp;","&amp;AN35:AN43&amp;","&amp;AO35:AO43&amp;","&amp;AP35:AP43&amp;","&amp;AQ35:AQ43&amp;","&amp;AR35:AR43&amp;","&amp;AS35:AS43&amp;","&amp;AT35:AT43&amp;","&amp;AU35:AU43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="3:48">
+    <row r="40" customHeight="1" spans="3:49">
       <c r="C40" s="2">
         <v>3020</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E40" s="2">
         <v>6</v>
@@ -8009,7 +8127,7 @@
       <c r="L40" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="12">
         <v>0</v>
       </c>
       <c r="N40" s="2">
@@ -8111,21 +8229,24 @@
       <c r="AT40" s="2">
         <v>0</v>
       </c>
-      <c r="AU40" s="10" t="str">
-        <f>AA36:AA44&amp;","&amp;AB36:AB44&amp;","&amp;AC36:AC44&amp;","&amp;AD36:AD44&amp;","&amp;AE36:AE44&amp;","&amp;AF36:AF44&amp;","&amp;AG36:AG44&amp;","&amp;AH36:AH44&amp;","&amp;AI36:AI44&amp;","&amp;AJ36:AJ44</f>
+      <c r="AU40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="10" t="str">
+        <f>AB36:AB44&amp;","&amp;AC36:AC44&amp;","&amp;AD36:AD44&amp;","&amp;AE36:AE44&amp;","&amp;AF36:AF44&amp;","&amp;AG36:AG44&amp;","&amp;AH36:AH44&amp;","&amp;AI36:AI44&amp;","&amp;AJ36:AJ44&amp;","&amp;AK36:AK44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV40" s="10" t="str">
-        <f>AK36:AK44&amp;","&amp;AL36:AL44&amp;","&amp;AM36:AM44&amp;","&amp;AN36:AN44&amp;","&amp;AO36:AO44&amp;","&amp;AP36:AP44&amp;","&amp;AQ36:AQ44&amp;","&amp;AR36:AR44&amp;","&amp;AS36:AS44&amp;","&amp;AT36:AT44</f>
+      <c r="AW40" s="10" t="str">
+        <f>AL36:AL44&amp;","&amp;AM36:AM44&amp;","&amp;AN36:AN44&amp;","&amp;AO36:AO44&amp;","&amp;AP36:AP44&amp;","&amp;AQ36:AQ44&amp;","&amp;AR36:AR44&amp;","&amp;AS36:AS44&amp;","&amp;AT36:AT44&amp;","&amp;AU36:AU44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:48">
+    <row r="41" customHeight="1" spans="3:49">
       <c r="C41" s="2">
         <v>3021</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E41" s="2">
         <v>60</v>
@@ -8151,7 +8272,7 @@
       <c r="L41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="12">
         <v>0</v>
       </c>
       <c r="N41" s="2">
@@ -8253,21 +8374,24 @@
       <c r="AT41" s="2">
         <v>0</v>
       </c>
-      <c r="AU41" s="10" t="str">
-        <f>AA36:AA45&amp;","&amp;AB36:AB45&amp;","&amp;AC36:AC45&amp;","&amp;AD36:AD45&amp;","&amp;AE36:AE45&amp;","&amp;AF36:AF45&amp;","&amp;AG36:AG45&amp;","&amp;AH36:AH45&amp;","&amp;AI36:AI45&amp;","&amp;AJ36:AJ45</f>
+      <c r="AU41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="10" t="str">
+        <f>AB36:AB45&amp;","&amp;AC36:AC45&amp;","&amp;AD36:AD45&amp;","&amp;AE36:AE45&amp;","&amp;AF36:AF45&amp;","&amp;AG36:AG45&amp;","&amp;AH36:AH45&amp;","&amp;AI36:AI45&amp;","&amp;AJ36:AJ45&amp;","&amp;AK36:AK45</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV41" s="10" t="str">
-        <f>AK36:AK45&amp;","&amp;AL36:AL45&amp;","&amp;AM36:AM45&amp;","&amp;AN36:AN45&amp;","&amp;AO36:AO45&amp;","&amp;AP36:AP45&amp;","&amp;AQ36:AQ45&amp;","&amp;AR36:AR45&amp;","&amp;AS36:AS45&amp;","&amp;AT36:AT45</f>
+      <c r="AW41" s="10" t="str">
+        <f>AL36:AL45&amp;","&amp;AM36:AM45&amp;","&amp;AN36:AN45&amp;","&amp;AO36:AO45&amp;","&amp;AP36:AP45&amp;","&amp;AQ36:AQ45&amp;","&amp;AR36:AR45&amp;","&amp;AS36:AS45&amp;","&amp;AT36:AT45&amp;","&amp;AU36:AU45</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="3:48">
+    <row r="42" customHeight="1" spans="3:49">
       <c r="C42" s="2">
         <v>3030</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -8293,7 +8417,7 @@
       <c r="L42" s="2">
         <v>0</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="12">
         <v>0</v>
       </c>
       <c r="N42" s="2">
@@ -8306,11 +8430,11 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
         <v>30</v>
       </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
       <c r="S42" s="2">
         <v>0</v>
       </c>
@@ -8395,21 +8519,24 @@
       <c r="AT42" s="2">
         <v>0</v>
       </c>
-      <c r="AU42" s="10" t="str">
-        <f t="shared" ref="AU42:AU48" si="2">AA36:AA46&amp;","&amp;AB36:AB46&amp;","&amp;AC36:AC46&amp;","&amp;AD36:AD46&amp;","&amp;AE36:AE46&amp;","&amp;AF36:AF46&amp;","&amp;AG36:AG46&amp;","&amp;AH36:AH46&amp;","&amp;AI36:AI46&amp;","&amp;AJ36:AJ46</f>
+      <c r="AU42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="10" t="str">
+        <f t="shared" ref="AV42:AV48" si="2">AB36:AB46&amp;","&amp;AC36:AC46&amp;","&amp;AD36:AD46&amp;","&amp;AE36:AE46&amp;","&amp;AF36:AF46&amp;","&amp;AG36:AG46&amp;","&amp;AH36:AH46&amp;","&amp;AI36:AI46&amp;","&amp;AJ36:AJ46&amp;","&amp;AK36:AK46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV42" s="10" t="str">
-        <f t="shared" ref="AV42:AV48" si="3">AK36:AK46&amp;","&amp;AL36:AL46&amp;","&amp;AM36:AM46&amp;","&amp;AN36:AN46&amp;","&amp;AO36:AO46&amp;","&amp;AP36:AP46&amp;","&amp;AQ36:AQ46&amp;","&amp;AR36:AR46&amp;","&amp;AS36:AS46&amp;","&amp;AT36:AT46</f>
+      <c r="AW42" s="10" t="str">
+        <f t="shared" ref="AW42:AW48" si="3">AL36:AL46&amp;","&amp;AM36:AM46&amp;","&amp;AN36:AN46&amp;","&amp;AO36:AO46&amp;","&amp;AP36:AP46&amp;","&amp;AQ36:AQ46&amp;","&amp;AR36:AR46&amp;","&amp;AS36:AS46&amp;","&amp;AT36:AT46&amp;","&amp;AU36:AU46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="3:48">
+    <row r="43" customHeight="1" spans="3:49">
       <c r="C43" s="2">
         <v>3031</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -8435,7 +8562,7 @@
       <c r="L43" s="2">
         <v>0</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="12">
         <v>0</v>
       </c>
       <c r="N43" s="2">
@@ -8448,11 +8575,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
         <v>50</v>
       </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
       <c r="S43" s="2">
         <v>0</v>
       </c>
@@ -8537,21 +8664,24 @@
       <c r="AT43" s="2">
         <v>0</v>
       </c>
-      <c r="AU43" s="10" t="str">
+      <c r="AU43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV43" s="10" t="str">
+      <c r="AW43" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:48">
+    <row r="44" customHeight="1" spans="3:49">
       <c r="C44" s="2">
         <v>3032</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -8577,18 +8707,18 @@
       <c r="L44" s="2">
         <v>0</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="12">
         <v>0</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
       </c>
       <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
         <v>30</v>
       </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
       <c r="Q44" s="2">
         <v>0</v>
       </c>
@@ -8679,21 +8809,24 @@
       <c r="AT44" s="2">
         <v>0</v>
       </c>
-      <c r="AU44" s="10" t="str">
+      <c r="AU44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV44" s="10" t="str">
+      <c r="AW44" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="3:48">
+    <row r="45" customHeight="1" spans="3:49">
       <c r="C45" s="2">
         <v>3033</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -8719,18 +8852,18 @@
       <c r="L45" s="2">
         <v>0</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="12">
         <v>0</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
         <v>50</v>
       </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
       <c r="Q45" s="2">
         <v>0</v>
       </c>
@@ -8821,21 +8954,24 @@
       <c r="AT45" s="2">
         <v>0</v>
       </c>
-      <c r="AU45" s="10" t="str">
+      <c r="AU45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV45" s="10" t="str">
+      <c r="AW45" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="3:48">
+    <row r="46" customHeight="1" spans="3:49">
       <c r="C46" s="2">
         <v>3034</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -8861,7 +8997,7 @@
       <c r="L46" s="2">
         <v>6</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="12">
         <v>0</v>
       </c>
       <c r="N46" s="2">
@@ -8963,21 +9099,24 @@
       <c r="AT46" s="2">
         <v>0</v>
       </c>
-      <c r="AU46" s="10" t="str">
+      <c r="AU46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV46" s="10" t="str">
+      <c r="AW46" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="3:48">
+    <row r="47" customHeight="1" spans="3:49">
       <c r="C47" s="2">
         <v>3035</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -9003,7 +9142,7 @@
       <c r="L47" s="2">
         <v>50</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="12">
         <v>0</v>
       </c>
       <c r="N47" s="2">
@@ -9105,21 +9244,24 @@
       <c r="AT47" s="2">
         <v>0</v>
       </c>
-      <c r="AU47" s="10" t="str">
+      <c r="AU47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV47" s="10" t="str">
+      <c r="AW47" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="3:48">
+    <row r="48" customHeight="1" spans="3:49">
       <c r="C48" s="2">
         <v>3050</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -9145,7 +9287,7 @@
       <c r="L48" s="2">
         <v>0</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="12">
         <v>0</v>
       </c>
       <c r="N48" s="2">
@@ -9191,11 +9333,11 @@
         <v>0</v>
       </c>
       <c r="AB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2">
         <v>35</v>
       </c>
-      <c r="AC48" s="2">
-        <v>0</v>
-      </c>
       <c r="AD48" s="2">
         <v>0</v>
       </c>
@@ -9247,21 +9389,24 @@
       <c r="AT48" s="2">
         <v>0</v>
       </c>
-      <c r="AU48" s="10" t="str">
+      <c r="AU48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV48" s="10" t="str">
+      <c r="AW48" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="3:48">
+    <row r="49" customHeight="1" spans="3:49">
       <c r="C49" s="2">
         <v>3051</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -9287,7 +9432,7 @@
       <c r="L49" s="2">
         <v>0</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="12">
         <v>0</v>
       </c>
       <c r="N49" s="2">
@@ -9336,11 +9481,11 @@
         <v>0</v>
       </c>
       <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2">
         <v>35</v>
       </c>
-      <c r="AD49" s="2">
-        <v>0</v>
-      </c>
       <c r="AE49" s="2">
         <v>0</v>
       </c>
@@ -9389,21 +9534,24 @@
       <c r="AT49" s="2">
         <v>0</v>
       </c>
-      <c r="AU49" s="10" t="str">
-        <f t="shared" ref="AU49:AU83" si="4">AA43:AA53&amp;","&amp;AB43:AB53&amp;","&amp;AC43:AC53&amp;","&amp;AD43:AD53&amp;","&amp;AE43:AE53&amp;","&amp;AF43:AF53&amp;","&amp;AG43:AG53&amp;","&amp;AH43:AH53&amp;","&amp;AI43:AI53&amp;","&amp;AJ43:AJ53</f>
+      <c r="AU49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="10" t="str">
+        <f t="shared" ref="AV49:AV83" si="4">AB43:AB53&amp;","&amp;AC43:AC53&amp;","&amp;AD43:AD53&amp;","&amp;AE43:AE53&amp;","&amp;AF43:AF53&amp;","&amp;AG43:AG53&amp;","&amp;AH43:AH53&amp;","&amp;AI43:AI53&amp;","&amp;AJ43:AJ53&amp;","&amp;AK43:AK53</f>
         <v>0,0,35,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV49" s="10" t="str">
-        <f t="shared" ref="AV49:AV83" si="5">AK43:AK53&amp;","&amp;AL43:AL53&amp;","&amp;AM43:AM53&amp;","&amp;AN43:AN53&amp;","&amp;AO43:AO53&amp;","&amp;AP43:AP53&amp;","&amp;AQ43:AQ53&amp;","&amp;AR43:AR53&amp;","&amp;AS43:AS53&amp;","&amp;AT43:AT53</f>
+      <c r="AW49" s="10" t="str">
+        <f t="shared" ref="AW49:AW83" si="5">AL43:AL53&amp;","&amp;AM43:AM53&amp;","&amp;AN43:AN53&amp;","&amp;AO43:AO53&amp;","&amp;AP43:AP53&amp;","&amp;AQ43:AQ53&amp;","&amp;AR43:AR53&amp;","&amp;AS43:AS53&amp;","&amp;AT43:AT53&amp;","&amp;AU43:AU53</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="3:48">
+    <row r="50" customHeight="1" spans="3:49">
       <c r="C50" s="2">
         <v>3052</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -9429,7 +9577,7 @@
       <c r="L50" s="2">
         <v>0</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="12">
         <v>0</v>
       </c>
       <c r="N50" s="2">
@@ -9481,11 +9629,11 @@
         <v>0</v>
       </c>
       <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="2">
         <v>35</v>
       </c>
-      <c r="AE50" s="2">
-        <v>0</v>
-      </c>
       <c r="AF50" s="2">
         <v>0</v>
       </c>
@@ -9531,21 +9679,24 @@
       <c r="AT50" s="2">
         <v>0</v>
       </c>
-      <c r="AU50" s="10" t="str">
+      <c r="AU50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,35,0,0,0,0,0,0</v>
       </c>
-      <c r="AV50" s="10" t="str">
+      <c r="AW50" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="3:48">
+    <row r="51" customHeight="1" spans="3:49">
       <c r="C51" s="2">
         <v>3053</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -9571,7 +9722,7 @@
       <c r="L51" s="2">
         <v>0</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="12">
         <v>0</v>
       </c>
       <c r="N51" s="2">
@@ -9626,11 +9777,11 @@
         <v>0</v>
       </c>
       <c r="AE51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="2">
         <v>35</v>
       </c>
-      <c r="AF51" s="2">
-        <v>0</v>
-      </c>
       <c r="AG51" s="2">
         <v>0</v>
       </c>
@@ -9673,21 +9824,24 @@
       <c r="AT51" s="2">
         <v>0</v>
       </c>
-      <c r="AU51" s="10" t="str">
+      <c r="AU51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,35,0,0,0,0,0</v>
       </c>
-      <c r="AV51" s="10" t="str">
+      <c r="AW51" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="3:48">
+    <row r="52" customHeight="1" spans="3:49">
       <c r="C52" s="2">
         <v>3054</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -9713,7 +9867,7 @@
       <c r="L52" s="2">
         <v>0</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="12">
         <v>0</v>
       </c>
       <c r="N52" s="2">
@@ -9771,11 +9925,11 @@
         <v>0</v>
       </c>
       <c r="AF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="2">
         <v>35</v>
       </c>
-      <c r="AG52" s="2">
-        <v>0</v>
-      </c>
       <c r="AH52" s="2">
         <v>0</v>
       </c>
@@ -9815,21 +9969,24 @@
       <c r="AT52" s="2">
         <v>0</v>
       </c>
-      <c r="AU52" s="10" t="str">
+      <c r="AU52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,35,0,0,0,0</v>
       </c>
-      <c r="AV52" s="10" t="str">
+      <c r="AW52" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="3:48">
+    <row r="53" customHeight="1" spans="3:49">
       <c r="C53" s="2">
         <v>3055</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -9855,7 +10012,7 @@
       <c r="L53" s="2">
         <v>0</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="12">
         <v>0</v>
       </c>
       <c r="N53" s="2">
@@ -9916,11 +10073,11 @@
         <v>0</v>
       </c>
       <c r="AG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="2">
         <v>35</v>
       </c>
-      <c r="AH53" s="2">
-        <v>0</v>
-      </c>
       <c r="AI53" s="2">
         <v>0</v>
       </c>
@@ -9957,21 +10114,24 @@
       <c r="AT53" s="2">
         <v>0</v>
       </c>
-      <c r="AU53" s="10" t="str">
+      <c r="AU53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,35,0,0,0</v>
       </c>
-      <c r="AV53" s="10" t="str">
+      <c r="AW53" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="3:48">
+    <row r="54" customHeight="1" spans="3:49">
       <c r="C54" s="2">
         <v>3056</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -9997,7 +10157,7 @@
       <c r="L54" s="2">
         <v>0</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="12">
         <v>0</v>
       </c>
       <c r="N54" s="2">
@@ -10061,11 +10221,11 @@
         <v>0</v>
       </c>
       <c r="AH54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2">
         <v>35</v>
       </c>
-      <c r="AI54" s="2">
-        <v>0</v>
-      </c>
       <c r="AJ54" s="2">
         <v>0</v>
       </c>
@@ -10099,21 +10259,24 @@
       <c r="AT54" s="2">
         <v>0</v>
       </c>
-      <c r="AU54" s="10" t="str">
+      <c r="AU54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,35,0,0</v>
       </c>
-      <c r="AV54" s="10" t="str">
+      <c r="AW54" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="3:48">
+    <row r="55" customHeight="1" spans="3:49">
       <c r="C55" s="2">
         <v>3057</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -10139,7 +10302,7 @@
       <c r="L55" s="2">
         <v>0</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="12">
         <v>0</v>
       </c>
       <c r="N55" s="2">
@@ -10206,11 +10369,11 @@
         <v>0</v>
       </c>
       <c r="AI55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="2">
         <v>35</v>
       </c>
-      <c r="AJ55" s="2">
-        <v>0</v>
-      </c>
       <c r="AK55" s="2">
         <v>0</v>
       </c>
@@ -10241,21 +10404,24 @@
       <c r="AT55" s="2">
         <v>0</v>
       </c>
-      <c r="AU55" s="10" t="str">
+      <c r="AU55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,35,0</v>
       </c>
-      <c r="AV55" s="10" t="str">
+      <c r="AW55" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="3:48">
+    <row r="56" customHeight="1" spans="3:49">
       <c r="C56" s="2">
         <v>3058</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -10281,7 +10447,7 @@
       <c r="L56" s="2">
         <v>0</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="12">
         <v>0</v>
       </c>
       <c r="N56" s="2">
@@ -10351,11 +10517,11 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="2">
         <v>35</v>
       </c>
-      <c r="AK56" s="2">
-        <v>0</v>
-      </c>
       <c r="AL56" s="2">
         <v>0</v>
       </c>
@@ -10383,21 +10549,24 @@
       <c r="AT56" s="2">
         <v>0</v>
       </c>
-      <c r="AU56" s="10" t="str">
+      <c r="AU56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,35</v>
       </c>
-      <c r="AV56" s="10" t="str">
+      <c r="AW56" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="3:48">
+    <row r="57" customHeight="1" spans="3:49">
       <c r="C57" s="2">
         <v>3059</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -10423,7 +10592,7 @@
       <c r="L57" s="2">
         <v>0</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="12">
         <v>0</v>
       </c>
       <c r="N57" s="2">
@@ -10469,11 +10638,11 @@
         <v>0</v>
       </c>
       <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
         <v>50</v>
       </c>
-      <c r="AC57" s="2">
-        <v>0</v>
-      </c>
       <c r="AD57" s="2">
         <v>0</v>
       </c>
@@ -10525,21 +10694,24 @@
       <c r="AT57" s="2">
         <v>0</v>
       </c>
-      <c r="AU57" s="10" t="str">
+      <c r="AU57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV57" s="10" t="str">
+      <c r="AW57" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="3:48">
+    <row r="58" customHeight="1" spans="3:49">
       <c r="C58" s="2">
         <v>3060</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -10565,7 +10737,7 @@
       <c r="L58" s="2">
         <v>0</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="12">
         <v>0</v>
       </c>
       <c r="N58" s="2">
@@ -10614,11 +10786,11 @@
         <v>0</v>
       </c>
       <c r="AC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="2">
         <v>50</v>
       </c>
-      <c r="AD58" s="2">
-        <v>0</v>
-      </c>
       <c r="AE58" s="2">
         <v>0</v>
       </c>
@@ -10667,21 +10839,24 @@
       <c r="AT58" s="2">
         <v>0</v>
       </c>
-      <c r="AU58" s="10" t="str">
+      <c r="AU58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,50,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV58" s="10" t="str">
+      <c r="AW58" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="3:48">
+    <row r="59" customHeight="1" spans="3:49">
       <c r="C59" s="2">
         <v>3061</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -10707,7 +10882,7 @@
       <c r="L59" s="2">
         <v>0</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="12">
         <v>0</v>
       </c>
       <c r="N59" s="2">
@@ -10759,11 +10934,11 @@
         <v>0</v>
       </c>
       <c r="AD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="2">
         <v>50</v>
       </c>
-      <c r="AE59" s="2">
-        <v>0</v>
-      </c>
       <c r="AF59" s="2">
         <v>0</v>
       </c>
@@ -10809,21 +10984,24 @@
       <c r="AT59" s="2">
         <v>0</v>
       </c>
-      <c r="AU59" s="10" t="str">
+      <c r="AU59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,50,0,0,0,0,0,0</v>
       </c>
-      <c r="AV59" s="10" t="str">
+      <c r="AW59" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="3:48">
+    <row r="60" customHeight="1" spans="3:49">
       <c r="C60" s="2">
         <v>3062</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -10849,7 +11027,7 @@
       <c r="L60" s="2">
         <v>0</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="12">
         <v>0</v>
       </c>
       <c r="N60" s="2">
@@ -10904,11 +11082,11 @@
         <v>0</v>
       </c>
       <c r="AE60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="2">
         <v>50</v>
       </c>
-      <c r="AF60" s="2">
-        <v>0</v>
-      </c>
       <c r="AG60" s="2">
         <v>0</v>
       </c>
@@ -10951,21 +11129,24 @@
       <c r="AT60" s="2">
         <v>0</v>
       </c>
-      <c r="AU60" s="10" t="str">
+      <c r="AU60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,50,0,0,0,0,0</v>
       </c>
-      <c r="AV60" s="10" t="str">
+      <c r="AW60" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="3:48">
+    <row r="61" customHeight="1" spans="3:49">
       <c r="C61" s="2">
         <v>3063</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -10991,7 +11172,7 @@
       <c r="L61" s="2">
         <v>0</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="12">
         <v>0</v>
       </c>
       <c r="N61" s="2">
@@ -11049,11 +11230,11 @@
         <v>0</v>
       </c>
       <c r="AF61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="2">
         <v>50</v>
       </c>
-      <c r="AG61" s="2">
-        <v>0</v>
-      </c>
       <c r="AH61" s="2">
         <v>0</v>
       </c>
@@ -11093,21 +11274,24 @@
       <c r="AT61" s="2">
         <v>0</v>
       </c>
-      <c r="AU61" s="10" t="str">
+      <c r="AU61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV61" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,50,0,0,0,0</v>
       </c>
-      <c r="AV61" s="10" t="str">
+      <c r="AW61" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="3:48">
+    <row r="62" customHeight="1" spans="3:49">
       <c r="C62" s="2">
         <v>3064</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -11133,7 +11317,7 @@
       <c r="L62" s="2">
         <v>0</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="12">
         <v>0</v>
       </c>
       <c r="N62" s="2">
@@ -11194,11 +11378,11 @@
         <v>0</v>
       </c>
       <c r="AG62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="2">
         <v>50</v>
       </c>
-      <c r="AH62" s="2">
-        <v>0</v>
-      </c>
       <c r="AI62" s="2">
         <v>0</v>
       </c>
@@ -11235,21 +11419,24 @@
       <c r="AT62" s="2">
         <v>0</v>
       </c>
-      <c r="AU62" s="10" t="str">
+      <c r="AU62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,50,0,0,0</v>
       </c>
-      <c r="AV62" s="10" t="str">
+      <c r="AW62" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="3:48">
+    <row r="63" customHeight="1" spans="3:49">
       <c r="C63" s="2">
         <v>3065</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -11275,7 +11462,7 @@
       <c r="L63" s="2">
         <v>0</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="12">
         <v>0</v>
       </c>
       <c r="N63" s="2">
@@ -11339,11 +11526,11 @@
         <v>0</v>
       </c>
       <c r="AH63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="2">
         <v>50</v>
       </c>
-      <c r="AI63" s="2">
-        <v>0</v>
-      </c>
       <c r="AJ63" s="2">
         <v>0</v>
       </c>
@@ -11377,21 +11564,24 @@
       <c r="AT63" s="2">
         <v>0</v>
       </c>
-      <c r="AU63" s="10" t="str">
+      <c r="AU63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,50,0,0</v>
       </c>
-      <c r="AV63" s="10" t="str">
+      <c r="AW63" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="3:48">
+    <row r="64" customHeight="1" spans="3:49">
       <c r="C64" s="2">
         <v>3066</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -11417,7 +11607,7 @@
       <c r="L64" s="2">
         <v>0</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="12">
         <v>0</v>
       </c>
       <c r="N64" s="2">
@@ -11484,11 +11674,11 @@
         <v>0</v>
       </c>
       <c r="AI64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="2">
         <v>50</v>
       </c>
-      <c r="AJ64" s="2">
-        <v>0</v>
-      </c>
       <c r="AK64" s="2">
         <v>0</v>
       </c>
@@ -11519,21 +11709,24 @@
       <c r="AT64" s="2">
         <v>0</v>
       </c>
-      <c r="AU64" s="10" t="str">
+      <c r="AU64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,50,0</v>
       </c>
-      <c r="AV64" s="10" t="str">
+      <c r="AW64" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="3:48">
+    <row r="65" customHeight="1" spans="3:49">
       <c r="C65" s="2">
         <v>3067</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -11559,7 +11752,7 @@
       <c r="L65" s="2">
         <v>0</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="12">
         <v>0</v>
       </c>
       <c r="N65" s="2">
@@ -11629,11 +11822,11 @@
         <v>0</v>
       </c>
       <c r="AJ65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="2">
         <v>50</v>
       </c>
-      <c r="AK65" s="2">
-        <v>0</v>
-      </c>
       <c r="AL65" s="2">
         <v>0</v>
       </c>
@@ -11661,21 +11854,24 @@
       <c r="AT65" s="2">
         <v>0</v>
       </c>
-      <c r="AU65" s="10" t="str">
+      <c r="AU65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
       </c>
-      <c r="AV65" s="10" t="str">
+      <c r="AW65" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C66" s="1">
         <v>3068</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -11701,7 +11897,7 @@
       <c r="L66" s="1">
         <v>0</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="12">
         <v>0</v>
       </c>
       <c r="N66" s="1">
@@ -11747,11 +11943,11 @@
         <v>0</v>
       </c>
       <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
         <v>35</v>
       </c>
-      <c r="AC66" s="1">
-        <v>0</v>
-      </c>
       <c r="AD66" s="1">
         <v>0</v>
       </c>
@@ -11777,11 +11973,11 @@
         <v>0</v>
       </c>
       <c r="AL66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1">
         <v>35</v>
       </c>
-      <c r="AM66" s="1">
-        <v>0</v>
-      </c>
       <c r="AN66" s="1">
         <v>0</v>
       </c>
@@ -11803,21 +11999,24 @@
       <c r="AT66" s="1">
         <v>0</v>
       </c>
-      <c r="AU66" s="19" t="str">
+      <c r="AU66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV66" s="19" t="str">
+      <c r="AW66" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C67" s="1">
         <v>3069</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -11843,7 +12042,7 @@
       <c r="L67" s="1">
         <v>0</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67" s="12">
         <v>0</v>
       </c>
       <c r="N67" s="1">
@@ -11889,11 +12088,11 @@
         <v>0</v>
       </c>
       <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
         <v>35</v>
       </c>
-      <c r="AC67" s="1">
-        <v>0</v>
-      </c>
       <c r="AD67" s="1">
         <v>0</v>
       </c>
@@ -11922,11 +12121,11 @@
         <v>0</v>
       </c>
       <c r="AM67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="1">
         <v>35</v>
       </c>
-      <c r="AN67" s="1">
-        <v>0</v>
-      </c>
       <c r="AO67" s="1">
         <v>0</v>
       </c>
@@ -11945,21 +12144,24 @@
       <c r="AT67" s="1">
         <v>0</v>
       </c>
-      <c r="AU67" s="19" t="str">
+      <c r="AU67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV67" s="19" t="str">
+      <c r="AW67" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,35,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C68" s="1">
         <v>3070</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -11985,7 +12187,7 @@
       <c r="L68" s="1">
         <v>0</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="12">
         <v>0</v>
       </c>
       <c r="N68" s="1">
@@ -12031,11 +12233,11 @@
         <v>0</v>
       </c>
       <c r="AB68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
         <v>35</v>
       </c>
-      <c r="AC68" s="1">
-        <v>0</v>
-      </c>
       <c r="AD68" s="1">
         <v>0</v>
       </c>
@@ -12067,11 +12269,11 @@
         <v>0</v>
       </c>
       <c r="AN68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="1">
         <v>35</v>
       </c>
-      <c r="AO68" s="1">
-        <v>0</v>
-      </c>
       <c r="AP68" s="1">
         <v>0</v>
       </c>
@@ -12087,21 +12289,24 @@
       <c r="AT68" s="1">
         <v>0</v>
       </c>
-      <c r="AU68" s="19" t="str">
+      <c r="AU68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV68" s="19" t="str">
+      <c r="AW68" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,35,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C69" s="1">
         <v>3071</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -12127,7 +12332,7 @@
       <c r="L69" s="1">
         <v>0</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="12">
         <v>0</v>
       </c>
       <c r="N69" s="1">
@@ -12173,11 +12378,11 @@
         <v>0</v>
       </c>
       <c r="AB69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="1">
         <v>35</v>
       </c>
-      <c r="AC69" s="1">
-        <v>0</v>
-      </c>
       <c r="AD69" s="1">
         <v>0</v>
       </c>
@@ -12212,11 +12417,11 @@
         <v>0</v>
       </c>
       <c r="AO69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="1">
         <v>35</v>
       </c>
-      <c r="AP69" s="1">
-        <v>0</v>
-      </c>
       <c r="AQ69" s="1">
         <v>0</v>
       </c>
@@ -12229,21 +12434,24 @@
       <c r="AT69" s="1">
         <v>0</v>
       </c>
-      <c r="AU69" s="19" t="str">
+      <c r="AU69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV69" s="19" t="str">
+      <c r="AW69" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,35,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C70" s="1">
         <v>3072</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -12269,7 +12477,7 @@
       <c r="L70" s="1">
         <v>0</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70" s="12">
         <v>0</v>
       </c>
       <c r="N70" s="1">
@@ -12315,11 +12523,11 @@
         <v>0</v>
       </c>
       <c r="AB70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
         <v>35</v>
       </c>
-      <c r="AC70" s="1">
-        <v>0</v>
-      </c>
       <c r="AD70" s="1">
         <v>0</v>
       </c>
@@ -12357,11 +12565,11 @@
         <v>0</v>
       </c>
       <c r="AP70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="1">
         <v>35</v>
       </c>
-      <c r="AQ70" s="1">
-        <v>0</v>
-      </c>
       <c r="AR70" s="1">
         <v>0</v>
       </c>
@@ -12371,21 +12579,24 @@
       <c r="AT70" s="1">
         <v>0</v>
       </c>
-      <c r="AU70" s="19" t="str">
+      <c r="AU70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV70" s="19" t="str">
+      <c r="AW70" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,35,0,0,0,0</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C71" s="1">
         <v>3073</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -12411,7 +12622,7 @@
       <c r="L71" s="1">
         <v>0</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71" s="12">
         <v>0</v>
       </c>
       <c r="N71" s="1">
@@ -12457,11 +12668,11 @@
         <v>0</v>
       </c>
       <c r="AB71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
         <v>35</v>
       </c>
-      <c r="AC71" s="1">
-        <v>0</v>
-      </c>
       <c r="AD71" s="1">
         <v>0</v>
       </c>
@@ -12502,32 +12713,35 @@
         <v>0</v>
       </c>
       <c r="AQ71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="1">
         <v>35</v>
       </c>
-      <c r="AR71" s="1">
-        <v>0</v>
-      </c>
       <c r="AS71" s="1">
         <v>0</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
       </c>
-      <c r="AU71" s="19" t="str">
+      <c r="AU71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV71" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV71" s="19" t="str">
+      <c r="AW71" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,35,0,0,0</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C72" s="1">
         <v>3074</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -12553,7 +12767,7 @@
       <c r="L72" s="1">
         <v>0</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="12">
         <v>0</v>
       </c>
       <c r="N72" s="1">
@@ -12599,11 +12813,11 @@
         <v>0</v>
       </c>
       <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
         <v>35</v>
       </c>
-      <c r="AC72" s="1">
-        <v>0</v>
-      </c>
       <c r="AD72" s="1">
         <v>0</v>
       </c>
@@ -12647,29 +12861,32 @@
         <v>0</v>
       </c>
       <c r="AR72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="1">
         <v>35</v>
       </c>
-      <c r="AS72" s="1">
-        <v>0</v>
-      </c>
       <c r="AT72" s="1">
         <v>0</v>
       </c>
-      <c r="AU72" s="19" t="str">
+      <c r="AU72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV72" s="19" t="str">
+      <c r="AW72" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,35,0,0</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C73" s="1">
         <v>3075</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -12695,7 +12912,7 @@
       <c r="L73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="12">
         <v>0</v>
       </c>
       <c r="N73" s="1">
@@ -12741,11 +12958,11 @@
         <v>0</v>
       </c>
       <c r="AB73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
         <v>35</v>
       </c>
-      <c r="AC73" s="1">
-        <v>0</v>
-      </c>
       <c r="AD73" s="1">
         <v>0</v>
       </c>
@@ -12792,26 +13009,29 @@
         <v>0</v>
       </c>
       <c r="AS73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="1">
         <v>35</v>
       </c>
-      <c r="AT73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU73" s="19" t="str">
+      <c r="AU73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV73" s="19" t="str">
+      <c r="AW73" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,35,0</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C74" s="1">
         <v>3076</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -12837,7 +13057,7 @@
       <c r="L74" s="1">
         <v>0</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74" s="12">
         <v>0</v>
       </c>
       <c r="N74" s="1">
@@ -12883,11 +13103,11 @@
         <v>0</v>
       </c>
       <c r="AB74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
         <v>35</v>
       </c>
-      <c r="AC74" s="1">
-        <v>0</v>
-      </c>
       <c r="AD74" s="1">
         <v>0</v>
       </c>
@@ -12937,23 +13157,26 @@
         <v>0</v>
       </c>
       <c r="AT74" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU74" s="1">
         <v>35</v>
       </c>
-      <c r="AU74" s="19" t="str">
+      <c r="AV74" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,35,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV74" s="19" t="str">
+      <c r="AW74" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,35</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C75" s="1">
         <v>3077</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -12979,7 +13202,7 @@
       <c r="L75" s="1">
         <v>0</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75" s="12">
         <v>0</v>
       </c>
       <c r="N75" s="1">
@@ -13025,11 +13248,11 @@
         <v>0</v>
       </c>
       <c r="AB75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1">
         <v>50</v>
       </c>
-      <c r="AC75" s="1">
-        <v>0</v>
-      </c>
       <c r="AD75" s="1">
         <v>0</v>
       </c>
@@ -13055,11 +13278,11 @@
         <v>0</v>
       </c>
       <c r="AL75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="1">
         <v>50</v>
       </c>
-      <c r="AM75" s="1">
-        <v>0</v>
-      </c>
       <c r="AN75" s="1">
         <v>0</v>
       </c>
@@ -13081,21 +13304,24 @@
       <c r="AT75" s="1">
         <v>0</v>
       </c>
-      <c r="AU75" s="19" t="str">
+      <c r="AU75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV75" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV75" s="19" t="str">
+      <c r="AW75" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C76" s="1">
         <v>3078</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -13121,7 +13347,7 @@
       <c r="L76" s="1">
         <v>0</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="12">
         <v>0</v>
       </c>
       <c r="N76" s="1">
@@ -13167,11 +13393,11 @@
         <v>0</v>
       </c>
       <c r="AB76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1">
         <v>50</v>
       </c>
-      <c r="AC76" s="1">
-        <v>0</v>
-      </c>
       <c r="AD76" s="1">
         <v>0</v>
       </c>
@@ -13200,11 +13426,11 @@
         <v>0</v>
       </c>
       <c r="AM76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="1">
         <v>50</v>
       </c>
-      <c r="AN76" s="1">
-        <v>0</v>
-      </c>
       <c r="AO76" s="1">
         <v>0</v>
       </c>
@@ -13223,21 +13449,24 @@
       <c r="AT76" s="1">
         <v>0</v>
       </c>
-      <c r="AU76" s="19" t="str">
+      <c r="AU76" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV76" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV76" s="19" t="str">
+      <c r="AW76" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,50,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C77" s="1">
         <v>3079</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -13263,7 +13492,7 @@
       <c r="L77" s="1">
         <v>0</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77" s="12">
         <v>0</v>
       </c>
       <c r="N77" s="1">
@@ -13309,11 +13538,11 @@
         <v>0</v>
       </c>
       <c r="AB77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
         <v>50</v>
       </c>
-      <c r="AC77" s="1">
-        <v>0</v>
-      </c>
       <c r="AD77" s="1">
         <v>0</v>
       </c>
@@ -13345,11 +13574,11 @@
         <v>0</v>
       </c>
       <c r="AN77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="1">
         <v>50</v>
       </c>
-      <c r="AO77" s="1">
-        <v>0</v>
-      </c>
       <c r="AP77" s="1">
         <v>0</v>
       </c>
@@ -13365,21 +13594,24 @@
       <c r="AT77" s="1">
         <v>0</v>
       </c>
-      <c r="AU77" s="19" t="str">
+      <c r="AU77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV77" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV77" s="19" t="str">
+      <c r="AW77" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,50,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C78" s="1">
         <v>3080</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -13405,7 +13637,7 @@
       <c r="L78" s="1">
         <v>0</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78" s="12">
         <v>0</v>
       </c>
       <c r="N78" s="1">
@@ -13451,11 +13683,11 @@
         <v>0</v>
       </c>
       <c r="AB78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="1">
         <v>50</v>
       </c>
-      <c r="AC78" s="1">
-        <v>0</v>
-      </c>
       <c r="AD78" s="1">
         <v>0</v>
       </c>
@@ -13490,11 +13722,11 @@
         <v>0</v>
       </c>
       <c r="AO78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="1">
         <v>50</v>
       </c>
-      <c r="AP78" s="1">
-        <v>0</v>
-      </c>
       <c r="AQ78" s="1">
         <v>0</v>
       </c>
@@ -13507,21 +13739,24 @@
       <c r="AT78" s="1">
         <v>0</v>
       </c>
-      <c r="AU78" s="19" t="str">
+      <c r="AU78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV78" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV78" s="19" t="str">
+      <c r="AW78" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,50,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C79" s="1">
         <v>3081</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -13547,7 +13782,7 @@
       <c r="L79" s="1">
         <v>0</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79" s="12">
         <v>0</v>
       </c>
       <c r="N79" s="1">
@@ -13593,11 +13828,11 @@
         <v>0</v>
       </c>
       <c r="AB79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="1">
         <v>50</v>
       </c>
-      <c r="AC79" s="1">
-        <v>0</v>
-      </c>
       <c r="AD79" s="1">
         <v>0</v>
       </c>
@@ -13635,11 +13870,11 @@
         <v>0</v>
       </c>
       <c r="AP79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="1">
         <v>50</v>
       </c>
-      <c r="AQ79" s="1">
-        <v>0</v>
-      </c>
       <c r="AR79" s="1">
         <v>0</v>
       </c>
@@ -13649,21 +13884,24 @@
       <c r="AT79" s="1">
         <v>0</v>
       </c>
-      <c r="AU79" s="19" t="str">
+      <c r="AU79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV79" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV79" s="19" t="str">
+      <c r="AW79" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,50,0,0,0,0</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C80" s="1">
         <v>3082</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -13689,7 +13927,7 @@
       <c r="L80" s="1">
         <v>0</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80" s="12">
         <v>0</v>
       </c>
       <c r="N80" s="1">
@@ -13735,11 +13973,11 @@
         <v>0</v>
       </c>
       <c r="AB80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="1">
         <v>50</v>
       </c>
-      <c r="AC80" s="1">
-        <v>0</v>
-      </c>
       <c r="AD80" s="1">
         <v>0</v>
       </c>
@@ -13780,32 +14018,35 @@
         <v>0</v>
       </c>
       <c r="AQ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="1">
         <v>50</v>
       </c>
-      <c r="AR80" s="1">
-        <v>0</v>
-      </c>
       <c r="AS80" s="1">
         <v>0</v>
       </c>
       <c r="AT80" s="1">
         <v>0</v>
       </c>
-      <c r="AU80" s="19" t="str">
+      <c r="AU80" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV80" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV80" s="19" t="str">
+      <c r="AW80" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,50,0,0,0</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C81" s="1">
         <v>3083</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -13831,7 +14072,7 @@
       <c r="L81" s="1">
         <v>0</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81" s="12">
         <v>0</v>
       </c>
       <c r="N81" s="1">
@@ -13877,11 +14118,11 @@
         <v>0</v>
       </c>
       <c r="AB81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="1">
         <v>50</v>
       </c>
-      <c r="AC81" s="1">
-        <v>0</v>
-      </c>
       <c r="AD81" s="1">
         <v>0</v>
       </c>
@@ -13925,29 +14166,32 @@
         <v>0</v>
       </c>
       <c r="AR81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="1">
         <v>50</v>
       </c>
-      <c r="AS81" s="1">
-        <v>0</v>
-      </c>
       <c r="AT81" s="1">
         <v>0</v>
       </c>
-      <c r="AU81" s="19" t="str">
+      <c r="AU81" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV81" s="19" t="str">
+      <c r="AW81" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,50,0,0</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C82" s="1">
         <v>3084</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -13973,7 +14217,7 @@
       <c r="L82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82" s="12">
         <v>0</v>
       </c>
       <c r="N82" s="1">
@@ -14019,11 +14263,11 @@
         <v>0</v>
       </c>
       <c r="AB82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1">
         <v>50</v>
       </c>
-      <c r="AC82" s="1">
-        <v>0</v>
-      </c>
       <c r="AD82" s="1">
         <v>0</v>
       </c>
@@ -14070,26 +14314,29 @@
         <v>0</v>
       </c>
       <c r="AS82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="1">
         <v>50</v>
       </c>
-      <c r="AT82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU82" s="19" t="str">
+      <c r="AU82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV82" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV82" s="19" t="str">
+      <c r="AW82" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,50,0</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="3:48">
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="3:49">
       <c r="C83" s="1">
         <v>3085</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -14115,7 +14362,7 @@
       <c r="L83" s="1">
         <v>0</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83" s="12">
         <v>0</v>
       </c>
       <c r="N83" s="1">
@@ -14161,11 +14408,11 @@
         <v>0</v>
       </c>
       <c r="AB83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="1">
         <v>50</v>
       </c>
-      <c r="AC83" s="1">
-        <v>0</v>
-      </c>
       <c r="AD83" s="1">
         <v>0</v>
       </c>
@@ -14215,23 +14462,26 @@
         <v>0</v>
       </c>
       <c r="AT83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="1">
         <v>50</v>
       </c>
-      <c r="AU83" s="19" t="str">
+      <c r="AV83" s="19" t="str">
         <f t="shared" si="4"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV83" s="19" t="str">
+      <c r="AW83" s="19" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="3:48">
+    <row r="84" customHeight="1" spans="3:49">
       <c r="C84" s="2">
         <v>3200</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E84" s="2">
         <v>180</v>
@@ -14257,7 +14507,7 @@
       <c r="L84" s="2">
         <v>0</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="12">
         <v>0</v>
       </c>
       <c r="N84" s="2">
@@ -14359,21 +14609,24 @@
       <c r="AT84" s="2">
         <v>0</v>
       </c>
-      <c r="AU84" s="10" t="str">
-        <f t="shared" ref="AU84:AU97" si="6">AA78:AA88&amp;","&amp;AB78:AB88&amp;","&amp;AC78:AC88&amp;","&amp;AD78:AD88&amp;","&amp;AE78:AE88&amp;","&amp;AF78:AF88&amp;","&amp;AG78:AG88&amp;","&amp;AH78:AH88&amp;","&amp;AI78:AI88&amp;","&amp;AJ78:AJ88</f>
+      <c r="AU84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV84" s="10" t="str">
+        <f t="shared" ref="AV84:AV97" si="6">AB78:AB88&amp;","&amp;AC78:AC88&amp;","&amp;AD78:AD88&amp;","&amp;AE78:AE88&amp;","&amp;AF78:AF88&amp;","&amp;AG78:AG88&amp;","&amp;AH78:AH88&amp;","&amp;AI78:AI88&amp;","&amp;AJ78:AJ88&amp;","&amp;AK78:AK88</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV84" s="10" t="str">
-        <f t="shared" ref="AV84:AV97" si="7">AK78:AK88&amp;","&amp;AL78:AL88&amp;","&amp;AM78:AM88&amp;","&amp;AN78:AN88&amp;","&amp;AO78:AO88&amp;","&amp;AP78:AP88&amp;","&amp;AQ78:AQ88&amp;","&amp;AR78:AR88&amp;","&amp;AS78:AS88&amp;","&amp;AT78:AT88</f>
+      <c r="AW84" s="10" t="str">
+        <f t="shared" ref="AW84:AW97" si="7">AL78:AL88&amp;","&amp;AM78:AM88&amp;","&amp;AN78:AN88&amp;","&amp;AO78:AO88&amp;","&amp;AP78:AP88&amp;","&amp;AQ78:AQ88&amp;","&amp;AR78:AR88&amp;","&amp;AS78:AS88&amp;","&amp;AT78:AT88&amp;","&amp;AU78:AU88</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="3:48">
+    <row r="85" customHeight="1" spans="3:49">
       <c r="C85" s="2">
         <v>3201</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -14399,7 +14652,7 @@
       <c r="L85" s="2">
         <v>0</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="12">
         <v>0</v>
       </c>
       <c r="N85" s="2">
@@ -14501,21 +14754,24 @@
       <c r="AT85" s="2">
         <v>0</v>
       </c>
-      <c r="AU85" s="10" t="str">
+      <c r="AU85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV85" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV85" s="10" t="str">
+      <c r="AW85" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="3:48">
+    <row r="86" customHeight="1" spans="3:49">
       <c r="C86" s="2">
         <v>3202</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -14541,7 +14797,7 @@
       <c r="L86" s="2">
         <v>0</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="12">
         <v>0</v>
       </c>
       <c r="N86" s="2">
@@ -14563,11 +14819,11 @@
         <v>0</v>
       </c>
       <c r="T86" s="2">
+        <v>0</v>
+      </c>
+      <c r="U86" s="2">
         <v>1800</v>
       </c>
-      <c r="U86" s="2">
-        <v>0</v>
-      </c>
       <c r="V86" s="2">
         <v>0</v>
       </c>
@@ -14643,21 +14899,24 @@
       <c r="AT86" s="2">
         <v>0</v>
       </c>
-      <c r="AU86" s="10" t="str">
+      <c r="AU86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV86" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV86" s="10" t="str">
+      <c r="AW86" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="3:48">
+    <row r="87" customHeight="1" spans="3:49">
       <c r="C87" s="2">
         <v>3203</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -14683,7 +14942,7 @@
       <c r="L87" s="2">
         <v>0</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="12">
         <v>0</v>
       </c>
       <c r="N87" s="2">
@@ -14785,21 +15044,24 @@
       <c r="AT87" s="2">
         <v>0</v>
       </c>
-      <c r="AU87" s="10" t="str">
+      <c r="AU87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV87" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV87" s="10" t="str">
+      <c r="AW87" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="3:48">
+    <row r="88" customHeight="1" spans="3:49">
       <c r="C88" s="2">
         <v>3204</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -14825,7 +15087,7 @@
       <c r="L88" s="2">
         <v>0</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="12">
         <v>0</v>
       </c>
       <c r="N88" s="2">
@@ -14927,21 +15189,24 @@
       <c r="AT88" s="2">
         <v>0</v>
       </c>
-      <c r="AU88" s="10" t="str">
+      <c r="AU88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV88" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV88" s="10" t="str">
+      <c r="AW88" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="3:48">
+    <row r="89" customHeight="1" spans="3:49">
       <c r="C89" s="2">
         <v>3205</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -14967,7 +15232,7 @@
       <c r="L89" s="2">
         <v>0</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="12">
         <v>0</v>
       </c>
       <c r="N89" s="2">
@@ -14992,11 +15257,11 @@
         <v>0</v>
       </c>
       <c r="U89" s="2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2">
         <v>650</v>
       </c>
-      <c r="V89" s="2">
-        <v>0</v>
-      </c>
       <c r="W89" s="2">
         <v>0</v>
       </c>
@@ -15069,21 +15334,24 @@
       <c r="AT89" s="2">
         <v>0</v>
       </c>
-      <c r="AU89" s="10" t="str">
+      <c r="AU89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV89" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV89" s="10" t="str">
+      <c r="AW89" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="3:48">
+    <row r="90" customHeight="1" spans="3:49">
       <c r="C90" s="2">
         <v>3206</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -15109,7 +15377,7 @@
       <c r="L90" s="2">
         <v>0</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90" s="12">
         <v>0</v>
       </c>
       <c r="N90" s="2">
@@ -15125,11 +15393,11 @@
         <v>0</v>
       </c>
       <c r="R90" s="2">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
         <v>2200</v>
       </c>
-      <c r="S90" s="2">
-        <v>0</v>
-      </c>
       <c r="T90" s="2">
         <v>0</v>
       </c>
@@ -15211,21 +15479,24 @@
       <c r="AT90" s="2">
         <v>0</v>
       </c>
-      <c r="AU90" s="10" t="str">
+      <c r="AU90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV90" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV90" s="10" t="str">
+      <c r="AW90" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="3:48">
+    <row r="91" customHeight="1" spans="3:49">
       <c r="C91" s="2">
         <v>3207</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -15251,7 +15522,7 @@
       <c r="L91" s="2">
         <v>0</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91" s="12">
         <v>0</v>
       </c>
       <c r="N91" s="2">
@@ -15270,11 +15541,11 @@
         <v>0</v>
       </c>
       <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2">
         <v>2600</v>
       </c>
-      <c r="T91" s="2">
-        <v>0</v>
-      </c>
       <c r="U91" s="2">
         <v>0</v>
       </c>
@@ -15353,21 +15624,24 @@
       <c r="AT91" s="2">
         <v>0</v>
       </c>
-      <c r="AU91" s="10" t="str">
+      <c r="AU91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV91" s="10" t="str">
+      <c r="AW91" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="3:48">
+    <row r="92" customHeight="1" spans="3:49">
       <c r="C92" s="2">
         <v>3208</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
@@ -15393,7 +15667,7 @@
       <c r="L92" s="2">
         <v>0</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="12">
         <v>0</v>
       </c>
       <c r="N92" s="2">
@@ -15495,21 +15769,24 @@
       <c r="AT92" s="2">
         <v>0</v>
       </c>
-      <c r="AU92" s="10" t="str">
+      <c r="AU92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV92" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV92" s="10" t="str">
+      <c r="AW92" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="3:48">
+    <row r="93" customHeight="1" spans="3:49">
       <c r="C93" s="2">
         <v>3209</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
@@ -15535,7 +15812,7 @@
       <c r="L93" s="2">
         <v>0</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93" s="12">
         <v>0</v>
       </c>
       <c r="N93" s="2">
@@ -15637,21 +15914,24 @@
       <c r="AT93" s="2">
         <v>0</v>
       </c>
-      <c r="AU93" s="10" t="str">
+      <c r="AU93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV93" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV93" s="10" t="str">
+      <c r="AW93" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="3:48">
+    <row r="94" customHeight="1" spans="3:49">
       <c r="C94" s="2">
         <v>3210</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -15677,7 +15957,7 @@
       <c r="L94" s="2">
         <v>0</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="12">
         <v>0</v>
       </c>
       <c r="N94" s="2">
@@ -15779,21 +16059,24 @@
       <c r="AT94" s="2">
         <v>0</v>
       </c>
-      <c r="AU94" s="10" t="str">
+      <c r="AU94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV94" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV94" s="10" t="str">
+      <c r="AW94" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="3:48">
+    <row r="95" customHeight="1" spans="3:49">
       <c r="C95" s="2">
         <v>3211</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
@@ -15819,7 +16102,7 @@
       <c r="L95" s="2">
         <v>0</v>
       </c>
-      <c r="M95" s="2">
+      <c r="M95" s="12">
         <v>0</v>
       </c>
       <c r="N95" s="2">
@@ -15832,11 +16115,11 @@
         <v>0</v>
       </c>
       <c r="Q95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="2">
         <v>650</v>
       </c>
-      <c r="R95" s="2">
-        <v>0</v>
-      </c>
       <c r="S95" s="2">
         <v>0</v>
       </c>
@@ -15921,21 +16204,24 @@
       <c r="AT95" s="2">
         <v>0</v>
       </c>
-      <c r="AU95" s="10" t="str">
+      <c r="AU95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV95" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV95" s="10" t="str">
+      <c r="AW95" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="3:48">
+    <row r="96" customHeight="1" spans="3:49">
       <c r="C96" s="2">
         <v>3212</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -15961,18 +16247,18 @@
       <c r="L96" s="2">
         <v>0</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96" s="12">
         <v>0</v>
       </c>
       <c r="N96" s="2">
         <v>0</v>
       </c>
       <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
         <v>650</v>
       </c>
-      <c r="P96" s="2">
-        <v>0</v>
-      </c>
       <c r="Q96" s="2">
         <v>0</v>
       </c>
@@ -16063,21 +16349,24 @@
       <c r="AT96" s="2">
         <v>0</v>
       </c>
-      <c r="AU96" s="10" t="str">
+      <c r="AU96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV96" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV96" s="10" t="str">
+      <c r="AW96" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="3:48">
+    <row r="97" customHeight="1" spans="3:49">
       <c r="C97" s="2">
         <v>3213</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -16101,20 +16390,20 @@
         <v>0</v>
       </c>
       <c r="L97" s="2">
-        <v>170</v>
-      </c>
-      <c r="M97" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M97" s="12">
+        <v>650</v>
       </c>
       <c r="N97" s="2">
         <v>0</v>
       </c>
       <c r="O97" s="2">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
         <v>650</v>
       </c>
-      <c r="P97" s="2">
-        <v>0</v>
-      </c>
       <c r="Q97" s="2">
         <v>0</v>
       </c>
@@ -16205,11 +16494,14 @@
       <c r="AT97" s="2">
         <v>0</v>
       </c>
-      <c r="AU97" s="10" t="str">
+      <c r="AU97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV97" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AV97" s="10" t="str">
+      <c r="AW97" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -759,6 +759,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -768,7 +790,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,9 +820,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,30 +842,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,14 +874,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,58 +900,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,19 +941,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,19 +1007,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,25 +1097,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,103 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,6 +1163,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1174,6 +1189,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,75 +1260,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,140 +1278,139 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1446,9 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2656,8 +2652,8 @@
   <sheetPr/>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A69" sqref="$A69:$XFD77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2692,1362 +2688,1362 @@
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:49">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
     </row>
     <row r="2" ht="113" customHeight="1" spans="1:49">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="16" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="16" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="16" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="16" t="s">
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AG2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AH2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AK2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AL2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AP2" s="16" t="s">
+      <c r="AP2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AS2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:49">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AN3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AP3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AR3" s="9" t="s">
+      <c r="AR3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AS3" s="9" t="s">
+      <c r="AS3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AU3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AV3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AW3" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:49">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AF4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AG4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AL4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AM4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AN4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AO4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AP4" s="9" t="s">
+      <c r="AP4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AQ4" s="9" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AR4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AS4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AT4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AU4" s="9" t="s">
+      <c r="AU4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AV4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AW4" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:49">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:49">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9" t="s">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AW6" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:49">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>440</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
         <v>636</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <v>1000</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>5000</v>
       </c>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>100000</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>40000</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="13">
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>120000</v>
+      </c>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>30000</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
         <v>5000</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <v>5000</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <v>6600</v>
       </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13">
+      <c r="V7" s="12">
+        <v>0</v>
+      </c>
+      <c r="W7" s="12">
         <v>2500</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="12">
         <v>120</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="16">
         <v>1000</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="16">
         <v>10000</v>
       </c>
-      <c r="AA7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="13">
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="12">
         <v>1500</v>
       </c>
-      <c r="AM7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="11" t="str">
+      <c r="AM7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="10" t="str">
         <f>AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW7" s="11" t="str">
+      <c r="AW7" s="10" t="str">
         <f>AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11&amp;","&amp;AU1:AU11</f>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:49">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>550</v>
       </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
         <v>530</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <v>3000</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>5000</v>
       </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
         <v>100000</v>
       </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>40000</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="13">
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>38000</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
         <v>5000</v>
       </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="13">
+      <c r="T8" s="12">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12">
         <v>5500</v>
       </c>
-      <c r="V8" s="13">
-        <v>0</v>
-      </c>
-      <c r="W8" s="13">
+      <c r="V8" s="12">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12">
         <v>2500</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="12">
         <v>120</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="16">
         <v>1000</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="16">
         <v>10000</v>
       </c>
-      <c r="AA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="13">
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="12">
         <v>2000</v>
       </c>
-      <c r="AC8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="11" t="str">
+      <c r="AC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10" t="str">
         <f>AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12&amp;","&amp;AK2:AK12</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW8" s="11" t="str">
+      <c r="AW8" s="10" t="str">
         <f>AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12&amp;","&amp;AU2:AU12</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:49">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>660</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
         <v>424</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
         <v>1000</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>6000</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>500</v>
       </c>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="O9" s="13">
-        <v>100000</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>80000</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
         <v>40000</v>
       </c>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="13">
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
         <v>5000</v>
       </c>
-      <c r="T9" s="13">
-        <v>0</v>
-      </c>
-      <c r="U9" s="13">
+      <c r="T9" s="12">
+        <v>0</v>
+      </c>
+      <c r="U9" s="12">
         <v>4400</v>
       </c>
-      <c r="V9" s="13">
-        <v>0</v>
-      </c>
-      <c r="W9" s="13">
+      <c r="V9" s="12">
+        <v>0</v>
+      </c>
+      <c r="W9" s="12">
         <v>2500</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="12">
         <v>120</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="16">
         <v>1000</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="16">
         <v>10000</v>
       </c>
-      <c r="AA9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="13">
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="12">
         <v>2000</v>
       </c>
-      <c r="AF9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="18" t="s">
+      <c r="AF9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AM9" s="18" t="s">
+      <c r="AM9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AN9" s="18" t="s">
+      <c r="AN9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AO9" s="18" t="s">
+      <c r="AO9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AP9" s="18" t="s">
+      <c r="AP9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AQ9" s="18" t="s">
+      <c r="AQ9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AR9" s="18" t="s">
+      <c r="AR9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AS9" s="18" t="s">
+      <c r="AS9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AT9" s="18" t="s">
+      <c r="AT9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="AU9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="11" t="str">
+      <c r="AU9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10" t="str">
         <f t="shared" ref="AV9:AV13" si="0">AB3:AB14&amp;","&amp;AC3:AC14&amp;","&amp;AD3:AD14&amp;","&amp;AE3:AE14&amp;","&amp;AF3:AF14&amp;","&amp;AG3:AG14&amp;","&amp;AH3:AH14&amp;","&amp;AI3:AI14&amp;","&amp;AJ3:AJ14&amp;","&amp;AK3:AK14</f>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
-      <c r="AW9" s="11" t="str">
+      <c r="AW9" s="10" t="str">
         <f t="shared" ref="AW9:AW13" si="1">AL3:AL14&amp;","&amp;AM3:AM14&amp;","&amp;AN3:AN14&amp;","&amp;AO3:AO14&amp;","&amp;AP3:AP14&amp;","&amp;AQ3:AQ14&amp;","&amp;AR3:AR14&amp;","&amp;AS3:AS14&amp;","&amp;AT3:AT14&amp;","&amp;AU3:AU14</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:49">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>550</v>
       </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
         <v>424</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
         <v>1000</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>5000</v>
       </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>100000</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>40000</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>80000</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>35000</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
         <v>5000</v>
       </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
         <v>4400</v>
       </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="13">
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
         <v>2500</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="12">
         <v>120</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="16">
         <v>1000</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="Z10" s="16">
         <v>10000</v>
       </c>
-      <c r="AA10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="13">
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
         <v>500</v>
       </c>
-      <c r="AE10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW10" s="11" t="str">
+      <c r="AW10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="11" ht="16.15" customHeight="1" spans="1:49">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>300</v>
       </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
         <v>500</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
         <v>1500</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>5000</v>
       </c>
-      <c r="L11" s="13">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13">
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
         <v>100000</v>
       </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
         <v>40000</v>
       </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="13">
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
         <v>5000</v>
       </c>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
         <v>3600</v>
       </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
-      <c r="W11" s="13">
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
         <v>2500</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="12">
         <v>120</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="16">
         <v>1000</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="Z11" s="16">
         <v>10000</v>
       </c>
-      <c r="AA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="11" t="str">
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW11" s="11" t="str">
+      <c r="AW11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4056,143 +4052,143 @@
       <c r="C12" s="1">
         <v>6</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>450</v>
       </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>500</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
         <v>1500</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>5000</v>
       </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
         <v>100000</v>
       </c>
-      <c r="P12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
         <v>40000</v>
       </c>
-      <c r="R12" s="13">
-        <v>0</v>
-      </c>
-      <c r="S12" s="13">
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
         <v>5000</v>
       </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
         <v>3000</v>
       </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="13">
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
         <v>2500</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="12">
         <v>120</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="16">
         <v>1000</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="16">
         <v>10000</v>
       </c>
-      <c r="AA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="11" t="str">
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW12" s="11" t="str">
+      <c r="AW12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4201,143 +4197,143 @@
       <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>550</v>
       </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
         <v>500</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
         <v>1500</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>5000</v>
       </c>
-      <c r="L13" s="13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="13">
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
         <v>100000</v>
       </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
         <v>40000</v>
       </c>
-      <c r="R13" s="13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="13">
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
         <v>5000</v>
       </c>
-      <c r="T13" s="13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="13">
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
         <v>3600</v>
       </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="13">
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
         <v>2500</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="12">
         <v>120</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="16">
         <v>1000</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="Z13" s="16">
         <v>10000</v>
       </c>
-      <c r="AA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="11" t="str">
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW13" s="11" t="str">
+      <c r="AW13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4373,7 +4369,7 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>0</v>
       </c>
       <c r="N14" s="1">
@@ -4478,11 +4474,11 @@
       <c r="AU14" s="1">
         <v>0</v>
       </c>
-      <c r="AV14" s="11" t="str">
+      <c r="AV14" s="10" t="str">
         <f t="shared" ref="AV14:AV19" si="2">AB7:AB18&amp;","&amp;AC7:AC18&amp;","&amp;AD7:AD18&amp;","&amp;AE7:AE18&amp;","&amp;AF7:AF18&amp;","&amp;AG7:AG18&amp;","&amp;AH7:AH18&amp;","&amp;AI7:AI18&amp;","&amp;AJ7:AJ18&amp;","&amp;AK7:AK18</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW14" s="11" t="str">
+      <c r="AW14" s="10" t="str">
         <f t="shared" ref="AW14:AW19" si="3">AL7:AL18&amp;","&amp;AM7:AM18&amp;","&amp;AN7:AN18&amp;","&amp;AO7:AO18&amp;","&amp;AP7:AP18&amp;","&amp;AQ7:AQ18&amp;","&amp;AR7:AR18&amp;","&amp;AS7:AS18&amp;","&amp;AT7:AT18&amp;","&amp;AU7:AU18</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4518,7 +4514,7 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>0</v>
       </c>
       <c r="N15" s="1">
@@ -4623,11 +4619,11 @@
       <c r="AU15" s="1">
         <v>0</v>
       </c>
-      <c r="AV15" s="11" t="str">
+      <c r="AV15" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW15" s="11" t="str">
+      <c r="AW15" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4663,7 +4659,7 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>0</v>
       </c>
       <c r="N16" s="1">
@@ -4768,11 +4764,11 @@
       <c r="AU16" s="1">
         <v>0</v>
       </c>
-      <c r="AV16" s="11" t="str">
+      <c r="AV16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW16" s="11" t="str">
+      <c r="AW16" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4808,7 +4804,7 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>0</v>
       </c>
       <c r="N17" s="1">
@@ -4913,11 +4909,11 @@
       <c r="AU17" s="1">
         <v>0</v>
       </c>
-      <c r="AV17" s="11" t="str">
+      <c r="AV17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW17" s="11" t="str">
+      <c r="AW17" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -4953,7 +4949,7 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>0</v>
       </c>
       <c r="N18" s="1">
@@ -5058,11 +5054,11 @@
       <c r="AU18" s="1">
         <v>0</v>
       </c>
-      <c r="AV18" s="11" t="str">
+      <c r="AV18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW18" s="11" t="str">
+      <c r="AW18" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5098,7 +5094,7 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>0</v>
       </c>
       <c r="N19" s="1">
@@ -5203,11 +5199,11 @@
       <c r="AU19" s="1">
         <v>0</v>
       </c>
-      <c r="AV19" s="11" t="str">
+      <c r="AV19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW19" s="11" t="str">
+      <c r="AW19" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5243,7 +5239,7 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>0</v>
       </c>
       <c r="N20" s="1">
@@ -5348,11 +5344,11 @@
       <c r="AU20" s="1">
         <v>0</v>
       </c>
-      <c r="AV20" s="11" t="str">
+      <c r="AV20" s="10" t="str">
         <f t="shared" ref="AV14:AV38" si="4">AB14:AB24&amp;","&amp;AC14:AC24&amp;","&amp;AD14:AD24&amp;","&amp;AE14:AE24&amp;","&amp;AF14:AF24&amp;","&amp;AG14:AG24&amp;","&amp;AH14:AH24&amp;","&amp;AI14:AI24&amp;","&amp;AJ14:AJ24&amp;","&amp;AK14:AK24</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW20" s="11" t="str">
+      <c r="AW20" s="10" t="str">
         <f t="shared" ref="AW14:AW38" si="5">AL14:AL24&amp;","&amp;AM14:AM24&amp;","&amp;AN14:AN24&amp;","&amp;AO14:AO24&amp;","&amp;AP14:AP24&amp;","&amp;AQ14:AQ24&amp;","&amp;AR14:AR24&amp;","&amp;AS14:AS24&amp;","&amp;AT14:AT24&amp;","&amp;AU14:AU24</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5367,13 +5363,13 @@
       <c r="E21" s="1">
         <v>50</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>30</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>0</v>
       </c>
       <c r="I21" s="1">
@@ -5388,7 +5384,7 @@
       <c r="L21" s="1">
         <v>25</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>0</v>
       </c>
       <c r="N21" s="1">
@@ -5397,13 +5393,13 @@
       <c r="O21" s="1">
         <v>50</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <v>0</v>
       </c>
       <c r="Q21" s="1">
         <v>50</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="12">
         <v>0</v>
       </c>
       <c r="S21" s="1">
@@ -5415,7 +5411,7 @@
       <c r="U21" s="1">
         <v>500</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="12">
         <v>0</v>
       </c>
       <c r="W21" s="1">
@@ -5493,11 +5489,11 @@
       <c r="AU21" s="1">
         <v>50</v>
       </c>
-      <c r="AV21" s="11" t="str">
+      <c r="AV21" s="10" t="str">
         <f t="shared" si="4"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
-      <c r="AW21" s="11" t="str">
+      <c r="AW21" s="10" t="str">
         <f t="shared" si="5"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
@@ -5512,13 +5508,13 @@
       <c r="E22" s="1">
         <v>50</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>0</v>
       </c>
       <c r="I22" s="1">
@@ -5533,7 +5529,7 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -5542,13 +5538,13 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="12">
         <v>0</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="12">
         <v>0</v>
       </c>
       <c r="S22" s="1">
@@ -5560,7 +5556,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="12">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -5638,11 +5634,11 @@
       <c r="AU22" s="1">
         <v>0</v>
       </c>
-      <c r="AV22" s="11" t="str">
+      <c r="AV22" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW22" s="11" t="str">
+      <c r="AW22" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5657,13 +5653,13 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>0</v>
       </c>
       <c r="G23" s="1">
         <v>30</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>0</v>
       </c>
       <c r="I23" s="1">
@@ -5678,7 +5674,7 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <v>0</v>
       </c>
       <c r="N23" s="1">
@@ -5687,13 +5683,13 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="12">
         <v>0</v>
       </c>
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R23" s="12">
         <v>0</v>
       </c>
       <c r="S23" s="1">
@@ -5705,7 +5701,7 @@
       <c r="U23" s="1">
         <v>0</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="12">
         <v>0</v>
       </c>
       <c r="W23" s="1">
@@ -5783,11 +5779,11 @@
       <c r="AU23" s="1">
         <v>0</v>
       </c>
-      <c r="AV23" s="11" t="str">
+      <c r="AV23" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW23" s="11" t="str">
+      <c r="AW23" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5802,13 +5798,13 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>0</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>0</v>
       </c>
       <c r="I24" s="1">
@@ -5823,7 +5819,7 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="12">
         <v>0</v>
       </c>
       <c r="N24" s="1">
@@ -5832,13 +5828,13 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="12">
         <v>0</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="12">
         <v>0</v>
       </c>
       <c r="S24" s="1">
@@ -5850,7 +5846,7 @@
       <c r="U24" s="1">
         <v>500</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="12">
         <v>0</v>
       </c>
       <c r="W24" s="1">
@@ -5928,11 +5924,11 @@
       <c r="AU24" s="1">
         <v>0</v>
       </c>
-      <c r="AV24" s="11" t="str">
+      <c r="AV24" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW24" s="11" t="str">
+      <c r="AW24" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -5947,13 +5943,13 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>0</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>0</v>
       </c>
       <c r="I25" s="1">
@@ -5968,7 +5964,7 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <v>0</v>
       </c>
       <c r="N25" s="1">
@@ -5977,13 +5973,13 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="12">
         <v>0</v>
       </c>
       <c r="Q25" s="1">
         <v>0</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="12">
         <v>0</v>
       </c>
       <c r="S25" s="1">
@@ -5995,7 +5991,7 @@
       <c r="U25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="12">
         <v>0</v>
       </c>
       <c r="W25" s="1">
@@ -6073,11 +6069,11 @@
       <c r="AU25" s="1">
         <v>0</v>
       </c>
-      <c r="AV25" s="11" t="str">
+      <c r="AV25" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW25" s="11" t="str">
+      <c r="AW25" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -6086,7 +6082,7 @@
       <c r="C26" s="1">
         <v>2005</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>129</v>
       </c>
       <c r="E26" s="1">
@@ -6113,7 +6109,7 @@
       <c r="L26" s="1">
         <v>5</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <v>0</v>
       </c>
       <c r="N26" s="1">
@@ -6218,11 +6214,11 @@
       <c r="AU26" s="1">
         <v>25</v>
       </c>
-      <c r="AV26" s="11" t="str">
+      <c r="AV26" s="10" t="str">
         <f t="shared" si="4"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
-      <c r="AW26" s="11" t="str">
+      <c r="AW26" s="10" t="str">
         <f t="shared" si="5"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
@@ -6237,13 +6233,13 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>0</v>
       </c>
       <c r="I27" s="1">
@@ -6258,7 +6254,7 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <v>0</v>
       </c>
       <c r="N27" s="1">
@@ -6267,13 +6263,13 @@
       <c r="O27" s="1">
         <v>0</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="12">
         <v>0</v>
       </c>
       <c r="Q27" s="1">
         <v>0</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="12">
         <v>0</v>
       </c>
       <c r="S27" s="1">
@@ -6285,7 +6281,7 @@
       <c r="U27" s="1">
         <v>0</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="12">
         <v>0</v>
       </c>
       <c r="W27" s="1">
@@ -6363,11 +6359,11 @@
       <c r="AU27" s="1">
         <v>0</v>
       </c>
-      <c r="AV27" s="11" t="str">
+      <c r="AV27" s="10" t="str">
         <f t="shared" si="4"/>
         <v>500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW27" s="11" t="str">
+      <c r="AW27" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -6382,13 +6378,13 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>0</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>0</v>
       </c>
       <c r="I28" s="1">
@@ -6403,7 +6399,7 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="12">
         <v>0</v>
       </c>
       <c r="N28" s="1">
@@ -6412,13 +6408,13 @@
       <c r="O28" s="1">
         <v>0</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="12">
         <v>0</v>
       </c>
       <c r="Q28" s="1">
         <v>0</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="12">
         <v>0</v>
       </c>
       <c r="S28" s="1">
@@ -6430,7 +6426,7 @@
       <c r="U28" s="1">
         <v>0</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="12">
         <v>0</v>
       </c>
       <c r="W28" s="1">
@@ -6508,11 +6504,11 @@
       <c r="AU28" s="1">
         <v>0</v>
       </c>
-      <c r="AV28" s="11" t="str">
+      <c r="AV28" s="10" t="str">
         <f t="shared" si="4"/>
         <v>1000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW28" s="11" t="str">
+      <c r="AW28" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -6527,13 +6523,13 @@
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>0</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>0</v>
       </c>
       <c r="I29" s="1">
@@ -6548,7 +6544,7 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <v>0</v>
       </c>
       <c r="N29" s="1">
@@ -6557,13 +6553,13 @@
       <c r="O29" s="1">
         <v>0</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="12">
         <v>0</v>
       </c>
       <c r="Q29" s="1">
         <v>0</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="12">
         <v>0</v>
       </c>
       <c r="S29" s="1">
@@ -6575,7 +6571,7 @@
       <c r="U29" s="1">
         <v>0</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="12">
         <v>0</v>
       </c>
       <c r="W29" s="1">
@@ -6653,11 +6649,11 @@
       <c r="AU29" s="1">
         <v>0</v>
       </c>
-      <c r="AV29" s="11" t="str">
+      <c r="AV29" s="10" t="str">
         <f t="shared" si="4"/>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW29" s="11" t="str">
+      <c r="AW29" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -6672,13 +6668,13 @@
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>0</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <v>0</v>
       </c>
       <c r="I30" s="1">
@@ -6693,7 +6689,7 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="12">
         <v>0</v>
       </c>
       <c r="N30" s="1">
@@ -6702,13 +6698,13 @@
       <c r="O30" s="1">
         <v>0</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="12">
         <v>0</v>
       </c>
       <c r="Q30" s="1">
         <v>0</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="12">
         <v>0</v>
       </c>
       <c r="S30" s="1">
@@ -6720,7 +6716,7 @@
       <c r="U30" s="1">
         <v>0</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="12">
         <v>0</v>
       </c>
       <c r="W30" s="1">
@@ -6798,11 +6794,11 @@
       <c r="AU30" s="1">
         <v>0</v>
       </c>
-      <c r="AV30" s="11" t="str">
+      <c r="AV30" s="10" t="str">
         <f t="shared" si="4"/>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW30" s="11" t="str">
+      <c r="AW30" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -6817,13 +6813,13 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>0</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <v>0</v>
       </c>
       <c r="I31" s="1">
@@ -6838,7 +6834,7 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="12">
         <v>0</v>
       </c>
       <c r="N31" s="1">
@@ -6847,13 +6843,13 @@
       <c r="O31" s="1">
         <v>0</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="12">
         <v>0</v>
       </c>
       <c r="Q31" s="1">
         <v>0</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="12">
         <v>0</v>
       </c>
       <c r="S31" s="1">
@@ -6865,7 +6861,7 @@
       <c r="U31" s="1">
         <v>0</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="12">
         <v>0</v>
       </c>
       <c r="W31" s="1">
@@ -6943,11 +6939,11 @@
       <c r="AU31" s="1">
         <v>0</v>
       </c>
-      <c r="AV31" s="11" t="str">
+      <c r="AV31" s="10" t="str">
         <f t="shared" si="4"/>
         <v>2500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW31" s="11" t="str">
+      <c r="AW31" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -6962,13 +6958,13 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>0</v>
       </c>
       <c r="I32" s="1">
@@ -6983,7 +6979,7 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="12">
         <v>0</v>
       </c>
       <c r="N32" s="1">
@@ -6992,13 +6988,13 @@
       <c r="O32" s="1">
         <v>0</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="12">
         <v>0</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="12">
         <v>0</v>
       </c>
       <c r="S32" s="1">
@@ -7010,7 +7006,7 @@
       <c r="U32" s="1">
         <v>0</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="12">
         <v>0</v>
       </c>
       <c r="W32" s="1">
@@ -7088,11 +7084,11 @@
       <c r="AU32" s="1">
         <v>0</v>
       </c>
-      <c r="AV32" s="11" t="str">
+      <c r="AV32" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW32" s="11" t="str">
+      <c r="AW32" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -7107,13 +7103,13 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>0</v>
       </c>
       <c r="I33" s="1">
@@ -7128,7 +7124,7 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="12">
         <v>0</v>
       </c>
       <c r="N33" s="1">
@@ -7137,13 +7133,13 @@
       <c r="O33" s="1">
         <v>0</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="12">
         <v>0</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="12">
         <v>0</v>
       </c>
       <c r="S33" s="1">
@@ -7155,7 +7151,7 @@
       <c r="U33" s="1">
         <v>0</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="12">
         <v>0</v>
       </c>
       <c r="W33" s="1">
@@ -7233,11 +7229,11 @@
       <c r="AU33" s="1">
         <v>0</v>
       </c>
-      <c r="AV33" s="11" t="str">
+      <c r="AV33" s="10" t="str">
         <f>AB27:AB36&amp;","&amp;AC27:AC36&amp;","&amp;AD27:AD36&amp;","&amp;AE27:AE36&amp;","&amp;AF27:AF36&amp;","&amp;AG27:AG36&amp;","&amp;AH27:AH36&amp;","&amp;AI27:AI36&amp;","&amp;AJ27:AJ36&amp;","&amp;AK27:AK36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW33" s="11" t="str">
+      <c r="AW33" s="10" t="str">
         <f>AL27:AL36&amp;","&amp;AM27:AM36&amp;","&amp;AN27:AN36&amp;","&amp;AO27:AO36&amp;","&amp;AP27:AP36&amp;","&amp;AQ27:AQ36&amp;","&amp;AR27:AR36&amp;","&amp;AS27:AS36&amp;","&amp;AT27:AT36&amp;","&amp;AU27:AU36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -7252,13 +7248,13 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>0</v>
       </c>
       <c r="I34" s="1">
@@ -7273,7 +7269,7 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="12">
         <v>0</v>
       </c>
       <c r="N34" s="1">
@@ -7282,13 +7278,13 @@
       <c r="O34" s="1">
         <v>0</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="12">
         <v>0</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="12">
         <v>0</v>
       </c>
       <c r="S34" s="1">
@@ -7300,7 +7296,7 @@
       <c r="U34" s="1">
         <v>0</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="12">
         <v>0</v>
       </c>
       <c r="W34" s="1">
@@ -7378,11 +7374,11 @@
       <c r="AU34" s="1">
         <v>0</v>
       </c>
-      <c r="AV34" s="11" t="str">
+      <c r="AV34" s="10" t="str">
         <f>AB28:AB36&amp;","&amp;AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36&amp;","&amp;AK28:AK36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW34" s="11" t="str">
+      <c r="AW34" s="10" t="str">
         <f>AL28:AL36&amp;","&amp;AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36&amp;","&amp;AU28:AU36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -7397,13 +7393,13 @@
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>0</v>
       </c>
       <c r="I35" s="1">
@@ -7418,7 +7414,7 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="12">
         <v>0</v>
       </c>
       <c r="N35" s="1">
@@ -7427,13 +7423,13 @@
       <c r="O35" s="1">
         <v>0</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="12">
         <v>0</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
       </c>
-      <c r="R35" s="13">
+      <c r="R35" s="12">
         <v>0</v>
       </c>
       <c r="S35" s="1">
@@ -7445,7 +7441,7 @@
       <c r="U35" s="1">
         <v>0</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="12">
         <v>0</v>
       </c>
       <c r="W35" s="1">
@@ -7523,11 +7519,11 @@
       <c r="AU35" s="1">
         <v>0</v>
       </c>
-      <c r="AV35" s="11" t="str">
+      <c r="AV35" s="10" t="str">
         <f>AB29:AB37&amp;","&amp;AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37&amp;","&amp;AK29:AK37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW35" s="11" t="str">
+      <c r="AW35" s="10" t="str">
         <f>AL29:AL37&amp;","&amp;AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37&amp;","&amp;AU29:AU37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -7542,13 +7538,13 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <v>0</v>
       </c>
       <c r="I36" s="1">
@@ -7563,7 +7559,7 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="12">
         <v>0</v>
       </c>
       <c r="N36" s="1">
@@ -7572,13 +7568,13 @@
       <c r="O36" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="12">
         <v>0</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R36" s="12">
         <v>0</v>
       </c>
       <c r="S36" s="1">
@@ -7590,7 +7586,7 @@
       <c r="U36" s="1">
         <v>0</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="12">
         <v>0</v>
       </c>
       <c r="W36" s="1">
@@ -7668,11 +7664,11 @@
       <c r="AU36" s="1">
         <v>0</v>
       </c>
-      <c r="AV36" s="11" t="str">
+      <c r="AV36" s="10" t="str">
         <f>AB30:AB38&amp;","&amp;AC30:AC38&amp;","&amp;AD30:AD38&amp;","&amp;AE30:AE38&amp;","&amp;AF30:AF38&amp;","&amp;AG30:AG38&amp;","&amp;AH30:AH38&amp;","&amp;AI30:AI38&amp;","&amp;AJ30:AJ38&amp;","&amp;AK30:AK38</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW36" s="11" t="str">
+      <c r="AW36" s="10" t="str">
         <f>AL30:AL38&amp;","&amp;AM30:AM38&amp;","&amp;AN30:AN38&amp;","&amp;AO30:AO38&amp;","&amp;AP30:AP38&amp;","&amp;AQ30:AQ38&amp;","&amp;AR30:AR38&amp;","&amp;AS30:AS38&amp;","&amp;AT30:AT38&amp;","&amp;AU30:AU38</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -7708,7 +7704,7 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="12">
         <v>0</v>
       </c>
       <c r="N37" s="1">
@@ -7813,11 +7809,11 @@
       <c r="AU37" s="1">
         <v>0</v>
       </c>
-      <c r="AV37" s="11" t="str">
+      <c r="AV37" s="10" t="str">
         <f>AB33:AB41&amp;","&amp;AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41&amp;","&amp;AK33:AK41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW37" s="11" t="str">
+      <c r="AW37" s="10" t="str">
         <f>AL33:AL41&amp;","&amp;AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41&amp;","&amp;AU33:AU41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -7853,7 +7849,7 @@
       <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="12">
         <v>0</v>
       </c>
       <c r="N38" s="1">
@@ -7958,11 +7954,11 @@
       <c r="AU38" s="1">
         <v>0</v>
       </c>
-      <c r="AV38" s="11" t="str">
+      <c r="AV38" s="10" t="str">
         <f>AB34:AB42&amp;","&amp;AC34:AC42&amp;","&amp;AD34:AD42&amp;","&amp;AE34:AE42&amp;","&amp;AF34:AF42&amp;","&amp;AG34:AG42&amp;","&amp;AH34:AH42&amp;","&amp;AI34:AI42&amp;","&amp;AJ34:AJ42&amp;","&amp;AK34:AK42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW38" s="11" t="str">
+      <c r="AW38" s="10" t="str">
         <f>AL34:AL42&amp;","&amp;AM34:AM42&amp;","&amp;AN34:AN42&amp;","&amp;AO34:AO42&amp;","&amp;AP34:AP42&amp;","&amp;AQ34:AQ42&amp;","&amp;AR34:AR42&amp;","&amp;AS34:AS42&amp;","&amp;AT34:AT42&amp;","&amp;AU34:AU42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -7998,7 +7994,7 @@
       <c r="L39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="12">
         <v>0</v>
       </c>
       <c r="N39" s="1">
@@ -8103,11 +8099,11 @@
       <c r="AU39" s="1">
         <v>0</v>
       </c>
-      <c r="AV39" s="11" t="str">
+      <c r="AV39" s="10" t="str">
         <f>AB35:AB43&amp;","&amp;AC35:AC43&amp;","&amp;AD35:AD43&amp;","&amp;AE35:AE43&amp;","&amp;AF35:AF43&amp;","&amp;AG35:AG43&amp;","&amp;AH35:AH43&amp;","&amp;AI35:AI43&amp;","&amp;AJ35:AJ43&amp;","&amp;AK35:AK43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW39" s="11" t="str">
+      <c r="AW39" s="10" t="str">
         <f>AL35:AL43&amp;","&amp;AM35:AM43&amp;","&amp;AN35:AN43&amp;","&amp;AO35:AO43&amp;","&amp;AP35:AP43&amp;","&amp;AQ35:AQ43&amp;","&amp;AR35:AR43&amp;","&amp;AS35:AS43&amp;","&amp;AT35:AT43&amp;","&amp;AU35:AU43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -8143,7 +8139,7 @@
       <c r="L40" s="1">
         <v>0</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="12">
         <v>0</v>
       </c>
       <c r="N40" s="1">
@@ -8248,11 +8244,11 @@
       <c r="AU40" s="1">
         <v>0</v>
       </c>
-      <c r="AV40" s="11" t="str">
+      <c r="AV40" s="10" t="str">
         <f>AB36:AB44&amp;","&amp;AC36:AC44&amp;","&amp;AD36:AD44&amp;","&amp;AE36:AE44&amp;","&amp;AF36:AF44&amp;","&amp;AG36:AG44&amp;","&amp;AH36:AH44&amp;","&amp;AI36:AI44&amp;","&amp;AJ36:AJ44&amp;","&amp;AK36:AK44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW40" s="11" t="str">
+      <c r="AW40" s="10" t="str">
         <f>AL36:AL44&amp;","&amp;AM36:AM44&amp;","&amp;AN36:AN44&amp;","&amp;AO36:AO44&amp;","&amp;AP36:AP44&amp;","&amp;AQ36:AQ44&amp;","&amp;AR36:AR44&amp;","&amp;AS36:AS44&amp;","&amp;AT36:AT44&amp;","&amp;AU36:AU44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -8288,7 +8284,7 @@
       <c r="L41" s="1">
         <v>0</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="12">
         <v>0</v>
       </c>
       <c r="N41" s="1">
@@ -8393,11 +8389,11 @@
       <c r="AU41" s="1">
         <v>0</v>
       </c>
-      <c r="AV41" s="11" t="str">
+      <c r="AV41" s="10" t="str">
         <f>AB37:AB45&amp;","&amp;AC37:AC45&amp;","&amp;AD37:AD45&amp;","&amp;AE37:AE45&amp;","&amp;AF37:AF45&amp;","&amp;AG37:AG45&amp;","&amp;AH37:AH45&amp;","&amp;AI37:AI45&amp;","&amp;AJ37:AJ45&amp;","&amp;AK37:AK45</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW41" s="11" t="str">
+      <c r="AW41" s="10" t="str">
         <f>AL37:AL45&amp;","&amp;AM37:AM45&amp;","&amp;AN37:AN45&amp;","&amp;AO37:AO45&amp;","&amp;AP37:AP45&amp;","&amp;AQ37:AQ45&amp;","&amp;AR37:AR45&amp;","&amp;AS37:AS45&amp;","&amp;AT37:AT45&amp;","&amp;AU37:AU45</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -8433,7 +8429,7 @@
       <c r="L42" s="1">
         <v>0</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="12">
         <v>0</v>
       </c>
       <c r="N42" s="1">
@@ -8538,11 +8534,11 @@
       <c r="AU42" s="1">
         <v>0</v>
       </c>
-      <c r="AV42" s="11" t="str">
+      <c r="AV42" s="10" t="str">
         <f>AB37:AB46&amp;","&amp;AC37:AC46&amp;","&amp;AD37:AD46&amp;","&amp;AE37:AE46&amp;","&amp;AF37:AF46&amp;","&amp;AG37:AG46&amp;","&amp;AH37:AH46&amp;","&amp;AI37:AI46&amp;","&amp;AJ37:AJ46&amp;","&amp;AK37:AK46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW42" s="11" t="str">
+      <c r="AW42" s="10" t="str">
         <f>AL37:AL46&amp;","&amp;AM37:AM46&amp;","&amp;AN37:AN46&amp;","&amp;AO37:AO46&amp;","&amp;AP37:AP46&amp;","&amp;AQ37:AQ46&amp;","&amp;AR37:AR46&amp;","&amp;AS37:AS46&amp;","&amp;AT37:AT46&amp;","&amp;AU37:AU46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -8578,7 +8574,7 @@
       <c r="L43" s="1">
         <v>0</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="12">
         <v>0</v>
       </c>
       <c r="N43" s="1">
@@ -8594,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -8683,11 +8679,11 @@
       <c r="AU43" s="1">
         <v>0</v>
       </c>
-      <c r="AV43" s="11" t="str">
+      <c r="AV43" s="10" t="str">
         <f>AB37:AB47&amp;","&amp;AC37:AC47&amp;","&amp;AD37:AD47&amp;","&amp;AE37:AE47&amp;","&amp;AF37:AF47&amp;","&amp;AG37:AG47&amp;","&amp;AH37:AH47&amp;","&amp;AI37:AI47&amp;","&amp;AJ37:AJ47&amp;","&amp;AK37:AK47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW43" s="11" t="str">
+      <c r="AW43" s="10" t="str">
         <f>AL37:AL47&amp;","&amp;AM37:AM47&amp;","&amp;AN37:AN47&amp;","&amp;AO37:AO47&amp;","&amp;AP37:AP47&amp;","&amp;AQ37:AQ47&amp;","&amp;AR37:AR47&amp;","&amp;AS37:AS47&amp;","&amp;AT37:AT47&amp;","&amp;AU37:AU47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -8723,7 +8719,7 @@
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="12">
         <v>0</v>
       </c>
       <c r="N44" s="1">
@@ -8828,11 +8824,11 @@
       <c r="AU44" s="1">
         <v>0</v>
       </c>
-      <c r="AV44" s="11" t="str">
+      <c r="AV44" s="10" t="str">
         <f>AB38:AB48&amp;","&amp;AC38:AC48&amp;","&amp;AD38:AD48&amp;","&amp;AE38:AE48&amp;","&amp;AF38:AF48&amp;","&amp;AG38:AG48&amp;","&amp;AH38:AH48&amp;","&amp;AI38:AI48&amp;","&amp;AJ38:AJ48&amp;","&amp;AK38:AK48</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW44" s="11" t="str">
+      <c r="AW44" s="10" t="str">
         <f>AL38:AL48&amp;","&amp;AM38:AM48&amp;","&amp;AN38:AN48&amp;","&amp;AO38:AO48&amp;","&amp;AP38:AP48&amp;","&amp;AQ38:AQ48&amp;","&amp;AR38:AR48&amp;","&amp;AS38:AS48&amp;","&amp;AT38:AT48&amp;","&amp;AU38:AU48</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -8868,7 +8864,7 @@
       <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="12">
         <v>0</v>
       </c>
       <c r="N45" s="1">
@@ -8878,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="1">
         <v>0</v>
@@ -8973,11 +8969,11 @@
       <c r="AU45" s="1">
         <v>0</v>
       </c>
-      <c r="AV45" s="11" t="str">
+      <c r="AV45" s="10" t="str">
         <f t="shared" ref="AV45:AV50" si="6">AB39:AB51&amp;","&amp;AC39:AC51&amp;","&amp;AD39:AD51&amp;","&amp;AE39:AE51&amp;","&amp;AF39:AF51&amp;","&amp;AG39:AG51&amp;","&amp;AH39:AH51&amp;","&amp;AI39:AI51&amp;","&amp;AJ39:AJ51&amp;","&amp;AK39:AK51</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW45" s="11" t="str">
+      <c r="AW45" s="10" t="str">
         <f t="shared" ref="AW45:AW50" si="7">AL39:AL51&amp;","&amp;AM39:AM51&amp;","&amp;AN39:AN51&amp;","&amp;AO39:AO51&amp;","&amp;AP39:AP51&amp;","&amp;AQ39:AQ51&amp;","&amp;AR39:AR51&amp;","&amp;AS39:AS51&amp;","&amp;AT39:AT51&amp;","&amp;AU39:AU51</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -9013,7 +9009,7 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="12">
         <v>0</v>
       </c>
       <c r="N46" s="1">
@@ -9118,11 +9114,11 @@
       <c r="AU46" s="1">
         <v>0</v>
       </c>
-      <c r="AV46" s="11" t="str">
+      <c r="AV46" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW46" s="11" t="str">
+      <c r="AW46" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -9158,8 +9154,8 @@
       <c r="L47" s="1">
         <v>0</v>
       </c>
-      <c r="M47" s="13">
-        <v>30</v>
+      <c r="M47" s="12">
+        <v>20</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -9263,11 +9259,11 @@
       <c r="AU47" s="1">
         <v>0</v>
       </c>
-      <c r="AV47" s="11" t="str">
+      <c r="AV47" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW47" s="11" t="str">
+      <c r="AW47" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -9303,7 +9299,7 @@
       <c r="L48" s="1">
         <v>0</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="12">
         <v>50</v>
       </c>
       <c r="N48" s="1">
@@ -9408,11 +9404,11 @@
       <c r="AU48" s="1">
         <v>0</v>
       </c>
-      <c r="AV48" s="11" t="str">
+      <c r="AV48" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW48" s="11" t="str">
+      <c r="AW48" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -9553,11 +9549,11 @@
       <c r="AU49" s="1">
         <v>0</v>
       </c>
-      <c r="AV49" s="11" t="str">
+      <c r="AV49" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW49" s="11" t="str">
+      <c r="AW49" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -9698,11 +9694,11 @@
       <c r="AU50" s="1">
         <v>0</v>
       </c>
-      <c r="AV50" s="11" t="str">
+      <c r="AV50" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW50" s="11" t="str">
+      <c r="AW50" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -9738,7 +9734,7 @@
       <c r="L51" s="1">
         <v>0</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="12">
         <v>0</v>
       </c>
       <c r="N51" s="1">
@@ -9843,11 +9839,11 @@
       <c r="AU51" s="1">
         <v>0</v>
       </c>
-      <c r="AV51" s="11" t="str">
+      <c r="AV51" s="10" t="str">
         <f t="shared" ref="AV51:AV56" si="8">AB43:AB55&amp;","&amp;AC43:AC55&amp;","&amp;AD43:AD55&amp;","&amp;AE43:AE55&amp;","&amp;AF43:AF55&amp;","&amp;AG43:AG55&amp;","&amp;AH43:AH55&amp;","&amp;AI43:AI55&amp;","&amp;AJ43:AJ55&amp;","&amp;AK43:AK55</f>
         <v>0,20,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW51" s="11" t="str">
+      <c r="AW51" s="10" t="str">
         <f t="shared" ref="AW51:AW56" si="9">AL43:AL55&amp;","&amp;AM43:AM55&amp;","&amp;AN43:AN55&amp;","&amp;AO43:AO55&amp;","&amp;AP43:AP55&amp;","&amp;AQ43:AQ55&amp;","&amp;AR43:AR55&amp;","&amp;AS43:AS55&amp;","&amp;AT43:AT55&amp;","&amp;AU43:AU55</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -9883,7 +9879,7 @@
       <c r="L52" s="1">
         <v>0</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="12">
         <v>0</v>
       </c>
       <c r="N52" s="1">
@@ -9988,11 +9984,11 @@
       <c r="AU52" s="1">
         <v>0</v>
       </c>
-      <c r="AV52" s="11" t="str">
+      <c r="AV52" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,20,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW52" s="11" t="str">
+      <c r="AW52" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -10028,7 +10024,7 @@
       <c r="L53" s="1">
         <v>0</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="12">
         <v>0</v>
       </c>
       <c r="N53" s="1">
@@ -10133,11 +10129,11 @@
       <c r="AU53" s="1">
         <v>0</v>
       </c>
-      <c r="AV53" s="11" t="str">
+      <c r="AV53" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,20,0,0,0,0,0,0</v>
       </c>
-      <c r="AW53" s="11" t="str">
+      <c r="AW53" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -10173,7 +10169,7 @@
       <c r="L54" s="1">
         <v>0</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="12">
         <v>0</v>
       </c>
       <c r="N54" s="1">
@@ -10278,11 +10274,11 @@
       <c r="AU54" s="1">
         <v>0</v>
       </c>
-      <c r="AV54" s="11" t="str">
+      <c r="AV54" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,0,20,0,0,0,0,0</v>
       </c>
-      <c r="AW54" s="11" t="str">
+      <c r="AW54" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -10318,7 +10314,7 @@
       <c r="L55" s="1">
         <v>0</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="12">
         <v>0</v>
       </c>
       <c r="N55" s="1">
@@ -10423,11 +10419,11 @@
       <c r="AU55" s="1">
         <v>0</v>
       </c>
-      <c r="AV55" s="11" t="str">
+      <c r="AV55" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,0,0,20,0,0,0,0</v>
       </c>
-      <c r="AW55" s="11" t="str">
+      <c r="AW55" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -10463,7 +10459,7 @@
       <c r="L56" s="1">
         <v>0</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="12">
         <v>0</v>
       </c>
       <c r="N56" s="1">
@@ -10568,11 +10564,11 @@
       <c r="AU56" s="1">
         <v>0</v>
       </c>
-      <c r="AV56" s="11" t="str">
+      <c r="AV56" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,20,0,0,0</v>
       </c>
-      <c r="AW56" s="11" t="str">
+      <c r="AW56" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -10608,7 +10604,7 @@
       <c r="L57" s="1">
         <v>0</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="12">
         <v>0</v>
       </c>
       <c r="N57" s="1">
@@ -10713,11 +10709,11 @@
       <c r="AU57" s="1">
         <v>0</v>
       </c>
-      <c r="AV57" s="11" t="str">
+      <c r="AV57" s="10" t="str">
         <f t="shared" ref="AV52:AV86" si="10">AB51:AB61&amp;","&amp;AC51:AC61&amp;","&amp;AD51:AD61&amp;","&amp;AE51:AE61&amp;","&amp;AF51:AF61&amp;","&amp;AG51:AG61&amp;","&amp;AH51:AH61&amp;","&amp;AI51:AI61&amp;","&amp;AJ51:AJ61&amp;","&amp;AK51:AK61</f>
         <v>0,0,0,0,0,0,0,20,0,0</v>
       </c>
-      <c r="AW57" s="11" t="str">
+      <c r="AW57" s="10" t="str">
         <f t="shared" ref="AW52:AW86" si="11">AL51:AL61&amp;","&amp;AM51:AM61&amp;","&amp;AN51:AN61&amp;","&amp;AO51:AO61&amp;","&amp;AP51:AP61&amp;","&amp;AQ51:AQ61&amp;","&amp;AR51:AR61&amp;","&amp;AS51:AS61&amp;","&amp;AT51:AT61&amp;","&amp;AU51:AU61</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -10753,7 +10749,7 @@
       <c r="L58" s="1">
         <v>0</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="12">
         <v>0</v>
       </c>
       <c r="N58" s="1">
@@ -10858,11 +10854,11 @@
       <c r="AU58" s="1">
         <v>0</v>
       </c>
-      <c r="AV58" s="11" t="str">
+      <c r="AV58" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,20,0</v>
       </c>
-      <c r="AW58" s="11" t="str">
+      <c r="AW58" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -10898,7 +10894,7 @@
       <c r="L59" s="1">
         <v>0</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="12">
         <v>0</v>
       </c>
       <c r="N59" s="1">
@@ -11003,11 +10999,11 @@
       <c r="AU59" s="1">
         <v>0</v>
       </c>
-      <c r="AV59" s="11" t="str">
+      <c r="AV59" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,20</v>
       </c>
-      <c r="AW59" s="11" t="str">
+      <c r="AW59" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -11043,7 +11039,7 @@
       <c r="L60" s="1">
         <v>0</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="12">
         <v>0</v>
       </c>
       <c r="N60" s="1">
@@ -11148,11 +11144,11 @@
       <c r="AU60" s="1">
         <v>0</v>
       </c>
-      <c r="AV60" s="11" t="str">
+      <c r="AV60" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW60" s="11" t="str">
+      <c r="AW60" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -11188,7 +11184,7 @@
       <c r="L61" s="1">
         <v>0</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="12">
         <v>0</v>
       </c>
       <c r="N61" s="1">
@@ -11293,11 +11289,11 @@
       <c r="AU61" s="1">
         <v>0</v>
       </c>
-      <c r="AV61" s="11" t="str">
+      <c r="AV61" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,50,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW61" s="11" t="str">
+      <c r="AW61" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -11333,7 +11329,7 @@
       <c r="L62" s="1">
         <v>0</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M62" s="12">
         <v>0</v>
       </c>
       <c r="N62" s="1">
@@ -11438,11 +11434,11 @@
       <c r="AU62" s="1">
         <v>0</v>
       </c>
-      <c r="AV62" s="11" t="str">
+      <c r="AV62" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,50,0,0,0,0,0,0</v>
       </c>
-      <c r="AW62" s="11" t="str">
+      <c r="AW62" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -11478,7 +11474,7 @@
       <c r="L63" s="1">
         <v>0</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="12">
         <v>0</v>
       </c>
       <c r="N63" s="1">
@@ -11583,11 +11579,11 @@
       <c r="AU63" s="1">
         <v>0</v>
       </c>
-      <c r="AV63" s="11" t="str">
+      <c r="AV63" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,50,0,0,0,0,0</v>
       </c>
-      <c r="AW63" s="11" t="str">
+      <c r="AW63" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -11623,7 +11619,7 @@
       <c r="L64" s="1">
         <v>0</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="12">
         <v>0</v>
       </c>
       <c r="N64" s="1">
@@ -11728,11 +11724,11 @@
       <c r="AU64" s="1">
         <v>0</v>
       </c>
-      <c r="AV64" s="11" t="str">
+      <c r="AV64" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,50,0,0,0,0</v>
       </c>
-      <c r="AW64" s="11" t="str">
+      <c r="AW64" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -11768,7 +11764,7 @@
       <c r="L65" s="1">
         <v>0</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="12">
         <v>0</v>
       </c>
       <c r="N65" s="1">
@@ -11873,11 +11869,11 @@
       <c r="AU65" s="1">
         <v>0</v>
       </c>
-      <c r="AV65" s="11" t="str">
+      <c r="AV65" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,50,0,0,0</v>
       </c>
-      <c r="AW65" s="11" t="str">
+      <c r="AW65" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -11913,7 +11909,7 @@
       <c r="L66" s="1">
         <v>0</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="12">
         <v>0</v>
       </c>
       <c r="N66" s="1">
@@ -12018,11 +12014,11 @@
       <c r="AU66" s="1">
         <v>0</v>
       </c>
-      <c r="AV66" s="11" t="str">
+      <c r="AV66" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,50,0,0</v>
       </c>
-      <c r="AW66" s="11" t="str">
+      <c r="AW66" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -12058,7 +12054,7 @@
       <c r="L67" s="1">
         <v>0</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="12">
         <v>0</v>
       </c>
       <c r="N67" s="1">
@@ -12163,11 +12159,11 @@
       <c r="AU67" s="1">
         <v>0</v>
       </c>
-      <c r="AV67" s="11" t="str">
+      <c r="AV67" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,50,0</v>
       </c>
-      <c r="AW67" s="11" t="str">
+      <c r="AW67" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -12203,7 +12199,7 @@
       <c r="L68" s="1">
         <v>0</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="12">
         <v>0</v>
       </c>
       <c r="N68" s="1">
@@ -12308,11 +12304,11 @@
       <c r="AU68" s="1">
         <v>0</v>
       </c>
-      <c r="AV68" s="11" t="str">
+      <c r="AV68" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
       </c>
-      <c r="AW68" s="11" t="str">
+      <c r="AW68" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -12348,7 +12344,7 @@
       <c r="L69" s="2">
         <v>0</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="19">
         <v>0</v>
       </c>
       <c r="N69" s="2">
@@ -12453,11 +12449,11 @@
       <c r="AU69" s="2">
         <v>0</v>
       </c>
-      <c r="AV69" s="21" t="str">
+      <c r="AV69" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW69" s="21" t="str">
+      <c r="AW69" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,20,0,0,0,0,0,0,0,0</v>
       </c>
@@ -12493,7 +12489,7 @@
       <c r="L70" s="2">
         <v>0</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="19">
         <v>0</v>
       </c>
       <c r="N70" s="2">
@@ -12598,11 +12594,11 @@
       <c r="AU70" s="2">
         <v>0</v>
       </c>
-      <c r="AV70" s="21" t="str">
+      <c r="AV70" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW70" s="21" t="str">
+      <c r="AW70" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,20,0,0,0,0,0,0,0</v>
       </c>
@@ -12638,7 +12634,7 @@
       <c r="L71" s="2">
         <v>0</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="19">
         <v>0</v>
       </c>
       <c r="N71" s="2">
@@ -12743,11 +12739,11 @@
       <c r="AU71" s="2">
         <v>0</v>
       </c>
-      <c r="AV71" s="21" t="str">
+      <c r="AV71" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW71" s="21" t="str">
+      <c r="AW71" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,20,0,0,0,0,0,0</v>
       </c>
@@ -12783,7 +12779,7 @@
       <c r="L72" s="2">
         <v>0</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72" s="19">
         <v>0</v>
       </c>
       <c r="N72" s="2">
@@ -12888,11 +12884,11 @@
       <c r="AU72" s="2">
         <v>0</v>
       </c>
-      <c r="AV72" s="21" t="str">
+      <c r="AV72" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW72" s="21" t="str">
+      <c r="AW72" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,20,0,0,0,0,0</v>
       </c>
@@ -12928,7 +12924,7 @@
       <c r="L73" s="2">
         <v>0</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73" s="19">
         <v>0</v>
       </c>
       <c r="N73" s="2">
@@ -13033,11 +13029,11 @@
       <c r="AU73" s="2">
         <v>0</v>
       </c>
-      <c r="AV73" s="21" t="str">
+      <c r="AV73" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW73" s="21" t="str">
+      <c r="AW73" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,20,0,0,0,0</v>
       </c>
@@ -13073,7 +13069,7 @@
       <c r="L74" s="2">
         <v>0</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M74" s="19">
         <v>0</v>
       </c>
       <c r="N74" s="2">
@@ -13178,11 +13174,11 @@
       <c r="AU74" s="2">
         <v>0</v>
       </c>
-      <c r="AV74" s="21" t="str">
+      <c r="AV74" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW74" s="21" t="str">
+      <c r="AW74" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,20,0,0,0</v>
       </c>
@@ -13218,7 +13214,7 @@
       <c r="L75" s="2">
         <v>0</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="19">
         <v>0</v>
       </c>
       <c r="N75" s="2">
@@ -13323,11 +13319,11 @@
       <c r="AU75" s="2">
         <v>0</v>
       </c>
-      <c r="AV75" s="21" t="str">
+      <c r="AV75" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW75" s="21" t="str">
+      <c r="AW75" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,20,0,0</v>
       </c>
@@ -13363,7 +13359,7 @@
       <c r="L76" s="2">
         <v>0</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76" s="19">
         <v>0</v>
       </c>
       <c r="N76" s="2">
@@ -13468,11 +13464,11 @@
       <c r="AU76" s="2">
         <v>0</v>
       </c>
-      <c r="AV76" s="21" t="str">
+      <c r="AV76" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW76" s="21" t="str">
+      <c r="AW76" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,20,0</v>
       </c>
@@ -13508,7 +13504,7 @@
       <c r="L77" s="2">
         <v>0</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="19">
         <v>0</v>
       </c>
       <c r="N77" s="2">
@@ -13613,1314 +13609,1313 @@
       <c r="AU77" s="2">
         <v>20</v>
       </c>
-      <c r="AV77" s="21" t="str">
+      <c r="AV77" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW77" s="21" t="str">
+      <c r="AW77" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,20</v>
       </c>
     </row>
-    <row r="78" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C78" s="3">
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C78" s="2">
         <v>3077</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0</v>
-      </c>
-      <c r="L78" s="3">
-        <v>0</v>
-      </c>
-      <c r="M78" s="13">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3">
-        <v>0</v>
-      </c>
-      <c r="P78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>0</v>
-      </c>
-      <c r="R78" s="3">
-        <v>0</v>
-      </c>
-      <c r="S78" s="3">
-        <v>0</v>
-      </c>
-      <c r="T78" s="3">
-        <v>0</v>
-      </c>
-      <c r="U78" s="3">
-        <v>0</v>
-      </c>
-      <c r="V78" s="3">
-        <v>0</v>
-      </c>
-      <c r="W78" s="3">
-        <v>0</v>
-      </c>
-      <c r="X78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="3"/>
-      <c r="AM78" s="3">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="12">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0</v>
+      </c>
+      <c r="T78" s="2">
+        <v>0</v>
+      </c>
+      <c r="U78" s="2">
+        <v>0</v>
+      </c>
+      <c r="V78" s="2">
+        <v>0</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+      <c r="X78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="2">
         <v>50</v>
       </c>
-      <c r="AN78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU78" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV78" s="22" t="str">
+      <c r="AN78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV78" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW78" s="22" t="str">
+      <c r="AW78" s="20" t="str">
         <f t="shared" si="11"/>
         <v>,50,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C79" s="3">
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C79" s="2">
         <v>3078</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
-      <c r="L79" s="3">
-        <v>0</v>
-      </c>
-      <c r="M79" s="13">
-        <v>0</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0</v>
-      </c>
-      <c r="O79" s="3">
-        <v>0</v>
-      </c>
-      <c r="P79" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>0</v>
-      </c>
-      <c r="R79" s="3">
-        <v>0</v>
-      </c>
-      <c r="S79" s="3">
-        <v>0</v>
-      </c>
-      <c r="T79" s="3">
-        <v>0</v>
-      </c>
-      <c r="U79" s="3">
-        <v>0</v>
-      </c>
-      <c r="V79" s="3">
-        <v>0</v>
-      </c>
-      <c r="W79" s="3">
-        <v>0</v>
-      </c>
-      <c r="X79" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN79" s="3">
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="12">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0</v>
+      </c>
+      <c r="V79" s="2">
+        <v>0</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+      <c r="X79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="2">
         <v>50</v>
       </c>
-      <c r="AO79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU79" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV79" s="22" t="str">
+      <c r="AO79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV79" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW79" s="22" t="str">
+      <c r="AW79" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,50,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C80" s="3">
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C80" s="2">
         <v>3079</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
-        <v>0</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>0</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3">
-        <v>0</v>
-      </c>
-      <c r="M80" s="13">
-        <v>0</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0</v>
-      </c>
-      <c r="O80" s="3">
-        <v>0</v>
-      </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>0</v>
-      </c>
-      <c r="R80" s="3">
-        <v>0</v>
-      </c>
-      <c r="S80" s="3">
-        <v>0</v>
-      </c>
-      <c r="T80" s="3">
-        <v>0</v>
-      </c>
-      <c r="U80" s="3">
-        <v>0</v>
-      </c>
-      <c r="V80" s="3">
-        <v>0</v>
-      </c>
-      <c r="W80" s="3">
-        <v>0</v>
-      </c>
-      <c r="X80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO80" s="3">
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="12">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <v>0</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0</v>
+      </c>
+      <c r="V80" s="2">
+        <v>0</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+      <c r="X80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO80" s="2">
         <v>50</v>
       </c>
-      <c r="AP80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU80" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV80" s="22" t="str">
+      <c r="AP80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV80" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW80" s="22" t="str">
+      <c r="AW80" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,50,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C81" s="3">
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C81" s="2">
         <v>3080</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="13">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP81" s="3">
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="12">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+      <c r="X81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP81" s="2">
         <v>50</v>
       </c>
-      <c r="AQ81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV81" s="22" t="str">
+      <c r="AQ81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW81" s="22" t="str">
+      <c r="AW81" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,50,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C82" s="3">
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C82" s="2">
         <v>3081</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
-        <v>0</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
-        <v>0</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3">
-        <v>0</v>
-      </c>
-      <c r="M82" s="13">
-        <v>0</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0</v>
-      </c>
-      <c r="O82" s="3">
-        <v>0</v>
-      </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0</v>
-      </c>
-      <c r="R82" s="3">
-        <v>0</v>
-      </c>
-      <c r="S82" s="3">
-        <v>0</v>
-      </c>
-      <c r="T82" s="3">
-        <v>0</v>
-      </c>
-      <c r="U82" s="3">
-        <v>0</v>
-      </c>
-      <c r="V82" s="3">
-        <v>0</v>
-      </c>
-      <c r="W82" s="3">
-        <v>0</v>
-      </c>
-      <c r="X82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="3">
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="12">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+      <c r="X82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="2">
         <v>50</v>
       </c>
-      <c r="AR82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU82" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV82" s="22" t="str">
+      <c r="AR82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV82" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW82" s="22" t="str">
+      <c r="AW82" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,50,0,0,0,0</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C83" s="3">
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C83" s="2">
         <v>3082</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="13">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR83" s="3">
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="12">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="2">
         <v>50</v>
       </c>
-      <c r="AS83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV83" s="22" t="str">
+      <c r="AS83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW83" s="22" t="str">
+      <c r="AW83" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,50,0,0,0</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C84" s="3">
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C84" s="2">
         <v>3083</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>0</v>
-      </c>
-      <c r="M84" s="13">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0</v>
-      </c>
-      <c r="O84" s="3">
-        <v>0</v>
-      </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>0</v>
-      </c>
-      <c r="R84" s="3">
-        <v>0</v>
-      </c>
-      <c r="S84" s="3">
-        <v>0</v>
-      </c>
-      <c r="T84" s="3">
-        <v>0</v>
-      </c>
-      <c r="U84" s="3">
-        <v>0</v>
-      </c>
-      <c r="V84" s="3">
-        <v>0</v>
-      </c>
-      <c r="W84" s="3">
-        <v>0</v>
-      </c>
-      <c r="X84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="3">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="12">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="2">
         <v>50</v>
       </c>
-      <c r="AT84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV84" s="22" t="str">
+      <c r="AT84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV84" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW84" s="22" t="str">
+      <c r="AW84" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,50,0,0</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C85" s="3">
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C85" s="2">
         <v>3084</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3">
-        <v>0</v>
-      </c>
-      <c r="M85" s="13">
-        <v>0</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0</v>
-      </c>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0</v>
-      </c>
-      <c r="R85" s="3">
-        <v>0</v>
-      </c>
-      <c r="S85" s="3">
-        <v>0</v>
-      </c>
-      <c r="T85" s="3">
-        <v>0</v>
-      </c>
-      <c r="U85" s="3">
-        <v>0</v>
-      </c>
-      <c r="V85" s="3">
-        <v>0</v>
-      </c>
-      <c r="W85" s="3">
-        <v>0</v>
-      </c>
-      <c r="X85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT85" s="3">
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="12">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0</v>
+      </c>
+      <c r="T85" s="2">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0</v>
+      </c>
+      <c r="V85" s="2">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+      <c r="X85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="2">
         <v>50</v>
       </c>
-      <c r="AU85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV85" s="22" t="str">
+      <c r="AU85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV85" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW85" s="22" t="str">
+      <c r="AW85" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,50,0</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1" customHeight="1" spans="3:49">
-      <c r="C86" s="3">
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:49">
+      <c r="C86" s="2">
         <v>3085</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3">
-        <v>0</v>
-      </c>
-      <c r="M86" s="13">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0</v>
-      </c>
-      <c r="R86" s="3">
-        <v>0</v>
-      </c>
-      <c r="S86" s="3">
-        <v>0</v>
-      </c>
-      <c r="T86" s="3">
-        <v>0</v>
-      </c>
-      <c r="U86" s="3">
-        <v>0</v>
-      </c>
-      <c r="V86" s="3">
-        <v>0</v>
-      </c>
-      <c r="W86" s="3">
-        <v>0</v>
-      </c>
-      <c r="X86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU86" s="3">
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="12">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0</v>
+      </c>
+      <c r="R86" s="2">
+        <v>0</v>
+      </c>
+      <c r="S86" s="2">
+        <v>0</v>
+      </c>
+      <c r="T86" s="2">
+        <v>0</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0</v>
+      </c>
+      <c r="V86" s="2">
+        <v>0</v>
+      </c>
+      <c r="W86" s="2">
+        <v>0</v>
+      </c>
+      <c r="X86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU86" s="2">
         <v>50</v>
       </c>
-      <c r="AV86" s="22" t="str">
+      <c r="AV86" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW86" s="22" t="str">
+      <c r="AW86" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
       </c>
@@ -14929,7 +14924,7 @@
       <c r="C87" s="1">
         <v>3200</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="18" t="s">
         <v>190</v>
       </c>
       <c r="E87" s="1">
@@ -14956,7 +14951,7 @@
       <c r="L87" s="1">
         <v>0</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="12">
         <v>0</v>
       </c>
       <c r="N87" s="1">
@@ -15004,7 +14999,7 @@
       <c r="AB87" s="1">
         <v>0</v>
       </c>
-      <c r="AC87" s="3">
+      <c r="AC87" s="2">
         <v>0</v>
       </c>
       <c r="AD87" s="1">
@@ -15061,11 +15056,11 @@
       <c r="AU87" s="1">
         <v>0</v>
       </c>
-      <c r="AV87" s="11" t="str">
+      <c r="AV87" s="10" t="str">
         <f t="shared" ref="AV87:AV100" si="12">AB81:AB91&amp;","&amp;AC81:AC91&amp;","&amp;AD81:AD91&amp;","&amp;AE81:AE91&amp;","&amp;AF81:AF91&amp;","&amp;AG81:AG91&amp;","&amp;AH81:AH91&amp;","&amp;AI81:AI91&amp;","&amp;AJ81:AJ91&amp;","&amp;AK81:AK91</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW87" s="11" t="str">
+      <c r="AW87" s="10" t="str">
         <f t="shared" ref="AW87:AW100" si="13">AL81:AL91&amp;","&amp;AM81:AM91&amp;","&amp;AN81:AN91&amp;","&amp;AO81:AO91&amp;","&amp;AP81:AP91&amp;","&amp;AQ81:AQ91&amp;","&amp;AR81:AR91&amp;","&amp;AS81:AS91&amp;","&amp;AT81:AT91&amp;","&amp;AU81:AU91</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -15101,7 +15096,7 @@
       <c r="L88" s="1">
         <v>0</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="12">
         <v>0</v>
       </c>
       <c r="N88" s="1">
@@ -15149,7 +15144,7 @@
       <c r="AB88" s="1">
         <v>0</v>
       </c>
-      <c r="AC88" s="3">
+      <c r="AC88" s="2">
         <v>0</v>
       </c>
       <c r="AD88" s="1">
@@ -15206,11 +15201,11 @@
       <c r="AU88" s="1">
         <v>0</v>
       </c>
-      <c r="AV88" s="11" t="str">
+      <c r="AV88" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW88" s="11" t="str">
+      <c r="AW88" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -15246,7 +15241,7 @@
       <c r="L89" s="1">
         <v>0</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="12">
         <v>0</v>
       </c>
       <c r="N89" s="1">
@@ -15294,7 +15289,7 @@
       <c r="AB89" s="1">
         <v>0</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="2">
         <v>0</v>
       </c>
       <c r="AD89" s="1">
@@ -15351,11 +15346,11 @@
       <c r="AU89" s="1">
         <v>0</v>
       </c>
-      <c r="AV89" s="11" t="str">
+      <c r="AV89" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW89" s="11" t="str">
+      <c r="AW89" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -15371,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
@@ -15391,7 +15386,7 @@
       <c r="L90" s="1">
         <v>0</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="12">
         <v>0</v>
       </c>
       <c r="N90" s="1">
@@ -15496,11 +15491,11 @@
       <c r="AU90" s="1">
         <v>0</v>
       </c>
-      <c r="AV90" s="11" t="str">
+      <c r="AV90" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW90" s="11" t="str">
+      <c r="AW90" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -15522,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -15536,7 +15531,7 @@
       <c r="L91" s="1">
         <v>0</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="12">
         <v>0</v>
       </c>
       <c r="N91" s="1">
@@ -15641,11 +15636,11 @@
       <c r="AU91" s="1">
         <v>0</v>
       </c>
-      <c r="AV91" s="11" t="str">
+      <c r="AV91" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW91" s="11" t="str">
+      <c r="AW91" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -15681,7 +15676,7 @@
       <c r="L92" s="1">
         <v>0</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M92" s="12">
         <v>0</v>
       </c>
       <c r="N92" s="1">
@@ -15709,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="V92" s="1">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="W92" s="1">
         <v>0</v>
@@ -15786,11 +15781,11 @@
       <c r="AU92" s="1">
         <v>0</v>
       </c>
-      <c r="AV92" s="11" t="str">
+      <c r="AV92" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW92" s="11" t="str">
+      <c r="AW92" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -15826,7 +15821,7 @@
       <c r="L93" s="1">
         <v>0</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="12">
         <v>0</v>
       </c>
       <c r="N93" s="1">
@@ -15931,11 +15926,11 @@
       <c r="AU93" s="1">
         <v>0</v>
       </c>
-      <c r="AV93" s="11" t="str">
+      <c r="AV93" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW93" s="11" t="str">
+      <c r="AW93" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -15971,7 +15966,7 @@
       <c r="L94" s="1">
         <v>0</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M94" s="12">
         <v>0</v>
       </c>
       <c r="N94" s="1">
@@ -16076,11 +16071,11 @@
       <c r="AU94" s="1">
         <v>0</v>
       </c>
-      <c r="AV94" s="11" t="str">
+      <c r="AV94" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW94" s="11" t="str">
+      <c r="AW94" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -16116,7 +16111,7 @@
       <c r="L95" s="1">
         <v>0</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="12">
         <v>0</v>
       </c>
       <c r="N95" s="1">
@@ -16221,11 +16216,11 @@
       <c r="AU95" s="1">
         <v>0</v>
       </c>
-      <c r="AV95" s="11" t="str">
+      <c r="AV95" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW95" s="11" t="str">
+      <c r="AW95" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -16261,7 +16256,7 @@
       <c r="L96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="12">
         <v>0</v>
       </c>
       <c r="N96" s="1">
@@ -16366,11 +16361,11 @@
       <c r="AU96" s="1">
         <v>0</v>
       </c>
-      <c r="AV96" s="11" t="str">
+      <c r="AV96" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW96" s="11" t="str">
+      <c r="AW96" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -16406,7 +16401,7 @@
       <c r="L97" s="1">
         <v>0</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="12">
         <v>0</v>
       </c>
       <c r="N97" s="1">
@@ -16511,11 +16506,11 @@
       <c r="AU97" s="1">
         <v>0</v>
       </c>
-      <c r="AV97" s="11" t="str">
+      <c r="AV97" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW97" s="11" t="str">
+      <c r="AW97" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -16551,7 +16546,7 @@
       <c r="L98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="13">
+      <c r="M98" s="12">
         <v>0</v>
       </c>
       <c r="N98" s="1">
@@ -16567,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="1">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="S98" s="1">
         <v>0</v>
@@ -16656,11 +16651,11 @@
       <c r="AU98" s="1">
         <v>0</v>
       </c>
-      <c r="AV98" s="11" t="str">
+      <c r="AV98" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW98" s="11" t="str">
+      <c r="AW98" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -16696,7 +16691,7 @@
       <c r="L99" s="1">
         <v>0</v>
       </c>
-      <c r="M99" s="13">
+      <c r="M99" s="12">
         <v>0</v>
       </c>
       <c r="N99" s="1">
@@ -16706,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="Q99" s="1">
         <v>0</v>
@@ -16801,11 +16796,11 @@
       <c r="AU99" s="1">
         <v>0</v>
       </c>
-      <c r="AV99" s="11" t="str">
+      <c r="AV99" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW99" s="11" t="str">
+      <c r="AW99" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -16841,8 +16836,8 @@
       <c r="L100" s="1">
         <v>0</v>
       </c>
-      <c r="M100" s="13">
-        <v>650</v>
+      <c r="M100" s="12">
+        <v>450</v>
       </c>
       <c r="N100" s="1">
         <v>0</v>
@@ -16850,9 +16845,6 @@
       <c r="O100" s="1">
         <v>0</v>
       </c>
-      <c r="P100" s="1">
-        <v>650</v>
-      </c>
       <c r="Q100" s="1">
         <v>0</v>
       </c>
@@ -16946,11 +16938,11 @@
       <c r="AU100" s="1">
         <v>0</v>
       </c>
-      <c r="AV100" s="11" t="str">
+      <c r="AV100" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW100" s="11" t="str">
+      <c r="AW100" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -59,7 +59,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-4秒则填40000</t>
+配速度值。
+com条长度为10000格。
+4秒走完则填2500
+act条长度也是10000。
+2秒走完则在技能表里填5000</t>
         </r>
       </text>
     </comment>
@@ -118,7 +122,8 @@
     <t>米数/秒</t>
   </si>
   <si>
-    <t>走10000格所需秒数</t>
+    <t xml:space="preserve">
+2500格/秒</t>
   </si>
   <si>
     <t>每秒</t>
@@ -714,11 +719,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -759,17 +764,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,16 +796,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,15 +827,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,53 +851,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -889,17 +881,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,7 +946,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,145 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,25 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,6 +1168,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1173,21 +1196,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1219,24 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1252,11 +1242,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,10 +1271,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,133 +1283,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2652,8 +2657,8 @@
   <sheetPr/>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3359,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="12">
-        <v>30000</v>
+        <v>3333</v>
       </c>
       <c r="R7" s="12">
         <v>0</v>
@@ -3506,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="12">
-        <v>38000</v>
+        <v>3000</v>
       </c>
       <c r="R8" s="12">
         <v>0</v>
@@ -3653,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="12">
-        <v>40000</v>
+        <v>2500</v>
       </c>
       <c r="R9" s="12">
         <v>0</v>
@@ -3800,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="12">
-        <v>35000</v>
+        <v>2700</v>
       </c>
       <c r="R10" s="12">
         <v>0</v>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="207">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -129,6 +129,9 @@
     <t>每秒</t>
   </si>
   <si>
+    <t>米*10000</t>
+  </si>
+  <si>
     <t>公式生成，不用填写</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
     <t>dodge</t>
   </si>
   <si>
+    <t>Movedistance</t>
+  </si>
+  <si>
     <t>dmgPhysics</t>
   </si>
   <si>
@@ -349,6 +355,9 @@
   </si>
   <si>
     <t>闪避值</t>
+  </si>
+  <si>
+    <t>移动距离</t>
   </si>
   <si>
     <t>物理系伤害加成</t>
@@ -720,9 +729,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
@@ -765,6 +774,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -773,24 +798,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,44 +821,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -858,21 +842,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -881,7 +850,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,8 +878,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,31 +955,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1015,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,49 +1063,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,49 +1111,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1181,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,7 +1190,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,16 +1226,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,21 +1247,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,10 +1280,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,133 +1292,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2655,10 +2664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AW100"/>
+  <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2686,13 +2695,13 @@
     <col min="22" max="22" width="14.925" style="1" customWidth="1"/>
     <col min="23" max="25" width="8" style="1" customWidth="1"/>
     <col min="26" max="26" width="12.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" style="1" customWidth="1"/>
-    <col min="28" max="47" width="13" style="1" customWidth="1"/>
-    <col min="48" max="49" width="17.35" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="27" max="28" width="14.375" style="1" customWidth="1"/>
+    <col min="29" max="48" width="13" style="1" customWidth="1"/>
+    <col min="49" max="50" width="17.35" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:49">
+    <row r="1" ht="14" customHeight="1" spans="1:50">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2746,8 +2755,9 @@
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
     </row>
-    <row r="2" ht="113" customHeight="1" spans="1:49">
+    <row r="2" ht="113" customHeight="1" spans="1:50">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -2800,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="AB2" s="15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>5</v>
@@ -2859,311 +2869,320 @@
       <c r="AU2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="3" t="s">
-        <v>9</v>
+      <c r="AV2" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:49">
+    <row r="3" ht="16.15" customHeight="1" spans="1:50">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL3" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AM3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO3" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ3" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AR3" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU3" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AV3" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW3" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="AX3" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:49">
+    <row r="4" ht="16.15" customHeight="1" spans="1:50">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AF4" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG4" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AO4" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AR4" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="AX4" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:49">
+    <row r="5" ht="16.15" customHeight="1" spans="1:50">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3212,86 +3231,89 @@
       <c r="AU5" s="8"/>
       <c r="AV5" s="8"/>
       <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:49">
+    <row r="6" ht="16.15" customHeight="1" spans="1:50">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB6" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
@@ -3311,21 +3333,22 @@
       <c r="AS6" s="8"/>
       <c r="AT6" s="8"/>
       <c r="AU6" s="8"/>
-      <c r="AV6" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="AV6" s="8"/>
       <c r="AW6" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="AX6" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:49">
+    <row r="7" ht="25" customHeight="1" spans="1:50">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="11">
         <v>440</v>
@@ -3396,8 +3419,8 @@
       <c r="AA7" s="16">
         <v>0</v>
       </c>
-      <c r="AB7" s="12">
-        <v>0</v>
+      <c r="AB7" s="16">
+        <v>100000</v>
       </c>
       <c r="AC7" s="12">
         <v>0</v>
@@ -3427,11 +3450,11 @@
         <v>0</v>
       </c>
       <c r="AL7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12">
         <v>1500</v>
       </c>
-      <c r="AM7" s="12">
-        <v>0</v>
-      </c>
       <c r="AN7" s="12">
         <v>0</v>
       </c>
@@ -3456,23 +3479,26 @@
       <c r="AU7" s="12">
         <v>0</v>
       </c>
-      <c r="AV7" s="10" t="str">
-        <f>AB1:AB11&amp;","&amp;AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11</f>
+      <c r="AV7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="10" t="str">
+        <f>AC1:AC11&amp;","&amp;AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW7" s="10" t="str">
-        <f>AL1:AL11&amp;","&amp;AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11&amp;","&amp;AU1:AU11</f>
+      <c r="AX7" s="10" t="str">
+        <f>AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11&amp;","&amp;AU1:AU11&amp;","&amp;AV1:AV11</f>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:49">
+    <row r="8" ht="25" customHeight="1" spans="1:50">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13">
         <v>550</v>
@@ -3543,12 +3569,12 @@
       <c r="AA8" s="16">
         <v>0</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="16">
+        <v>100000</v>
+      </c>
+      <c r="AC8" s="12">
         <v>2000</v>
       </c>
-      <c r="AC8" s="12">
-        <v>0</v>
-      </c>
       <c r="AD8" s="12">
         <v>0</v>
       </c>
@@ -3603,23 +3629,26 @@
       <c r="AU8" s="12">
         <v>0</v>
       </c>
-      <c r="AV8" s="10" t="str">
-        <f>AB2:AB12&amp;","&amp;AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12&amp;","&amp;AK2:AK12</f>
+      <c r="AV8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="10" t="str">
+        <f>AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12&amp;","&amp;AK2:AK12&amp;","&amp;AL2:AL12</f>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW8" s="10" t="str">
-        <f>AL2:AL12&amp;","&amp;AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12&amp;","&amp;AU2:AU12</f>
+      <c r="AX8" s="10" t="str">
+        <f>AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12&amp;","&amp;AU2:AU12&amp;","&amp;AV2:AV12</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:49">
+    <row r="9" ht="25" customHeight="1" spans="1:50">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E9" s="12">
         <v>660</v>
@@ -3690,8 +3719,8 @@
       <c r="AA9" s="16">
         <v>0</v>
       </c>
-      <c r="AB9" s="12">
-        <v>0</v>
+      <c r="AB9" s="16">
+        <v>100000</v>
       </c>
       <c r="AC9" s="12">
         <v>0</v>
@@ -3700,11 +3729,11 @@
         <v>0</v>
       </c>
       <c r="AE9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="12">
         <v>2000</v>
       </c>
-      <c r="AF9" s="12">
-        <v>0</v>
-      </c>
       <c r="AG9" s="12">
         <v>0</v>
       </c>
@@ -3720,53 +3749,56 @@
       <c r="AK9" s="12">
         <v>0</v>
       </c>
-      <c r="AL9" s="17" t="s">
-        <v>112</v>
+      <c r="AL9" s="12">
+        <v>0</v>
       </c>
       <c r="AM9" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AN9" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO9" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AP9" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AQ9" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AR9" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AS9" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AT9" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="10" t="str">
-        <f t="shared" ref="AV9:AV13" si="0">AB3:AB14&amp;","&amp;AC3:AC14&amp;","&amp;AD3:AD14&amp;","&amp;AE3:AE14&amp;","&amp;AF3:AF14&amp;","&amp;AG3:AG14&amp;","&amp;AH3:AH14&amp;","&amp;AI3:AI14&amp;","&amp;AJ3:AJ14&amp;","&amp;AK3:AK14</f>
+        <v>115</v>
+      </c>
+      <c r="AU9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="10" t="str">
+        <f t="shared" ref="AW9:AW13" si="0">AC3:AC14&amp;","&amp;AD3:AD14&amp;","&amp;AE3:AE14&amp;","&amp;AF3:AF14&amp;","&amp;AG3:AG14&amp;","&amp;AH3:AH14&amp;","&amp;AI3:AI14&amp;","&amp;AJ3:AJ14&amp;","&amp;AK3:AK14&amp;","&amp;AL3:AL14</f>
         <v>0,0,0,2000,0,0,0,0,0,0</v>
       </c>
-      <c r="AW9" s="10" t="str">
-        <f t="shared" ref="AW9:AW13" si="1">AL3:AL14&amp;","&amp;AM3:AM14&amp;","&amp;AN3:AN14&amp;","&amp;AO3:AO14&amp;","&amp;AP3:AP14&amp;","&amp;AQ3:AQ14&amp;","&amp;AR3:AR14&amp;","&amp;AS3:AS14&amp;","&amp;AT3:AT14&amp;","&amp;AU3:AU14</f>
+      <c r="AX9" s="10" t="str">
+        <f t="shared" ref="AX9:AX13" si="1">AM3:AM14&amp;","&amp;AN3:AN14&amp;","&amp;AO3:AO14&amp;","&amp;AP3:AP14&amp;","&amp;AQ3:AQ14&amp;","&amp;AR3:AR14&amp;","&amp;AS3:AS14&amp;","&amp;AT3:AT14&amp;","&amp;AU3:AU14&amp;","&amp;AV3:AV14</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:49">
+    <row r="10" ht="25" customHeight="1" spans="1:50">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E10" s="12">
         <v>550</v>
@@ -3837,18 +3869,18 @@
       <c r="AA10" s="16">
         <v>0</v>
       </c>
-      <c r="AB10" s="12">
-        <v>0</v>
+      <c r="AB10" s="16">
+        <v>100000</v>
       </c>
       <c r="AC10" s="12">
         <v>0</v>
       </c>
       <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
         <v>500</v>
       </c>
-      <c r="AE10" s="12">
-        <v>0</v>
-      </c>
       <c r="AF10" s="12">
         <v>0</v>
       </c>
@@ -3897,23 +3929,26 @@
       <c r="AU10" s="12">
         <v>0</v>
       </c>
-      <c r="AV10" s="10" t="str">
+      <c r="AV10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,500,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW10" s="10" t="str">
+      <c r="AX10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:49">
+    <row r="11" ht="16.15" customHeight="1" spans="1:50">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="9">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E11" s="13">
         <v>300</v>
@@ -3984,8 +4019,8 @@
       <c r="AA11" s="16">
         <v>0</v>
       </c>
-      <c r="AB11" s="12">
-        <v>0</v>
+      <c r="AB11" s="16">
+        <v>100000</v>
       </c>
       <c r="AC11" s="12">
         <v>0</v>
@@ -4044,21 +4079,24 @@
       <c r="AU11" s="12">
         <v>0</v>
       </c>
-      <c r="AV11" s="10" t="str">
+      <c r="AV11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW11" s="10" t="str">
+      <c r="AX11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:49">
+    <row r="12" customHeight="1" spans="3:50">
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E12" s="13">
         <v>450</v>
@@ -4129,8 +4167,8 @@
       <c r="AA12" s="16">
         <v>0</v>
       </c>
-      <c r="AB12" s="12">
-        <v>0</v>
+      <c r="AB12" s="16">
+        <v>100000</v>
       </c>
       <c r="AC12" s="12">
         <v>0</v>
@@ -4189,21 +4227,24 @@
       <c r="AU12" s="12">
         <v>0</v>
       </c>
-      <c r="AV12" s="10" t="str">
+      <c r="AV12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW12" s="10" t="str">
+      <c r="AX12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:49">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:50">
       <c r="C13" s="1">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E13" s="13">
         <v>550</v>
@@ -4274,8 +4315,8 @@
       <c r="AA13" s="16">
         <v>0</v>
       </c>
-      <c r="AB13" s="12">
-        <v>0</v>
+      <c r="AB13" s="16">
+        <v>100000</v>
       </c>
       <c r="AC13" s="12">
         <v>0</v>
@@ -4334,21 +4375,24 @@
       <c r="AU13" s="12">
         <v>0</v>
       </c>
-      <c r="AV13" s="10" t="str">
+      <c r="AV13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW13" s="10" t="str">
+      <c r="AX13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:49">
+    <row r="14" customHeight="1" spans="3:50">
       <c r="C14" s="1">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1">
         <v>75</v>
@@ -4419,9 +4463,6 @@
       <c r="AA14" s="1">
         <v>0</v>
       </c>
-      <c r="AB14" s="1">
-        <v>0</v>
-      </c>
       <c r="AC14" s="1">
         <v>0</v>
       </c>
@@ -4479,21 +4520,24 @@
       <c r="AU14" s="1">
         <v>0</v>
       </c>
-      <c r="AV14" s="10" t="str">
-        <f t="shared" ref="AV14:AV19" si="2">AB7:AB18&amp;","&amp;AC7:AC18&amp;","&amp;AD7:AD18&amp;","&amp;AE7:AE18&amp;","&amp;AF7:AF18&amp;","&amp;AG7:AG18&amp;","&amp;AH7:AH18&amp;","&amp;AI7:AI18&amp;","&amp;AJ7:AJ18&amp;","&amp;AK7:AK18</f>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="10" t="str">
+        <f t="shared" ref="AW14:AW19" si="2">AC7:AC18&amp;","&amp;AD7:AD18&amp;","&amp;AE7:AE18&amp;","&amp;AF7:AF18&amp;","&amp;AG7:AG18&amp;","&amp;AH7:AH18&amp;","&amp;AI7:AI18&amp;","&amp;AJ7:AJ18&amp;","&amp;AK7:AK18&amp;","&amp;AL7:AL18</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW14" s="10" t="str">
-        <f t="shared" ref="AW14:AW19" si="3">AL7:AL18&amp;","&amp;AM7:AM18&amp;","&amp;AN7:AN18&amp;","&amp;AO7:AO18&amp;","&amp;AP7:AP18&amp;","&amp;AQ7:AQ18&amp;","&amp;AR7:AR18&amp;","&amp;AS7:AS18&amp;","&amp;AT7:AT18&amp;","&amp;AU7:AU18</f>
+      <c r="AX14" s="10" t="str">
+        <f t="shared" ref="AX14:AX19" si="3">AM7:AM18&amp;","&amp;AN7:AN18&amp;","&amp;AO7:AO18&amp;","&amp;AP7:AP18&amp;","&amp;AQ7:AQ18&amp;","&amp;AR7:AR18&amp;","&amp;AS7:AS18&amp;","&amp;AT7:AT18&amp;","&amp;AU7:AU18&amp;","&amp;AV7:AV18</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:49">
+    <row r="15" customHeight="1" spans="3:50">
       <c r="C15" s="1">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1">
         <v>125</v>
@@ -4564,9 +4608,6 @@
       <c r="AA15" s="1">
         <v>0</v>
       </c>
-      <c r="AB15" s="1">
-        <v>0</v>
-      </c>
       <c r="AC15" s="1">
         <v>0</v>
       </c>
@@ -4624,21 +4665,24 @@
       <c r="AU15" s="1">
         <v>0</v>
       </c>
-      <c r="AV15" s="10" t="str">
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW15" s="10" t="str">
+      <c r="AX15" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:49">
+    <row r="16" customHeight="1" spans="3:50">
       <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1">
         <v>175</v>
@@ -4709,9 +4753,6 @@
       <c r="AA16" s="1">
         <v>0</v>
       </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
       <c r="AC16" s="1">
         <v>0</v>
       </c>
@@ -4769,21 +4810,24 @@
       <c r="AU16" s="1">
         <v>0</v>
       </c>
-      <c r="AV16" s="10" t="str">
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW16" s="10" t="str">
+      <c r="AX16" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:49">
+    <row r="17" customHeight="1" spans="3:50">
       <c r="C17" s="1">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1">
         <v>225</v>
@@ -4854,9 +4898,6 @@
       <c r="AA17" s="1">
         <v>0</v>
       </c>
-      <c r="AB17" s="1">
-        <v>0</v>
-      </c>
       <c r="AC17" s="1">
         <v>0</v>
       </c>
@@ -4914,21 +4955,24 @@
       <c r="AU17" s="1">
         <v>0</v>
       </c>
-      <c r="AV17" s="10" t="str">
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW17" s="10" t="str">
+      <c r="AX17" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:49">
+    <row r="18" customHeight="1" spans="3:50">
       <c r="C18" s="1">
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1">
         <v>275</v>
@@ -4999,9 +5043,6 @@
       <c r="AA18" s="1">
         <v>0</v>
       </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
       <c r="AC18" s="1">
         <v>0</v>
       </c>
@@ -5059,21 +5100,24 @@
       <c r="AU18" s="1">
         <v>0</v>
       </c>
-      <c r="AV18" s="10" t="str">
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW18" s="10" t="str">
+      <c r="AX18" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:49">
+    <row r="19" customHeight="1" spans="3:50">
       <c r="C19" s="1">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -5144,9 +5188,6 @@
       <c r="AA19" s="1">
         <v>0</v>
       </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
       <c r="AC19" s="1">
         <v>0</v>
       </c>
@@ -5204,21 +5245,24 @@
       <c r="AU19" s="1">
         <v>0</v>
       </c>
-      <c r="AV19" s="10" t="str">
+      <c r="AV19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW19" s="10" t="str">
+      <c r="AX19" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:49">
+    <row r="20" customHeight="1" spans="3:50">
       <c r="C20" s="1">
         <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
@@ -5289,9 +5333,6 @@
       <c r="AA20" s="1">
         <v>0</v>
       </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
       <c r="AC20" s="1">
         <v>0</v>
       </c>
@@ -5349,21 +5390,24 @@
       <c r="AU20" s="1">
         <v>0</v>
       </c>
-      <c r="AV20" s="10" t="str">
-        <f t="shared" ref="AV14:AV38" si="4">AB14:AB24&amp;","&amp;AC14:AC24&amp;","&amp;AD14:AD24&amp;","&amp;AE14:AE24&amp;","&amp;AF14:AF24&amp;","&amp;AG14:AG24&amp;","&amp;AH14:AH24&amp;","&amp;AI14:AI24&amp;","&amp;AJ14:AJ24&amp;","&amp;AK14:AK24</f>
+      <c r="AV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="10" t="str">
+        <f t="shared" ref="AW14:AW38" si="4">AC14:AC24&amp;","&amp;AD14:AD24&amp;","&amp;AE14:AE24&amp;","&amp;AF14:AF24&amp;","&amp;AG14:AG24&amp;","&amp;AH14:AH24&amp;","&amp;AI14:AI24&amp;","&amp;AJ14:AJ24&amp;","&amp;AK14:AK24&amp;","&amp;AL14:AL24</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW20" s="10" t="str">
-        <f t="shared" ref="AW14:AW38" si="5">AL14:AL24&amp;","&amp;AM14:AM24&amp;","&amp;AN14:AN24&amp;","&amp;AO14:AO24&amp;","&amp;AP14:AP24&amp;","&amp;AQ14:AQ24&amp;","&amp;AR14:AR24&amp;","&amp;AS14:AS24&amp;","&amp;AT14:AT24&amp;","&amp;AU14:AU24</f>
+      <c r="AX20" s="10" t="str">
+        <f t="shared" ref="AX14:AX38" si="5">AM14:AM24&amp;","&amp;AN14:AN24&amp;","&amp;AO14:AO24&amp;","&amp;AP14:AP24&amp;","&amp;AQ14:AQ24&amp;","&amp;AR14:AR24&amp;","&amp;AS14:AS24&amp;","&amp;AT14:AT24&amp;","&amp;AU14:AU24&amp;","&amp;AV14:AV24</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="21" ht="27" customHeight="1" spans="3:49">
+    <row r="21" ht="27" customHeight="1" spans="3:50">
       <c r="C21" s="1">
         <v>2000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
@@ -5434,9 +5478,6 @@
       <c r="AA21" s="1">
         <v>0</v>
       </c>
-      <c r="AB21" s="1">
-        <v>50</v>
-      </c>
       <c r="AC21" s="1">
         <v>50</v>
       </c>
@@ -5494,21 +5535,24 @@
       <c r="AU21" s="1">
         <v>50</v>
       </c>
-      <c r="AV21" s="10" t="str">
+      <c r="AV21" s="1">
+        <v>50</v>
+      </c>
+      <c r="AW21" s="10" t="str">
         <f t="shared" si="4"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
-      <c r="AW21" s="10" t="str">
+      <c r="AX21" s="10" t="str">
         <f t="shared" si="5"/>
         <v>50,50,50,50,50,50,50,50,50,50</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:49">
+    <row r="22" customHeight="1" spans="3:50">
       <c r="C22" s="1">
         <v>2001</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
@@ -5579,9 +5623,6 @@
       <c r="AA22" s="1">
         <v>0</v>
       </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
       <c r="AC22" s="1">
         <v>0</v>
       </c>
@@ -5639,21 +5680,24 @@
       <c r="AU22" s="1">
         <v>0</v>
       </c>
-      <c r="AV22" s="10" t="str">
+      <c r="AV22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW22" s="10" t="str">
+      <c r="AX22" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:49">
+    <row r="23" customHeight="1" spans="3:50">
       <c r="C23" s="1">
         <v>2002</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -5724,9 +5768,6 @@
       <c r="AA23" s="1">
         <v>0</v>
       </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
       <c r="AC23" s="1">
         <v>0</v>
       </c>
@@ -5784,21 +5825,24 @@
       <c r="AU23" s="1">
         <v>0</v>
       </c>
-      <c r="AV23" s="10" t="str">
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW23" s="10" t="str">
+      <c r="AX23" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:49">
+    <row r="24" customHeight="1" spans="3:50">
       <c r="C24" s="1">
         <v>2003</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -5869,9 +5913,6 @@
       <c r="AA24" s="1">
         <v>0</v>
       </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
       <c r="AC24" s="1">
         <v>0</v>
       </c>
@@ -5929,21 +5970,24 @@
       <c r="AU24" s="1">
         <v>0</v>
       </c>
-      <c r="AV24" s="10" t="str">
+      <c r="AV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW24" s="10" t="str">
+      <c r="AX24" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:49">
+    <row r="25" customHeight="1" spans="3:50">
       <c r="C25" s="1">
         <v>2004</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -6014,9 +6058,6 @@
       <c r="AA25" s="1">
         <v>0</v>
       </c>
-      <c r="AB25" s="1">
-        <v>0</v>
-      </c>
       <c r="AC25" s="1">
         <v>0</v>
       </c>
@@ -6074,21 +6115,24 @@
       <c r="AU25" s="1">
         <v>0</v>
       </c>
-      <c r="AV25" s="10" t="str">
+      <c r="AV25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW25" s="10" t="str">
+      <c r="AX25" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:49">
+    <row r="26" customHeight="1" spans="3:50">
       <c r="C26" s="1">
         <v>2005</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
@@ -6159,9 +6203,6 @@
       <c r="AA26" s="1">
         <v>0</v>
       </c>
-      <c r="AB26" s="1">
-        <v>25</v>
-      </c>
       <c r="AC26" s="1">
         <v>25</v>
       </c>
@@ -6219,21 +6260,24 @@
       <c r="AU26" s="1">
         <v>25</v>
       </c>
-      <c r="AV26" s="10" t="str">
+      <c r="AV26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AW26" s="10" t="str">
         <f t="shared" si="4"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
-      <c r="AW26" s="10" t="str">
+      <c r="AX26" s="10" t="str">
         <f t="shared" si="5"/>
         <v>25,25,25,25,25,25,25,25,25,25</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:49">
+    <row r="27" customHeight="1" spans="3:50">
       <c r="C27" s="1">
         <v>2010</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -6304,12 +6348,9 @@
       <c r="AA27" s="1">
         <v>0</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>500</v>
       </c>
-      <c r="AC27" s="1">
-        <v>0</v>
-      </c>
       <c r="AD27" s="1">
         <v>0</v>
       </c>
@@ -6364,21 +6405,24 @@
       <c r="AU27" s="1">
         <v>0</v>
       </c>
-      <c r="AV27" s="10" t="str">
+      <c r="AV27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="10" t="str">
         <f t="shared" si="4"/>
         <v>500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW27" s="10" t="str">
+      <c r="AX27" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:49">
+    <row r="28" customHeight="1" spans="3:50">
       <c r="C28" s="1">
         <v>2011</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -6449,12 +6493,9 @@
       <c r="AA28" s="1">
         <v>0</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>1000</v>
       </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
       <c r="AD28" s="1">
         <v>0</v>
       </c>
@@ -6509,21 +6550,24 @@
       <c r="AU28" s="1">
         <v>0</v>
       </c>
-      <c r="AV28" s="10" t="str">
+      <c r="AV28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="10" t="str">
         <f t="shared" si="4"/>
         <v>1000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW28" s="10" t="str">
+      <c r="AX28" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="3:49">
+    <row r="29" customHeight="1" spans="3:50">
       <c r="C29" s="1">
         <v>2012</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -6594,12 +6638,9 @@
       <c r="AA29" s="1">
         <v>0</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>1500</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
       <c r="AD29" s="1">
         <v>0</v>
       </c>
@@ -6654,21 +6695,24 @@
       <c r="AU29" s="1">
         <v>0</v>
       </c>
-      <c r="AV29" s="10" t="str">
+      <c r="AV29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="10" t="str">
         <f t="shared" si="4"/>
         <v>1500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW29" s="10" t="str">
+      <c r="AX29" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:49">
+    <row r="30" customHeight="1" spans="3:50">
       <c r="C30" s="1">
         <v>2013</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -6739,12 +6783,9 @@
       <c r="AA30" s="1">
         <v>0</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <v>2000</v>
       </c>
-      <c r="AC30" s="1">
-        <v>0</v>
-      </c>
       <c r="AD30" s="1">
         <v>0</v>
       </c>
@@ -6799,21 +6840,24 @@
       <c r="AU30" s="1">
         <v>0</v>
       </c>
-      <c r="AV30" s="10" t="str">
+      <c r="AV30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="10" t="str">
         <f t="shared" si="4"/>
         <v>2000,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW30" s="10" t="str">
+      <c r="AX30" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="3:49">
+    <row r="31" customHeight="1" spans="3:50">
       <c r="C31" s="1">
         <v>2014</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -6884,12 +6928,9 @@
       <c r="AA31" s="1">
         <v>0</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <v>2500</v>
       </c>
-      <c r="AC31" s="1">
-        <v>0</v>
-      </c>
       <c r="AD31" s="1">
         <v>0</v>
       </c>
@@ -6944,21 +6985,24 @@
       <c r="AU31" s="1">
         <v>0</v>
       </c>
-      <c r="AV31" s="10" t="str">
+      <c r="AV31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="10" t="str">
         <f t="shared" si="4"/>
         <v>2500,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW31" s="10" t="str">
+      <c r="AX31" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="3:49">
+    <row r="32" customHeight="1" spans="3:50">
       <c r="C32" s="1">
         <v>2020</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -7029,9 +7073,6 @@
       <c r="AA32" s="1">
         <v>0</v>
       </c>
-      <c r="AB32" s="1">
-        <v>0</v>
-      </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
@@ -7089,21 +7130,24 @@
       <c r="AU32" s="1">
         <v>0</v>
       </c>
-      <c r="AV32" s="10" t="str">
+      <c r="AV32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW32" s="10" t="str">
+      <c r="AX32" s="10" t="str">
         <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:49">
+    <row r="33" customHeight="1" spans="3:50">
       <c r="C33" s="1">
         <v>2021</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -7174,9 +7218,6 @@
       <c r="AA33" s="1">
         <v>0</v>
       </c>
-      <c r="AB33" s="1">
-        <v>0</v>
-      </c>
       <c r="AC33" s="1">
         <v>0</v>
       </c>
@@ -7234,21 +7275,24 @@
       <c r="AU33" s="1">
         <v>0</v>
       </c>
-      <c r="AV33" s="10" t="str">
-        <f>AB27:AB36&amp;","&amp;AC27:AC36&amp;","&amp;AD27:AD36&amp;","&amp;AE27:AE36&amp;","&amp;AF27:AF36&amp;","&amp;AG27:AG36&amp;","&amp;AH27:AH36&amp;","&amp;AI27:AI36&amp;","&amp;AJ27:AJ36&amp;","&amp;AK27:AK36</f>
+      <c r="AV33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="10" t="str">
+        <f>AC27:AC36&amp;","&amp;AD27:AD36&amp;","&amp;AE27:AE36&amp;","&amp;AF27:AF36&amp;","&amp;AG27:AG36&amp;","&amp;AH27:AH36&amp;","&amp;AI27:AI36&amp;","&amp;AJ27:AJ36&amp;","&amp;AK27:AK36&amp;","&amp;AL27:AL36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW33" s="10" t="str">
-        <f>AL27:AL36&amp;","&amp;AM27:AM36&amp;","&amp;AN27:AN36&amp;","&amp;AO27:AO36&amp;","&amp;AP27:AP36&amp;","&amp;AQ27:AQ36&amp;","&amp;AR27:AR36&amp;","&amp;AS27:AS36&amp;","&amp;AT27:AT36&amp;","&amp;AU27:AU36</f>
+      <c r="AX33" s="10" t="str">
+        <f>AM27:AM36&amp;","&amp;AN27:AN36&amp;","&amp;AO27:AO36&amp;","&amp;AP27:AP36&amp;","&amp;AQ27:AQ36&amp;","&amp;AR27:AR36&amp;","&amp;AS27:AS36&amp;","&amp;AT27:AT36&amp;","&amp;AU27:AU36&amp;","&amp;AV27:AV36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:49">
+    <row r="34" customHeight="1" spans="3:50">
       <c r="C34" s="1">
         <v>2022</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -7319,9 +7363,6 @@
       <c r="AA34" s="1">
         <v>0</v>
       </c>
-      <c r="AB34" s="1">
-        <v>0</v>
-      </c>
       <c r="AC34" s="1">
         <v>0</v>
       </c>
@@ -7379,21 +7420,24 @@
       <c r="AU34" s="1">
         <v>0</v>
       </c>
-      <c r="AV34" s="10" t="str">
-        <f>AB28:AB36&amp;","&amp;AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36&amp;","&amp;AK28:AK36</f>
+      <c r="AV34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="10" t="str">
+        <f>AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36&amp;","&amp;AK28:AK36&amp;","&amp;AL28:AL36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW34" s="10" t="str">
-        <f>AL28:AL36&amp;","&amp;AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36&amp;","&amp;AU28:AU36</f>
+      <c r="AX34" s="10" t="str">
+        <f>AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36&amp;","&amp;AU28:AU36&amp;","&amp;AV28:AV36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:49">
+    <row r="35" customHeight="1" spans="3:50">
       <c r="C35" s="1">
         <v>2023</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -7464,9 +7508,6 @@
       <c r="AA35" s="1">
         <v>0</v>
       </c>
-      <c r="AB35" s="1">
-        <v>0</v>
-      </c>
       <c r="AC35" s="1">
         <v>0</v>
       </c>
@@ -7524,21 +7565,24 @@
       <c r="AU35" s="1">
         <v>0</v>
       </c>
-      <c r="AV35" s="10" t="str">
-        <f>AB29:AB37&amp;","&amp;AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37&amp;","&amp;AK29:AK37</f>
+      <c r="AV35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="10" t="str">
+        <f>AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37&amp;","&amp;AK29:AK37&amp;","&amp;AL29:AL37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW35" s="10" t="str">
-        <f>AL29:AL37&amp;","&amp;AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37&amp;","&amp;AU29:AU37</f>
+      <c r="AX35" s="10" t="str">
+        <f>AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37&amp;","&amp;AU29:AU37&amp;","&amp;AV29:AV37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:49">
+    <row r="36" customHeight="1" spans="3:50">
       <c r="C36" s="1">
         <v>2024</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -7609,9 +7653,6 @@
       <c r="AA36" s="1">
         <v>0</v>
       </c>
-      <c r="AB36" s="1">
-        <v>0</v>
-      </c>
       <c r="AC36" s="1">
         <v>0</v>
       </c>
@@ -7669,21 +7710,24 @@
       <c r="AU36" s="1">
         <v>0</v>
       </c>
-      <c r="AV36" s="10" t="str">
-        <f>AB30:AB38&amp;","&amp;AC30:AC38&amp;","&amp;AD30:AD38&amp;","&amp;AE30:AE38&amp;","&amp;AF30:AF38&amp;","&amp;AG30:AG38&amp;","&amp;AH30:AH38&amp;","&amp;AI30:AI38&amp;","&amp;AJ30:AJ38&amp;","&amp;AK30:AK38</f>
+      <c r="AV36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="10" t="str">
+        <f>AC30:AC38&amp;","&amp;AD30:AD38&amp;","&amp;AE30:AE38&amp;","&amp;AF30:AF38&amp;","&amp;AG30:AG38&amp;","&amp;AH30:AH38&amp;","&amp;AI30:AI38&amp;","&amp;AJ30:AJ38&amp;","&amp;AK30:AK38&amp;","&amp;AL30:AL38</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW36" s="10" t="str">
-        <f>AL30:AL38&amp;","&amp;AM30:AM38&amp;","&amp;AN30:AN38&amp;","&amp;AO30:AO38&amp;","&amp;AP30:AP38&amp;","&amp;AQ30:AQ38&amp;","&amp;AR30:AR38&amp;","&amp;AS30:AS38&amp;","&amp;AT30:AT38&amp;","&amp;AU30:AU38</f>
+      <c r="AX36" s="10" t="str">
+        <f>AM30:AM38&amp;","&amp;AN30:AN38&amp;","&amp;AO30:AO38&amp;","&amp;AP30:AP38&amp;","&amp;AQ30:AQ38&amp;","&amp;AR30:AR38&amp;","&amp;AS30:AS38&amp;","&amp;AT30:AT38&amp;","&amp;AU30:AU38&amp;","&amp;AV30:AV38</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:49">
+    <row r="37" customHeight="1" spans="3:50">
       <c r="C37" s="1">
         <v>3000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1">
         <v>6</v>
@@ -7754,9 +7798,6 @@
       <c r="AA37" s="1">
         <v>0</v>
       </c>
-      <c r="AB37" s="1">
-        <v>0</v>
-      </c>
       <c r="AC37" s="1">
         <v>0</v>
       </c>
@@ -7814,21 +7855,24 @@
       <c r="AU37" s="1">
         <v>0</v>
       </c>
-      <c r="AV37" s="10" t="str">
-        <f>AB33:AB41&amp;","&amp;AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41&amp;","&amp;AK33:AK41</f>
+      <c r="AV37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="10" t="str">
+        <f>AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41&amp;","&amp;AK33:AK41&amp;","&amp;AL33:AL41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW37" s="10" t="str">
-        <f>AL33:AL41&amp;","&amp;AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41&amp;","&amp;AU33:AU41</f>
+      <c r="AX37" s="10" t="str">
+        <f>AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41&amp;","&amp;AU33:AU41&amp;","&amp;AV33:AV41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:49">
+    <row r="38" customHeight="1" spans="3:50">
       <c r="C38" s="1">
         <v>3001</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E38" s="1">
         <v>60</v>
@@ -7899,9 +7943,6 @@
       <c r="AA38" s="1">
         <v>0</v>
       </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
       <c r="AC38" s="1">
         <v>0</v>
       </c>
@@ -7959,21 +8000,24 @@
       <c r="AU38" s="1">
         <v>0</v>
       </c>
-      <c r="AV38" s="10" t="str">
-        <f>AB34:AB42&amp;","&amp;AC34:AC42&amp;","&amp;AD34:AD42&amp;","&amp;AE34:AE42&amp;","&amp;AF34:AF42&amp;","&amp;AG34:AG42&amp;","&amp;AH34:AH42&amp;","&amp;AI34:AI42&amp;","&amp;AJ34:AJ42&amp;","&amp;AK34:AK42</f>
+      <c r="AV38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="10" t="str">
+        <f>AC34:AC42&amp;","&amp;AD34:AD42&amp;","&amp;AE34:AE42&amp;","&amp;AF34:AF42&amp;","&amp;AG34:AG42&amp;","&amp;AH34:AH42&amp;","&amp;AI34:AI42&amp;","&amp;AJ34:AJ42&amp;","&amp;AK34:AK42&amp;","&amp;AL34:AL42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW38" s="10" t="str">
-        <f>AL34:AL42&amp;","&amp;AM34:AM42&amp;","&amp;AN34:AN42&amp;","&amp;AO34:AO42&amp;","&amp;AP34:AP42&amp;","&amp;AQ34:AQ42&amp;","&amp;AR34:AR42&amp;","&amp;AS34:AS42&amp;","&amp;AT34:AT42&amp;","&amp;AU34:AU42</f>
+      <c r="AX38" s="10" t="str">
+        <f>AM34:AM42&amp;","&amp;AN34:AN42&amp;","&amp;AO34:AO42&amp;","&amp;AP34:AP42&amp;","&amp;AQ34:AQ42&amp;","&amp;AR34:AR42&amp;","&amp;AS34:AS42&amp;","&amp;AT34:AT42&amp;","&amp;AU34:AU42&amp;","&amp;AV34:AV42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:49">
+    <row r="39" customHeight="1" spans="3:50">
       <c r="C39" s="1">
         <v>3010</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E39" s="1">
         <v>60</v>
@@ -8044,9 +8088,6 @@
       <c r="AA39" s="1">
         <v>0</v>
       </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
       <c r="AC39" s="1">
         <v>0</v>
       </c>
@@ -8104,21 +8145,24 @@
       <c r="AU39" s="1">
         <v>0</v>
       </c>
-      <c r="AV39" s="10" t="str">
-        <f>AB35:AB43&amp;","&amp;AC35:AC43&amp;","&amp;AD35:AD43&amp;","&amp;AE35:AE43&amp;","&amp;AF35:AF43&amp;","&amp;AG35:AG43&amp;","&amp;AH35:AH43&amp;","&amp;AI35:AI43&amp;","&amp;AJ35:AJ43&amp;","&amp;AK35:AK43</f>
+      <c r="AV39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="10" t="str">
+        <f>AC35:AC43&amp;","&amp;AD35:AD43&amp;","&amp;AE35:AE43&amp;","&amp;AF35:AF43&amp;","&amp;AG35:AG43&amp;","&amp;AH35:AH43&amp;","&amp;AI35:AI43&amp;","&amp;AJ35:AJ43&amp;","&amp;AK35:AK43&amp;","&amp;AL35:AL43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW39" s="10" t="str">
-        <f>AL35:AL43&amp;","&amp;AM35:AM43&amp;","&amp;AN35:AN43&amp;","&amp;AO35:AO43&amp;","&amp;AP35:AP43&amp;","&amp;AQ35:AQ43&amp;","&amp;AR35:AR43&amp;","&amp;AS35:AS43&amp;","&amp;AT35:AT43&amp;","&amp;AU35:AU43</f>
+      <c r="AX39" s="10" t="str">
+        <f>AM35:AM43&amp;","&amp;AN35:AN43&amp;","&amp;AO35:AO43&amp;","&amp;AP35:AP43&amp;","&amp;AQ35:AQ43&amp;","&amp;AR35:AR43&amp;","&amp;AS35:AS43&amp;","&amp;AT35:AT43&amp;","&amp;AU35:AU43&amp;","&amp;AV35:AV43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="3:49">
+    <row r="40" customHeight="1" spans="3:50">
       <c r="C40" s="1">
         <v>3011</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E40" s="1">
         <v>600</v>
@@ -8189,9 +8233,6 @@
       <c r="AA40" s="1">
         <v>0</v>
       </c>
-      <c r="AB40" s="1">
-        <v>0</v>
-      </c>
       <c r="AC40" s="1">
         <v>0</v>
       </c>
@@ -8249,21 +8290,24 @@
       <c r="AU40" s="1">
         <v>0</v>
       </c>
-      <c r="AV40" s="10" t="str">
-        <f>AB36:AB44&amp;","&amp;AC36:AC44&amp;","&amp;AD36:AD44&amp;","&amp;AE36:AE44&amp;","&amp;AF36:AF44&amp;","&amp;AG36:AG44&amp;","&amp;AH36:AH44&amp;","&amp;AI36:AI44&amp;","&amp;AJ36:AJ44&amp;","&amp;AK36:AK44</f>
+      <c r="AV40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="10" t="str">
+        <f>AC36:AC44&amp;","&amp;AD36:AD44&amp;","&amp;AE36:AE44&amp;","&amp;AF36:AF44&amp;","&amp;AG36:AG44&amp;","&amp;AH36:AH44&amp;","&amp;AI36:AI44&amp;","&amp;AJ36:AJ44&amp;","&amp;AK36:AK44&amp;","&amp;AL36:AL44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW40" s="10" t="str">
-        <f>AL36:AL44&amp;","&amp;AM36:AM44&amp;","&amp;AN36:AN44&amp;","&amp;AO36:AO44&amp;","&amp;AP36:AP44&amp;","&amp;AQ36:AQ44&amp;","&amp;AR36:AR44&amp;","&amp;AS36:AS44&amp;","&amp;AT36:AT44&amp;","&amp;AU36:AU44</f>
+      <c r="AX40" s="10" t="str">
+        <f>AM36:AM44&amp;","&amp;AN36:AN44&amp;","&amp;AO36:AO44&amp;","&amp;AP36:AP44&amp;","&amp;AQ36:AQ44&amp;","&amp;AR36:AR44&amp;","&amp;AS36:AS44&amp;","&amp;AT36:AT44&amp;","&amp;AU36:AU44&amp;","&amp;AV36:AV44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:49">
+    <row r="41" customHeight="1" spans="3:50">
       <c r="C41" s="1">
         <v>3020</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
@@ -8334,9 +8378,6 @@
       <c r="AA41" s="1">
         <v>0</v>
       </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
       <c r="AC41" s="1">
         <v>0</v>
       </c>
@@ -8394,21 +8435,24 @@
       <c r="AU41" s="1">
         <v>0</v>
       </c>
-      <c r="AV41" s="10" t="str">
-        <f>AB37:AB45&amp;","&amp;AC37:AC45&amp;","&amp;AD37:AD45&amp;","&amp;AE37:AE45&amp;","&amp;AF37:AF45&amp;","&amp;AG37:AG45&amp;","&amp;AH37:AH45&amp;","&amp;AI37:AI45&amp;","&amp;AJ37:AJ45&amp;","&amp;AK37:AK45</f>
+      <c r="AV41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="10" t="str">
+        <f>AC37:AC45&amp;","&amp;AD37:AD45&amp;","&amp;AE37:AE45&amp;","&amp;AF37:AF45&amp;","&amp;AG37:AG45&amp;","&amp;AH37:AH45&amp;","&amp;AI37:AI45&amp;","&amp;AJ37:AJ45&amp;","&amp;AK37:AK45&amp;","&amp;AL37:AL45</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW41" s="10" t="str">
-        <f>AL37:AL45&amp;","&amp;AM37:AM45&amp;","&amp;AN37:AN45&amp;","&amp;AO37:AO45&amp;","&amp;AP37:AP45&amp;","&amp;AQ37:AQ45&amp;","&amp;AR37:AR45&amp;","&amp;AS37:AS45&amp;","&amp;AT37:AT45&amp;","&amp;AU37:AU45</f>
+      <c r="AX41" s="10" t="str">
+        <f>AM37:AM45&amp;","&amp;AN37:AN45&amp;","&amp;AO37:AO45&amp;","&amp;AP37:AP45&amp;","&amp;AQ37:AQ45&amp;","&amp;AR37:AR45&amp;","&amp;AS37:AS45&amp;","&amp;AT37:AT45&amp;","&amp;AU37:AU45&amp;","&amp;AV37:AV45</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="3:49">
+    <row r="42" customHeight="1" spans="3:50">
       <c r="C42" s="1">
         <v>3021</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1">
         <v>60</v>
@@ -8479,9 +8523,6 @@
       <c r="AA42" s="1">
         <v>0</v>
       </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
       <c r="AC42" s="1">
         <v>0</v>
       </c>
@@ -8539,21 +8580,24 @@
       <c r="AU42" s="1">
         <v>0</v>
       </c>
-      <c r="AV42" s="10" t="str">
-        <f>AB37:AB46&amp;","&amp;AC37:AC46&amp;","&amp;AD37:AD46&amp;","&amp;AE37:AE46&amp;","&amp;AF37:AF46&amp;","&amp;AG37:AG46&amp;","&amp;AH37:AH46&amp;","&amp;AI37:AI46&amp;","&amp;AJ37:AJ46&amp;","&amp;AK37:AK46</f>
+      <c r="AV42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="10" t="str">
+        <f>AC37:AC46&amp;","&amp;AD37:AD46&amp;","&amp;AE37:AE46&amp;","&amp;AF37:AF46&amp;","&amp;AG37:AG46&amp;","&amp;AH37:AH46&amp;","&amp;AI37:AI46&amp;","&amp;AJ37:AJ46&amp;","&amp;AK37:AK46&amp;","&amp;AL37:AL46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW42" s="10" t="str">
-        <f>AL37:AL46&amp;","&amp;AM37:AM46&amp;","&amp;AN37:AN46&amp;","&amp;AO37:AO46&amp;","&amp;AP37:AP46&amp;","&amp;AQ37:AQ46&amp;","&amp;AR37:AR46&amp;","&amp;AS37:AS46&amp;","&amp;AT37:AT46&amp;","&amp;AU37:AU46</f>
+      <c r="AX42" s="10" t="str">
+        <f>AM37:AM46&amp;","&amp;AN37:AN46&amp;","&amp;AO37:AO46&amp;","&amp;AP37:AP46&amp;","&amp;AQ37:AQ46&amp;","&amp;AR37:AR46&amp;","&amp;AS37:AS46&amp;","&amp;AT37:AT46&amp;","&amp;AU37:AU46&amp;","&amp;AV37:AV46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="3:49">
+    <row r="43" customHeight="1" spans="3:50">
       <c r="C43" s="1">
         <v>3030</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -8624,9 +8668,6 @@
       <c r="AA43" s="1">
         <v>0</v>
       </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
       <c r="AC43" s="1">
         <v>0</v>
       </c>
@@ -8684,21 +8725,24 @@
       <c r="AU43" s="1">
         <v>0</v>
       </c>
-      <c r="AV43" s="10" t="str">
-        <f>AB37:AB47&amp;","&amp;AC37:AC47&amp;","&amp;AD37:AD47&amp;","&amp;AE37:AE47&amp;","&amp;AF37:AF47&amp;","&amp;AG37:AG47&amp;","&amp;AH37:AH47&amp;","&amp;AI37:AI47&amp;","&amp;AJ37:AJ47&amp;","&amp;AK37:AK47</f>
+      <c r="AV43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="10" t="str">
+        <f>AC37:AC47&amp;","&amp;AD37:AD47&amp;","&amp;AE37:AE47&amp;","&amp;AF37:AF47&amp;","&amp;AG37:AG47&amp;","&amp;AH37:AH47&amp;","&amp;AI37:AI47&amp;","&amp;AJ37:AJ47&amp;","&amp;AK37:AK47&amp;","&amp;AL37:AL47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW43" s="10" t="str">
-        <f>AL37:AL47&amp;","&amp;AM37:AM47&amp;","&amp;AN37:AN47&amp;","&amp;AO37:AO47&amp;","&amp;AP37:AP47&amp;","&amp;AQ37:AQ47&amp;","&amp;AR37:AR47&amp;","&amp;AS37:AS47&amp;","&amp;AT37:AT47&amp;","&amp;AU37:AU47</f>
+      <c r="AX43" s="10" t="str">
+        <f>AM37:AM47&amp;","&amp;AN37:AN47&amp;","&amp;AO37:AO47&amp;","&amp;AP37:AP47&amp;","&amp;AQ37:AQ47&amp;","&amp;AR37:AR47&amp;","&amp;AS37:AS47&amp;","&amp;AT37:AT47&amp;","&amp;AU37:AU47&amp;","&amp;AV37:AV47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:49">
+    <row r="44" customHeight="1" spans="3:50">
       <c r="C44" s="1">
         <v>3031</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -8769,9 +8813,6 @@
       <c r="AA44" s="1">
         <v>0</v>
       </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
       <c r="AC44" s="1">
         <v>0</v>
       </c>
@@ -8829,21 +8870,24 @@
       <c r="AU44" s="1">
         <v>0</v>
       </c>
-      <c r="AV44" s="10" t="str">
-        <f>AB38:AB48&amp;","&amp;AC38:AC48&amp;","&amp;AD38:AD48&amp;","&amp;AE38:AE48&amp;","&amp;AF38:AF48&amp;","&amp;AG38:AG48&amp;","&amp;AH38:AH48&amp;","&amp;AI38:AI48&amp;","&amp;AJ38:AJ48&amp;","&amp;AK38:AK48</f>
+      <c r="AV44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="10" t="str">
+        <f>AC38:AC48&amp;","&amp;AD38:AD48&amp;","&amp;AE38:AE48&amp;","&amp;AF38:AF48&amp;","&amp;AG38:AG48&amp;","&amp;AH38:AH48&amp;","&amp;AI38:AI48&amp;","&amp;AJ38:AJ48&amp;","&amp;AK38:AK48&amp;","&amp;AL38:AL48</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW44" s="10" t="str">
-        <f>AL38:AL48&amp;","&amp;AM38:AM48&amp;","&amp;AN38:AN48&amp;","&amp;AO38:AO48&amp;","&amp;AP38:AP48&amp;","&amp;AQ38:AQ48&amp;","&amp;AR38:AR48&amp;","&amp;AS38:AS48&amp;","&amp;AT38:AT48&amp;","&amp;AU38:AU48</f>
+      <c r="AX44" s="10" t="str">
+        <f>AM38:AM48&amp;","&amp;AN38:AN48&amp;","&amp;AO38:AO48&amp;","&amp;AP38:AP48&amp;","&amp;AQ38:AQ48&amp;","&amp;AR38:AR48&amp;","&amp;AS38:AS48&amp;","&amp;AT38:AT48&amp;","&amp;AU38:AU48&amp;","&amp;AV38:AV48</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="3:49">
+    <row r="45" customHeight="1" spans="3:50">
       <c r="C45" s="1">
         <v>3032</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -8914,9 +8958,6 @@
       <c r="AA45" s="1">
         <v>0</v>
       </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
       <c r="AC45" s="1">
         <v>0</v>
       </c>
@@ -8974,21 +9015,24 @@
       <c r="AU45" s="1">
         <v>0</v>
       </c>
-      <c r="AV45" s="10" t="str">
-        <f t="shared" ref="AV45:AV50" si="6">AB39:AB51&amp;","&amp;AC39:AC51&amp;","&amp;AD39:AD51&amp;","&amp;AE39:AE51&amp;","&amp;AF39:AF51&amp;","&amp;AG39:AG51&amp;","&amp;AH39:AH51&amp;","&amp;AI39:AI51&amp;","&amp;AJ39:AJ51&amp;","&amp;AK39:AK51</f>
+      <c r="AV45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="10" t="str">
+        <f t="shared" ref="AW45:AW50" si="6">AC39:AC51&amp;","&amp;AD39:AD51&amp;","&amp;AE39:AE51&amp;","&amp;AF39:AF51&amp;","&amp;AG39:AG51&amp;","&amp;AH39:AH51&amp;","&amp;AI39:AI51&amp;","&amp;AJ39:AJ51&amp;","&amp;AK39:AK51&amp;","&amp;AL39:AL51</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW45" s="10" t="str">
-        <f t="shared" ref="AW45:AW50" si="7">AL39:AL51&amp;","&amp;AM39:AM51&amp;","&amp;AN39:AN51&amp;","&amp;AO39:AO51&amp;","&amp;AP39:AP51&amp;","&amp;AQ39:AQ51&amp;","&amp;AR39:AR51&amp;","&amp;AS39:AS51&amp;","&amp;AT39:AT51&amp;","&amp;AU39:AU51</f>
+      <c r="AX45" s="10" t="str">
+        <f t="shared" ref="AX45:AX50" si="7">AM39:AM51&amp;","&amp;AN39:AN51&amp;","&amp;AO39:AO51&amp;","&amp;AP39:AP51&amp;","&amp;AQ39:AQ51&amp;","&amp;AR39:AR51&amp;","&amp;AS39:AS51&amp;","&amp;AT39:AT51&amp;","&amp;AU39:AU51&amp;","&amp;AV39:AV51</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="3:49">
+    <row r="46" customHeight="1" spans="3:50">
       <c r="C46" s="1">
         <v>3033</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -9059,9 +9103,6 @@
       <c r="AA46" s="1">
         <v>0</v>
       </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
       <c r="AC46" s="1">
         <v>0</v>
       </c>
@@ -9119,21 +9160,24 @@
       <c r="AU46" s="1">
         <v>0</v>
       </c>
-      <c r="AV46" s="10" t="str">
+      <c r="AV46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW46" s="10" t="str">
+      <c r="AX46" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="3:49">
+    <row r="47" customHeight="1" spans="3:50">
       <c r="C47" s="1">
         <v>3034</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -9204,9 +9248,6 @@
       <c r="AA47" s="1">
         <v>0</v>
       </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
       <c r="AC47" s="1">
         <v>0</v>
       </c>
@@ -9264,21 +9305,24 @@
       <c r="AU47" s="1">
         <v>0</v>
       </c>
-      <c r="AV47" s="10" t="str">
+      <c r="AV47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW47" s="10" t="str">
+      <c r="AX47" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="3:49">
+    <row r="48" customHeight="1" spans="3:50">
       <c r="C48" s="1">
         <v>3035</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -9349,9 +9393,6 @@
       <c r="AA48" s="1">
         <v>0</v>
       </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
       <c r="AC48" s="1">
         <v>0</v>
       </c>
@@ -9409,21 +9450,24 @@
       <c r="AU48" s="1">
         <v>0</v>
       </c>
-      <c r="AV48" s="10" t="str">
+      <c r="AV48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW48" s="10" t="str">
+      <c r="AX48" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="3:49">
+    <row r="49" customHeight="1" spans="3:50">
       <c r="C49" s="1">
         <v>3036</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -9494,9 +9538,6 @@
       <c r="AA49" s="1">
         <v>0</v>
       </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
       <c r="AC49" s="1">
         <v>0</v>
       </c>
@@ -9554,21 +9595,24 @@
       <c r="AU49" s="1">
         <v>0</v>
       </c>
-      <c r="AV49" s="10" t="str">
+      <c r="AV49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW49" s="10" t="str">
+      <c r="AX49" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="3:49">
+    <row r="50" customHeight="1" spans="3:50">
       <c r="C50" s="1">
         <v>3037</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -9639,9 +9683,6 @@
       <c r="AA50" s="1">
         <v>0</v>
       </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
       <c r="AC50" s="1">
         <v>0</v>
       </c>
@@ -9699,21 +9740,24 @@
       <c r="AU50" s="1">
         <v>0</v>
       </c>
-      <c r="AV50" s="10" t="str">
+      <c r="AV50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="10" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW50" s="10" t="str">
+      <c r="AX50" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="3:49">
+    <row r="51" customHeight="1" spans="3:50">
       <c r="C51" s="1">
         <v>3050</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -9784,15 +9828,12 @@
       <c r="AA51" s="1">
         <v>0</v>
       </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
       <c r="AC51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
         <v>20</v>
       </c>
-      <c r="AD51" s="1">
-        <v>0</v>
-      </c>
       <c r="AE51" s="1">
         <v>0</v>
       </c>
@@ -9844,21 +9885,24 @@
       <c r="AU51" s="1">
         <v>0</v>
       </c>
-      <c r="AV51" s="10" t="str">
-        <f t="shared" ref="AV51:AV56" si="8">AB43:AB55&amp;","&amp;AC43:AC55&amp;","&amp;AD43:AD55&amp;","&amp;AE43:AE55&amp;","&amp;AF43:AF55&amp;","&amp;AG43:AG55&amp;","&amp;AH43:AH55&amp;","&amp;AI43:AI55&amp;","&amp;AJ43:AJ55&amp;","&amp;AK43:AK55</f>
+      <c r="AV51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="10" t="str">
+        <f t="shared" ref="AW51:AW56" si="8">AC43:AC55&amp;","&amp;AD43:AD55&amp;","&amp;AE43:AE55&amp;","&amp;AF43:AF55&amp;","&amp;AG43:AG55&amp;","&amp;AH43:AH55&amp;","&amp;AI43:AI55&amp;","&amp;AJ43:AJ55&amp;","&amp;AK43:AK55&amp;","&amp;AL43:AL55</f>
         <v>0,20,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW51" s="10" t="str">
-        <f t="shared" ref="AW51:AW56" si="9">AL43:AL55&amp;","&amp;AM43:AM55&amp;","&amp;AN43:AN55&amp;","&amp;AO43:AO55&amp;","&amp;AP43:AP55&amp;","&amp;AQ43:AQ55&amp;","&amp;AR43:AR55&amp;","&amp;AS43:AS55&amp;","&amp;AT43:AT55&amp;","&amp;AU43:AU55</f>
+      <c r="AX51" s="10" t="str">
+        <f t="shared" ref="AX51:AX56" si="9">AM43:AM55&amp;","&amp;AN43:AN55&amp;","&amp;AO43:AO55&amp;","&amp;AP43:AP55&amp;","&amp;AQ43:AQ55&amp;","&amp;AR43:AR55&amp;","&amp;AS43:AS55&amp;","&amp;AT43:AT55&amp;","&amp;AU43:AU55&amp;","&amp;AV43:AV55</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="3:49">
+    <row r="52" customHeight="1" spans="3:50">
       <c r="C52" s="1">
         <v>3051</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -9929,18 +9973,15 @@
       <c r="AA52" s="1">
         <v>0</v>
       </c>
-      <c r="AB52" s="1">
-        <v>0</v>
-      </c>
       <c r="AC52" s="1">
         <v>0</v>
       </c>
       <c r="AD52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1">
         <v>20</v>
       </c>
-      <c r="AE52" s="1">
-        <v>0</v>
-      </c>
       <c r="AF52" s="1">
         <v>0</v>
       </c>
@@ -9989,21 +10030,24 @@
       <c r="AU52" s="1">
         <v>0</v>
       </c>
-      <c r="AV52" s="10" t="str">
+      <c r="AV52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,20,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW52" s="10" t="str">
+      <c r="AX52" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="3:49">
+    <row r="53" customHeight="1" spans="3:50">
       <c r="C53" s="1">
         <v>3052</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -10074,9 +10118,6 @@
       <c r="AA53" s="1">
         <v>0</v>
       </c>
-      <c r="AB53" s="1">
-        <v>0</v>
-      </c>
       <c r="AC53" s="1">
         <v>0</v>
       </c>
@@ -10084,11 +10125,11 @@
         <v>0</v>
       </c>
       <c r="AE53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="1">
         <v>20</v>
       </c>
-      <c r="AF53" s="1">
-        <v>0</v>
-      </c>
       <c r="AG53" s="1">
         <v>0</v>
       </c>
@@ -10134,21 +10175,24 @@
       <c r="AU53" s="1">
         <v>0</v>
       </c>
-      <c r="AV53" s="10" t="str">
+      <c r="AV53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,20,0,0,0,0,0,0</v>
       </c>
-      <c r="AW53" s="10" t="str">
+      <c r="AX53" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="3:49">
+    <row r="54" customHeight="1" spans="3:50">
       <c r="C54" s="1">
         <v>3053</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -10219,9 +10263,6 @@
       <c r="AA54" s="1">
         <v>0</v>
       </c>
-      <c r="AB54" s="1">
-        <v>0</v>
-      </c>
       <c r="AC54" s="1">
         <v>0</v>
       </c>
@@ -10232,11 +10273,11 @@
         <v>0</v>
       </c>
       <c r="AF54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="1">
         <v>20</v>
       </c>
-      <c r="AG54" s="1">
-        <v>0</v>
-      </c>
       <c r="AH54" s="1">
         <v>0</v>
       </c>
@@ -10279,21 +10320,24 @@
       <c r="AU54" s="1">
         <v>0</v>
       </c>
-      <c r="AV54" s="10" t="str">
+      <c r="AV54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,0,20,0,0,0,0,0</v>
       </c>
-      <c r="AW54" s="10" t="str">
+      <c r="AX54" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="3:49">
+    <row r="55" customHeight="1" spans="3:50">
       <c r="C55" s="1">
         <v>3054</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -10364,9 +10408,6 @@
       <c r="AA55" s="1">
         <v>0</v>
       </c>
-      <c r="AB55" s="1">
-        <v>0</v>
-      </c>
       <c r="AC55" s="1">
         <v>0</v>
       </c>
@@ -10380,11 +10421,11 @@
         <v>0</v>
       </c>
       <c r="AG55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="1">
         <v>20</v>
       </c>
-      <c r="AH55" s="1">
-        <v>0</v>
-      </c>
       <c r="AI55" s="1">
         <v>0</v>
       </c>
@@ -10424,21 +10465,24 @@
       <c r="AU55" s="1">
         <v>0</v>
       </c>
-      <c r="AV55" s="10" t="str">
+      <c r="AV55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,0,0,20,0,0,0,0</v>
       </c>
-      <c r="AW55" s="10" t="str">
+      <c r="AX55" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="3:49">
+    <row r="56" customHeight="1" spans="3:50">
       <c r="C56" s="1">
         <v>3055</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -10509,9 +10553,6 @@
       <c r="AA56" s="1">
         <v>0</v>
       </c>
-      <c r="AB56" s="1">
-        <v>0</v>
-      </c>
       <c r="AC56" s="1">
         <v>0</v>
       </c>
@@ -10528,11 +10569,11 @@
         <v>0</v>
       </c>
       <c r="AH56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="1">
         <v>20</v>
       </c>
-      <c r="AI56" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ56" s="1">
         <v>0</v>
       </c>
@@ -10569,21 +10610,24 @@
       <c r="AU56" s="1">
         <v>0</v>
       </c>
-      <c r="AV56" s="10" t="str">
+      <c r="AV56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,20,0,0,0</v>
       </c>
-      <c r="AW56" s="10" t="str">
+      <c r="AX56" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="3:49">
+    <row r="57" customHeight="1" spans="3:50">
       <c r="C57" s="1">
         <v>3056</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -10654,9 +10698,6 @@
       <c r="AA57" s="1">
         <v>0</v>
       </c>
-      <c r="AB57" s="1">
-        <v>0</v>
-      </c>
       <c r="AC57" s="1">
         <v>0</v>
       </c>
@@ -10676,11 +10717,11 @@
         <v>0</v>
       </c>
       <c r="AI57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="1">
         <v>20</v>
       </c>
-      <c r="AJ57" s="1">
-        <v>0</v>
-      </c>
       <c r="AK57" s="1">
         <v>0</v>
       </c>
@@ -10714,21 +10755,24 @@
       <c r="AU57" s="1">
         <v>0</v>
       </c>
-      <c r="AV57" s="10" t="str">
-        <f t="shared" ref="AV52:AV86" si="10">AB51:AB61&amp;","&amp;AC51:AC61&amp;","&amp;AD51:AD61&amp;","&amp;AE51:AE61&amp;","&amp;AF51:AF61&amp;","&amp;AG51:AG61&amp;","&amp;AH51:AH61&amp;","&amp;AI51:AI61&amp;","&amp;AJ51:AJ61&amp;","&amp;AK51:AK61</f>
+      <c r="AV57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="10" t="str">
+        <f t="shared" ref="AW52:AW86" si="10">AC51:AC61&amp;","&amp;AD51:AD61&amp;","&amp;AE51:AE61&amp;","&amp;AF51:AF61&amp;","&amp;AG51:AG61&amp;","&amp;AH51:AH61&amp;","&amp;AI51:AI61&amp;","&amp;AJ51:AJ61&amp;","&amp;AK51:AK61&amp;","&amp;AL51:AL61</f>
         <v>0,0,0,0,0,0,0,20,0,0</v>
       </c>
-      <c r="AW57" s="10" t="str">
-        <f t="shared" ref="AW52:AW86" si="11">AL51:AL61&amp;","&amp;AM51:AM61&amp;","&amp;AN51:AN61&amp;","&amp;AO51:AO61&amp;","&amp;AP51:AP61&amp;","&amp;AQ51:AQ61&amp;","&amp;AR51:AR61&amp;","&amp;AS51:AS61&amp;","&amp;AT51:AT61&amp;","&amp;AU51:AU61</f>
+      <c r="AX57" s="10" t="str">
+        <f t="shared" ref="AX52:AX86" si="11">AM51:AM61&amp;","&amp;AN51:AN61&amp;","&amp;AO51:AO61&amp;","&amp;AP51:AP61&amp;","&amp;AQ51:AQ61&amp;","&amp;AR51:AR61&amp;","&amp;AS51:AS61&amp;","&amp;AT51:AT61&amp;","&amp;AU51:AU61&amp;","&amp;AV51:AV61</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="3:49">
+    <row r="58" customHeight="1" spans="3:50">
       <c r="C58" s="1">
         <v>3057</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -10799,9 +10843,6 @@
       <c r="AA58" s="1">
         <v>0</v>
       </c>
-      <c r="AB58" s="1">
-        <v>0</v>
-      </c>
       <c r="AC58" s="1">
         <v>0</v>
       </c>
@@ -10824,11 +10865,11 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="1">
         <v>20</v>
       </c>
-      <c r="AK58" s="1">
-        <v>0</v>
-      </c>
       <c r="AL58" s="1">
         <v>0</v>
       </c>
@@ -10859,21 +10900,24 @@
       <c r="AU58" s="1">
         <v>0</v>
       </c>
-      <c r="AV58" s="10" t="str">
+      <c r="AV58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,20,0</v>
       </c>
-      <c r="AW58" s="10" t="str">
+      <c r="AX58" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="3:49">
+    <row r="59" customHeight="1" spans="3:50">
       <c r="C59" s="1">
         <v>3058</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -10944,9 +10988,6 @@
       <c r="AA59" s="1">
         <v>0</v>
       </c>
-      <c r="AB59" s="1">
-        <v>0</v>
-      </c>
       <c r="AC59" s="1">
         <v>0</v>
       </c>
@@ -10972,11 +11013,11 @@
         <v>0</v>
       </c>
       <c r="AK59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
         <v>20</v>
       </c>
-      <c r="AL59" s="1">
-        <v>0</v>
-      </c>
       <c r="AM59" s="1">
         <v>0</v>
       </c>
@@ -11004,21 +11045,24 @@
       <c r="AU59" s="1">
         <v>0</v>
       </c>
-      <c r="AV59" s="10" t="str">
+      <c r="AV59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,20</v>
       </c>
-      <c r="AW59" s="10" t="str">
+      <c r="AX59" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="3:49">
+    <row r="60" customHeight="1" spans="3:50">
       <c r="C60" s="1">
         <v>3059</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -11089,15 +11133,12 @@
       <c r="AA60" s="1">
         <v>0</v>
       </c>
-      <c r="AB60" s="1">
-        <v>0</v>
-      </c>
       <c r="AC60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
         <v>50</v>
       </c>
-      <c r="AD60" s="1">
-        <v>0</v>
-      </c>
       <c r="AE60" s="1">
         <v>0</v>
       </c>
@@ -11149,21 +11190,24 @@
       <c r="AU60" s="1">
         <v>0</v>
       </c>
-      <c r="AV60" s="10" t="str">
+      <c r="AV60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,50,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW60" s="10" t="str">
+      <c r="AX60" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="3:49">
+    <row r="61" customHeight="1" spans="3:50">
       <c r="C61" s="1">
         <v>3060</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -11234,18 +11278,15 @@
       <c r="AA61" s="1">
         <v>0</v>
       </c>
-      <c r="AB61" s="1">
-        <v>0</v>
-      </c>
       <c r="AC61" s="1">
         <v>0</v>
       </c>
       <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
         <v>50</v>
       </c>
-      <c r="AE61" s="1">
-        <v>0</v>
-      </c>
       <c r="AF61" s="1">
         <v>0</v>
       </c>
@@ -11294,21 +11335,24 @@
       <c r="AU61" s="1">
         <v>0</v>
       </c>
-      <c r="AV61" s="10" t="str">
+      <c r="AV61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,50,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW61" s="10" t="str">
+      <c r="AX61" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="3:49">
+    <row r="62" customHeight="1" spans="3:50">
       <c r="C62" s="1">
         <v>3061</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -11379,9 +11423,6 @@
       <c r="AA62" s="1">
         <v>0</v>
       </c>
-      <c r="AB62" s="1">
-        <v>0</v>
-      </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
@@ -11389,11 +11430,11 @@
         <v>0</v>
       </c>
       <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
         <v>50</v>
       </c>
-      <c r="AF62" s="1">
-        <v>0</v>
-      </c>
       <c r="AG62" s="1">
         <v>0</v>
       </c>
@@ -11439,21 +11480,24 @@
       <c r="AU62" s="1">
         <v>0</v>
       </c>
-      <c r="AV62" s="10" t="str">
+      <c r="AV62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,50,0,0,0,0,0,0</v>
       </c>
-      <c r="AW62" s="10" t="str">
+      <c r="AX62" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="3:49">
+    <row r="63" customHeight="1" spans="3:50">
       <c r="C63" s="1">
         <v>3062</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -11524,9 +11568,6 @@
       <c r="AA63" s="1">
         <v>0</v>
       </c>
-      <c r="AB63" s="1">
-        <v>0</v>
-      </c>
       <c r="AC63" s="1">
         <v>0</v>
       </c>
@@ -11537,11 +11578,11 @@
         <v>0</v>
       </c>
       <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
         <v>50</v>
       </c>
-      <c r="AG63" s="1">
-        <v>0</v>
-      </c>
       <c r="AH63" s="1">
         <v>0</v>
       </c>
@@ -11584,21 +11625,24 @@
       <c r="AU63" s="1">
         <v>0</v>
       </c>
-      <c r="AV63" s="10" t="str">
+      <c r="AV63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW63" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,50,0,0,0,0,0</v>
       </c>
-      <c r="AW63" s="10" t="str">
+      <c r="AX63" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="3:49">
+    <row r="64" customHeight="1" spans="3:50">
       <c r="C64" s="1">
         <v>3063</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -11669,9 +11713,6 @@
       <c r="AA64" s="1">
         <v>0</v>
       </c>
-      <c r="AB64" s="1">
-        <v>0</v>
-      </c>
       <c r="AC64" s="1">
         <v>0</v>
       </c>
@@ -11685,11 +11726,11 @@
         <v>0</v>
       </c>
       <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
         <v>50</v>
       </c>
-      <c r="AH64" s="1">
-        <v>0</v>
-      </c>
       <c r="AI64" s="1">
         <v>0</v>
       </c>
@@ -11729,21 +11770,24 @@
       <c r="AU64" s="1">
         <v>0</v>
       </c>
-      <c r="AV64" s="10" t="str">
+      <c r="AV64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,50,0,0,0,0</v>
       </c>
-      <c r="AW64" s="10" t="str">
+      <c r="AX64" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="3:49">
+    <row r="65" customHeight="1" spans="3:50">
       <c r="C65" s="1">
         <v>3064</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
@@ -11814,9 +11858,6 @@
       <c r="AA65" s="1">
         <v>0</v>
       </c>
-      <c r="AB65" s="1">
-        <v>0</v>
-      </c>
       <c r="AC65" s="1">
         <v>0</v>
       </c>
@@ -11833,11 +11874,11 @@
         <v>0</v>
       </c>
       <c r="AH65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="1">
         <v>50</v>
       </c>
-      <c r="AI65" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ65" s="1">
         <v>0</v>
       </c>
@@ -11874,21 +11915,24 @@
       <c r="AU65" s="1">
         <v>0</v>
       </c>
-      <c r="AV65" s="10" t="str">
+      <c r="AV65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,50,0,0,0</v>
       </c>
-      <c r="AW65" s="10" t="str">
+      <c r="AX65" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="3:49">
+    <row r="66" customHeight="1" spans="3:50">
       <c r="C66" s="1">
         <v>3065</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -11959,9 +12003,6 @@
       <c r="AA66" s="1">
         <v>0</v>
       </c>
-      <c r="AB66" s="1">
-        <v>0</v>
-      </c>
       <c r="AC66" s="1">
         <v>0</v>
       </c>
@@ -11981,11 +12022,11 @@
         <v>0</v>
       </c>
       <c r="AI66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="1">
         <v>50</v>
       </c>
-      <c r="AJ66" s="1">
-        <v>0</v>
-      </c>
       <c r="AK66" s="1">
         <v>0</v>
       </c>
@@ -12019,21 +12060,24 @@
       <c r="AU66" s="1">
         <v>0</v>
       </c>
-      <c r="AV66" s="10" t="str">
+      <c r="AV66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,50,0,0</v>
       </c>
-      <c r="AW66" s="10" t="str">
+      <c r="AX66" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="3:49">
+    <row r="67" customHeight="1" spans="3:50">
       <c r="C67" s="1">
         <v>3066</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -12104,9 +12148,6 @@
       <c r="AA67" s="1">
         <v>0</v>
       </c>
-      <c r="AB67" s="1">
-        <v>0</v>
-      </c>
       <c r="AC67" s="1">
         <v>0</v>
       </c>
@@ -12129,11 +12170,11 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="1">
         <v>50</v>
       </c>
-      <c r="AK67" s="1">
-        <v>0</v>
-      </c>
       <c r="AL67" s="1">
         <v>0</v>
       </c>
@@ -12164,21 +12205,24 @@
       <c r="AU67" s="1">
         <v>0</v>
       </c>
-      <c r="AV67" s="10" t="str">
+      <c r="AV67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,50,0</v>
       </c>
-      <c r="AW67" s="10" t="str">
+      <c r="AX67" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="3:49">
+    <row r="68" customHeight="1" spans="3:50">
       <c r="C68" s="1">
         <v>3067</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -12249,9 +12293,6 @@
       <c r="AA68" s="1">
         <v>0</v>
       </c>
-      <c r="AB68" s="1">
-        <v>0</v>
-      </c>
       <c r="AC68" s="1">
         <v>0</v>
       </c>
@@ -12277,11 +12318,11 @@
         <v>0</v>
       </c>
       <c r="AK68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="1">
         <v>50</v>
       </c>
-      <c r="AL68" s="1">
-        <v>0</v>
-      </c>
       <c r="AM68" s="1">
         <v>0</v>
       </c>
@@ -12309,21 +12350,24 @@
       <c r="AU68" s="1">
         <v>0</v>
       </c>
-      <c r="AV68" s="10" t="str">
+      <c r="AV68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
       </c>
-      <c r="AW68" s="10" t="str">
+      <c r="AX68" s="10" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C69" s="2">
         <v>3068</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -12394,9 +12438,6 @@
       <c r="AA69" s="2">
         <v>0</v>
       </c>
-      <c r="AB69" s="2">
-        <v>0</v>
-      </c>
       <c r="AC69" s="2">
         <v>0</v>
       </c>
@@ -12428,11 +12469,11 @@
         <v>0</v>
       </c>
       <c r="AM69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="2">
         <v>20</v>
       </c>
-      <c r="AN69" s="2">
-        <v>0</v>
-      </c>
       <c r="AO69" s="2">
         <v>0</v>
       </c>
@@ -12454,21 +12495,24 @@
       <c r="AU69" s="2">
         <v>0</v>
       </c>
-      <c r="AV69" s="20" t="str">
+      <c r="AV69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW69" s="20" t="str">
+      <c r="AX69" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,20,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C70" s="2">
         <v>3069</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -12539,9 +12583,6 @@
       <c r="AA70" s="2">
         <v>0</v>
       </c>
-      <c r="AB70" s="2">
-        <v>0</v>
-      </c>
       <c r="AC70" s="2">
         <v>0</v>
       </c>
@@ -12576,11 +12617,11 @@
         <v>0</v>
       </c>
       <c r="AN70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="2">
         <v>20</v>
       </c>
-      <c r="AO70" s="2">
-        <v>0</v>
-      </c>
       <c r="AP70" s="2">
         <v>0</v>
       </c>
@@ -12599,21 +12640,24 @@
       <c r="AU70" s="2">
         <v>0</v>
       </c>
-      <c r="AV70" s="20" t="str">
+      <c r="AV70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW70" s="20" t="str">
+      <c r="AX70" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,20,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C71" s="2">
         <v>3070</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -12684,9 +12728,6 @@
       <c r="AA71" s="2">
         <v>0</v>
       </c>
-      <c r="AB71" s="2">
-        <v>0</v>
-      </c>
       <c r="AC71" s="2">
         <v>0</v>
       </c>
@@ -12724,11 +12765,11 @@
         <v>0</v>
       </c>
       <c r="AO71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="2">
         <v>20</v>
       </c>
-      <c r="AP71" s="2">
-        <v>0</v>
-      </c>
       <c r="AQ71" s="2">
         <v>0</v>
       </c>
@@ -12744,21 +12785,24 @@
       <c r="AU71" s="2">
         <v>0</v>
       </c>
-      <c r="AV71" s="20" t="str">
+      <c r="AV71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW71" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW71" s="20" t="str">
+      <c r="AX71" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,20,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C72" s="2">
         <v>3071</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -12829,9 +12873,6 @@
       <c r="AA72" s="2">
         <v>0</v>
       </c>
-      <c r="AB72" s="2">
-        <v>0</v>
-      </c>
       <c r="AC72" s="2">
         <v>0</v>
       </c>
@@ -12872,11 +12913,11 @@
         <v>0</v>
       </c>
       <c r="AP72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="2">
         <v>20</v>
       </c>
-      <c r="AQ72" s="2">
-        <v>0</v>
-      </c>
       <c r="AR72" s="2">
         <v>0</v>
       </c>
@@ -12889,21 +12930,24 @@
       <c r="AU72" s="2">
         <v>0</v>
       </c>
-      <c r="AV72" s="20" t="str">
+      <c r="AV72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW72" s="20" t="str">
+      <c r="AX72" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,20,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C73" s="2">
         <v>3072</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -12974,9 +13018,6 @@
       <c r="AA73" s="2">
         <v>0</v>
       </c>
-      <c r="AB73" s="2">
-        <v>0</v>
-      </c>
       <c r="AC73" s="2">
         <v>0</v>
       </c>
@@ -13020,11 +13061,11 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="2">
         <v>20</v>
       </c>
-      <c r="AR73" s="2">
-        <v>0</v>
-      </c>
       <c r="AS73" s="2">
         <v>0</v>
       </c>
@@ -13034,21 +13075,24 @@
       <c r="AU73" s="2">
         <v>0</v>
       </c>
-      <c r="AV73" s="20" t="str">
+      <c r="AV73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW73" s="20" t="str">
+      <c r="AX73" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,20,0,0,0,0</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C74" s="2">
         <v>3073</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -13119,9 +13163,6 @@
       <c r="AA74" s="2">
         <v>0</v>
       </c>
-      <c r="AB74" s="2">
-        <v>0</v>
-      </c>
       <c r="AC74" s="2">
         <v>0</v>
       </c>
@@ -13168,32 +13209,35 @@
         <v>0</v>
       </c>
       <c r="AR74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="2">
         <v>20</v>
       </c>
-      <c r="AS74" s="2">
-        <v>0</v>
-      </c>
       <c r="AT74" s="2">
         <v>0</v>
       </c>
       <c r="AU74" s="2">
         <v>0</v>
       </c>
-      <c r="AV74" s="20" t="str">
+      <c r="AV74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW74" s="20" t="str">
+      <c r="AX74" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,20,0,0,0</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C75" s="2">
         <v>3074</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -13264,9 +13308,6 @@
       <c r="AA75" s="2">
         <v>0</v>
       </c>
-      <c r="AB75" s="2">
-        <v>0</v>
-      </c>
       <c r="AC75" s="2">
         <v>0</v>
       </c>
@@ -13316,29 +13357,32 @@
         <v>0</v>
       </c>
       <c r="AS75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="2">
         <v>20</v>
       </c>
-      <c r="AT75" s="2">
-        <v>0</v>
-      </c>
       <c r="AU75" s="2">
         <v>0</v>
       </c>
-      <c r="AV75" s="20" t="str">
+      <c r="AV75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW75" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW75" s="20" t="str">
+      <c r="AX75" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,20,0,0</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C76" s="2">
         <v>3075</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -13409,9 +13453,6 @@
       <c r="AA76" s="2">
         <v>0</v>
       </c>
-      <c r="AB76" s="2">
-        <v>0</v>
-      </c>
       <c r="AC76" s="2">
         <v>0</v>
       </c>
@@ -13464,26 +13505,29 @@
         <v>0</v>
       </c>
       <c r="AT76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU76" s="2">
         <v>20</v>
       </c>
-      <c r="AU76" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV76" s="20" t="str">
+      <c r="AV76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW76" s="20" t="str">
+      <c r="AX76" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,20,0</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C77" s="2">
         <v>3076</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -13554,9 +13598,6 @@
       <c r="AA77" s="2">
         <v>0</v>
       </c>
-      <c r="AB77" s="2">
-        <v>0</v>
-      </c>
       <c r="AC77" s="2">
         <v>0</v>
       </c>
@@ -13612,23 +13653,26 @@
         <v>0</v>
       </c>
       <c r="AU77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV77" s="2">
         <v>20</v>
       </c>
-      <c r="AV77" s="20" t="str">
+      <c r="AW77" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW77" s="20" t="str">
+      <c r="AX77" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,20</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C78" s="2">
         <v>3077</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -13699,9 +13743,6 @@
       <c r="AA78" s="2">
         <v>0</v>
       </c>
-      <c r="AB78" s="2">
-        <v>0</v>
-      </c>
       <c r="AC78" s="2">
         <v>0</v>
       </c>
@@ -13729,12 +13770,12 @@
       <c r="AK78" s="2">
         <v>0</v>
       </c>
-      <c r="AM78" s="2">
+      <c r="AL78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="2">
         <v>50</v>
       </c>
-      <c r="AN78" s="2">
-        <v>0</v>
-      </c>
       <c r="AO78" s="2">
         <v>0</v>
       </c>
@@ -13756,21 +13797,24 @@
       <c r="AU78" s="2">
         <v>0</v>
       </c>
-      <c r="AV78" s="20" t="str">
+      <c r="AV78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW78" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW78" s="20" t="str">
+      <c r="AX78" s="20" t="str">
         <f t="shared" si="11"/>
         <v>,50,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C79" s="2">
         <v>3078</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -13841,9 +13885,6 @@
       <c r="AA79" s="2">
         <v>0</v>
       </c>
-      <c r="AB79" s="2">
-        <v>0</v>
-      </c>
       <c r="AC79" s="2">
         <v>0</v>
       </c>
@@ -13878,11 +13919,11 @@
         <v>0</v>
       </c>
       <c r="AN79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO79" s="2">
         <v>50</v>
       </c>
-      <c r="AO79" s="2">
-        <v>0</v>
-      </c>
       <c r="AP79" s="2">
         <v>0</v>
       </c>
@@ -13901,21 +13942,24 @@
       <c r="AU79" s="2">
         <v>0</v>
       </c>
-      <c r="AV79" s="20" t="str">
+      <c r="AV79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW79" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW79" s="20" t="str">
+      <c r="AX79" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,50,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C80" s="2">
         <v>3079</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -13986,9 +14030,6 @@
       <c r="AA80" s="2">
         <v>0</v>
       </c>
-      <c r="AB80" s="2">
-        <v>0</v>
-      </c>
       <c r="AC80" s="2">
         <v>0</v>
       </c>
@@ -14026,11 +14067,11 @@
         <v>0</v>
       </c>
       <c r="AO80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP80" s="2">
         <v>50</v>
       </c>
-      <c r="AP80" s="2">
-        <v>0</v>
-      </c>
       <c r="AQ80" s="2">
         <v>0</v>
       </c>
@@ -14046,21 +14087,24 @@
       <c r="AU80" s="2">
         <v>0</v>
       </c>
-      <c r="AV80" s="20" t="str">
+      <c r="AV80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW80" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW80" s="20" t="str">
+      <c r="AX80" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,50,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C81" s="2">
         <v>3080</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -14131,9 +14175,6 @@
       <c r="AA81" s="2">
         <v>0</v>
       </c>
-      <c r="AB81" s="2">
-        <v>0</v>
-      </c>
       <c r="AC81" s="2">
         <v>0</v>
       </c>
@@ -14174,11 +14215,11 @@
         <v>0</v>
       </c>
       <c r="AP81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="2">
         <v>50</v>
       </c>
-      <c r="AQ81" s="2">
-        <v>0</v>
-      </c>
       <c r="AR81" s="2">
         <v>0</v>
       </c>
@@ -14191,21 +14232,24 @@
       <c r="AU81" s="2">
         <v>0</v>
       </c>
-      <c r="AV81" s="20" t="str">
+      <c r="AV81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW81" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW81" s="20" t="str">
+      <c r="AX81" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,50,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C82" s="2">
         <v>3081</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -14276,9 +14320,6 @@
       <c r="AA82" s="2">
         <v>0</v>
       </c>
-      <c r="AB82" s="2">
-        <v>0</v>
-      </c>
       <c r="AC82" s="2">
         <v>0</v>
       </c>
@@ -14322,11 +14363,11 @@
         <v>0</v>
       </c>
       <c r="AQ82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="2">
         <v>50</v>
       </c>
-      <c r="AR82" s="2">
-        <v>0</v>
-      </c>
       <c r="AS82" s="2">
         <v>0</v>
       </c>
@@ -14336,21 +14377,24 @@
       <c r="AU82" s="2">
         <v>0</v>
       </c>
-      <c r="AV82" s="20" t="str">
+      <c r="AV82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW82" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW82" s="20" t="str">
+      <c r="AX82" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,50,0,0,0,0</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C83" s="2">
         <v>3082</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -14421,9 +14465,6 @@
       <c r="AA83" s="2">
         <v>0</v>
       </c>
-      <c r="AB83" s="2">
-        <v>0</v>
-      </c>
       <c r="AC83" s="2">
         <v>0</v>
       </c>
@@ -14470,32 +14511,35 @@
         <v>0</v>
       </c>
       <c r="AR83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="2">
         <v>50</v>
       </c>
-      <c r="AS83" s="2">
-        <v>0</v>
-      </c>
       <c r="AT83" s="2">
         <v>0</v>
       </c>
       <c r="AU83" s="2">
         <v>0</v>
       </c>
-      <c r="AV83" s="20" t="str">
+      <c r="AV83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW83" s="20" t="str">
+      <c r="AX83" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,50,0,0,0</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C84" s="2">
         <v>3083</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -14566,9 +14610,6 @@
       <c r="AA84" s="2">
         <v>0</v>
       </c>
-      <c r="AB84" s="2">
-        <v>0</v>
-      </c>
       <c r="AC84" s="2">
         <v>0</v>
       </c>
@@ -14618,29 +14659,32 @@
         <v>0</v>
       </c>
       <c r="AS84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT84" s="2">
         <v>50</v>
       </c>
-      <c r="AT84" s="2">
-        <v>0</v>
-      </c>
       <c r="AU84" s="2">
         <v>0</v>
       </c>
-      <c r="AV84" s="20" t="str">
+      <c r="AV84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW84" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW84" s="20" t="str">
+      <c r="AX84" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,50,0,0</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C85" s="2">
         <v>3084</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -14711,9 +14755,6 @@
       <c r="AA85" s="2">
         <v>0</v>
       </c>
-      <c r="AB85" s="2">
-        <v>0</v>
-      </c>
       <c r="AC85" s="2">
         <v>0</v>
       </c>
@@ -14766,26 +14807,29 @@
         <v>0</v>
       </c>
       <c r="AT85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU85" s="2">
         <v>50</v>
       </c>
-      <c r="AU85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV85" s="20" t="str">
+      <c r="AV85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW85" s="20" t="str">
+      <c r="AX85" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,50,0</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:49">
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C86" s="2">
         <v>3085</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -14856,9 +14900,6 @@
       <c r="AA86" s="2">
         <v>0</v>
       </c>
-      <c r="AB86" s="2">
-        <v>0</v>
-      </c>
       <c r="AC86" s="2">
         <v>0</v>
       </c>
@@ -14914,23 +14955,26 @@
         <v>0</v>
       </c>
       <c r="AU86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV86" s="2">
         <v>50</v>
       </c>
-      <c r="AV86" s="20" t="str">
+      <c r="AW86" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW86" s="20" t="str">
+      <c r="AX86" s="20" t="str">
         <f t="shared" si="11"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="3:49">
+    <row r="87" customHeight="1" spans="3:50">
       <c r="C87" s="1">
         <v>3200</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E87" s="1">
         <v>180</v>
@@ -15001,13 +15045,10 @@
       <c r="AA87" s="1">
         <v>0</v>
       </c>
-      <c r="AB87" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="1">
+      <c r="AC87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="2">
         <v>0</v>
       </c>
       <c r="AE87" s="1">
@@ -15061,21 +15102,24 @@
       <c r="AU87" s="1">
         <v>0</v>
       </c>
-      <c r="AV87" s="10" t="str">
-        <f t="shared" ref="AV87:AV100" si="12">AB81:AB91&amp;","&amp;AC81:AC91&amp;","&amp;AD81:AD91&amp;","&amp;AE81:AE91&amp;","&amp;AF81:AF91&amp;","&amp;AG81:AG91&amp;","&amp;AH81:AH91&amp;","&amp;AI81:AI91&amp;","&amp;AJ81:AJ91&amp;","&amp;AK81:AK91</f>
+      <c r="AV87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW87" s="10" t="str">
+        <f t="shared" ref="AW87:AW100" si="12">AC81:AC91&amp;","&amp;AD81:AD91&amp;","&amp;AE81:AE91&amp;","&amp;AF81:AF91&amp;","&amp;AG81:AG91&amp;","&amp;AH81:AH91&amp;","&amp;AI81:AI91&amp;","&amp;AJ81:AJ91&amp;","&amp;AK81:AK91&amp;","&amp;AL81:AL91</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW87" s="10" t="str">
-        <f t="shared" ref="AW87:AW100" si="13">AL81:AL91&amp;","&amp;AM81:AM91&amp;","&amp;AN81:AN91&amp;","&amp;AO81:AO91&amp;","&amp;AP81:AP91&amp;","&amp;AQ81:AQ91&amp;","&amp;AR81:AR91&amp;","&amp;AS81:AS91&amp;","&amp;AT81:AT91&amp;","&amp;AU81:AU91</f>
+      <c r="AX87" s="10" t="str">
+        <f t="shared" ref="AX87:AX100" si="13">AM81:AM91&amp;","&amp;AN81:AN91&amp;","&amp;AO81:AO91&amp;","&amp;AP81:AP91&amp;","&amp;AQ81:AQ91&amp;","&amp;AR81:AR91&amp;","&amp;AS81:AS91&amp;","&amp;AT81:AT91&amp;","&amp;AU81:AU91&amp;","&amp;AV81:AV91</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="3:49">
+    <row r="88" customHeight="1" spans="3:50">
       <c r="C88" s="1">
         <v>3201</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -15146,13 +15190,10 @@
       <c r="AA88" s="1">
         <v>0</v>
       </c>
-      <c r="AB88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC88" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="1">
+      <c r="AC88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="2">
         <v>0</v>
       </c>
       <c r="AE88" s="1">
@@ -15206,21 +15247,24 @@
       <c r="AU88" s="1">
         <v>0</v>
       </c>
-      <c r="AV88" s="10" t="str">
+      <c r="AV88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW88" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW88" s="10" t="str">
+      <c r="AX88" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="3:49">
+    <row r="89" customHeight="1" spans="3:50">
       <c r="C89" s="1">
         <v>3202</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -15291,13 +15335,10 @@
       <c r="AA89" s="1">
         <v>0</v>
       </c>
-      <c r="AB89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="1">
+      <c r="AC89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="2">
         <v>0</v>
       </c>
       <c r="AE89" s="1">
@@ -15351,21 +15392,24 @@
       <c r="AU89" s="1">
         <v>0</v>
       </c>
-      <c r="AV89" s="10" t="str">
+      <c r="AV89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW89" s="10" t="str">
+      <c r="AX89" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="3:49">
+    <row r="90" customHeight="1" spans="3:50">
       <c r="C90" s="1">
         <v>3203</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -15436,9 +15480,6 @@
       <c r="AA90" s="1">
         <v>0</v>
       </c>
-      <c r="AB90" s="1">
-        <v>0</v>
-      </c>
       <c r="AC90" s="1">
         <v>0</v>
       </c>
@@ -15496,21 +15537,24 @@
       <c r="AU90" s="1">
         <v>0</v>
       </c>
-      <c r="AV90" s="10" t="str">
+      <c r="AV90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW90" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW90" s="10" t="str">
+      <c r="AX90" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="3:49">
+    <row r="91" customHeight="1" spans="3:50">
       <c r="C91" s="1">
         <v>3204</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -15581,9 +15625,6 @@
       <c r="AA91" s="1">
         <v>0</v>
       </c>
-      <c r="AB91" s="1">
-        <v>0</v>
-      </c>
       <c r="AC91" s="1">
         <v>0</v>
       </c>
@@ -15641,21 +15682,24 @@
       <c r="AU91" s="1">
         <v>0</v>
       </c>
-      <c r="AV91" s="10" t="str">
+      <c r="AV91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW91" s="10" t="str">
+      <c r="AX91" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="3:49">
+    <row r="92" customHeight="1" spans="3:50">
       <c r="C92" s="1">
         <v>3205</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -15726,9 +15770,6 @@
       <c r="AA92" s="1">
         <v>0</v>
       </c>
-      <c r="AB92" s="1">
-        <v>0</v>
-      </c>
       <c r="AC92" s="1">
         <v>0</v>
       </c>
@@ -15786,21 +15827,24 @@
       <c r="AU92" s="1">
         <v>0</v>
       </c>
-      <c r="AV92" s="10" t="str">
+      <c r="AV92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW92" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW92" s="10" t="str">
+      <c r="AX92" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="3:49">
+    <row r="93" customHeight="1" spans="3:50">
       <c r="C93" s="1">
         <v>3206</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -15871,9 +15915,6 @@
       <c r="AA93" s="1">
         <v>0</v>
       </c>
-      <c r="AB93" s="1">
-        <v>0</v>
-      </c>
       <c r="AC93" s="1">
         <v>0</v>
       </c>
@@ -15931,21 +15972,24 @@
       <c r="AU93" s="1">
         <v>0</v>
       </c>
-      <c r="AV93" s="10" t="str">
+      <c r="AV93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW93" s="10" t="str">
+      <c r="AX93" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="3:49">
+    <row r="94" customHeight="1" spans="3:50">
       <c r="C94" s="1">
         <v>3207</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -16016,9 +16060,6 @@
       <c r="AA94" s="1">
         <v>0</v>
       </c>
-      <c r="AB94" s="1">
-        <v>0</v>
-      </c>
       <c r="AC94" s="1">
         <v>0</v>
       </c>
@@ -16076,21 +16117,24 @@
       <c r="AU94" s="1">
         <v>0</v>
       </c>
-      <c r="AV94" s="10" t="str">
+      <c r="AV94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW94" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW94" s="10" t="str">
+      <c r="AX94" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="3:49">
+    <row r="95" customHeight="1" spans="3:50">
       <c r="C95" s="1">
         <v>3208</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -16161,9 +16205,6 @@
       <c r="AA95" s="1">
         <v>0</v>
       </c>
-      <c r="AB95" s="1">
-        <v>0</v>
-      </c>
       <c r="AC95" s="1">
         <v>0</v>
       </c>
@@ -16221,21 +16262,24 @@
       <c r="AU95" s="1">
         <v>0</v>
       </c>
-      <c r="AV95" s="10" t="str">
+      <c r="AV95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW95" s="10" t="str">
+      <c r="AX95" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="3:49">
+    <row r="96" customHeight="1" spans="3:50">
       <c r="C96" s="1">
         <v>3209</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -16306,9 +16350,6 @@
       <c r="AA96" s="1">
         <v>0</v>
       </c>
-      <c r="AB96" s="1">
-        <v>0</v>
-      </c>
       <c r="AC96" s="1">
         <v>0</v>
       </c>
@@ -16366,21 +16407,24 @@
       <c r="AU96" s="1">
         <v>0</v>
       </c>
-      <c r="AV96" s="10" t="str">
+      <c r="AV96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW96" s="10" t="str">
+      <c r="AX96" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="3:49">
+    <row r="97" customHeight="1" spans="3:50">
       <c r="C97" s="1">
         <v>3210</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -16451,9 +16495,6 @@
       <c r="AA97" s="1">
         <v>0</v>
       </c>
-      <c r="AB97" s="1">
-        <v>0</v>
-      </c>
       <c r="AC97" s="1">
         <v>0</v>
       </c>
@@ -16511,21 +16552,24 @@
       <c r="AU97" s="1">
         <v>0</v>
       </c>
-      <c r="AV97" s="10" t="str">
+      <c r="AV97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW97" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW97" s="10" t="str">
+      <c r="AX97" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="3:49">
+    <row r="98" customHeight="1" spans="3:50">
       <c r="C98" s="1">
         <v>3211</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -16596,9 +16640,6 @@
       <c r="AA98" s="1">
         <v>0</v>
       </c>
-      <c r="AB98" s="1">
-        <v>0</v>
-      </c>
       <c r="AC98" s="1">
         <v>0</v>
       </c>
@@ -16656,21 +16697,24 @@
       <c r="AU98" s="1">
         <v>0</v>
       </c>
-      <c r="AV98" s="10" t="str">
+      <c r="AV98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW98" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW98" s="10" t="str">
+      <c r="AX98" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="3:49">
+    <row r="99" customHeight="1" spans="3:50">
       <c r="C99" s="1">
         <v>3212</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -16741,9 +16785,6 @@
       <c r="AA99" s="1">
         <v>0</v>
       </c>
-      <c r="AB99" s="1">
-        <v>0</v>
-      </c>
       <c r="AC99" s="1">
         <v>0</v>
       </c>
@@ -16801,21 +16842,24 @@
       <c r="AU99" s="1">
         <v>0</v>
       </c>
-      <c r="AV99" s="10" t="str">
+      <c r="AV99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW99" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW99" s="10" t="str">
+      <c r="AX99" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="3:49">
+    <row r="100" customHeight="1" spans="3:50">
       <c r="C100" s="1">
         <v>3213</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -16883,9 +16927,6 @@
       <c r="AA100" s="1">
         <v>0</v>
       </c>
-      <c r="AB100" s="1">
-        <v>0</v>
-      </c>
       <c r="AC100" s="1">
         <v>0</v>
       </c>
@@ -16943,11 +16984,14 @@
       <c r="AU100" s="1">
         <v>0</v>
       </c>
-      <c r="AV100" s="10" t="str">
+      <c r="AV100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW100" s="10" t="str">
         <f t="shared" si="12"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AW100" s="10" t="str">
+      <c r="AX100" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -773,6 +773,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -781,9 +803,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,59 +848,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,14 +864,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +878,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -894,24 +894,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,13 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,73 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +985,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1045,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,31 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,13 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,10 +1186,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1210,21 +1245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1236,17 +1256,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,25 +1274,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1292,133 +1292,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2666,8 +2666,8 @@
   <sheetPr/>
   <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3408,7 +3408,7 @@
         <v>2500</v>
       </c>
       <c r="X7" s="12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y7" s="16">
         <v>1000</v>
@@ -3558,7 +3558,7 @@
         <v>2500</v>
       </c>
       <c r="X8" s="12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y8" s="16">
         <v>1000</v>
@@ -3708,7 +3708,7 @@
         <v>2500</v>
       </c>
       <c r="X9" s="12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="16">
         <v>1000</v>
@@ -3858,7 +3858,7 @@
         <v>2500</v>
       </c>
       <c r="X10" s="12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="16">
         <v>1000</v>
@@ -4008,7 +4008,7 @@
         <v>2500</v>
       </c>
       <c r="X11" s="12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y11" s="16">
         <v>1000</v>
@@ -4156,7 +4156,7 @@
         <v>2500</v>
       </c>
       <c r="X12" s="12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y12" s="16">
         <v>1000</v>
@@ -4304,7 +4304,7 @@
         <v>2500</v>
       </c>
       <c r="X13" s="12">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="Y13" s="16">
         <v>1000</v>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -37,7 +37,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每秒的米数，10米则填100000</t>
+每秒的米数</t>
         </r>
       </text>
     </comment>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="207">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -113,13 +113,10 @@
     <t>属性描述</t>
   </si>
   <si>
-    <t>程序除10000转化百分比</t>
-  </si>
-  <si>
     <t>需显示百分比</t>
   </si>
   <si>
-    <t>米数/秒</t>
+    <t>填米数/秒</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -129,7 +126,7 @@
     <t>每秒</t>
   </si>
   <si>
-    <t>米*10000</t>
+    <t>米</t>
   </si>
   <si>
     <t>公式生成，不用填写</t>
@@ -435,7 +432,10 @@
     <t>int32</t>
   </si>
   <si>
-    <t>[]int32</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>[]number</t>
   </si>
   <si>
     <t>demo版本防战，1级默认值</t>
@@ -729,9 +729,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
@@ -774,7 +774,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,22 +813,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,23 +826,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,15 +880,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,40 +910,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +955,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +1021,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,31 +1075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,25 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,55 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,6 +1177,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1204,43 +1234,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,17 +1255,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1280,10 +1280,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1292,133 +1292,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2666,8 +2666,8 @@
   <sheetPr/>
   <dimension ref="A1:AX100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:X13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14:AB100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2686,7 +2686,7 @@
     <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.5416666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.3833333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.5416666666667" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.15" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.75" style="1" customWidth="1"/>
@@ -2767,422 +2767,420 @@
         <v>3</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AX2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:50">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AG3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AL3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AT3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AU3" s="8" t="s">
+      <c r="AV3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" s="8" t="s">
+      <c r="AW3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AW3" s="8" t="s">
+      <c r="AX3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:50">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AC4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AD4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AE4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AF4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AG4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AH4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AJ4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AK4" s="8" t="s">
+      <c r="AL4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AL4" s="8" t="s">
+      <c r="AM4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AM4" s="8" t="s">
+      <c r="AN4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AO4" s="8" t="s">
+      <c r="AP4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AP4" s="8" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AU4" s="8" t="s">
+      <c r="AV4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AW4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AW4" s="8" t="s">
+      <c r="AX4" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:50">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -3236,41 +3234,41 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:50">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>110</v>
@@ -3279,37 +3277,37 @@
         <v>110</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>110</v>
@@ -3381,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="12">
-        <v>120000</v>
+        <v>12</v>
       </c>
       <c r="P7" s="12">
         <v>0</v>
@@ -3420,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="16">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="AC7" s="12">
         <v>0</v>
@@ -3453,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="12">
-        <v>1500</v>
+        <v>0.15</v>
       </c>
       <c r="AN7" s="12">
         <v>0</v>
@@ -3488,7 +3486,7 @@
       </c>
       <c r="AX7" s="10" t="str">
         <f>AM1:AM11&amp;","&amp;AN1:AN11&amp;","&amp;AO1:AO11&amp;","&amp;AP1:AP11&amp;","&amp;AQ1:AQ11&amp;","&amp;AR1:AR11&amp;","&amp;AS1:AS11&amp;","&amp;AT1:AT11&amp;","&amp;AU1:AU11&amp;","&amp;AV1:AV11</f>
-        <v>1500,0,0,0,0,0,0,0,0,0</v>
+        <v>0.15,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:50">
@@ -3531,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="12">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="P8" s="12">
         <v>0</v>
@@ -3570,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="16">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="AC8" s="12">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="AD8" s="12">
         <v>0</v>
@@ -3634,7 +3632,7 @@
       </c>
       <c r="AW8" s="10" t="str">
         <f>AC2:AC12&amp;","&amp;AD2:AD12&amp;","&amp;AE2:AE12&amp;","&amp;AF2:AF12&amp;","&amp;AG2:AG12&amp;","&amp;AH2:AH12&amp;","&amp;AI2:AI12&amp;","&amp;AJ2:AJ12&amp;","&amp;AK2:AK12&amp;","&amp;AL2:AL12</f>
-        <v>2000,0,0,0,0,0,0,0,0,0</v>
+        <v>0.2,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX8" s="10" t="str">
         <f>AM2:AM12&amp;","&amp;AN2:AN12&amp;","&amp;AO2:AO12&amp;","&amp;AP2:AP12&amp;","&amp;AQ2:AQ12&amp;","&amp;AR2:AR12&amp;","&amp;AS2:AS12&amp;","&amp;AT2:AT12&amp;","&amp;AU2:AU12&amp;","&amp;AV2:AV12</f>
@@ -3681,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="12">
-        <v>80000</v>
+        <v>8</v>
       </c>
       <c r="P9" s="12">
         <v>0</v>
@@ -3720,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="16">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="AC9" s="12">
         <v>0</v>
@@ -3732,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="12">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="AG9" s="12">
         <v>0</v>
@@ -3784,7 +3782,7 @@
       </c>
       <c r="AW9" s="10" t="str">
         <f t="shared" ref="AW9:AW13" si="0">AC3:AC14&amp;","&amp;AD3:AD14&amp;","&amp;AE3:AE14&amp;","&amp;AF3:AF14&amp;","&amp;AG3:AG14&amp;","&amp;AH3:AH14&amp;","&amp;AI3:AI14&amp;","&amp;AJ3:AJ14&amp;","&amp;AK3:AK14&amp;","&amp;AL3:AL14</f>
-        <v>0,0,0,2000,0,0,0,0,0,0</v>
+        <v>0,0,0,0.2,0,0,0,0,0,0</v>
       </c>
       <c r="AX9" s="10" t="str">
         <f t="shared" ref="AX9:AX13" si="1">AM3:AM14&amp;","&amp;AN3:AN14&amp;","&amp;AO3:AO14&amp;","&amp;AP3:AP14&amp;","&amp;AQ3:AQ14&amp;","&amp;AR3:AR14&amp;","&amp;AS3:AS14&amp;","&amp;AT3:AT14&amp;","&amp;AU3:AU14&amp;","&amp;AV3:AV14</f>
@@ -3831,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <v>80000</v>
+        <v>8</v>
       </c>
       <c r="P10" s="12">
         <v>0</v>
@@ -3870,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="16">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="AC10" s="12">
         <v>0</v>
@@ -3879,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="12">
-        <v>500</v>
+        <v>0.005</v>
       </c>
       <c r="AF10" s="12">
         <v>0</v>
@@ -3934,7 +3932,7 @@
       </c>
       <c r="AW10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,500,0,0,0,0,0,0,0</v>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3981,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="12">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="P11" s="12">
         <v>0</v>
       </c>
       <c r="Q11" s="12">
-        <v>40000</v>
+        <v>3000</v>
       </c>
       <c r="R11" s="12">
         <v>0</v>
@@ -4020,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="16">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="12">
         <v>0</v>
@@ -4129,13 +4127,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="P12" s="12">
         <v>0</v>
       </c>
       <c r="Q12" s="12">
-        <v>40000</v>
+        <v>3000</v>
       </c>
       <c r="R12" s="12">
         <v>0</v>
@@ -4168,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="16">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="AC12" s="12">
         <v>0</v>
@@ -4277,13 +4275,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="P13" s="12">
         <v>0</v>
       </c>
       <c r="Q13" s="12">
-        <v>40000</v>
+        <v>3000</v>
       </c>
       <c r="R13" s="12">
         <v>0</v>
@@ -4316,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="16">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="12">
         <v>0</v>
@@ -4463,6 +4461,9 @@
       <c r="AA14" s="1">
         <v>0</v>
       </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
       <c r="AC14" s="1">
         <v>0</v>
       </c>
@@ -4608,6 +4609,9 @@
       <c r="AA15" s="1">
         <v>0</v>
       </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
       <c r="AC15" s="1">
         <v>0</v>
       </c>
@@ -4753,6 +4757,9 @@
       <c r="AA16" s="1">
         <v>0</v>
       </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
       <c r="AC16" s="1">
         <v>0</v>
       </c>
@@ -4898,6 +4905,9 @@
       <c r="AA17" s="1">
         <v>0</v>
       </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
       <c r="AC17" s="1">
         <v>0</v>
       </c>
@@ -5043,6 +5053,9 @@
       <c r="AA18" s="1">
         <v>0</v>
       </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
       <c r="AC18" s="1">
         <v>0</v>
       </c>
@@ -5188,6 +5201,9 @@
       <c r="AA19" s="1">
         <v>0</v>
       </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
       <c r="AC19" s="1">
         <v>0</v>
       </c>
@@ -5295,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -5331,6 +5347,9 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
         <v>0</v>
       </c>
       <c r="AC20" s="1">
@@ -5440,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P21" s="12">
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R21" s="12">
         <v>0</v>
@@ -5478,73 +5497,76 @@
       <c r="AA21" s="1">
         <v>0</v>
       </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
       <c r="AC21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AD21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AE21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AF21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AG21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AH21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AI21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AJ21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AK21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AL21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AM21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AN21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AO21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AP21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AQ21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AR21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AS21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AT21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AU21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AV21" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AW21" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>50,50,50,50,50,50,50,50,50,50</v>
+        <v>0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005</v>
       </c>
       <c r="AX21" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>50,50,50,50,50,50,50,50,50,50</v>
+        <v>0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:50">
@@ -5623,6 +5645,9 @@
       <c r="AA22" s="1">
         <v>0</v>
       </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
       <c r="AC22" s="1">
         <v>0</v>
       </c>
@@ -5768,6 +5793,9 @@
       <c r="AA23" s="1">
         <v>0</v>
       </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
       <c r="AC23" s="1">
         <v>0</v>
       </c>
@@ -5913,6 +5941,9 @@
       <c r="AA24" s="1">
         <v>0</v>
       </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
       <c r="AC24" s="1">
         <v>0</v>
       </c>
@@ -6058,6 +6089,9 @@
       <c r="AA25" s="1">
         <v>0</v>
       </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
       <c r="AC25" s="1">
         <v>0</v>
       </c>
@@ -6138,13 +6172,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="G26" s="1">
         <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="I26" s="1">
         <v>25</v>
@@ -6168,13 +6202,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="S26" s="1">
         <v>30</v>
@@ -6186,7 +6220,7 @@
         <v>100</v>
       </c>
       <c r="V26" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="W26" s="1">
         <v>30</v>
@@ -6203,73 +6237,76 @@
       <c r="AA26" s="1">
         <v>0</v>
       </c>
+      <c r="AB26" s="1">
+        <v>0</v>
+      </c>
       <c r="AC26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AD26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AE26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AF26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AG26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AH26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AI26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AJ26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AK26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AL26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AM26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AN26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AO26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AP26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AQ26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AR26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AS26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AT26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AU26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AV26" s="1">
-        <v>25</v>
+        <v>0.025</v>
       </c>
       <c r="AW26" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>25,25,25,25,25,25,25,25,25,25</v>
+        <v>0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025</v>
       </c>
       <c r="AX26" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>25,25,25,25,25,25,25,25,25,25</v>
+        <v>0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:50">
@@ -6348,8 +6385,11 @@
       <c r="AA27" s="1">
         <v>0</v>
       </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
       <c r="AC27" s="1">
-        <v>500</v>
+        <v>0.05</v>
       </c>
       <c r="AD27" s="1">
         <v>0</v>
@@ -6410,7 +6450,7 @@
       </c>
       <c r="AW27" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>500,0,0,0,0,0,0,0,0,0</v>
+        <v>0.05,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX27" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6493,8 +6533,11 @@
       <c r="AA28" s="1">
         <v>0</v>
       </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
       <c r="AC28" s="1">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="AD28" s="1">
         <v>0</v>
@@ -6555,7 +6598,7 @@
       </c>
       <c r="AW28" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>1000,0,0,0,0,0,0,0,0,0</v>
+        <v>0.1,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX28" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6638,8 +6681,11 @@
       <c r="AA29" s="1">
         <v>0</v>
       </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
       <c r="AC29" s="1">
-        <v>1500</v>
+        <v>0.15</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -6700,7 +6746,7 @@
       </c>
       <c r="AW29" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>1500,0,0,0,0,0,0,0,0,0</v>
+        <v>0.15,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX29" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6783,8 +6829,11 @@
       <c r="AA30" s="1">
         <v>0</v>
       </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
       <c r="AC30" s="1">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
       <c r="AD30" s="1">
         <v>0</v>
@@ -6845,7 +6894,7 @@
       </c>
       <c r="AW30" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>2000,0,0,0,0,0,0,0,0,0</v>
+        <v>0.2,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX30" s="10" t="str">
         <f t="shared" si="5"/>
@@ -6928,8 +6977,11 @@
       <c r="AA31" s="1">
         <v>0</v>
       </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
       <c r="AC31" s="1">
-        <v>2500</v>
+        <v>0.25</v>
       </c>
       <c r="AD31" s="1">
         <v>0</v>
@@ -6990,7 +7042,7 @@
       </c>
       <c r="AW31" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>2500,0,0,0,0,0,0,0,0,0</v>
+        <v>0.25,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX31" s="10" t="str">
         <f t="shared" si="5"/>
@@ -7073,6 +7125,9 @@
       <c r="AA32" s="1">
         <v>0</v>
       </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
@@ -7218,6 +7273,9 @@
       <c r="AA33" s="1">
         <v>0</v>
       </c>
+      <c r="AB33" s="1">
+        <v>0</v>
+      </c>
       <c r="AC33" s="1">
         <v>0</v>
       </c>
@@ -7363,6 +7421,9 @@
       <c r="AA34" s="1">
         <v>0</v>
       </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
       <c r="AC34" s="1">
         <v>0</v>
       </c>
@@ -7508,6 +7569,9 @@
       <c r="AA35" s="1">
         <v>0</v>
       </c>
+      <c r="AB35" s="1">
+        <v>0</v>
+      </c>
       <c r="AC35" s="1">
         <v>0</v>
       </c>
@@ -7653,6 +7717,9 @@
       <c r="AA36" s="1">
         <v>0</v>
       </c>
+      <c r="AB36" s="1">
+        <v>0</v>
+      </c>
       <c r="AC36" s="1">
         <v>0</v>
       </c>
@@ -7798,6 +7865,9 @@
       <c r="AA37" s="1">
         <v>0</v>
       </c>
+      <c r="AB37" s="1">
+        <v>0</v>
+      </c>
       <c r="AC37" s="1">
         <v>0</v>
       </c>
@@ -7943,6 +8013,9 @@
       <c r="AA38" s="1">
         <v>0</v>
       </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
       <c r="AC38" s="1">
         <v>0</v>
       </c>
@@ -8088,6 +8161,9 @@
       <c r="AA39" s="1">
         <v>0</v>
       </c>
+      <c r="AB39" s="1">
+        <v>0</v>
+      </c>
       <c r="AC39" s="1">
         <v>0</v>
       </c>
@@ -8233,6 +8309,9 @@
       <c r="AA40" s="1">
         <v>0</v>
       </c>
+      <c r="AB40" s="1">
+        <v>0</v>
+      </c>
       <c r="AC40" s="1">
         <v>0</v>
       </c>
@@ -8378,6 +8457,9 @@
       <c r="AA41" s="1">
         <v>0</v>
       </c>
+      <c r="AB41" s="1">
+        <v>0</v>
+      </c>
       <c r="AC41" s="1">
         <v>0</v>
       </c>
@@ -8523,6 +8605,9 @@
       <c r="AA42" s="1">
         <v>0</v>
       </c>
+      <c r="AB42" s="1">
+        <v>0</v>
+      </c>
       <c r="AC42" s="1">
         <v>0</v>
       </c>
@@ -8639,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -8666,6 +8751,9 @@
         <v>0</v>
       </c>
       <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1">
         <v>0</v>
       </c>
       <c r="AC43" s="1">
@@ -8784,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -8811,6 +8899,9 @@
         <v>0</v>
       </c>
       <c r="AA44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1">
         <v>0</v>
       </c>
       <c r="AC44" s="1">
@@ -8923,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="Q45" s="1">
         <v>0</v>
@@ -8956,6 +9047,9 @@
         <v>0</v>
       </c>
       <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
         <v>0</v>
       </c>
       <c r="AC45" s="1">
@@ -9068,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="Q46" s="1">
         <v>0</v>
@@ -9101,6 +9195,9 @@
         <v>0</v>
       </c>
       <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
         <v>0</v>
       </c>
       <c r="AC46" s="1">
@@ -9204,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -9246,6 +9343,9 @@
         <v>0</v>
       </c>
       <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
         <v>0</v>
       </c>
       <c r="AC47" s="1">
@@ -9349,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="12">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -9391,6 +9491,9 @@
         <v>0</v>
       </c>
       <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1">
         <v>0</v>
       </c>
       <c r="AC48" s="1">
@@ -9538,6 +9641,9 @@
       <c r="AA49" s="1">
         <v>0</v>
       </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
       <c r="AC49" s="1">
         <v>0</v>
       </c>
@@ -9683,6 +9789,9 @@
       <c r="AA50" s="1">
         <v>0</v>
       </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
       <c r="AC50" s="1">
         <v>0</v>
       </c>
@@ -9828,11 +9937,14 @@
       <c r="AA51" s="1">
         <v>0</v>
       </c>
+      <c r="AB51" s="1">
+        <v>0</v>
+      </c>
       <c r="AC51" s="1">
         <v>0</v>
       </c>
       <c r="AD51" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AE51" s="1">
         <v>0</v>
@@ -9890,7 +10002,7 @@
       </c>
       <c r="AW51" s="10" t="str">
         <f t="shared" ref="AW51:AW56" si="8">AC43:AC55&amp;","&amp;AD43:AD55&amp;","&amp;AE43:AE55&amp;","&amp;AF43:AF55&amp;","&amp;AG43:AG55&amp;","&amp;AH43:AH55&amp;","&amp;AI43:AI55&amp;","&amp;AJ43:AJ55&amp;","&amp;AK43:AK55&amp;","&amp;AL43:AL55</f>
-        <v>0,20,0,0,0,0,0,0,0,0</v>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX51" s="10" t="str">
         <f t="shared" ref="AX51:AX56" si="9">AM43:AM55&amp;","&amp;AN43:AN55&amp;","&amp;AO43:AO55&amp;","&amp;AP43:AP55&amp;","&amp;AQ43:AQ55&amp;","&amp;AR43:AR55&amp;","&amp;AS43:AS55&amp;","&amp;AT43:AT55&amp;","&amp;AU43:AU55&amp;","&amp;AV43:AV55</f>
@@ -9973,6 +10085,9 @@
       <c r="AA52" s="1">
         <v>0</v>
       </c>
+      <c r="AB52" s="1">
+        <v>0</v>
+      </c>
       <c r="AC52" s="1">
         <v>0</v>
       </c>
@@ -9980,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AF52" s="1">
         <v>0</v>
@@ -10035,7 +10150,7 @@
       </c>
       <c r="AW52" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>0,0,20,0,0,0,0,0,0,0</v>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX52" s="10" t="str">
         <f t="shared" si="9"/>
@@ -10118,6 +10233,9 @@
       <c r="AA53" s="1">
         <v>0</v>
       </c>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
       <c r="AC53" s="1">
         <v>0</v>
       </c>
@@ -10128,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AG53" s="1">
         <v>0</v>
@@ -10180,7 +10298,7 @@
       </c>
       <c r="AW53" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>0,0,0,20,0,0,0,0,0,0</v>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
       </c>
       <c r="AX53" s="10" t="str">
         <f t="shared" si="9"/>
@@ -10263,6 +10381,9 @@
       <c r="AA54" s="1">
         <v>0</v>
       </c>
+      <c r="AB54" s="1">
+        <v>0</v>
+      </c>
       <c r="AC54" s="1">
         <v>0</v>
       </c>
@@ -10276,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AH54" s="1">
         <v>0</v>
@@ -10325,7 +10446,7 @@
       </c>
       <c r="AW54" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>0,0,0,0,20,0,0,0,0,0</v>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
       <c r="AX54" s="10" t="str">
         <f t="shared" si="9"/>
@@ -10408,6 +10529,9 @@
       <c r="AA55" s="1">
         <v>0</v>
       </c>
+      <c r="AB55" s="1">
+        <v>0</v>
+      </c>
       <c r="AC55" s="1">
         <v>0</v>
       </c>
@@ -10424,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AI55" s="1">
         <v>0</v>
@@ -10470,7 +10594,7 @@
       </c>
       <c r="AW55" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>0,0,0,0,0,20,0,0,0,0</v>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
       <c r="AX55" s="10" t="str">
         <f t="shared" si="9"/>
@@ -10553,6 +10677,9 @@
       <c r="AA56" s="1">
         <v>0</v>
       </c>
+      <c r="AB56" s="1">
+        <v>0</v>
+      </c>
       <c r="AC56" s="1">
         <v>0</v>
       </c>
@@ -10572,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AJ56" s="1">
         <v>0</v>
@@ -10615,7 +10742,7 @@
       </c>
       <c r="AW56" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>0,0,0,0,0,0,20,0,0,0</v>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
       <c r="AX56" s="10" t="str">
         <f t="shared" si="9"/>
@@ -10698,6 +10825,9 @@
       <c r="AA57" s="1">
         <v>0</v>
       </c>
+      <c r="AB57" s="1">
+        <v>0</v>
+      </c>
       <c r="AC57" s="1">
         <v>0</v>
       </c>
@@ -10720,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AK57" s="1">
         <v>0</v>
@@ -10760,7 +10890,7 @@
       </c>
       <c r="AW57" s="10" t="str">
         <f t="shared" ref="AW52:AW86" si="10">AC51:AC61&amp;","&amp;AD51:AD61&amp;","&amp;AE51:AE61&amp;","&amp;AF51:AF61&amp;","&amp;AG51:AG61&amp;","&amp;AH51:AH61&amp;","&amp;AI51:AI61&amp;","&amp;AJ51:AJ61&amp;","&amp;AK51:AK61&amp;","&amp;AL51:AL61</f>
-        <v>0,0,0,0,0,0,0,20,0,0</v>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
       <c r="AX57" s="10" t="str">
         <f t="shared" ref="AX52:AX86" si="11">AM51:AM61&amp;","&amp;AN51:AN61&amp;","&amp;AO51:AO61&amp;","&amp;AP51:AP61&amp;","&amp;AQ51:AQ61&amp;","&amp;AR51:AR61&amp;","&amp;AS51:AS61&amp;","&amp;AT51:AT61&amp;","&amp;AU51:AU61&amp;","&amp;AV51:AV61</f>
@@ -10843,6 +10973,9 @@
       <c r="AA58" s="1">
         <v>0</v>
       </c>
+      <c r="AB58" s="1">
+        <v>0</v>
+      </c>
       <c r="AC58" s="1">
         <v>0</v>
       </c>
@@ -10868,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -10905,7 +11038,7 @@
       </c>
       <c r="AW58" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,20,0</v>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
       <c r="AX58" s="10" t="str">
         <f t="shared" si="11"/>
@@ -10988,6 +11121,9 @@
       <c r="AA59" s="1">
         <v>0</v>
       </c>
+      <c r="AB59" s="1">
+        <v>0</v>
+      </c>
       <c r="AC59" s="1">
         <v>0</v>
       </c>
@@ -11016,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -11050,7 +11186,7 @@
       </c>
       <c r="AW59" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,0,20</v>
+        <v>0,0,0,0,0,0,0,0,0,0.002</v>
       </c>
       <c r="AX59" s="10" t="str">
         <f t="shared" si="11"/>
@@ -11133,11 +11269,14 @@
       <c r="AA60" s="1">
         <v>0</v>
       </c>
+      <c r="AB60" s="1">
+        <v>0</v>
+      </c>
       <c r="AC60" s="1">
         <v>0</v>
       </c>
       <c r="AD60" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AE60" s="1">
         <v>0</v>
@@ -11195,7 +11334,7 @@
       </c>
       <c r="AW60" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,50,0,0,0,0,0,0,0,0</v>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX60" s="10" t="str">
         <f t="shared" si="11"/>
@@ -11278,6 +11417,9 @@
       <c r="AA61" s="1">
         <v>0</v>
       </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
       <c r="AC61" s="1">
         <v>0</v>
       </c>
@@ -11285,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AF61" s="1">
         <v>0</v>
@@ -11340,7 +11482,7 @@
       </c>
       <c r="AW61" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,50,0,0,0,0,0,0,0</v>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX61" s="10" t="str">
         <f t="shared" si="11"/>
@@ -11423,6 +11565,9 @@
       <c r="AA62" s="1">
         <v>0</v>
       </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
       <c r="AC62" s="1">
         <v>0</v>
       </c>
@@ -11433,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AG62" s="1">
         <v>0</v>
@@ -11485,7 +11630,7 @@
       </c>
       <c r="AW62" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,50,0,0,0,0,0,0</v>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
       <c r="AX62" s="10" t="str">
         <f t="shared" si="11"/>
@@ -11568,6 +11713,9 @@
       <c r="AA63" s="1">
         <v>0</v>
       </c>
+      <c r="AB63" s="1">
+        <v>0</v>
+      </c>
       <c r="AC63" s="1">
         <v>0</v>
       </c>
@@ -11581,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AH63" s="1">
         <v>0</v>
@@ -11630,7 +11778,7 @@
       </c>
       <c r="AW63" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,50,0,0,0,0,0</v>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
       <c r="AX63" s="10" t="str">
         <f t="shared" si="11"/>
@@ -11713,6 +11861,9 @@
       <c r="AA64" s="1">
         <v>0</v>
       </c>
+      <c r="AB64" s="1">
+        <v>0</v>
+      </c>
       <c r="AC64" s="1">
         <v>0</v>
       </c>
@@ -11729,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AI64" s="1">
         <v>0</v>
@@ -11775,7 +11926,7 @@
       </c>
       <c r="AW64" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,0,50,0,0,0,0</v>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
       <c r="AX64" s="10" t="str">
         <f t="shared" si="11"/>
@@ -11858,6 +12009,9 @@
       <c r="AA65" s="1">
         <v>0</v>
       </c>
+      <c r="AB65" s="1">
+        <v>0</v>
+      </c>
       <c r="AC65" s="1">
         <v>0</v>
       </c>
@@ -11877,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="AI65" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AJ65" s="1">
         <v>0</v>
@@ -11920,7 +12074,7 @@
       </c>
       <c r="AW65" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,50,0,0,0</v>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
       <c r="AX65" s="10" t="str">
         <f t="shared" si="11"/>
@@ -12003,6 +12157,9 @@
       <c r="AA66" s="1">
         <v>0</v>
       </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
       <c r="AC66" s="1">
         <v>0</v>
       </c>
@@ -12025,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AK66" s="1">
         <v>0</v>
@@ -12065,7 +12222,7 @@
       </c>
       <c r="AW66" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,50,0,0</v>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
       <c r="AX66" s="10" t="str">
         <f t="shared" si="11"/>
@@ -12148,6 +12305,9 @@
       <c r="AA67" s="1">
         <v>0</v>
       </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
       <c r="AC67" s="1">
         <v>0</v>
       </c>
@@ -12173,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AL67" s="1">
         <v>0</v>
@@ -12210,7 +12370,7 @@
       </c>
       <c r="AW67" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,50,0</v>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
       </c>
       <c r="AX67" s="10" t="str">
         <f t="shared" si="11"/>
@@ -12293,6 +12453,9 @@
       <c r="AA68" s="1">
         <v>0</v>
       </c>
+      <c r="AB68" s="1">
+        <v>0</v>
+      </c>
       <c r="AC68" s="1">
         <v>0</v>
       </c>
@@ -12321,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="1">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="AM68" s="1">
         <v>0</v>
@@ -12355,7 +12518,7 @@
       </c>
       <c r="AW68" s="10" t="str">
         <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,0,50</v>
+        <v>0,0,0,0,0,0,0,0,0,0.005</v>
       </c>
       <c r="AX68" s="10" t="str">
         <f t="shared" si="11"/>
@@ -12438,6 +12601,9 @@
       <c r="AA69" s="2">
         <v>0</v>
       </c>
+      <c r="AB69" s="1">
+        <v>0</v>
+      </c>
       <c r="AC69" s="2">
         <v>0</v>
       </c>
@@ -12471,8 +12637,8 @@
       <c r="AM69" s="2">
         <v>0</v>
       </c>
-      <c r="AN69" s="2">
-        <v>20</v>
+      <c r="AN69" s="1">
+        <v>0.002</v>
       </c>
       <c r="AO69" s="2">
         <v>0</v>
@@ -12504,7 +12670,7 @@
       </c>
       <c r="AX69" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,20,0,0,0,0,0,0,0,0</v>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -12583,6 +12749,9 @@
       <c r="AA70" s="2">
         <v>0</v>
       </c>
+      <c r="AB70" s="1">
+        <v>0</v>
+      </c>
       <c r="AC70" s="2">
         <v>0</v>
       </c>
@@ -12619,8 +12788,8 @@
       <c r="AN70" s="2">
         <v>0</v>
       </c>
-      <c r="AO70" s="2">
-        <v>20</v>
+      <c r="AO70" s="1">
+        <v>0.002</v>
       </c>
       <c r="AP70" s="2">
         <v>0</v>
@@ -12649,7 +12818,7 @@
       </c>
       <c r="AX70" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,20,0,0,0,0,0,0,0</v>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -12728,6 +12897,9 @@
       <c r="AA71" s="2">
         <v>0</v>
       </c>
+      <c r="AB71" s="1">
+        <v>0</v>
+      </c>
       <c r="AC71" s="2">
         <v>0</v>
       </c>
@@ -12767,8 +12939,8 @@
       <c r="AO71" s="2">
         <v>0</v>
       </c>
-      <c r="AP71" s="2">
-        <v>20</v>
+      <c r="AP71" s="1">
+        <v>0.002</v>
       </c>
       <c r="AQ71" s="2">
         <v>0</v>
@@ -12794,7 +12966,7 @@
       </c>
       <c r="AX71" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,20,0,0,0,0,0,0</v>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -12873,6 +13045,9 @@
       <c r="AA72" s="2">
         <v>0</v>
       </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
       <c r="AC72" s="2">
         <v>0</v>
       </c>
@@ -12915,8 +13090,8 @@
       <c r="AP72" s="2">
         <v>0</v>
       </c>
-      <c r="AQ72" s="2">
-        <v>20</v>
+      <c r="AQ72" s="1">
+        <v>0.002</v>
       </c>
       <c r="AR72" s="2">
         <v>0</v>
@@ -12939,7 +13114,7 @@
       </c>
       <c r="AX72" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,20,0,0,0,0,0</v>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -13018,6 +13193,9 @@
       <c r="AA73" s="2">
         <v>0</v>
       </c>
+      <c r="AB73" s="1">
+        <v>0</v>
+      </c>
       <c r="AC73" s="2">
         <v>0</v>
       </c>
@@ -13063,8 +13241,8 @@
       <c r="AQ73" s="2">
         <v>0</v>
       </c>
-      <c r="AR73" s="2">
-        <v>20</v>
+      <c r="AR73" s="1">
+        <v>0.002</v>
       </c>
       <c r="AS73" s="2">
         <v>0</v>
@@ -13084,7 +13262,7 @@
       </c>
       <c r="AX73" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,20,0,0,0,0</v>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -13163,6 +13341,9 @@
       <c r="AA74" s="2">
         <v>0</v>
       </c>
+      <c r="AB74" s="1">
+        <v>0</v>
+      </c>
       <c r="AC74" s="2">
         <v>0</v>
       </c>
@@ -13211,8 +13392,8 @@
       <c r="AR74" s="2">
         <v>0</v>
       </c>
-      <c r="AS74" s="2">
-        <v>20</v>
+      <c r="AS74" s="1">
+        <v>0.002</v>
       </c>
       <c r="AT74" s="2">
         <v>0</v>
@@ -13229,7 +13410,7 @@
       </c>
       <c r="AX74" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,20,0,0,0</v>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -13308,6 +13489,9 @@
       <c r="AA75" s="2">
         <v>0</v>
       </c>
+      <c r="AB75" s="1">
+        <v>0</v>
+      </c>
       <c r="AC75" s="2">
         <v>0</v>
       </c>
@@ -13359,8 +13543,8 @@
       <c r="AS75" s="2">
         <v>0</v>
       </c>
-      <c r="AT75" s="2">
-        <v>20</v>
+      <c r="AT75" s="1">
+        <v>0.002</v>
       </c>
       <c r="AU75" s="2">
         <v>0</v>
@@ -13374,7 +13558,7 @@
       </c>
       <c r="AX75" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,20,0,0</v>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -13453,6 +13637,9 @@
       <c r="AA76" s="2">
         <v>0</v>
       </c>
+      <c r="AB76" s="1">
+        <v>0</v>
+      </c>
       <c r="AC76" s="2">
         <v>0</v>
       </c>
@@ -13507,8 +13694,8 @@
       <c r="AT76" s="2">
         <v>0</v>
       </c>
-      <c r="AU76" s="2">
-        <v>20</v>
+      <c r="AU76" s="1">
+        <v>0.002</v>
       </c>
       <c r="AV76" s="2">
         <v>0</v>
@@ -13519,7 +13706,7 @@
       </c>
       <c r="AX76" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0,20,0</v>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -13598,6 +13785,9 @@
       <c r="AA77" s="2">
         <v>0</v>
       </c>
+      <c r="AB77" s="1">
+        <v>0</v>
+      </c>
       <c r="AC77" s="2">
         <v>0</v>
       </c>
@@ -13743,6 +13933,9 @@
       <c r="AA78" s="2">
         <v>0</v>
       </c>
+      <c r="AB78" s="1">
+        <v>0</v>
+      </c>
       <c r="AC78" s="2">
         <v>0</v>
       </c>
@@ -13773,8 +13966,11 @@
       <c r="AL78" s="2">
         <v>0</v>
       </c>
-      <c r="AN78" s="2">
-        <v>50</v>
+      <c r="AM78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="1">
+        <v>0.005</v>
       </c>
       <c r="AO78" s="2">
         <v>0</v>
@@ -13806,7 +14002,7 @@
       </c>
       <c r="AX78" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>,50,0,0,0,0,0,0,0,0</v>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -13885,6 +14081,9 @@
       <c r="AA79" s="2">
         <v>0</v>
       </c>
+      <c r="AB79" s="1">
+        <v>0</v>
+      </c>
       <c r="AC79" s="2">
         <v>0</v>
       </c>
@@ -13921,8 +14120,8 @@
       <c r="AN79" s="2">
         <v>0</v>
       </c>
-      <c r="AO79" s="2">
-        <v>50</v>
+      <c r="AO79" s="1">
+        <v>0.005</v>
       </c>
       <c r="AP79" s="2">
         <v>0</v>
@@ -13951,7 +14150,7 @@
       </c>
       <c r="AX79" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,50,0,0,0,0,0,0,0</v>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -14030,6 +14229,9 @@
       <c r="AA80" s="2">
         <v>0</v>
       </c>
+      <c r="AB80" s="1">
+        <v>0</v>
+      </c>
       <c r="AC80" s="2">
         <v>0</v>
       </c>
@@ -14069,8 +14271,8 @@
       <c r="AO80" s="2">
         <v>0</v>
       </c>
-      <c r="AP80" s="2">
-        <v>50</v>
+      <c r="AP80" s="1">
+        <v>0.005</v>
       </c>
       <c r="AQ80" s="2">
         <v>0</v>
@@ -14096,7 +14298,7 @@
       </c>
       <c r="AX80" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,50,0,0,0,0,0,0</v>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -14175,6 +14377,9 @@
       <c r="AA81" s="2">
         <v>0</v>
       </c>
+      <c r="AB81" s="1">
+        <v>0</v>
+      </c>
       <c r="AC81" s="2">
         <v>0</v>
       </c>
@@ -14217,8 +14422,8 @@
       <c r="AP81" s="2">
         <v>0</v>
       </c>
-      <c r="AQ81" s="2">
-        <v>50</v>
+      <c r="AQ81" s="1">
+        <v>0.005</v>
       </c>
       <c r="AR81" s="2">
         <v>0</v>
@@ -14241,7 +14446,7 @@
       </c>
       <c r="AX81" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,50,0,0,0,0,0</v>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -14320,6 +14525,9 @@
       <c r="AA82" s="2">
         <v>0</v>
       </c>
+      <c r="AB82" s="1">
+        <v>0</v>
+      </c>
       <c r="AC82" s="2">
         <v>0</v>
       </c>
@@ -14365,8 +14573,8 @@
       <c r="AQ82" s="2">
         <v>0</v>
       </c>
-      <c r="AR82" s="2">
-        <v>50</v>
+      <c r="AR82" s="1">
+        <v>0.005</v>
       </c>
       <c r="AS82" s="2">
         <v>0</v>
@@ -14386,7 +14594,7 @@
       </c>
       <c r="AX82" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,50,0,0,0,0</v>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -14465,6 +14673,9 @@
       <c r="AA83" s="2">
         <v>0</v>
       </c>
+      <c r="AB83" s="1">
+        <v>0</v>
+      </c>
       <c r="AC83" s="2">
         <v>0</v>
       </c>
@@ -14513,8 +14724,8 @@
       <c r="AR83" s="2">
         <v>0</v>
       </c>
-      <c r="AS83" s="2">
-        <v>50</v>
+      <c r="AS83" s="1">
+        <v>0.005</v>
       </c>
       <c r="AT83" s="2">
         <v>0</v>
@@ -14531,7 +14742,7 @@
       </c>
       <c r="AX83" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,50,0,0,0</v>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -14610,6 +14821,9 @@
       <c r="AA84" s="2">
         <v>0</v>
       </c>
+      <c r="AB84" s="1">
+        <v>0</v>
+      </c>
       <c r="AC84" s="2">
         <v>0</v>
       </c>
@@ -14661,8 +14875,8 @@
       <c r="AS84" s="2">
         <v>0</v>
       </c>
-      <c r="AT84" s="2">
-        <v>50</v>
+      <c r="AT84" s="1">
+        <v>0.005</v>
       </c>
       <c r="AU84" s="2">
         <v>0</v>
@@ -14676,7 +14890,7 @@
       </c>
       <c r="AX84" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,50,0,0</v>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
     </row>
     <row r="85" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -14755,6 +14969,9 @@
       <c r="AA85" s="2">
         <v>0</v>
       </c>
+      <c r="AB85" s="1">
+        <v>0</v>
+      </c>
       <c r="AC85" s="2">
         <v>0</v>
       </c>
@@ -14809,8 +15026,8 @@
       <c r="AT85" s="2">
         <v>0</v>
       </c>
-      <c r="AU85" s="2">
-        <v>50</v>
+      <c r="AU85" s="1">
+        <v>0.005</v>
       </c>
       <c r="AV85" s="2">
         <v>0</v>
@@ -14821,7 +15038,7 @@
       </c>
       <c r="AX85" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0,50,0</v>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" customHeight="1" spans="3:50">
@@ -14900,6 +15117,9 @@
       <c r="AA86" s="2">
         <v>0</v>
       </c>
+      <c r="AB86" s="1">
+        <v>0</v>
+      </c>
       <c r="AC86" s="2">
         <v>0</v>
       </c>
@@ -15045,6 +15265,9 @@
       <c r="AA87" s="1">
         <v>0</v>
       </c>
+      <c r="AB87" s="1">
+        <v>0</v>
+      </c>
       <c r="AC87" s="1">
         <v>0</v>
       </c>
@@ -15190,6 +15413,9 @@
       <c r="AA88" s="1">
         <v>0</v>
       </c>
+      <c r="AB88" s="1">
+        <v>0</v>
+      </c>
       <c r="AC88" s="1">
         <v>0</v>
       </c>
@@ -15335,6 +15561,9 @@
       <c r="AA89" s="1">
         <v>0</v>
       </c>
+      <c r="AB89" s="1">
+        <v>0</v>
+      </c>
       <c r="AC89" s="1">
         <v>0</v>
       </c>
@@ -15415,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>450</v>
+        <v>0.045</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
@@ -15478,6 +15707,9 @@
         <v>0</v>
       </c>
       <c r="AA90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="1">
         <v>0</v>
       </c>
       <c r="AC90" s="1">
@@ -15566,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <v>450</v>
+        <v>0.045</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -15623,6 +15855,9 @@
         <v>0</v>
       </c>
       <c r="AA91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="1">
         <v>0</v>
       </c>
       <c r="AC91" s="1">
@@ -15753,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="V92" s="1">
-        <v>450</v>
+        <v>0.045</v>
       </c>
       <c r="W92" s="1">
         <v>0</v>
@@ -15768,6 +16003,9 @@
         <v>0</v>
       </c>
       <c r="AA92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="1">
         <v>0</v>
       </c>
       <c r="AC92" s="1">
@@ -15915,6 +16153,9 @@
       <c r="AA93" s="1">
         <v>0</v>
       </c>
+      <c r="AB93" s="1">
+        <v>0</v>
+      </c>
       <c r="AC93" s="1">
         <v>0</v>
       </c>
@@ -16060,6 +16301,9 @@
       <c r="AA94" s="1">
         <v>0</v>
       </c>
+      <c r="AB94" s="1">
+        <v>0</v>
+      </c>
       <c r="AC94" s="1">
         <v>0</v>
       </c>
@@ -16205,6 +16449,9 @@
       <c r="AA95" s="1">
         <v>0</v>
       </c>
+      <c r="AB95" s="1">
+        <v>0</v>
+      </c>
       <c r="AC95" s="1">
         <v>0</v>
       </c>
@@ -16350,6 +16597,9 @@
       <c r="AA96" s="1">
         <v>0</v>
       </c>
+      <c r="AB96" s="1">
+        <v>0</v>
+      </c>
       <c r="AC96" s="1">
         <v>0</v>
       </c>
@@ -16495,6 +16745,9 @@
       <c r="AA97" s="1">
         <v>0</v>
       </c>
+      <c r="AB97" s="1">
+        <v>0</v>
+      </c>
       <c r="AC97" s="1">
         <v>0</v>
       </c>
@@ -16611,7 +16864,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="1">
-        <v>450</v>
+        <v>0.045</v>
       </c>
       <c r="S98" s="1">
         <v>0</v>
@@ -16638,6 +16891,9 @@
         <v>0</v>
       </c>
       <c r="AA98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="1">
         <v>0</v>
       </c>
       <c r="AC98" s="1">
@@ -16750,7 +17006,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <v>450</v>
+        <v>0.045</v>
       </c>
       <c r="Q99" s="1">
         <v>0</v>
@@ -16783,6 +17039,9 @@
         <v>0</v>
       </c>
       <c r="AA99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="1">
         <v>0</v>
       </c>
       <c r="AC99" s="1">
@@ -16886,7 +17145,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="12">
-        <v>450</v>
+        <v>0.045</v>
       </c>
       <c r="N100" s="1">
         <v>0</v>
@@ -16894,6 +17153,9 @@
       <c r="O100" s="1">
         <v>0</v>
       </c>
+      <c r="P100" s="1">
+        <v>0</v>
+      </c>
       <c r="Q100" s="1">
         <v>0</v>
       </c>
@@ -16925,6 +17187,9 @@
         <v>0</v>
       </c>
       <c r="AA100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="1">
         <v>0</v>
       </c>
       <c r="AC100" s="1">

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -89,12 +89,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="D22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关联globalconfig表装备升级成长率attid</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="203">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -483,22 +505,10 @@
     <t>卡牌升级固定值，1级默认值</t>
   </si>
   <si>
-    <t>装备升级固定值（作废）</t>
-  </si>
-  <si>
     <t>武器升级攻击力固定值</t>
   </si>
   <si>
-    <t>衣服升级防御力固定值</t>
-  </si>
-  <si>
-    <t>裤子升级生命值固定值</t>
-  </si>
-  <si>
-    <t>饰品升级暴击值固定值</t>
-  </si>
-  <si>
-    <t>装备升级成长率</t>
+    <t>武器升级攻击力成长率</t>
   </si>
   <si>
     <t>单手剑1突破1次物理伤害加成值</t>
@@ -729,12 +739,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -768,13 +778,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,11 +836,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,8 +860,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,44 +884,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -889,29 +916,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +977,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,127 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,25 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,6 +1196,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1207,15 +1220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1227,15 +1231,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,10 +1252,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1269,8 +1262,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1280,10 +1284,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1292,16 +1296,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,115 +1314,115 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,7 +1453,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2664,10 +2668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX100"/>
+  <dimension ref="A1:AX96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14:AB100"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3265,7 +3269,7 @@
         <v>109</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>109</v>
@@ -4525,11 +4529,11 @@
         <v>0</v>
       </c>
       <c r="AW14" s="10" t="str">
-        <f t="shared" ref="AW14:AW19" si="2">AC7:AC18&amp;","&amp;AD7:AD18&amp;","&amp;AE7:AE18&amp;","&amp;AF7:AF18&amp;","&amp;AG7:AG18&amp;","&amp;AH7:AH18&amp;","&amp;AI7:AI18&amp;","&amp;AJ7:AJ18&amp;","&amp;AK7:AK18&amp;","&amp;AL7:AL18</f>
+        <f>AC7:AC18&amp;","&amp;AD7:AD18&amp;","&amp;AE7:AE18&amp;","&amp;AF7:AF18&amp;","&amp;AG7:AG18&amp;","&amp;AH7:AH18&amp;","&amp;AI7:AI18&amp;","&amp;AJ7:AJ18&amp;","&amp;AK7:AK18&amp;","&amp;AL7:AL18</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX14" s="10" t="str">
-        <f t="shared" ref="AX14:AX19" si="3">AM7:AM18&amp;","&amp;AN7:AN18&amp;","&amp;AO7:AO18&amp;","&amp;AP7:AP18&amp;","&amp;AQ7:AQ18&amp;","&amp;AR7:AR18&amp;","&amp;AS7:AS18&amp;","&amp;AT7:AT18&amp;","&amp;AU7:AU18&amp;","&amp;AV7:AV18</f>
+        <f>AM7:AM18&amp;","&amp;AN7:AN18&amp;","&amp;AO7:AO18&amp;","&amp;AP7:AP18&amp;","&amp;AQ7:AQ18&amp;","&amp;AR7:AR18&amp;","&amp;AS7:AS18&amp;","&amp;AT7:AT18&amp;","&amp;AU7:AU18&amp;","&amp;AV7:AV18</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -4673,11 +4677,11 @@
         <v>0</v>
       </c>
       <c r="AW15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>AC8:AC19&amp;","&amp;AD8:AD19&amp;","&amp;AE8:AE19&amp;","&amp;AF8:AF19&amp;","&amp;AG8:AG19&amp;","&amp;AH8:AH19&amp;","&amp;AI8:AI19&amp;","&amp;AJ8:AJ19&amp;","&amp;AK8:AK19&amp;","&amp;AL8:AL19</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX15" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f>AM8:AM19&amp;","&amp;AN8:AN19&amp;","&amp;AO8:AO19&amp;","&amp;AP8:AP19&amp;","&amp;AQ8:AQ19&amp;","&amp;AR8:AR19&amp;","&amp;AS8:AS19&amp;","&amp;AT8:AT19&amp;","&amp;AU8:AU19&amp;","&amp;AV8:AV19</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -4821,11 +4825,11 @@
         <v>0</v>
       </c>
       <c r="AW16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>AC9:AC20&amp;","&amp;AD9:AD20&amp;","&amp;AE9:AE20&amp;","&amp;AF9:AF20&amp;","&amp;AG9:AG20&amp;","&amp;AH9:AH20&amp;","&amp;AI9:AI20&amp;","&amp;AJ9:AJ20&amp;","&amp;AK9:AK20&amp;","&amp;AL9:AL20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX16" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f>AM9:AM20&amp;","&amp;AN9:AN20&amp;","&amp;AO9:AO20&amp;","&amp;AP9:AP20&amp;","&amp;AQ9:AQ20&amp;","&amp;AR9:AR20&amp;","&amp;AS9:AS20&amp;","&amp;AT9:AT20&amp;","&amp;AU9:AU20&amp;","&amp;AV9:AV20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -4969,11 +4973,11 @@
         <v>0</v>
       </c>
       <c r="AW17" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>AC10:AC20&amp;","&amp;AD10:AD20&amp;","&amp;AE10:AE20&amp;","&amp;AF10:AF20&amp;","&amp;AG10:AG20&amp;","&amp;AH10:AH20&amp;","&amp;AI10:AI20&amp;","&amp;AJ10:AJ20&amp;","&amp;AK10:AK20&amp;","&amp;AL10:AL20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX17" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f>AM10:AM20&amp;","&amp;AN10:AN20&amp;","&amp;AO10:AO20&amp;","&amp;AP10:AP20&amp;","&amp;AQ10:AQ20&amp;","&amp;AR10:AR20&amp;","&amp;AS10:AS20&amp;","&amp;AT10:AT20&amp;","&amp;AU10:AU20&amp;","&amp;AV10:AV20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -5117,11 +5121,11 @@
         <v>0</v>
       </c>
       <c r="AW18" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>AC11:AC21&amp;","&amp;AD11:AD21&amp;","&amp;AE11:AE21&amp;","&amp;AF11:AF21&amp;","&amp;AG11:AG21&amp;","&amp;AH11:AH21&amp;","&amp;AI11:AI21&amp;","&amp;AJ11:AJ21&amp;","&amp;AK11:AK21&amp;","&amp;AL11:AL21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX18" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f>AM11:AM21&amp;","&amp;AN11:AN21&amp;","&amp;AO11:AO21&amp;","&amp;AP11:AP21&amp;","&amp;AQ11:AQ21&amp;","&amp;AR11:AR21&amp;","&amp;AS11:AS21&amp;","&amp;AT11:AT21&amp;","&amp;AU11:AU21&amp;","&amp;AV11:AV21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -5265,11 +5269,11 @@
         <v>0</v>
       </c>
       <c r="AW19" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f>AC12:AC21&amp;","&amp;AD12:AD21&amp;","&amp;AE12:AE21&amp;","&amp;AF12:AF21&amp;","&amp;AG12:AG21&amp;","&amp;AH12:AH21&amp;","&amp;AI12:AI21&amp;","&amp;AJ12:AJ21&amp;","&amp;AK12:AK21&amp;","&amp;AL12:AL21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX19" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f>AM12:AM21&amp;","&amp;AN12:AN21&amp;","&amp;AO12:AO21&amp;","&amp;AP12:AP21&amp;","&amp;AQ12:AQ21&amp;","&amp;AR12:AR21&amp;","&amp;AS12:AS21&amp;","&amp;AT12:AT21&amp;","&amp;AU12:AU21&amp;","&amp;AV12:AV21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -5413,15 +5417,15 @@
         <v>0</v>
       </c>
       <c r="AW20" s="10" t="str">
-        <f t="shared" ref="AW14:AW38" si="4">AC14:AC24&amp;","&amp;AD14:AD24&amp;","&amp;AE14:AE24&amp;","&amp;AF14:AF24&amp;","&amp;AG14:AG24&amp;","&amp;AH14:AH24&amp;","&amp;AI14:AI24&amp;","&amp;AJ14:AJ24&amp;","&amp;AK14:AK24&amp;","&amp;AL14:AL24</f>
+        <f>AC14:AC21&amp;","&amp;AD14:AD21&amp;","&amp;AE14:AE21&amp;","&amp;AF14:AF21&amp;","&amp;AG14:AG21&amp;","&amp;AH14:AH21&amp;","&amp;AI14:AI21&amp;","&amp;AJ14:AJ21&amp;","&amp;AK14:AK21&amp;","&amp;AL14:AL21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX20" s="10" t="str">
-        <f t="shared" ref="AX14:AX38" si="5">AM14:AM24&amp;","&amp;AN14:AN24&amp;","&amp;AO14:AO24&amp;","&amp;AP14:AP24&amp;","&amp;AQ14:AQ24&amp;","&amp;AR14:AR24&amp;","&amp;AS14:AS24&amp;","&amp;AT14:AT24&amp;","&amp;AU14:AU24&amp;","&amp;AV14:AV24</f>
+        <f>AM14:AM21&amp;","&amp;AN14:AN21&amp;","&amp;AO14:AO21&amp;","&amp;AP14:AP21&amp;","&amp;AQ14:AQ21&amp;","&amp;AR14:AR21&amp;","&amp;AS14:AS21&amp;","&amp;AT14:AT21&amp;","&amp;AU14:AU21&amp;","&amp;AV14:AV21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="21" ht="27" customHeight="1" spans="3:50">
+    <row r="21" customHeight="1" spans="3:50">
       <c r="C21" s="1">
         <v>2000</v>
       </c>
@@ -5435,22 +5439,22 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H21" s="12">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M21" s="12">
         <v>0</v>
@@ -5471,22 +5475,22 @@
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V21" s="12">
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
         <v>0</v>
@@ -5501,91 +5505,91 @@
         <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005</v>
+        <f>AC16:AC22&amp;","&amp;AD16:AD22&amp;","&amp;AE16:AE22&amp;","&amp;AF16:AF22&amp;","&amp;AG16:AG22&amp;","&amp;AH16:AH22&amp;","&amp;AI16:AI22&amp;","&amp;AJ16:AJ22&amp;","&amp;AK16:AK22&amp;","&amp;AL16:AL22</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX21" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005,0.005</v>
+        <f>AM16:AM22&amp;","&amp;AN16:AN22&amp;","&amp;AO16:AO22&amp;","&amp;AP16:AP22&amp;","&amp;AQ16:AQ22&amp;","&amp;AR16:AR22&amp;","&amp;AS16:AS22&amp;","&amp;AT16:AT22&amp;","&amp;AU16:AU22&amp;","&amp;AV16:AV22</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:50">
       <c r="C22" s="1">
         <v>2001</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="14" t="s">
         <v>128</v>
       </c>
       <c r="E22" s="1">
-        <v>50</v>
-      </c>
-      <c r="F22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
@@ -5600,7 +5604,7 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="1">
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -5609,13 +5613,13 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="1">
         <v>0</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="1">
         <v>0</v>
       </c>
       <c r="S22" s="1">
@@ -5627,7 +5631,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="1">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -5709,17 +5713,17 @@
         <v>0</v>
       </c>
       <c r="AW22" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>AC20:AC26&amp;","&amp;AD20:AD26&amp;","&amp;AE20:AE26&amp;","&amp;AF20:AF26&amp;","&amp;AG20:AG26&amp;","&amp;AH20:AH26&amp;","&amp;AI20:AI26&amp;","&amp;AJ20:AJ26&amp;","&amp;AK20:AK26&amp;","&amp;AL20:AL26</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX22" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM20:AM26&amp;","&amp;AN20:AN26&amp;","&amp;AO20:AO26&amp;","&amp;AP20:AP26&amp;","&amp;AQ20:AQ26&amp;","&amp;AR20:AR26&amp;","&amp;AS20:AS26&amp;","&amp;AT20:AT26&amp;","&amp;AU20:AU26&amp;","&amp;AV20:AV26</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:50">
       <c r="C23" s="1">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>129</v>
@@ -5731,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
@@ -5797,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -5857,17 +5861,17 @@
         <v>0</v>
       </c>
       <c r="AW23" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f>AC21:AC27&amp;","&amp;AD21:AD27&amp;","&amp;AE21:AE27&amp;","&amp;AF21:AF27&amp;","&amp;AG21:AG27&amp;","&amp;AH21:AH27&amp;","&amp;AI21:AI27&amp;","&amp;AJ21:AJ27&amp;","&amp;AK21:AK27&amp;","&amp;AL21:AL27</f>
+        <v>0.05,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX23" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM21:AM27&amp;","&amp;AN21:AN27&amp;","&amp;AO21:AO27&amp;","&amp;AP21:AP27&amp;","&amp;AQ21:AQ27&amp;","&amp;AR21:AR27&amp;","&amp;AS21:AS27&amp;","&amp;AT21:AT27&amp;","&amp;AU21:AU27&amp;","&amp;AV21:AV27</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:50">
       <c r="C24" s="1">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>130</v>
@@ -5921,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V24" s="12">
         <v>0</v>
@@ -5945,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD24" s="1">
         <v>0</v>
@@ -6005,17 +6009,17 @@
         <v>0</v>
       </c>
       <c r="AW24" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f>AC21:AC28&amp;","&amp;AD21:AD28&amp;","&amp;AE21:AE28&amp;","&amp;AF21:AF28&amp;","&amp;AG21:AG28&amp;","&amp;AH21:AH28&amp;","&amp;AI21:AI28&amp;","&amp;AJ21:AJ28&amp;","&amp;AK21:AK28&amp;","&amp;AL21:AL28</f>
+        <v>0.1,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX24" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM21:AM28&amp;","&amp;AN21:AN28&amp;","&amp;AO21:AO28&amp;","&amp;AP21:AP28&amp;","&amp;AQ21:AQ28&amp;","&amp;AR21:AR28&amp;","&amp;AS21:AS28&amp;","&amp;AT21:AT28&amp;","&amp;AU21:AU28&amp;","&amp;AV21:AV28</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:50">
       <c r="C25" s="1">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
@@ -6036,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -6093,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AD25" s="1">
         <v>0</v>
@@ -6153,44 +6157,44 @@
         <v>0</v>
       </c>
       <c r="AW25" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f>AC22:AC29&amp;","&amp;AD22:AD29&amp;","&amp;AE22:AE29&amp;","&amp;AF22:AF29&amp;","&amp;AG22:AG29&amp;","&amp;AH22:AH29&amp;","&amp;AI22:AI29&amp;","&amp;AJ22:AJ29&amp;","&amp;AK22:AK29&amp;","&amp;AL22:AL29</f>
+        <v>0.15,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX25" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM22:AM29&amp;","&amp;AN22:AN29&amp;","&amp;AO22:AO29&amp;","&amp;AP22:AP29&amp;","&amp;AQ22:AQ29&amp;","&amp;AR22:AR29&amp;","&amp;AS22:AS29&amp;","&amp;AT22:AT29&amp;","&amp;AU22:AU29&amp;","&amp;AV22:AV29</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:50">
       <c r="C26" s="1">
-        <v>2005</v>
-      </c>
-      <c r="D26" s="14" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.002</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.002</v>
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M26" s="12">
         <v>0</v>
@@ -6201,32 +6205,32 @@
       <c r="O26" s="1">
         <v>0</v>
       </c>
-      <c r="P26" s="1">
-        <v>0.003</v>
+      <c r="P26" s="12">
+        <v>0</v>
       </c>
       <c r="Q26" s="1">
         <v>0</v>
       </c>
-      <c r="R26" s="1">
-        <v>0.003</v>
+      <c r="R26" s="12">
+        <v>0</v>
       </c>
       <c r="S26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>100</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0.002</v>
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
@@ -6241,77 +6245,77 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.025</v>
+        <v>0.2</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025</v>
+        <f>AC22:AC30&amp;","&amp;AD22:AD30&amp;","&amp;AE22:AE30&amp;","&amp;AF22:AF30&amp;","&amp;AG22:AG30&amp;","&amp;AH22:AH30&amp;","&amp;AI22:AI30&amp;","&amp;AJ22:AJ30&amp;","&amp;AK22:AK30&amp;","&amp;AL22:AL30</f>
+        <v>0.2,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX26" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025,0.025</v>
+        <f>AM22:AM30&amp;","&amp;AN22:AN30&amp;","&amp;AO22:AO30&amp;","&amp;AP22:AP30&amp;","&amp;AQ22:AQ30&amp;","&amp;AR22:AR30&amp;","&amp;AS22:AS30&amp;","&amp;AT22:AT30&amp;","&amp;AU22:AU30&amp;","&amp;AV22:AV30</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:50">
       <c r="C27" s="1">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>133</v>
@@ -6389,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="AD27" s="1">
         <v>0</v>
@@ -6449,17 +6453,17 @@
         <v>0</v>
       </c>
       <c r="AW27" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.05,0,0,0,0,0,0,0,0,0</v>
+        <f>AC22:AC31&amp;","&amp;AD22:AD31&amp;","&amp;AE22:AE31&amp;","&amp;AF22:AF31&amp;","&amp;AG22:AG31&amp;","&amp;AH22:AH31&amp;","&amp;AI22:AI31&amp;","&amp;AJ22:AJ31&amp;","&amp;AK22:AK31&amp;","&amp;AL22:AL31</f>
+        <v>0.25,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX27" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM22:AM31&amp;","&amp;AN22:AN31&amp;","&amp;AO22:AO31&amp;","&amp;AP22:AP31&amp;","&amp;AQ22:AQ31&amp;","&amp;AR22:AR31&amp;","&amp;AS22:AS31&amp;","&amp;AT22:AT31&amp;","&amp;AU22:AU31&amp;","&amp;AV22:AV31</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:50">
       <c r="C28" s="1">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>134</v>
@@ -6519,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -6537,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="1">
         <v>0</v>
@@ -6597,17 +6601,17 @@
         <v>0</v>
       </c>
       <c r="AW28" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.1,0,0,0,0,0,0,0,0,0</v>
+        <f>AC22:AC32&amp;","&amp;AD22:AD32&amp;","&amp;AE22:AE32&amp;","&amp;AF22:AF32&amp;","&amp;AG22:AG32&amp;","&amp;AH22:AH32&amp;","&amp;AI22:AI32&amp;","&amp;AJ22:AJ32&amp;","&amp;AK22:AK32&amp;","&amp;AL22:AL32</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM22:AM32&amp;","&amp;AN22:AN32&amp;","&amp;AO22:AO32&amp;","&amp;AP22:AP32&amp;","&amp;AQ22:AQ32&amp;","&amp;AR22:AR32&amp;","&amp;AS22:AS32&amp;","&amp;AT22:AT32&amp;","&amp;AU22:AU32&amp;","&amp;AV22:AV32</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:50">
       <c r="C29" s="1">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>135</v>
@@ -6667,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -6685,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -6745,17 +6749,17 @@
         <v>0</v>
       </c>
       <c r="AW29" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.15,0,0,0,0,0,0,0,0,0</v>
+        <f>AC23:AC32&amp;","&amp;AD23:AD32&amp;","&amp;AE23:AE32&amp;","&amp;AF23:AF32&amp;","&amp;AG23:AG32&amp;","&amp;AH23:AH32&amp;","&amp;AI23:AI32&amp;","&amp;AJ23:AJ32&amp;","&amp;AK23:AK32&amp;","&amp;AL23:AL32</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM23:AM32&amp;","&amp;AN23:AN32&amp;","&amp;AO23:AO32&amp;","&amp;AP23:AP32&amp;","&amp;AQ23:AQ32&amp;","&amp;AR23:AR32&amp;","&amp;AS23:AS32&amp;","&amp;AT23:AT32&amp;","&amp;AU23:AU32&amp;","&amp;AV23:AV32</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:50">
       <c r="C30" s="1">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>136</v>
@@ -6815,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -6833,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
         <v>0</v>
@@ -6893,17 +6897,17 @@
         <v>0</v>
       </c>
       <c r="AW30" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.2,0,0,0,0,0,0,0,0,0</v>
+        <f>AC24:AC32&amp;","&amp;AD24:AD32&amp;","&amp;AE24:AE32&amp;","&amp;AF24:AF32&amp;","&amp;AG24:AG32&amp;","&amp;AH24:AH32&amp;","&amp;AI24:AI32&amp;","&amp;AJ24:AJ32&amp;","&amp;AK24:AK32&amp;","&amp;AL24:AL32</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM24:AM32&amp;","&amp;AN24:AN32&amp;","&amp;AO24:AO32&amp;","&amp;AP24:AP32&amp;","&amp;AQ24:AQ32&amp;","&amp;AR24:AR32&amp;","&amp;AS24:AS32&amp;","&amp;AT24:AT32&amp;","&amp;AU24:AU32&amp;","&amp;AV24:AV32</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:50">
       <c r="C31" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>137</v>
@@ -6963,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X31" s="1">
         <v>0</v>
@@ -6981,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
         <v>0</v>
@@ -7041,17 +7045,17 @@
         <v>0</v>
       </c>
       <c r="AW31" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0.25,0,0,0,0,0,0,0,0,0</v>
+        <f>AC25:AC33&amp;","&amp;AD25:AD33&amp;","&amp;AE25:AE33&amp;","&amp;AF25:AF33&amp;","&amp;AG25:AG33&amp;","&amp;AH25:AH33&amp;","&amp;AI25:AI33&amp;","&amp;AJ25:AJ33&amp;","&amp;AK25:AK33&amp;","&amp;AL25:AL33</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX31" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM25:AM33&amp;","&amp;AN25:AN33&amp;","&amp;AO25:AO33&amp;","&amp;AP25:AP33&amp;","&amp;AQ25:AQ33&amp;","&amp;AR25:AR33&amp;","&amp;AS25:AS33&amp;","&amp;AT25:AT33&amp;","&amp;AU25:AU33&amp;","&amp;AV25:AV33</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:50">
       <c r="C32" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>138</v>
@@ -7111,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="X32" s="1">
         <v>0</v>
@@ -7189,31 +7193,31 @@
         <v>0</v>
       </c>
       <c r="AW32" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>AC26:AC34&amp;","&amp;AD26:AD34&amp;","&amp;AE26:AE34&amp;","&amp;AF26:AF34&amp;","&amp;AG26:AG34&amp;","&amp;AH26:AH34&amp;","&amp;AI26:AI34&amp;","&amp;AJ26:AJ34&amp;","&amp;AK26:AK34&amp;","&amp;AL26:AL34</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX32" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f>AM26:AM34&amp;","&amp;AN26:AN34&amp;","&amp;AO26:AO34&amp;","&amp;AP26:AP34&amp;","&amp;AQ26:AQ34&amp;","&amp;AR26:AR34&amp;","&amp;AS26:AS34&amp;","&amp;AT26:AT34&amp;","&amp;AU26:AU34&amp;","&amp;AV26:AV34</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:50">
       <c r="C33" s="1">
-        <v>2021</v>
+        <v>3000</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="1">
         <v>0</v>
       </c>
       <c r="I33" s="1">
@@ -7237,13 +7241,13 @@
       <c r="O33" s="1">
         <v>0</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="1">
         <v>0</v>
       </c>
       <c r="Q33" s="1">
         <v>0</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="1">
         <v>0</v>
       </c>
       <c r="S33" s="1">
@@ -7255,11 +7259,11 @@
       <c r="U33" s="1">
         <v>0</v>
       </c>
-      <c r="V33" s="12">
+      <c r="V33" s="1">
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1">
         <v>0</v>
@@ -7337,31 +7341,31 @@
         <v>0</v>
       </c>
       <c r="AW33" s="10" t="str">
-        <f>AC27:AC36&amp;","&amp;AD27:AD36&amp;","&amp;AE27:AE36&amp;","&amp;AF27:AF36&amp;","&amp;AG27:AG36&amp;","&amp;AH27:AH36&amp;","&amp;AI27:AI36&amp;","&amp;AJ27:AJ36&amp;","&amp;AK27:AK36&amp;","&amp;AL27:AL36</f>
+        <f>AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37&amp;","&amp;AK29:AK37&amp;","&amp;AL29:AL37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX33" s="10" t="str">
-        <f>AM27:AM36&amp;","&amp;AN27:AN36&amp;","&amp;AO27:AO36&amp;","&amp;AP27:AP36&amp;","&amp;AQ27:AQ36&amp;","&amp;AR27:AR36&amp;","&amp;AS27:AS36&amp;","&amp;AT27:AT36&amp;","&amp;AU27:AU36&amp;","&amp;AV27:AV36</f>
+        <f>AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37&amp;","&amp;AU29:AU37&amp;","&amp;AV29:AV37</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:50">
       <c r="C34" s="1">
-        <v>2022</v>
+        <v>3001</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11">
+        <v>60</v>
+      </c>
+      <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
@@ -7385,13 +7389,13 @@
       <c r="O34" s="1">
         <v>0</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="1">
         <v>0</v>
       </c>
       <c r="Q34" s="1">
         <v>0</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="1">
         <v>0</v>
       </c>
       <c r="S34" s="1">
@@ -7403,11 +7407,11 @@
       <c r="U34" s="1">
         <v>0</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34" s="1">
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X34" s="1">
         <v>0</v>
@@ -7485,31 +7489,31 @@
         <v>0</v>
       </c>
       <c r="AW34" s="10" t="str">
-        <f>AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36&amp;","&amp;AK28:AK36&amp;","&amp;AL28:AL36</f>
+        <f>AC30:AC38&amp;","&amp;AD30:AD38&amp;","&amp;AE30:AE38&amp;","&amp;AF30:AF38&amp;","&amp;AG30:AG38&amp;","&amp;AH30:AH38&amp;","&amp;AI30:AI38&amp;","&amp;AJ30:AJ38&amp;","&amp;AK30:AK38&amp;","&amp;AL30:AL38</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX34" s="10" t="str">
-        <f>AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36&amp;","&amp;AU28:AU36&amp;","&amp;AV28:AV36</f>
+        <f>AM30:AM38&amp;","&amp;AN30:AN38&amp;","&amp;AO30:AO38&amp;","&amp;AP30:AP38&amp;","&amp;AQ30:AQ38&amp;","&amp;AR30:AR38&amp;","&amp;AS30:AS38&amp;","&amp;AT30:AT38&amp;","&amp;AU30:AU38&amp;","&amp;AV30:AV38</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:50">
       <c r="C35" s="1">
-        <v>2023</v>
+        <v>3010</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
+        <v>60</v>
+      </c>
+      <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
@@ -7533,13 +7537,13 @@
       <c r="O35" s="1">
         <v>0</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="1">
         <v>0</v>
       </c>
       <c r="Q35" s="1">
         <v>0</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="1">
         <v>0</v>
       </c>
       <c r="S35" s="1">
@@ -7551,11 +7555,11 @@
       <c r="U35" s="1">
         <v>0</v>
       </c>
-      <c r="V35" s="12">
+      <c r="V35" s="1">
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
         <v>0</v>
@@ -7633,31 +7637,31 @@
         <v>0</v>
       </c>
       <c r="AW35" s="10" t="str">
-        <f>AC29:AC37&amp;","&amp;AD29:AD37&amp;","&amp;AE29:AE37&amp;","&amp;AF29:AF37&amp;","&amp;AG29:AG37&amp;","&amp;AH29:AH37&amp;","&amp;AI29:AI37&amp;","&amp;AJ29:AJ37&amp;","&amp;AK29:AK37&amp;","&amp;AL29:AL37</f>
+        <f>AC31:AC39&amp;","&amp;AD31:AD39&amp;","&amp;AE31:AE39&amp;","&amp;AF31:AF39&amp;","&amp;AG31:AG39&amp;","&amp;AH31:AH39&amp;","&amp;AI31:AI39&amp;","&amp;AJ31:AJ39&amp;","&amp;AK31:AK39&amp;","&amp;AL31:AL39</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX35" s="10" t="str">
-        <f>AM29:AM37&amp;","&amp;AN29:AN37&amp;","&amp;AO29:AO37&amp;","&amp;AP29:AP37&amp;","&amp;AQ29:AQ37&amp;","&amp;AR29:AR37&amp;","&amp;AS29:AS37&amp;","&amp;AT29:AT37&amp;","&amp;AU29:AU37&amp;","&amp;AV29:AV37</f>
+        <f>AM31:AM39&amp;","&amp;AN31:AN39&amp;","&amp;AO31:AO39&amp;","&amp;AP31:AP39&amp;","&amp;AQ31:AQ39&amp;","&amp;AR31:AR39&amp;","&amp;AS31:AS39&amp;","&amp;AT31:AT39&amp;","&amp;AU31:AU39&amp;","&amp;AV31:AV39</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:50">
       <c r="C36" s="1">
-        <v>2024</v>
+        <v>3011</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
+        <v>600</v>
+      </c>
+      <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36" s="1">
@@ -7681,13 +7685,13 @@
       <c r="O36" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="1">
         <v>0</v>
       </c>
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="1">
         <v>0</v>
       </c>
       <c r="S36" s="1">
@@ -7699,11 +7703,11 @@
       <c r="U36" s="1">
         <v>0</v>
       </c>
-      <c r="V36" s="12">
+      <c r="V36" s="1">
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X36" s="1">
         <v>0</v>
@@ -7781,17 +7785,17 @@
         <v>0</v>
       </c>
       <c r="AW36" s="10" t="str">
-        <f>AC30:AC38&amp;","&amp;AD30:AD38&amp;","&amp;AE30:AE38&amp;","&amp;AF30:AF38&amp;","&amp;AG30:AG38&amp;","&amp;AH30:AH38&amp;","&amp;AI30:AI38&amp;","&amp;AJ30:AJ38&amp;","&amp;AK30:AK38&amp;","&amp;AL30:AL38</f>
+        <f>AC32:AC40&amp;","&amp;AD32:AD40&amp;","&amp;AE32:AE40&amp;","&amp;AF32:AF40&amp;","&amp;AG32:AG40&amp;","&amp;AH32:AH40&amp;","&amp;AI32:AI40&amp;","&amp;AJ32:AJ40&amp;","&amp;AK32:AK40&amp;","&amp;AL32:AL40</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX36" s="10" t="str">
-        <f>AM30:AM38&amp;","&amp;AN30:AN38&amp;","&amp;AO30:AO38&amp;","&amp;AP30:AP38&amp;","&amp;AQ30:AQ38&amp;","&amp;AR30:AR38&amp;","&amp;AS30:AS38&amp;","&amp;AT30:AT38&amp;","&amp;AU30:AU38&amp;","&amp;AV30:AV38</f>
+        <f>AM32:AM40&amp;","&amp;AN32:AN40&amp;","&amp;AO32:AO40&amp;","&amp;AP32:AP40&amp;","&amp;AQ32:AQ40&amp;","&amp;AR32:AR40&amp;","&amp;AS32:AS40&amp;","&amp;AT32:AT40&amp;","&amp;AU32:AU40&amp;","&amp;AV32:AV40</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:50">
       <c r="C37" s="1">
-        <v>3000</v>
+        <v>3020</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>143</v>
@@ -7939,7 +7943,7 @@
     </row>
     <row r="38" customHeight="1" spans="3:50">
       <c r="C38" s="1">
-        <v>3001</v>
+        <v>3021</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>144</v>
@@ -8077,23 +8081,23 @@
         <v>0</v>
       </c>
       <c r="AW38" s="10" t="str">
-        <f>AC34:AC42&amp;","&amp;AD34:AD42&amp;","&amp;AE34:AE42&amp;","&amp;AF34:AF42&amp;","&amp;AG34:AG42&amp;","&amp;AH34:AH42&amp;","&amp;AI34:AI42&amp;","&amp;AJ34:AJ42&amp;","&amp;AK34:AK42&amp;","&amp;AL34:AL42</f>
+        <f>AC33:AC42&amp;","&amp;AD33:AD42&amp;","&amp;AE33:AE42&amp;","&amp;AF33:AF42&amp;","&amp;AG33:AG42&amp;","&amp;AH33:AH42&amp;","&amp;AI33:AI42&amp;","&amp;AJ33:AJ42&amp;","&amp;AK33:AK42&amp;","&amp;AL33:AL42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX38" s="10" t="str">
-        <f>AM34:AM42&amp;","&amp;AN34:AN42&amp;","&amp;AO34:AO42&amp;","&amp;AP34:AP42&amp;","&amp;AQ34:AQ42&amp;","&amp;AR34:AR42&amp;","&amp;AS34:AS42&amp;","&amp;AT34:AT42&amp;","&amp;AU34:AU42&amp;","&amp;AV34:AV42</f>
+        <f>AM33:AM42&amp;","&amp;AN33:AN42&amp;","&amp;AO33:AO42&amp;","&amp;AP33:AP42&amp;","&amp;AQ33:AQ42&amp;","&amp;AR33:AR42&amp;","&amp;AS33:AS42&amp;","&amp;AT33:AT42&amp;","&amp;AU33:AU42&amp;","&amp;AV33:AV42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:50">
       <c r="C39" s="1">
-        <v>3010</v>
+        <v>3030</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E39" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -8132,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S39" s="1">
         <v>0</v>
@@ -8225,23 +8229,23 @@
         <v>0</v>
       </c>
       <c r="AW39" s="10" t="str">
-        <f>AC35:AC43&amp;","&amp;AD35:AD43&amp;","&amp;AE35:AE43&amp;","&amp;AF35:AF43&amp;","&amp;AG35:AG43&amp;","&amp;AH35:AH43&amp;","&amp;AI35:AI43&amp;","&amp;AJ35:AJ43&amp;","&amp;AK35:AK43&amp;","&amp;AL35:AL43</f>
+        <f>AC33:AC43&amp;","&amp;AD33:AD43&amp;","&amp;AE33:AE43&amp;","&amp;AF33:AF43&amp;","&amp;AG33:AG43&amp;","&amp;AH33:AH43&amp;","&amp;AI33:AI43&amp;","&amp;AJ33:AJ43&amp;","&amp;AK33:AK43&amp;","&amp;AL33:AL43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX39" s="10" t="str">
-        <f>AM35:AM43&amp;","&amp;AN35:AN43&amp;","&amp;AO35:AO43&amp;","&amp;AP35:AP43&amp;","&amp;AQ35:AQ43&amp;","&amp;AR35:AR43&amp;","&amp;AS35:AS43&amp;","&amp;AT35:AT43&amp;","&amp;AU35:AU43&amp;","&amp;AV35:AV43</f>
+        <f>AM33:AM43&amp;","&amp;AN33:AN43&amp;","&amp;AO33:AO43&amp;","&amp;AP33:AP43&amp;","&amp;AQ33:AQ43&amp;","&amp;AR33:AR43&amp;","&amp;AS33:AS43&amp;","&amp;AT33:AT43&amp;","&amp;AU33:AU43&amp;","&amp;AV33:AV43</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:50">
       <c r="C40" s="1">
-        <v>3011</v>
+        <v>3031</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E40" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -8280,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -8373,23 +8377,23 @@
         <v>0</v>
       </c>
       <c r="AW40" s="10" t="str">
-        <f>AC36:AC44&amp;","&amp;AD36:AD44&amp;","&amp;AE36:AE44&amp;","&amp;AF36:AF44&amp;","&amp;AG36:AG44&amp;","&amp;AH36:AH44&amp;","&amp;AI36:AI44&amp;","&amp;AJ36:AJ44&amp;","&amp;AK36:AK44&amp;","&amp;AL36:AL44</f>
+        <f>AC34:AC44&amp;","&amp;AD34:AD44&amp;","&amp;AE34:AE44&amp;","&amp;AF34:AF44&amp;","&amp;AG34:AG44&amp;","&amp;AH34:AH44&amp;","&amp;AI34:AI44&amp;","&amp;AJ34:AJ44&amp;","&amp;AK34:AK44&amp;","&amp;AL34:AL44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX40" s="10" t="str">
-        <f>AM36:AM44&amp;","&amp;AN36:AN44&amp;","&amp;AO36:AO44&amp;","&amp;AP36:AP44&amp;","&amp;AQ36:AQ44&amp;","&amp;AR36:AR44&amp;","&amp;AS36:AS44&amp;","&amp;AT36:AT44&amp;","&amp;AU36:AU44&amp;","&amp;AV36:AV44</f>
+        <f>AM34:AM44&amp;","&amp;AN34:AN44&amp;","&amp;AO34:AO44&amp;","&amp;AP34:AP44&amp;","&amp;AQ34:AQ44&amp;","&amp;AR34:AR44&amp;","&amp;AS34:AS44&amp;","&amp;AT34:AT44&amp;","&amp;AU34:AU44&amp;","&amp;AV34:AV44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:50">
       <c r="C41" s="1">
-        <v>3020</v>
+        <v>3032</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E41" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -8422,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
@@ -8521,23 +8525,23 @@
         <v>0</v>
       </c>
       <c r="AW41" s="10" t="str">
-        <f>AC37:AC45&amp;","&amp;AD37:AD45&amp;","&amp;AE37:AE45&amp;","&amp;AF37:AF45&amp;","&amp;AG37:AG45&amp;","&amp;AH37:AH45&amp;","&amp;AI37:AI45&amp;","&amp;AJ37:AJ45&amp;","&amp;AK37:AK45&amp;","&amp;AL37:AL45</f>
+        <f t="shared" ref="AW41:AW46" si="2">AC35:AC47&amp;","&amp;AD35:AD47&amp;","&amp;AE35:AE47&amp;","&amp;AF35:AF47&amp;","&amp;AG35:AG47&amp;","&amp;AH35:AH47&amp;","&amp;AI35:AI47&amp;","&amp;AJ35:AJ47&amp;","&amp;AK35:AK47&amp;","&amp;AL35:AL47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX41" s="10" t="str">
-        <f>AM37:AM45&amp;","&amp;AN37:AN45&amp;","&amp;AO37:AO45&amp;","&amp;AP37:AP45&amp;","&amp;AQ37:AQ45&amp;","&amp;AR37:AR45&amp;","&amp;AS37:AS45&amp;","&amp;AT37:AT45&amp;","&amp;AU37:AU45&amp;","&amp;AV37:AV45</f>
+        <f t="shared" ref="AX41:AX46" si="3">AM35:AM47&amp;","&amp;AN35:AN47&amp;","&amp;AO35:AO47&amp;","&amp;AP35:AP47&amp;","&amp;AQ35:AQ47&amp;","&amp;AR35:AR47&amp;","&amp;AS35:AS47&amp;","&amp;AT35:AT47&amp;","&amp;AU35:AU47&amp;","&amp;AV35:AV47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:50">
       <c r="C42" s="1">
-        <v>3021</v>
+        <v>3033</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -8570,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q42" s="1">
         <v>0</v>
@@ -8669,17 +8673,17 @@
         <v>0</v>
       </c>
       <c r="AW42" s="10" t="str">
-        <f>AC37:AC46&amp;","&amp;AD37:AD46&amp;","&amp;AE37:AE46&amp;","&amp;AF37:AF46&amp;","&amp;AG37:AG46&amp;","&amp;AH37:AH46&amp;","&amp;AI37:AI46&amp;","&amp;AJ37:AJ46&amp;","&amp;AK37:AK46&amp;","&amp;AL37:AL46</f>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX42" s="10" t="str">
-        <f>AM37:AM46&amp;","&amp;AN37:AN46&amp;","&amp;AO37:AO46&amp;","&amp;AP37:AP46&amp;","&amp;AQ37:AQ46&amp;","&amp;AR37:AR46&amp;","&amp;AS37:AS46&amp;","&amp;AT37:AT46&amp;","&amp;AU37:AU46&amp;","&amp;AV37:AV46</f>
+        <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:50">
       <c r="C43" s="1">
-        <v>3030</v>
+        <v>3034</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>149</v>
@@ -8709,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="12">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -8724,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -8817,17 +8821,17 @@
         <v>0</v>
       </c>
       <c r="AW43" s="10" t="str">
-        <f>AC37:AC47&amp;","&amp;AD37:AD47&amp;","&amp;AE37:AE47&amp;","&amp;AF37:AF47&amp;","&amp;AG37:AG47&amp;","&amp;AH37:AH47&amp;","&amp;AI37:AI47&amp;","&amp;AJ37:AJ47&amp;","&amp;AK37:AK47&amp;","&amp;AL37:AL47</f>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX43" s="10" t="str">
-        <f>AM37:AM47&amp;","&amp;AN37:AN47&amp;","&amp;AO37:AO47&amp;","&amp;AP37:AP47&amp;","&amp;AQ37:AQ47&amp;","&amp;AR37:AR47&amp;","&amp;AS37:AS47&amp;","&amp;AT37:AT47&amp;","&amp;AU37:AU47&amp;","&amp;AV37:AV47</f>
+        <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:50">
       <c r="C44" s="1">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>150</v>
@@ -8857,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="12">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -8872,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -8965,17 +8969,17 @@
         <v>0</v>
       </c>
       <c r="AW44" s="10" t="str">
-        <f>AC38:AC48&amp;","&amp;AD38:AD48&amp;","&amp;AE38:AE48&amp;","&amp;AF38:AF48&amp;","&amp;AG38:AG48&amp;","&amp;AH38:AH48&amp;","&amp;AI38:AI48&amp;","&amp;AJ38:AJ48&amp;","&amp;AK38:AK48&amp;","&amp;AL38:AL48</f>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX44" s="10" t="str">
-        <f>AM38:AM48&amp;","&amp;AN38:AN48&amp;","&amp;AO38:AO48&amp;","&amp;AP38:AP48&amp;","&amp;AQ38:AQ48&amp;","&amp;AR38:AR48&amp;","&amp;AS38:AS48&amp;","&amp;AT38:AT48&amp;","&amp;AU38:AU48&amp;","&amp;AV38:AV48</f>
+        <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:50">
       <c r="C45" s="1">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>151</v>
@@ -8996,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -9004,7 +9008,7 @@
       <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="1">
         <v>0</v>
       </c>
       <c r="N45" s="1">
@@ -9014,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="1">
         <v>0</v>
@@ -9113,17 +9117,17 @@
         <v>0</v>
       </c>
       <c r="AW45" s="10" t="str">
-        <f t="shared" ref="AW45:AW50" si="6">AC39:AC51&amp;","&amp;AD39:AD51&amp;","&amp;AE39:AE51&amp;","&amp;AF39:AF51&amp;","&amp;AG39:AG51&amp;","&amp;AH39:AH51&amp;","&amp;AI39:AI51&amp;","&amp;AJ39:AJ51&amp;","&amp;AK39:AK51&amp;","&amp;AL39:AL51</f>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX45" s="10" t="str">
-        <f t="shared" ref="AX45:AX50" si="7">AM39:AM51&amp;","&amp;AN39:AN51&amp;","&amp;AO39:AO51&amp;","&amp;AP39:AP51&amp;","&amp;AQ39:AQ51&amp;","&amp;AR39:AR51&amp;","&amp;AS39:AS51&amp;","&amp;AT39:AT51&amp;","&amp;AU39:AU51&amp;","&amp;AV39:AV51</f>
+        <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:50">
       <c r="C46" s="1">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>152</v>
@@ -9144,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -9152,7 +9156,7 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="1">
         <v>0</v>
       </c>
       <c r="N46" s="1">
@@ -9162,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="1">
         <v>0</v>
@@ -9261,17 +9265,17 @@
         <v>0</v>
       </c>
       <c r="AW46" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX46" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:50">
       <c r="C47" s="1">
-        <v>3034</v>
+        <v>3050</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>153</v>
@@ -9301,59 +9305,59 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
         <v>0.002</v>
       </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>0</v>
-      </c>
-      <c r="U47" s="1">
-        <v>0</v>
-      </c>
-      <c r="V47" s="1">
-        <v>0</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="1">
-        <v>0</v>
-      </c>
       <c r="AE47" s="1">
         <v>0</v>
       </c>
@@ -9409,17 +9413,17 @@
         <v>0</v>
       </c>
       <c r="AW47" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" ref="AW47:AW52" si="4">AC39:AC51&amp;","&amp;AD39:AD51&amp;","&amp;AE39:AE51&amp;","&amp;AF39:AF51&amp;","&amp;AG39:AG51&amp;","&amp;AH39:AH51&amp;","&amp;AI39:AI51&amp;","&amp;AJ39:AJ51&amp;","&amp;AK39:AK51&amp;","&amp;AL39:AL51</f>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX47" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AX47:AX52" si="5">AM39:AM51&amp;","&amp;AN39:AN51&amp;","&amp;AO39:AO51&amp;","&amp;AP39:AP51&amp;","&amp;AQ39:AQ51&amp;","&amp;AR39:AR51&amp;","&amp;AS39:AS51&amp;","&amp;AT39:AT51&amp;","&amp;AU39:AU51&amp;","&amp;AV39:AV51</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:50">
       <c r="C48" s="1">
-        <v>3035</v>
+        <v>3051</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>154</v>
@@ -9449,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="12">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -9503,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AF48" s="1">
         <v>0</v>
@@ -9557,17 +9561,17 @@
         <v>0</v>
       </c>
       <c r="AW48" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="4"/>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX48" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:50">
       <c r="C49" s="1">
-        <v>3036</v>
+        <v>3052</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>155</v>
@@ -9588,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -9596,7 +9600,7 @@
       <c r="L49" s="1">
         <v>0</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="12">
         <v>0</v>
       </c>
       <c r="N49" s="1">
@@ -9654,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG49" s="1">
         <v>0</v>
@@ -9705,17 +9709,17 @@
         <v>0</v>
       </c>
       <c r="AW49" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="4"/>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
       </c>
       <c r="AX49" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:50">
       <c r="C50" s="1">
-        <v>3037</v>
+        <v>3053</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>156</v>
@@ -9736,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -9744,7 +9748,7 @@
       <c r="L50" s="1">
         <v>0</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="12">
         <v>0</v>
       </c>
       <c r="N50" s="1">
@@ -9805,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AH50" s="1">
         <v>0</v>
@@ -9853,17 +9857,17 @@
         <v>0</v>
       </c>
       <c r="AW50" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
       <c r="AX50" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:50">
       <c r="C51" s="1">
-        <v>3050</v>
+        <v>3054</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>157</v>
@@ -9944,20 +9948,20 @@
         <v>0</v>
       </c>
       <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="1">
         <v>0.002</v>
       </c>
-      <c r="AE51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="1">
-        <v>0</v>
-      </c>
       <c r="AI51" s="1">
         <v>0</v>
       </c>
@@ -10001,17 +10005,17 @@
         <v>0</v>
       </c>
       <c r="AW51" s="10" t="str">
-        <f t="shared" ref="AW51:AW56" si="8">AC43:AC55&amp;","&amp;AD43:AD55&amp;","&amp;AE43:AE55&amp;","&amp;AF43:AF55&amp;","&amp;AG43:AG55&amp;","&amp;AH43:AH55&amp;","&amp;AI43:AI55&amp;","&amp;AJ43:AJ55&amp;","&amp;AK43:AK55&amp;","&amp;AL43:AL55</f>
-        <v>0,0.002,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
       <c r="AX51" s="10" t="str">
-        <f t="shared" ref="AX51:AX56" si="9">AM43:AM55&amp;","&amp;AN43:AN55&amp;","&amp;AO43:AO55&amp;","&amp;AP43:AP55&amp;","&amp;AQ43:AQ55&amp;","&amp;AR43:AR55&amp;","&amp;AS43:AS55&amp;","&amp;AT43:AT55&amp;","&amp;AU43:AU55&amp;","&amp;AV43:AV55</f>
+        <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:50">
       <c r="C52" s="1">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>158</v>
@@ -10095,20 +10099,20 @@
         <v>0</v>
       </c>
       <c r="AE52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="1">
         <v>0.002</v>
       </c>
-      <c r="AF52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ52" s="1">
         <v>0</v>
       </c>
@@ -10149,17 +10153,17 @@
         <v>0</v>
       </c>
       <c r="AW52" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>0,0,0.002,0,0,0,0,0,0,0</v>
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
       <c r="AX52" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:50">
       <c r="C53" s="1">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>159</v>
@@ -10246,20 +10250,20 @@
         <v>0</v>
       </c>
       <c r="AF53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="1">
         <v>0.002</v>
       </c>
-      <c r="AG53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="1">
-        <v>0</v>
-      </c>
       <c r="AK53" s="1">
         <v>0</v>
       </c>
@@ -10297,17 +10301,17 @@
         <v>0</v>
       </c>
       <c r="AW53" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>0,0,0,0.002,0,0,0,0,0,0</v>
+        <f t="shared" ref="AW48:AW82" si="6">AC47:AC57&amp;","&amp;AD47:AD57&amp;","&amp;AE47:AE57&amp;","&amp;AF47:AF57&amp;","&amp;AG47:AG57&amp;","&amp;AH47:AH57&amp;","&amp;AI47:AI57&amp;","&amp;AJ47:AJ57&amp;","&amp;AK47:AK57&amp;","&amp;AL47:AL57</f>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
       <c r="AX53" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AX48:AX82" si="7">AM47:AM57&amp;","&amp;AN47:AN57&amp;","&amp;AO47:AO57&amp;","&amp;AP47:AP57&amp;","&amp;AQ47:AQ57&amp;","&amp;AR47:AR57&amp;","&amp;AS47:AS57&amp;","&amp;AT47:AT57&amp;","&amp;AU47:AU57&amp;","&amp;AV47:AV57</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:50">
       <c r="C54" s="1">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>160</v>
@@ -10397,20 +10401,20 @@
         <v>0</v>
       </c>
       <c r="AG54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="1">
         <v>0.002</v>
       </c>
-      <c r="AH54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="1">
-        <v>0</v>
-      </c>
       <c r="AL54" s="1">
         <v>0</v>
       </c>
@@ -10445,17 +10449,17 @@
         <v>0</v>
       </c>
       <c r="AW54" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>0,0,0,0,0.002,0,0,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
       <c r="AX54" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:50">
       <c r="C55" s="1">
-        <v>3054</v>
+        <v>3058</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>161</v>
@@ -10548,20 +10552,20 @@
         <v>0</v>
       </c>
       <c r="AH55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="1">
         <v>0.002</v>
       </c>
-      <c r="AI55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL55" s="1">
-        <v>0</v>
-      </c>
       <c r="AM55" s="1">
         <v>0</v>
       </c>
@@ -10593,17 +10597,17 @@
         <v>0</v>
       </c>
       <c r="AW55" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>0,0,0,0,0,0.002,0,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0.002</v>
       </c>
       <c r="AX55" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:50">
       <c r="C56" s="1">
-        <v>3055</v>
+        <v>3059</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>162</v>
@@ -10684,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AE56" s="1">
         <v>0</v>
@@ -10699,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="1">
         <v>0</v>
@@ -10741,17 +10745,17 @@
         <v>0</v>
       </c>
       <c r="AW56" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>0,0,0,0,0,0,0.002,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX56" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:50">
       <c r="C57" s="1">
-        <v>3056</v>
+        <v>3060</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>163</v>
@@ -10835,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AF57" s="1">
         <v>0</v>
@@ -10850,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="1">
         <v>0</v>
@@ -10889,17 +10893,17 @@
         <v>0</v>
       </c>
       <c r="AW57" s="10" t="str">
-        <f t="shared" ref="AW52:AW86" si="10">AC51:AC61&amp;","&amp;AD51:AD61&amp;","&amp;AE51:AE61&amp;","&amp;AF51:AF61&amp;","&amp;AG51:AG61&amp;","&amp;AH51:AH61&amp;","&amp;AI51:AI61&amp;","&amp;AJ51:AJ61&amp;","&amp;AK51:AK61&amp;","&amp;AL51:AL61</f>
-        <v>0,0,0,0,0,0,0,0.002,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX57" s="10" t="str">
-        <f t="shared" ref="AX52:AX86" si="11">AM51:AM61&amp;","&amp;AN51:AN61&amp;","&amp;AO51:AO61&amp;","&amp;AP51:AP61&amp;","&amp;AQ51:AQ61&amp;","&amp;AR51:AR61&amp;","&amp;AS51:AS61&amp;","&amp;AT51:AT61&amp;","&amp;AU51:AU61&amp;","&amp;AV51:AV61</f>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:50">
       <c r="C58" s="1">
-        <v>3057</v>
+        <v>3061</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>164</v>
@@ -10986,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AG58" s="1">
         <v>0</v>
@@ -11001,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AL58" s="1">
         <v>0</v>
@@ -11037,17 +11041,17 @@
         <v>0</v>
       </c>
       <c r="AW58" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,0.002,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
       <c r="AX58" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:50">
       <c r="C59" s="1">
-        <v>3058</v>
+        <v>3062</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>165</v>
@@ -11137,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AH59" s="1">
         <v>0</v>
@@ -11152,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="AL59" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="1">
         <v>0</v>
@@ -11185,17 +11189,17 @@
         <v>0</v>
       </c>
       <c r="AW59" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,0,0.002</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
       <c r="AX59" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:50">
       <c r="C60" s="1">
-        <v>3059</v>
+        <v>3063</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>166</v>
@@ -11276,20 +11280,20 @@
         <v>0</v>
       </c>
       <c r="AD60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="1">
         <v>0.005</v>
       </c>
-      <c r="AE60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>0</v>
-      </c>
       <c r="AI60" s="1">
         <v>0</v>
       </c>
@@ -11333,17 +11337,17 @@
         <v>0</v>
       </c>
       <c r="AW60" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0.005,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
       <c r="AX60" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:50">
       <c r="C61" s="1">
-        <v>3060</v>
+        <v>3064</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>167</v>
@@ -11427,20 +11431,20 @@
         <v>0</v>
       </c>
       <c r="AE61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="1">
         <v>0.005</v>
       </c>
-      <c r="AF61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>0</v>
-      </c>
       <c r="AJ61" s="1">
         <v>0</v>
       </c>
@@ -11481,17 +11485,17 @@
         <v>0</v>
       </c>
       <c r="AW61" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0.005,0,0,0,0,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
       <c r="AX61" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:50">
       <c r="C62" s="1">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>168</v>
@@ -11578,20 +11582,20 @@
         <v>0</v>
       </c>
       <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="1">
         <v>0.005</v>
       </c>
-      <c r="AG62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="1">
-        <v>0</v>
-      </c>
       <c r="AK62" s="1">
         <v>0</v>
       </c>
@@ -11629,17 +11633,17 @@
         <v>0</v>
       </c>
       <c r="AW62" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0.005,0,0,0,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
       <c r="AX62" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:50">
       <c r="C63" s="1">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>169</v>
@@ -11729,20 +11733,20 @@
         <v>0</v>
       </c>
       <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="1">
         <v>0.005</v>
       </c>
-      <c r="AH63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK63" s="1">
-        <v>0</v>
-      </c>
       <c r="AL63" s="1">
         <v>0</v>
       </c>
@@ -11777,17 +11781,17 @@
         <v>0</v>
       </c>
       <c r="AW63" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0.005,0,0,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
       </c>
       <c r="AX63" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:50">
       <c r="C64" s="1">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>170</v>
@@ -11880,20 +11884,20 @@
         <v>0</v>
       </c>
       <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
         <v>0.005</v>
       </c>
-      <c r="AI64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="1">
-        <v>0</v>
-      </c>
       <c r="AM64" s="1">
         <v>0</v>
       </c>
@@ -11925,609 +11929,609 @@
         <v>0</v>
       </c>
       <c r="AW64" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0.005,0,0,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0.005</v>
       </c>
       <c r="AX64" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="3:50">
-      <c r="C65" s="1">
-        <v>3064</v>
-      </c>
-      <c r="D65" s="1" t="s">
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:50">
+      <c r="C65" s="2">
+        <v>3068</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12">
-        <v>0</v>
-      </c>
-      <c r="N65" s="1">
-        <v>0</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>0</v>
-      </c>
-      <c r="R65" s="1">
-        <v>0</v>
-      </c>
-      <c r="S65" s="1">
-        <v>0</v>
-      </c>
-      <c r="T65" s="1">
-        <v>0</v>
-      </c>
-      <c r="U65" s="1">
-        <v>0</v>
-      </c>
-      <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="1">
-        <v>0</v>
-      </c>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="1">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="19">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
         <v>0</v>
       </c>
       <c r="AB65" s="1">
         <v>0</v>
       </c>
-      <c r="AC65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AJ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM65" s="1">
+      <c r="AC65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="2">
         <v>0</v>
       </c>
       <c r="AN65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW65" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0.005,0,0,0</v>
-      </c>
-      <c r="AX65" s="10" t="str">
-        <f t="shared" si="11"/>
+        <v>0.002</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="20" t="str">
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
+      <c r="AX65" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="66" customHeight="1" spans="3:50">
-      <c r="C66" s="1">
-        <v>3065</v>
-      </c>
-      <c r="D66" s="1" t="s">
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:50">
+      <c r="C66" s="2">
+        <v>3069</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1">
-        <v>0</v>
-      </c>
-      <c r="L66" s="1">
-        <v>0</v>
-      </c>
-      <c r="M66" s="12">
-        <v>0</v>
-      </c>
-      <c r="N66" s="1">
-        <v>0</v>
-      </c>
-      <c r="O66" s="1">
-        <v>0</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1">
-        <v>0</v>
-      </c>
-      <c r="S66" s="1">
-        <v>0</v>
-      </c>
-      <c r="T66" s="1">
-        <v>0</v>
-      </c>
-      <c r="U66" s="1">
-        <v>0</v>
-      </c>
-      <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="1">
-        <v>0</v>
-      </c>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="1">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="19">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2">
         <v>0</v>
       </c>
       <c r="AB66" s="1">
         <v>0</v>
       </c>
-      <c r="AC66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AK66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="1">
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="2">
         <v>0</v>
       </c>
       <c r="AO66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW66" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0.005,0,0</v>
-      </c>
-      <c r="AX66" s="10" t="str">
-        <f t="shared" si="11"/>
+        <v>0.002</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="20" t="str">
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
+      <c r="AX66" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="67" customHeight="1" spans="3:50">
-      <c r="C67" s="1">
-        <v>3066</v>
-      </c>
-      <c r="D67" s="1" t="s">
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:50">
+      <c r="C67" s="2">
+        <v>3070</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>0</v>
-      </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
-      <c r="M67" s="12">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1">
-        <v>0</v>
-      </c>
-      <c r="O67" s="1">
-        <v>0</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
-        <v>0</v>
-      </c>
-      <c r="S67" s="1">
-        <v>0</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="1">
-        <v>0</v>
-      </c>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="1">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="19">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
         <v>0</v>
       </c>
       <c r="AB67" s="1">
         <v>0</v>
       </c>
-      <c r="AC67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AL67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO67" s="1">
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="2">
         <v>0</v>
       </c>
       <c r="AP67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW67" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,0.005,0</v>
-      </c>
-      <c r="AX67" s="10" t="str">
-        <f t="shared" si="11"/>
+        <v>0.002</v>
+      </c>
+      <c r="AQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="20" t="str">
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
+      <c r="AX67" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
+      </c>
     </row>
-    <row r="68" customHeight="1" spans="3:50">
-      <c r="C68" s="1">
-        <v>3067</v>
-      </c>
-      <c r="D68" s="1" t="s">
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="3:50">
+      <c r="C68" s="2">
+        <v>3071</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0</v>
-      </c>
-      <c r="M68" s="12">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1">
-        <v>0</v>
-      </c>
-      <c r="O68" s="1">
-        <v>0</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>0</v>
-      </c>
-      <c r="R68" s="1">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0</v>
-      </c>
-      <c r="U68" s="1">
-        <v>0</v>
-      </c>
-      <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="1">
-        <v>0</v>
-      </c>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="1">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="19">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
         <v>0</v>
       </c>
       <c r="AB68" s="1">
         <v>0</v>
       </c>
-      <c r="AC68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL68" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AM68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP68" s="1">
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="2">
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW68" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>0,0,0,0,0,0,0,0,0,0.005</v>
-      </c>
-      <c r="AX68" s="10" t="str">
-        <f t="shared" si="11"/>
+        <v>0.002</v>
+      </c>
+      <c r="AR68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="20" t="str">
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AX68" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C69" s="2">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>175</v>
@@ -12637,21 +12641,21 @@
       <c r="AM69" s="2">
         <v>0</v>
       </c>
-      <c r="AN69" s="1">
+      <c r="AN69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="1">
         <v>0.002</v>
       </c>
-      <c r="AO69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR69" s="2">
-        <v>0</v>
-      </c>
       <c r="AS69" s="2">
         <v>0</v>
       </c>
@@ -12665,17 +12669,17 @@
         <v>0</v>
       </c>
       <c r="AW69" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX69" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0.002,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C70" s="2">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>176</v>
@@ -12788,21 +12792,21 @@
       <c r="AN70" s="2">
         <v>0</v>
       </c>
-      <c r="AO70" s="1">
+      <c r="AO70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="1">
         <v>0.002</v>
       </c>
-      <c r="AP70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="2">
-        <v>0</v>
-      </c>
       <c r="AT70" s="2">
         <v>0</v>
       </c>
@@ -12813,17 +12817,17 @@
         <v>0</v>
       </c>
       <c r="AW70" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX70" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0.002,0,0,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C71" s="2">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>177</v>
@@ -12939,21 +12943,21 @@
       <c r="AO71" s="2">
         <v>0</v>
       </c>
-      <c r="AP71" s="1">
+      <c r="AP71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="1">
         <v>0.002</v>
       </c>
-      <c r="AQ71" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR71" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS71" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT71" s="2">
-        <v>0</v>
-      </c>
       <c r="AU71" s="2">
         <v>0</v>
       </c>
@@ -12961,17 +12965,17 @@
         <v>0</v>
       </c>
       <c r="AW71" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX71" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0.002,0,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C72" s="2">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>178</v>
@@ -13090,36 +13094,36 @@
       <c r="AP72" s="2">
         <v>0</v>
       </c>
-      <c r="AQ72" s="1">
+      <c r="AQ72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="1">
         <v>0.002</v>
       </c>
-      <c r="AR72" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT72" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU72" s="2">
-        <v>0</v>
-      </c>
       <c r="AV72" s="2">
         <v>0</v>
       </c>
       <c r="AW72" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX72" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0.002,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C73" s="2">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>179</v>
@@ -13241,8 +13245,8 @@
       <c r="AQ73" s="2">
         <v>0</v>
       </c>
-      <c r="AR73" s="1">
-        <v>0.002</v>
+      <c r="AR73" s="2">
+        <v>0</v>
       </c>
       <c r="AS73" s="2">
         <v>0</v>
@@ -13254,20 +13258,20 @@
         <v>0</v>
       </c>
       <c r="AV73" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW73" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX73" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0.002,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,20</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C74" s="2">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>180</v>
@@ -13296,7 +13300,7 @@
       <c r="L74" s="2">
         <v>0</v>
       </c>
-      <c r="M74" s="19">
+      <c r="M74" s="12">
         <v>0</v>
       </c>
       <c r="N74" s="2">
@@ -13377,8 +13381,8 @@
       <c r="AM74" s="2">
         <v>0</v>
       </c>
-      <c r="AN74" s="2">
-        <v>0</v>
+      <c r="AN74" s="1">
+        <v>0.005</v>
       </c>
       <c r="AO74" s="2">
         <v>0</v>
@@ -13392,8 +13396,8 @@
       <c r="AR74" s="2">
         <v>0</v>
       </c>
-      <c r="AS74" s="1">
-        <v>0.002</v>
+      <c r="AS74" s="2">
+        <v>0</v>
       </c>
       <c r="AT74" s="2">
         <v>0</v>
@@ -13405,17 +13409,17 @@
         <v>0</v>
       </c>
       <c r="AW74" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX74" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0.002,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C75" s="2">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>181</v>
@@ -13444,7 +13448,7 @@
       <c r="L75" s="2">
         <v>0</v>
       </c>
-      <c r="M75" s="19">
+      <c r="M75" s="12">
         <v>0</v>
       </c>
       <c r="N75" s="2">
@@ -13528,8 +13532,8 @@
       <c r="AN75" s="2">
         <v>0</v>
       </c>
-      <c r="AO75" s="2">
-        <v>0</v>
+      <c r="AO75" s="1">
+        <v>0.005</v>
       </c>
       <c r="AP75" s="2">
         <v>0</v>
@@ -13543,8 +13547,8 @@
       <c r="AS75" s="2">
         <v>0</v>
       </c>
-      <c r="AT75" s="1">
-        <v>0.002</v>
+      <c r="AT75" s="2">
+        <v>0</v>
       </c>
       <c r="AU75" s="2">
         <v>0</v>
@@ -13553,17 +13557,17 @@
         <v>0</v>
       </c>
       <c r="AW75" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX75" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0.002,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C76" s="2">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>182</v>
@@ -13592,7 +13596,7 @@
       <c r="L76" s="2">
         <v>0</v>
       </c>
-      <c r="M76" s="19">
+      <c r="M76" s="12">
         <v>0</v>
       </c>
       <c r="N76" s="2">
@@ -13679,8 +13683,8 @@
       <c r="AO76" s="2">
         <v>0</v>
       </c>
-      <c r="AP76" s="2">
-        <v>0</v>
+      <c r="AP76" s="1">
+        <v>0.005</v>
       </c>
       <c r="AQ76" s="2">
         <v>0</v>
@@ -13694,24 +13698,24 @@
       <c r="AT76" s="2">
         <v>0</v>
       </c>
-      <c r="AU76" s="1">
-        <v>0.002</v>
+      <c r="AU76" s="2">
+        <v>0</v>
       </c>
       <c r="AV76" s="2">
         <v>0</v>
       </c>
       <c r="AW76" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX76" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0,0.002,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C77" s="2">
-        <v>3076</v>
+        <v>3080</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>183</v>
@@ -13740,7 +13744,7 @@
       <c r="L77" s="2">
         <v>0</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M77" s="12">
         <v>0</v>
       </c>
       <c r="N77" s="2">
@@ -13830,8 +13834,8 @@
       <c r="AP77" s="2">
         <v>0</v>
       </c>
-      <c r="AQ77" s="2">
-        <v>0</v>
+      <c r="AQ77" s="1">
+        <v>0.005</v>
       </c>
       <c r="AR77" s="2">
         <v>0</v>
@@ -13846,20 +13850,20 @@
         <v>0</v>
       </c>
       <c r="AV77" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW77" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX77" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0,0,20</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C78" s="2">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>184</v>
@@ -13969,21 +13973,21 @@
       <c r="AM78" s="2">
         <v>0</v>
       </c>
-      <c r="AN78" s="1">
+      <c r="AN78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="1">
         <v>0.005</v>
       </c>
-      <c r="AO78" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP78" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ78" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR78" s="2">
-        <v>0</v>
-      </c>
       <c r="AS78" s="2">
         <v>0</v>
       </c>
@@ -13997,17 +14001,17 @@
         <v>0</v>
       </c>
       <c r="AW78" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX78" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0.005,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C79" s="2">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>185</v>
@@ -14120,21 +14124,21 @@
       <c r="AN79" s="2">
         <v>0</v>
       </c>
-      <c r="AO79" s="1">
+      <c r="AO79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="1">
         <v>0.005</v>
       </c>
-      <c r="AP79" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ79" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR79" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS79" s="2">
-        <v>0</v>
-      </c>
       <c r="AT79" s="2">
         <v>0</v>
       </c>
@@ -14145,17 +14149,17 @@
         <v>0</v>
       </c>
       <c r="AW79" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX79" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0.005,0,0,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C80" s="2">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>186</v>
@@ -14271,21 +14275,21 @@
       <c r="AO80" s="2">
         <v>0</v>
       </c>
-      <c r="AP80" s="1">
+      <c r="AP80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT80" s="1">
         <v>0.005</v>
       </c>
-      <c r="AQ80" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR80" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS80" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT80" s="2">
-        <v>0</v>
-      </c>
       <c r="AU80" s="2">
         <v>0</v>
       </c>
@@ -14293,17 +14297,17 @@
         <v>0</v>
       </c>
       <c r="AW80" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX80" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0.005,0,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C81" s="2">
-        <v>3080</v>
+        <v>3084</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>187</v>
@@ -14422,36 +14426,36 @@
       <c r="AP81" s="2">
         <v>0</v>
       </c>
-      <c r="AQ81" s="1">
+      <c r="AQ81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU81" s="1">
         <v>0.005</v>
       </c>
-      <c r="AR81" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS81" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT81" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU81" s="2">
-        <v>0</v>
-      </c>
       <c r="AV81" s="2">
         <v>0</v>
       </c>
       <c r="AW81" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX81" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0.005,0,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C82" s="2">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>188</v>
@@ -14573,8 +14577,8 @@
       <c r="AQ82" s="2">
         <v>0</v>
       </c>
-      <c r="AR82" s="1">
-        <v>0.005</v>
+      <c r="AR82" s="2">
+        <v>0</v>
       </c>
       <c r="AS82" s="2">
         <v>0</v>
@@ -14586,618 +14590,618 @@
         <v>0</v>
       </c>
       <c r="AV82" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW82" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX82" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0.005,0,0,0,0</v>
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,50</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" customHeight="1" spans="3:50">
-      <c r="C83" s="2">
-        <v>3082</v>
-      </c>
-      <c r="D83" s="2" t="s">
+    <row r="83" customHeight="1" spans="3:50">
+      <c r="C83" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="E83" s="2">
-        <v>0</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0</v>
-      </c>
-      <c r="G83" s="2">
-        <v>0</v>
-      </c>
-      <c r="H83" s="2">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2">
+      <c r="E83" s="1">
+        <v>180</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
         <v>0</v>
       </c>
       <c r="M83" s="12">
         <v>0</v>
       </c>
-      <c r="N83" s="2">
-        <v>0</v>
-      </c>
-      <c r="O83" s="2">
-        <v>0</v>
-      </c>
-      <c r="P83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>0</v>
-      </c>
-      <c r="R83" s="2">
-        <v>0</v>
-      </c>
-      <c r="S83" s="2">
-        <v>0</v>
-      </c>
-      <c r="T83" s="2">
-        <v>0</v>
-      </c>
-      <c r="U83" s="2">
-        <v>0</v>
-      </c>
-      <c r="V83" s="2">
-        <v>0</v>
-      </c>
-      <c r="W83" s="2">
-        <v>0</v>
-      </c>
-      <c r="X83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="2">
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1">
+        <v>0</v>
+      </c>
+      <c r="U83" s="1">
+        <v>0</v>
+      </c>
+      <c r="V83" s="1">
+        <v>0</v>
+      </c>
+      <c r="W83" s="1">
+        <v>0</v>
+      </c>
+      <c r="X83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="1">
         <v>0</v>
       </c>
       <c r="AB83" s="1">
         <v>0</v>
       </c>
-      <c r="AC83" s="2">
+      <c r="AC83" s="1">
         <v>0</v>
       </c>
       <c r="AD83" s="2">
         <v>0</v>
       </c>
-      <c r="AE83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR83" s="2">
+      <c r="AE83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="1">
         <v>0</v>
       </c>
       <c r="AS83" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AT83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW83" s="20" t="str">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW83" s="10" t="str">
+        <f t="shared" ref="AW83:AW96" si="8">AC77:AC87&amp;","&amp;AD77:AD87&amp;","&amp;AE77:AE87&amp;","&amp;AF77:AF87&amp;","&amp;AG77:AG87&amp;","&amp;AH77:AH87&amp;","&amp;AI77:AI87&amp;","&amp;AJ77:AJ87&amp;","&amp;AK77:AK87&amp;","&amp;AL77:AL87</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX83" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0.005,0,0,0</v>
+      <c r="AX83" s="10" t="str">
+        <f t="shared" ref="AX83:AX96" si="9">AM77:AM87&amp;","&amp;AN77:AN87&amp;","&amp;AO77:AO87&amp;","&amp;AP77:AP87&amp;","&amp;AQ77:AQ87&amp;","&amp;AR77:AR87&amp;","&amp;AS77:AS87&amp;","&amp;AT77:AT87&amp;","&amp;AU77:AU87&amp;","&amp;AV77:AV87</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" customHeight="1" spans="3:50">
-      <c r="C84" s="2">
-        <v>3083</v>
-      </c>
-      <c r="D84" s="2" t="s">
+    <row r="84" customHeight="1" spans="3:50">
+      <c r="C84" s="1">
+        <v>3201</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E84" s="2">
-        <v>0</v>
-      </c>
-      <c r="F84" s="2">
-        <v>0</v>
-      </c>
-      <c r="G84" s="2">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2">
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>180</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
         <v>0</v>
       </c>
       <c r="M84" s="12">
         <v>0</v>
       </c>
-      <c r="N84" s="2">
-        <v>0</v>
-      </c>
-      <c r="O84" s="2">
-        <v>0</v>
-      </c>
-      <c r="P84" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>0</v>
-      </c>
-      <c r="R84" s="2">
-        <v>0</v>
-      </c>
-      <c r="S84" s="2">
-        <v>0</v>
-      </c>
-      <c r="T84" s="2">
-        <v>0</v>
-      </c>
-      <c r="U84" s="2">
-        <v>0</v>
-      </c>
-      <c r="V84" s="2">
-        <v>0</v>
-      </c>
-      <c r="W84" s="2">
-        <v>0</v>
-      </c>
-      <c r="X84" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="2">
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+      <c r="U84" s="1">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0</v>
+      </c>
+      <c r="W84" s="1">
+        <v>0</v>
+      </c>
+      <c r="X84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="1">
         <v>0</v>
       </c>
       <c r="AB84" s="1">
         <v>0</v>
       </c>
-      <c r="AC84" s="2">
+      <c r="AC84" s="1">
         <v>0</v>
       </c>
       <c r="AD84" s="2">
         <v>0</v>
       </c>
-      <c r="AE84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="2">
+      <c r="AE84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="1">
         <v>0</v>
       </c>
       <c r="AT84" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AU84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV84" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW84" s="20" t="str">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW84" s="10" t="str">
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX84" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0.005,0,0</v>
+      <c r="AX84" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" customHeight="1" spans="3:50">
-      <c r="C85" s="2">
-        <v>3084</v>
-      </c>
-      <c r="D85" s="2" t="s">
+    <row r="85" customHeight="1" spans="3:50">
+      <c r="C85" s="1">
+        <v>3202</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="2">
-        <v>0</v>
-      </c>
-      <c r="F85" s="2">
-        <v>0</v>
-      </c>
-      <c r="G85" s="2">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2">
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
         <v>0</v>
       </c>
       <c r="M85" s="12">
         <v>0</v>
       </c>
-      <c r="N85" s="2">
-        <v>0</v>
-      </c>
-      <c r="O85" s="2">
-        <v>0</v>
-      </c>
-      <c r="P85" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>0</v>
-      </c>
-      <c r="R85" s="2">
-        <v>0</v>
-      </c>
-      <c r="S85" s="2">
-        <v>0</v>
-      </c>
-      <c r="T85" s="2">
-        <v>0</v>
-      </c>
-      <c r="U85" s="2">
-        <v>0</v>
-      </c>
-      <c r="V85" s="2">
-        <v>0</v>
-      </c>
-      <c r="W85" s="2">
-        <v>0</v>
-      </c>
-      <c r="X85" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="2">
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1">
+        <v>1800</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
+        <v>0</v>
+      </c>
+      <c r="X85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="1">
         <v>0</v>
       </c>
       <c r="AB85" s="1">
         <v>0</v>
       </c>
-      <c r="AC85" s="2">
+      <c r="AC85" s="1">
         <v>0</v>
       </c>
       <c r="AD85" s="2">
         <v>0</v>
       </c>
-      <c r="AE85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT85" s="2">
+      <c r="AE85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="1">
         <v>0</v>
       </c>
       <c r="AU85" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AV85" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW85" s="20" t="str">
-        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="10" t="str">
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX85" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0,0.005,0</v>
+      <c r="AX85" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" customHeight="1" spans="3:50">
-      <c r="C86" s="2">
-        <v>3085</v>
-      </c>
-      <c r="D86" s="2" t="s">
+    <row r="86" customHeight="1" spans="3:50">
+      <c r="C86" s="1">
+        <v>3203</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="2">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2">
-        <v>0</v>
-      </c>
-      <c r="G86" s="2">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2">
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.045</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
         <v>0</v>
       </c>
       <c r="M86" s="12">
         <v>0</v>
       </c>
-      <c r="N86" s="2">
-        <v>0</v>
-      </c>
-      <c r="O86" s="2">
-        <v>0</v>
-      </c>
-      <c r="P86" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>0</v>
-      </c>
-      <c r="R86" s="2">
-        <v>0</v>
-      </c>
-      <c r="S86" s="2">
-        <v>0</v>
-      </c>
-      <c r="T86" s="2">
-        <v>0</v>
-      </c>
-      <c r="U86" s="2">
-        <v>0</v>
-      </c>
-      <c r="V86" s="2">
-        <v>0</v>
-      </c>
-      <c r="W86" s="2">
-        <v>0</v>
-      </c>
-      <c r="X86" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="2">
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
+        <v>0</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
         <v>0</v>
       </c>
       <c r="AB86" s="1">
         <v>0</v>
       </c>
-      <c r="AC86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU86" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV86" s="2">
-        <v>50</v>
-      </c>
-      <c r="AW86" s="20" t="str">
-        <f t="shared" si="10"/>
+      <c r="AC86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW86" s="10" t="str">
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX86" s="20" t="str">
-        <f t="shared" si="11"/>
-        <v>0,0,0,0,0,0,0,0,0,50</v>
+      <c r="AX86" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:50">
       <c r="C87" s="1">
-        <v>3200</v>
-      </c>
-      <c r="D87" s="18" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E87" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -15206,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -15271,7 +15275,7 @@
       <c r="AC87" s="1">
         <v>0</v>
       </c>
-      <c r="AD87" s="2">
+      <c r="AD87" s="1">
         <v>0</v>
       </c>
       <c r="AE87" s="1">
@@ -15329,17 +15333,17 @@
         <v>0</v>
       </c>
       <c r="AW87" s="10" t="str">
-        <f t="shared" ref="AW87:AW100" si="12">AC81:AC91&amp;","&amp;AD81:AD91&amp;","&amp;AE81:AE91&amp;","&amp;AF81:AF91&amp;","&amp;AG81:AG91&amp;","&amp;AH81:AH91&amp;","&amp;AI81:AI91&amp;","&amp;AJ81:AJ91&amp;","&amp;AK81:AK91&amp;","&amp;AL81:AL91</f>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX87" s="10" t="str">
-        <f t="shared" ref="AX87:AX100" si="13">AM81:AM91&amp;","&amp;AN81:AN91&amp;","&amp;AO81:AO91&amp;","&amp;AP81:AP91&amp;","&amp;AQ81:AQ91&amp;","&amp;AR81:AR91&amp;","&amp;AS81:AS91&amp;","&amp;AT81:AT91&amp;","&amp;AU81:AU91&amp;","&amp;AV81:AV91</f>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:50">
       <c r="C88" s="1">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>194</v>
@@ -15351,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -15396,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="W88" s="1">
         <v>0</v>
@@ -15419,7 +15423,7 @@
       <c r="AC88" s="1">
         <v>0</v>
       </c>
-      <c r="AD88" s="2">
+      <c r="AD88" s="1">
         <v>0</v>
       </c>
       <c r="AE88" s="1">
@@ -15477,17 +15481,17 @@
         <v>0</v>
       </c>
       <c r="AW88" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX88" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:50">
       <c r="C89" s="1">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>195</v>
@@ -15535,13 +15539,13 @@
         <v>0</v>
       </c>
       <c r="S89" s="1">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T89" s="1">
         <v>0</v>
       </c>
       <c r="U89" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="V89" s="1">
         <v>0</v>
@@ -15567,7 +15571,7 @@
       <c r="AC89" s="1">
         <v>0</v>
       </c>
-      <c r="AD89" s="2">
+      <c r="AD89" s="1">
         <v>0</v>
       </c>
       <c r="AE89" s="1">
@@ -15625,17 +15629,17 @@
         <v>0</v>
       </c>
       <c r="AW89" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX89" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:50">
       <c r="C90" s="1">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>196</v>
@@ -15644,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
@@ -15686,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="T90" s="1">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -15773,17 +15777,17 @@
         <v>0</v>
       </c>
       <c r="AW90" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX90" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:50">
       <c r="C91" s="1">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>197</v>
@@ -15798,10 +15802,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
@@ -15921,17 +15925,17 @@
         <v>0</v>
       </c>
       <c r="AW91" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX91" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:50">
       <c r="C92" s="1">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>198</v>
@@ -15952,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
@@ -15988,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="V92" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="W92" s="1">
         <v>0</v>
@@ -16069,17 +16073,17 @@
         <v>0</v>
       </c>
       <c r="AW92" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX92" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:50">
       <c r="C93" s="1">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>199</v>
@@ -16100,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="K93" s="1">
         <v>0</v>
@@ -16127,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="S93" s="1">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="T93" s="1">
         <v>0</v>
@@ -16217,17 +16221,17 @@
         <v>0</v>
       </c>
       <c r="AW93" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX93" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:50">
       <c r="C94" s="1">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>200</v>
@@ -16272,13 +16276,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="S94" s="1">
         <v>0</v>
       </c>
       <c r="T94" s="1">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="U94" s="1">
         <v>0</v>
@@ -16365,17 +16369,17 @@
         <v>0</v>
       </c>
       <c r="AW94" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX94" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="3:50">
       <c r="C95" s="1">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>201</v>
@@ -16393,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
@@ -16414,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="Q95" s="1">
         <v>0</v>
@@ -16513,17 +16517,17 @@
         <v>0</v>
       </c>
       <c r="AW95" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX95" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:50">
       <c r="C96" s="1">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>202</v>
@@ -16544,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="1">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="K96" s="1">
         <v>0</v>
@@ -16553,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="12">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="N96" s="1">
         <v>0</v>
@@ -16661,603 +16665,11 @@
         <v>0</v>
       </c>
       <c r="AW96" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX96" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:50">
-      <c r="C97" s="1">
-        <v>3210</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>1025</v>
-      </c>
-      <c r="K97" s="1">
-        <v>0</v>
-      </c>
-      <c r="L97" s="1">
-        <v>0</v>
-      </c>
-      <c r="M97" s="12">
-        <v>0</v>
-      </c>
-      <c r="N97" s="1">
-        <v>0</v>
-      </c>
-      <c r="O97" s="1">
-        <v>0</v>
-      </c>
-      <c r="P97" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
-      <c r="R97" s="1">
-        <v>0</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1">
-        <v>0</v>
-      </c>
-      <c r="U97" s="1">
-        <v>0</v>
-      </c>
-      <c r="V97" s="1">
-        <v>0</v>
-      </c>
-      <c r="W97" s="1">
-        <v>0</v>
-      </c>
-      <c r="X97" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW97" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX97" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:50">
-      <c r="C98" s="1">
-        <v>3211</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
-      <c r="J98" s="1">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1">
-        <v>0</v>
-      </c>
-      <c r="L98" s="1">
-        <v>0</v>
-      </c>
-      <c r="M98" s="12">
-        <v>0</v>
-      </c>
-      <c r="N98" s="1">
-        <v>0</v>
-      </c>
-      <c r="O98" s="1">
-        <v>0</v>
-      </c>
-      <c r="P98" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="1">
-        <v>0</v>
-      </c>
-      <c r="R98" s="1">
-        <v>0.045</v>
-      </c>
-      <c r="S98" s="1">
-        <v>0</v>
-      </c>
-      <c r="T98" s="1">
-        <v>0</v>
-      </c>
-      <c r="U98" s="1">
-        <v>0</v>
-      </c>
-      <c r="V98" s="1">
-        <v>0</v>
-      </c>
-      <c r="W98" s="1">
-        <v>0</v>
-      </c>
-      <c r="X98" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW98" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX98" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:50">
-      <c r="C99" s="1">
-        <v>3212</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1">
-        <v>0</v>
-      </c>
-      <c r="K99" s="1">
-        <v>0</v>
-      </c>
-      <c r="L99" s="1">
-        <v>0</v>
-      </c>
-      <c r="M99" s="12">
-        <v>0</v>
-      </c>
-      <c r="N99" s="1">
-        <v>0</v>
-      </c>
-      <c r="O99" s="1">
-        <v>0</v>
-      </c>
-      <c r="P99" s="1">
-        <v>0.045</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>0</v>
-      </c>
-      <c r="R99" s="1">
-        <v>0</v>
-      </c>
-      <c r="S99" s="1">
-        <v>0</v>
-      </c>
-      <c r="T99" s="1">
-        <v>0</v>
-      </c>
-      <c r="U99" s="1">
-        <v>0</v>
-      </c>
-      <c r="V99" s="1">
-        <v>0</v>
-      </c>
-      <c r="W99" s="1">
-        <v>0</v>
-      </c>
-      <c r="X99" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW99" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX99" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:50">
-      <c r="C100" s="1">
-        <v>3213</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0</v>
-      </c>
-      <c r="K100" s="1">
-        <v>0</v>
-      </c>
-      <c r="L100" s="1">
-        <v>0</v>
-      </c>
-      <c r="M100" s="12">
-        <v>0.045</v>
-      </c>
-      <c r="N100" s="1">
-        <v>0</v>
-      </c>
-      <c r="O100" s="1">
-        <v>0</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <v>0</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0</v>
-      </c>
-      <c r="T100" s="1">
-        <v>0</v>
-      </c>
-      <c r="U100" s="1">
-        <v>0</v>
-      </c>
-      <c r="V100" s="1">
-        <v>0</v>
-      </c>
-      <c r="W100" s="1">
-        <v>0</v>
-      </c>
-      <c r="X100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW100" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX100" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -60,10 +60,9 @@
           </rPr>
           <t xml:space="preserve">
 配速度值。
-com条长度为10000格。
-4秒走完则填2500
-act条长度也是10000。
-2秒走完则在技能表里填5000</t>
+com和act程序都是1
+填每秒的进度百分比，比如4秒走完com，就填0.25
+</t>
         </r>
       </text>
     </comment>
@@ -142,7 +141,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-2500格/秒</t>
+每秒进度百分比</t>
   </si>
   <si>
     <t>每秒</t>
@@ -777,8 +776,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,38 +835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,25 +850,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,31 +868,32 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,15 +906,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,25 +958,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,13 +1006,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,13 +1084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,31 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,55 +1132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,60 +1181,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1259,6 +1204,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1278,16 +1253,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,133 +1295,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2670,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:AX96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3281,7 +3280,7 @@
         <v>110</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>110</v>
@@ -3389,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="12">
-        <v>3333</v>
+        <v>0.33</v>
       </c>
       <c r="R7" s="12">
         <v>0</v>
@@ -3539,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="12">
-        <v>3000</v>
+        <v>0.3</v>
       </c>
       <c r="R8" s="12">
         <v>0</v>
@@ -3689,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="12">
-        <v>2500</v>
+        <v>0.25</v>
       </c>
       <c r="R9" s="12">
         <v>0</v>
@@ -3839,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="12">
-        <v>2700</v>
+        <v>0.27</v>
       </c>
       <c r="R10" s="12">
         <v>0</v>
@@ -3989,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="12">
-        <v>3000</v>
+        <v>0.3</v>
       </c>
       <c r="R11" s="12">
         <v>0</v>
@@ -4137,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="12">
-        <v>3000</v>
+        <v>0.3</v>
       </c>
       <c r="R12" s="12">
         <v>0</v>
@@ -4285,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="12">
-        <v>3000</v>
+        <v>0.3</v>
       </c>
       <c r="R13" s="12">
         <v>0</v>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -88,7 +88,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关联globalconfig表英雄升级成长率attid。
+这里填了值的属性才会生效走公式。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -499,9 +522,6 @@
   </si>
   <si>
     <t>卡牌升级成长率</t>
-  </si>
-  <si>
-    <t>卡牌升级固定值，1级默认值</t>
   </si>
   <si>
     <t>武器升级攻击力固定值</t>
@@ -1454,19 +1474,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2667,10 +2687,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX96"/>
+  <dimension ref="A1:AX95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3400,7 +3420,7 @@
         <v>5000</v>
       </c>
       <c r="U7" s="12">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="V7" s="12">
         <v>0</v>
@@ -3411,16 +3431,16 @@
       <c r="X7" s="12">
         <v>200</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="17">
         <v>1000</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="17">
         <v>10000</v>
       </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
+      <c r="AA7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="17">
         <v>10</v>
       </c>
       <c r="AC7" s="12">
@@ -3550,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="12">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="V8" s="12">
         <v>0</v>
@@ -3561,16 +3581,16 @@
       <c r="X8" s="12">
         <v>200</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="17">
         <v>1000</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="Z8" s="17">
         <v>10000</v>
       </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
         <v>10</v>
       </c>
       <c r="AC8" s="12">
@@ -3700,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="12">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="V9" s="12">
         <v>0</v>
@@ -3711,16 +3731,16 @@
       <c r="X9" s="12">
         <v>200</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="17">
         <v>1000</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="17">
         <v>10000</v>
       </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
+      <c r="AA9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
         <v>10</v>
       </c>
       <c r="AC9" s="12">
@@ -3753,31 +3773,31 @@
       <c r="AL9" s="12">
         <v>0</v>
       </c>
-      <c r="AM9" s="17" t="s">
+      <c r="AM9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AN9" s="17" t="s">
+      <c r="AN9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AO9" s="17" t="s">
+      <c r="AO9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AP9" s="17" t="s">
+      <c r="AP9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AQ9" s="17" t="s">
+      <c r="AQ9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AR9" s="17" t="s">
+      <c r="AR9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AS9" s="17" t="s">
+      <c r="AS9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AT9" s="17" t="s">
+      <c r="AT9" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="AU9" s="17" t="s">
+      <c r="AU9" s="18" t="s">
         <v>115</v>
       </c>
       <c r="AV9" s="12">
@@ -3850,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="12">
-        <v>4400</v>
+        <v>8500</v>
       </c>
       <c r="V10" s="12">
         <v>0</v>
@@ -3861,16 +3881,16 @@
       <c r="X10" s="12">
         <v>200</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="17">
         <v>1000</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="17">
         <v>10000</v>
       </c>
-      <c r="AA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17">
         <v>10</v>
       </c>
       <c r="AC10" s="12">
@@ -4000,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="12">
-        <v>3600</v>
+        <v>9000</v>
       </c>
       <c r="V11" s="12">
         <v>0</v>
@@ -4011,16 +4031,16 @@
       <c r="X11" s="12">
         <v>200</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="17">
         <v>1000</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="Z11" s="17">
         <v>10000</v>
       </c>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
+      <c r="AA11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
         <v>10</v>
       </c>
       <c r="AC11" s="12">
@@ -4148,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="12">
-        <v>3000</v>
+        <v>8500</v>
       </c>
       <c r="V12" s="12">
         <v>0</v>
@@ -4159,16 +4179,16 @@
       <c r="X12" s="12">
         <v>200</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="17">
         <v>1000</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="Z12" s="17">
         <v>10000</v>
       </c>
-      <c r="AA12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="16">
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
         <v>10</v>
       </c>
       <c r="AC12" s="12">
@@ -4296,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="12">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="V13" s="12">
         <v>0</v>
@@ -4307,16 +4327,16 @@
       <c r="X13" s="12">
         <v>200</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="17">
         <v>1000</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13" s="17">
         <v>10000</v>
       </c>
-      <c r="AA13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="16">
+      <c r="AA13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="17">
         <v>10</v>
       </c>
       <c r="AC13" s="12">
@@ -4824,11 +4844,11 @@
         <v>0</v>
       </c>
       <c r="AW16" s="10" t="str">
-        <f>AC9:AC20&amp;","&amp;AD9:AD20&amp;","&amp;AE9:AE20&amp;","&amp;AF9:AF20&amp;","&amp;AG9:AG20&amp;","&amp;AH9:AH20&amp;","&amp;AI9:AI20&amp;","&amp;AJ9:AJ20&amp;","&amp;AK9:AK20&amp;","&amp;AL9:AL20</f>
+        <f>AC9:AC19&amp;","&amp;AD9:AD19&amp;","&amp;AE9:AE19&amp;","&amp;AF9:AF19&amp;","&amp;AG9:AG19&amp;","&amp;AH9:AH19&amp;","&amp;AI9:AI19&amp;","&amp;AJ9:AJ19&amp;","&amp;AK9:AK19&amp;","&amp;AL9:AL19</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX16" s="10" t="str">
-        <f>AM9:AM20&amp;","&amp;AN9:AN20&amp;","&amp;AO9:AO20&amp;","&amp;AP9:AP20&amp;","&amp;AQ9:AQ20&amp;","&amp;AR9:AR20&amp;","&amp;AS9:AS20&amp;","&amp;AT9:AT20&amp;","&amp;AU9:AU20&amp;","&amp;AV9:AV20</f>
+        <f>AM9:AM19&amp;","&amp;AN9:AN19&amp;","&amp;AO9:AO19&amp;","&amp;AP9:AP19&amp;","&amp;AQ9:AQ19&amp;","&amp;AR9:AR19&amp;","&amp;AS9:AS19&amp;","&amp;AT9:AT19&amp;","&amp;AU9:AU19&amp;","&amp;AV9:AV19</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -4972,11 +4992,11 @@
         <v>0</v>
       </c>
       <c r="AW17" s="10" t="str">
-        <f>AC10:AC20&amp;","&amp;AD10:AD20&amp;","&amp;AE10:AE20&amp;","&amp;AF10:AF20&amp;","&amp;AG10:AG20&amp;","&amp;AH10:AH20&amp;","&amp;AI10:AI20&amp;","&amp;AJ10:AJ20&amp;","&amp;AK10:AK20&amp;","&amp;AL10:AL20</f>
+        <f>AC10:AC19&amp;","&amp;AD10:AD19&amp;","&amp;AE10:AE19&amp;","&amp;AF10:AF19&amp;","&amp;AG10:AG19&amp;","&amp;AH10:AH19&amp;","&amp;AI10:AI19&amp;","&amp;AJ10:AJ19&amp;","&amp;AK10:AK19&amp;","&amp;AL10:AL19</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX17" s="10" t="str">
-        <f>AM10:AM20&amp;","&amp;AN10:AN20&amp;","&amp;AO10:AO20&amp;","&amp;AP10:AP20&amp;","&amp;AQ10:AQ20&amp;","&amp;AR10:AR20&amp;","&amp;AS10:AS20&amp;","&amp;AT10:AT20&amp;","&amp;AU10:AU20&amp;","&amp;AV10:AV20</f>
+        <f>AM10:AM19&amp;","&amp;AN10:AN19&amp;","&amp;AO10:AO19&amp;","&amp;AP10:AP19&amp;","&amp;AQ10:AQ19&amp;","&amp;AR10:AR19&amp;","&amp;AS10:AS19&amp;","&amp;AT10:AT19&amp;","&amp;AU10:AU19&amp;","&amp;AV10:AV19</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -5120,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="AW18" s="10" t="str">
-        <f>AC11:AC21&amp;","&amp;AD11:AD21&amp;","&amp;AE11:AE21&amp;","&amp;AF11:AF21&amp;","&amp;AG11:AG21&amp;","&amp;AH11:AH21&amp;","&amp;AI11:AI21&amp;","&amp;AJ11:AJ21&amp;","&amp;AK11:AK21&amp;","&amp;AL11:AL21</f>
+        <f>AC11:AC20&amp;","&amp;AD11:AD20&amp;","&amp;AE11:AE20&amp;","&amp;AF11:AF20&amp;","&amp;AG11:AG20&amp;","&amp;AH11:AH20&amp;","&amp;AI11:AI20&amp;","&amp;AJ11:AJ20&amp;","&amp;AK11:AK20&amp;","&amp;AL11:AL20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX18" s="10" t="str">
-        <f>AM11:AM21&amp;","&amp;AN11:AN21&amp;","&amp;AO11:AO21&amp;","&amp;AP11:AP21&amp;","&amp;AQ11:AQ21&amp;","&amp;AR11:AR21&amp;","&amp;AS11:AS21&amp;","&amp;AT11:AT21&amp;","&amp;AU11:AU21&amp;","&amp;AV11:AV21</f>
+        <f>AM11:AM20&amp;","&amp;AN11:AN20&amp;","&amp;AO11:AO20&amp;","&amp;AP11:AP20&amp;","&amp;AQ11:AQ20&amp;","&amp;AR11:AR20&amp;","&amp;AS11:AS20&amp;","&amp;AT11:AT20&amp;","&amp;AU11:AU20&amp;","&amp;AV11:AV20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -5184,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V19" s="1">
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -5268,17 +5288,17 @@
         <v>0</v>
       </c>
       <c r="AW19" s="10" t="str">
-        <f>AC12:AC21&amp;","&amp;AD12:AD21&amp;","&amp;AE12:AE21&amp;","&amp;AF12:AF21&amp;","&amp;AG12:AG21&amp;","&amp;AH12:AH21&amp;","&amp;AI12:AI21&amp;","&amp;AJ12:AJ21&amp;","&amp;AK12:AK21&amp;","&amp;AL12:AL21</f>
+        <f>AC12:AC20&amp;","&amp;AD12:AD20&amp;","&amp;AE12:AE20&amp;","&amp;AF12:AF20&amp;","&amp;AG12:AG20&amp;","&amp;AH12:AH20&amp;","&amp;AI12:AI20&amp;","&amp;AJ12:AJ20&amp;","&amp;AK12:AK20&amp;","&amp;AL12:AL20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX19" s="10" t="str">
-        <f>AM12:AM21&amp;","&amp;AN12:AN21&amp;","&amp;AO12:AO21&amp;","&amp;AP12:AP21&amp;","&amp;AQ12:AQ21&amp;","&amp;AR12:AR21&amp;","&amp;AS12:AS21&amp;","&amp;AT12:AT21&amp;","&amp;AU12:AU21&amp;","&amp;AV12:AV21</f>
+        <f>AM12:AM20&amp;","&amp;AN12:AN20&amp;","&amp;AO12:AO20&amp;","&amp;AP12:AP20&amp;","&amp;AQ12:AQ20&amp;","&amp;AR12:AR20&amp;","&amp;AS12:AS20&amp;","&amp;AT12:AT20&amp;","&amp;AU12:AU20&amp;","&amp;AV12:AV20</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:50">
       <c r="C20" s="1">
-        <v>21</v>
+        <v>2000</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
@@ -5286,23 +5306,23 @@
       <c r="E20" s="1">
         <v>50</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="11">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>30</v>
-      </c>
-      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
         <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -5314,37 +5334,37 @@
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>10</v>
-      </c>
-      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
         <v>0</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="12">
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>500</v>
-      </c>
-      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -5416,31 +5436,31 @@
         <v>0</v>
       </c>
       <c r="AW20" s="10" t="str">
-        <f>AC14:AC21&amp;","&amp;AD14:AD21&amp;","&amp;AE14:AE21&amp;","&amp;AF14:AF21&amp;","&amp;AG14:AG21&amp;","&amp;AH14:AH21&amp;","&amp;AI14:AI21&amp;","&amp;AJ14:AJ21&amp;","&amp;AK14:AK21&amp;","&amp;AL14:AL21</f>
+        <f>AC16:AC21&amp;","&amp;AD16:AD21&amp;","&amp;AE16:AE21&amp;","&amp;AF16:AF21&amp;","&amp;AG16:AG21&amp;","&amp;AH16:AH21&amp;","&amp;AI16:AI21&amp;","&amp;AJ16:AJ21&amp;","&amp;AK16:AK21&amp;","&amp;AL16:AL21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX20" s="10" t="str">
-        <f>AM14:AM21&amp;","&amp;AN14:AN21&amp;","&amp;AO14:AO21&amp;","&amp;AP14:AP21&amp;","&amp;AQ14:AQ21&amp;","&amp;AR14:AR21&amp;","&amp;AS14:AS21&amp;","&amp;AT14:AT21&amp;","&amp;AU14:AU21&amp;","&amp;AV14:AV21</f>
+        <f>AM16:AM21&amp;","&amp;AN16:AN21&amp;","&amp;AO16:AO21&amp;","&amp;AP16:AP21&amp;","&amp;AQ16:AQ21&amp;","&amp;AR16:AR21&amp;","&amp;AS16:AS21&amp;","&amp;AT16:AT21&amp;","&amp;AU16:AU21&amp;","&amp;AV16:AV21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:50">
       <c r="C21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="1">
-        <v>50</v>
-      </c>
-      <c r="F21" s="11">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21" s="1">
@@ -5455,7 +5475,7 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="1">
         <v>0</v>
       </c>
       <c r="N21" s="1">
@@ -5464,13 +5484,13 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="1">
         <v>0</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="1">
         <v>0</v>
       </c>
       <c r="S21" s="1">
@@ -5482,7 +5502,7 @@
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="1">
         <v>0</v>
       </c>
       <c r="W21" s="1">
@@ -5564,31 +5584,31 @@
         <v>0</v>
       </c>
       <c r="AW21" s="10" t="str">
-        <f>AC16:AC22&amp;","&amp;AD16:AD22&amp;","&amp;AE16:AE22&amp;","&amp;AF16:AF22&amp;","&amp;AG16:AG22&amp;","&amp;AH16:AH22&amp;","&amp;AI16:AI22&amp;","&amp;AJ16:AJ22&amp;","&amp;AK16:AK22&amp;","&amp;AL16:AL22</f>
+        <f>AC20:AC25&amp;","&amp;AD20:AD25&amp;","&amp;AE20:AE25&amp;","&amp;AF20:AF25&amp;","&amp;AG20:AG25&amp;","&amp;AH20:AH25&amp;","&amp;AI20:AI25&amp;","&amp;AJ20:AJ25&amp;","&amp;AK20:AK25&amp;","&amp;AL20:AL25</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX21" s="10" t="str">
-        <f>AM16:AM22&amp;","&amp;AN16:AN22&amp;","&amp;AO16:AO22&amp;","&amp;AP16:AP22&amp;","&amp;AQ16:AQ22&amp;","&amp;AR16:AR22&amp;","&amp;AS16:AS22&amp;","&amp;AT16:AT22&amp;","&amp;AU16:AU22&amp;","&amp;AV16:AV22</f>
+        <f>AM20:AM25&amp;","&amp;AN20:AN25&amp;","&amp;AO20:AO25&amp;","&amp;AP20:AP25&amp;","&amp;AQ20:AQ25&amp;","&amp;AR20:AR25&amp;","&amp;AS20:AS25&amp;","&amp;AT20:AT25&amp;","&amp;AU20:AU25&amp;","&amp;AV20:AV25</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:50">
       <c r="C22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D22" s="14" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
         <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="12">
         <v>0</v>
       </c>
       <c r="I22" s="1">
@@ -5603,7 +5623,7 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="12">
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -5612,13 +5632,13 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="12">
         <v>0</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="12">
         <v>0</v>
       </c>
       <c r="S22" s="1">
@@ -5630,7 +5650,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="12">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -5652,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AD22" s="1">
         <v>0</v>
@@ -5713,7 +5733,7 @@
       </c>
       <c r="AW22" s="10" t="str">
         <f>AC20:AC26&amp;","&amp;AD20:AD26&amp;","&amp;AE20:AE26&amp;","&amp;AF20:AF26&amp;","&amp;AG20:AG26&amp;","&amp;AH20:AH26&amp;","&amp;AI20:AI26&amp;","&amp;AJ20:AJ26&amp;","&amp;AK20:AK26&amp;","&amp;AL20:AL26</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <v>0.05,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX22" s="10" t="str">
         <f>AM20:AM26&amp;","&amp;AN20:AN26&amp;","&amp;AO20:AO26&amp;","&amp;AP20:AP26&amp;","&amp;AQ20:AQ26&amp;","&amp;AR20:AR26&amp;","&amp;AS20:AS26&amp;","&amp;AT20:AT26&amp;","&amp;AU20:AU26&amp;","&amp;AV20:AV26</f>
@@ -5722,7 +5742,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:50">
       <c r="C23" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>129</v>
@@ -5800,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -5860,17 +5880,17 @@
         <v>0</v>
       </c>
       <c r="AW23" s="10" t="str">
-        <f>AC21:AC27&amp;","&amp;AD21:AD27&amp;","&amp;AE21:AE27&amp;","&amp;AF21:AF27&amp;","&amp;AG21:AG27&amp;","&amp;AH21:AH27&amp;","&amp;AI21:AI27&amp;","&amp;AJ21:AJ27&amp;","&amp;AK21:AK27&amp;","&amp;AL21:AL27</f>
-        <v>0.05,0,0,0,0,0,0,0,0,0</v>
+        <f>AC20:AC27&amp;","&amp;AD20:AD27&amp;","&amp;AE20:AE27&amp;","&amp;AF20:AF27&amp;","&amp;AG20:AG27&amp;","&amp;AH20:AH27&amp;","&amp;AI20:AI27&amp;","&amp;AJ20:AJ27&amp;","&amp;AK20:AK27&amp;","&amp;AL20:AL27</f>
+        <v>0.1,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX23" s="10" t="str">
-        <f>AM21:AM27&amp;","&amp;AN21:AN27&amp;","&amp;AO21:AO27&amp;","&amp;AP21:AP27&amp;","&amp;AQ21:AQ27&amp;","&amp;AR21:AR27&amp;","&amp;AS21:AS27&amp;","&amp;AT21:AT27&amp;","&amp;AU21:AU27&amp;","&amp;AV21:AV27</f>
+        <f>AM20:AM27&amp;","&amp;AN20:AN27&amp;","&amp;AO20:AO27&amp;","&amp;AP20:AP27&amp;","&amp;AQ20:AQ27&amp;","&amp;AR20:AR27&amp;","&amp;AS20:AS27&amp;","&amp;AT20:AT27&amp;","&amp;AU20:AU27&amp;","&amp;AV20:AV27</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:50">
       <c r="C24" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>130</v>
@@ -5948,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AD24" s="1">
         <v>0</v>
@@ -6009,7 +6029,7 @@
       </c>
       <c r="AW24" s="10" t="str">
         <f>AC21:AC28&amp;","&amp;AD21:AD28&amp;","&amp;AE21:AE28&amp;","&amp;AF21:AF28&amp;","&amp;AG21:AG28&amp;","&amp;AH21:AH28&amp;","&amp;AI21:AI28&amp;","&amp;AJ21:AJ28&amp;","&amp;AK21:AK28&amp;","&amp;AL21:AL28</f>
-        <v>0.1,0,0,0,0,0,0,0,0,0</v>
+        <v>0.15,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX24" s="10" t="str">
         <f>AM21:AM28&amp;","&amp;AN21:AN28&amp;","&amp;AO21:AO28&amp;","&amp;AP21:AP28&amp;","&amp;AQ21:AQ28&amp;","&amp;AR21:AR28&amp;","&amp;AS21:AS28&amp;","&amp;AT21:AT28&amp;","&amp;AU21:AU28&amp;","&amp;AV21:AV28</f>
@@ -6018,7 +6038,7 @@
     </row>
     <row r="25" customHeight="1" spans="3:50">
       <c r="C25" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
@@ -6096,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" s="1">
         <v>0</v>
@@ -6156,17 +6176,17 @@
         <v>0</v>
       </c>
       <c r="AW25" s="10" t="str">
-        <f>AC22:AC29&amp;","&amp;AD22:AD29&amp;","&amp;AE22:AE29&amp;","&amp;AF22:AF29&amp;","&amp;AG22:AG29&amp;","&amp;AH22:AH29&amp;","&amp;AI22:AI29&amp;","&amp;AJ22:AJ29&amp;","&amp;AK22:AK29&amp;","&amp;AL22:AL29</f>
-        <v>0.15,0,0,0,0,0,0,0,0,0</v>
+        <f>AC21:AC29&amp;","&amp;AD21:AD29&amp;","&amp;AE21:AE29&amp;","&amp;AF21:AF29&amp;","&amp;AG21:AG29&amp;","&amp;AH21:AH29&amp;","&amp;AI21:AI29&amp;","&amp;AJ21:AJ29&amp;","&amp;AK21:AK29&amp;","&amp;AL21:AL29</f>
+        <v>0.2,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX25" s="10" t="str">
-        <f>AM22:AM29&amp;","&amp;AN22:AN29&amp;","&amp;AO22:AO29&amp;","&amp;AP22:AP29&amp;","&amp;AQ22:AQ29&amp;","&amp;AR22:AR29&amp;","&amp;AS22:AS29&amp;","&amp;AT22:AT29&amp;","&amp;AU22:AU29&amp;","&amp;AV22:AV29</f>
+        <f>AM21:AM29&amp;","&amp;AN21:AN29&amp;","&amp;AO21:AO29&amp;","&amp;AP21:AP29&amp;","&amp;AQ21:AQ29&amp;","&amp;AR21:AR29&amp;","&amp;AS21:AS29&amp;","&amp;AT21:AT29&amp;","&amp;AU21:AU29&amp;","&amp;AV21:AV29</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:50">
       <c r="C26" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>132</v>
@@ -6244,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AD26" s="1">
         <v>0</v>
@@ -6304,17 +6324,17 @@
         <v>0</v>
       </c>
       <c r="AW26" s="10" t="str">
-        <f>AC22:AC30&amp;","&amp;AD22:AD30&amp;","&amp;AE22:AE30&amp;","&amp;AF22:AF30&amp;","&amp;AG22:AG30&amp;","&amp;AH22:AH30&amp;","&amp;AI22:AI30&amp;","&amp;AJ22:AJ30&amp;","&amp;AK22:AK30&amp;","&amp;AL22:AL30</f>
-        <v>0.2,0,0,0,0,0,0,0,0,0</v>
+        <f>AC21:AC30&amp;","&amp;AD21:AD30&amp;","&amp;AE21:AE30&amp;","&amp;AF21:AF30&amp;","&amp;AG21:AG30&amp;","&amp;AH21:AH30&amp;","&amp;AI21:AI30&amp;","&amp;AJ21:AJ30&amp;","&amp;AK21:AK30&amp;","&amp;AL21:AL30</f>
+        <v>0.25,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX26" s="10" t="str">
-        <f>AM22:AM30&amp;","&amp;AN22:AN30&amp;","&amp;AO22:AO30&amp;","&amp;AP22:AP30&amp;","&amp;AQ22:AQ30&amp;","&amp;AR22:AR30&amp;","&amp;AS22:AS30&amp;","&amp;AT22:AT30&amp;","&amp;AU22:AU30&amp;","&amp;AV22:AV30</f>
+        <f>AM21:AM30&amp;","&amp;AN21:AN30&amp;","&amp;AO21:AO30&amp;","&amp;AP21:AP30&amp;","&amp;AQ21:AQ30&amp;","&amp;AR21:AR30&amp;","&amp;AS21:AS30&amp;","&amp;AT21:AT30&amp;","&amp;AU21:AU30&amp;","&amp;AV21:AV30</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:50">
       <c r="C27" s="1">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>133</v>
@@ -6374,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="1">
         <v>0</v>
@@ -6392,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="1">
         <v>0</v>
@@ -6452,17 +6472,17 @@
         <v>0</v>
       </c>
       <c r="AW27" s="10" t="str">
-        <f>AC22:AC31&amp;","&amp;AD22:AD31&amp;","&amp;AE22:AE31&amp;","&amp;AF22:AF31&amp;","&amp;AG22:AG31&amp;","&amp;AH22:AH31&amp;","&amp;AI22:AI31&amp;","&amp;AJ22:AJ31&amp;","&amp;AK22:AK31&amp;","&amp;AL22:AL31</f>
-        <v>0.25,0,0,0,0,0,0,0,0,0</v>
+        <f>AC21:AC31&amp;","&amp;AD21:AD31&amp;","&amp;AE21:AE31&amp;","&amp;AF21:AF31&amp;","&amp;AG21:AG31&amp;","&amp;AH21:AH31&amp;","&amp;AI21:AI31&amp;","&amp;AJ21:AJ31&amp;","&amp;AK21:AK31&amp;","&amp;AL21:AL31</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX27" s="10" t="str">
-        <f>AM22:AM31&amp;","&amp;AN22:AN31&amp;","&amp;AO22:AO31&amp;","&amp;AP22:AP31&amp;","&amp;AQ22:AQ31&amp;","&amp;AR22:AR31&amp;","&amp;AS22:AS31&amp;","&amp;AT22:AT31&amp;","&amp;AU22:AU31&amp;","&amp;AV22:AV31</f>
+        <f>AM21:AM31&amp;","&amp;AN21:AN31&amp;","&amp;AO21:AO31&amp;","&amp;AP21:AP31&amp;","&amp;AQ21:AQ31&amp;","&amp;AR21:AR31&amp;","&amp;AS21:AS31&amp;","&amp;AT21:AT31&amp;","&amp;AU21:AU31&amp;","&amp;AV21:AV31</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:50">
       <c r="C28" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>134</v>
@@ -6522,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -6600,17 +6620,17 @@
         <v>0</v>
       </c>
       <c r="AW28" s="10" t="str">
-        <f>AC22:AC32&amp;","&amp;AD22:AD32&amp;","&amp;AE22:AE32&amp;","&amp;AF22:AF32&amp;","&amp;AG22:AG32&amp;","&amp;AH22:AH32&amp;","&amp;AI22:AI32&amp;","&amp;AJ22:AJ32&amp;","&amp;AK22:AK32&amp;","&amp;AL22:AL32</f>
+        <f>AC22:AC31&amp;","&amp;AD22:AD31&amp;","&amp;AE22:AE31&amp;","&amp;AF22:AF31&amp;","&amp;AG22:AG31&amp;","&amp;AH22:AH31&amp;","&amp;AI22:AI31&amp;","&amp;AJ22:AJ31&amp;","&amp;AK22:AK31&amp;","&amp;AL22:AL31</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX28" s="10" t="str">
-        <f>AM22:AM32&amp;","&amp;AN22:AN32&amp;","&amp;AO22:AO32&amp;","&amp;AP22:AP32&amp;","&amp;AQ22:AQ32&amp;","&amp;AR22:AR32&amp;","&amp;AS22:AS32&amp;","&amp;AT22:AT32&amp;","&amp;AU22:AU32&amp;","&amp;AV22:AV32</f>
+        <f>AM22:AM31&amp;","&amp;AN22:AN31&amp;","&amp;AO22:AO31&amp;","&amp;AP22:AP31&amp;","&amp;AQ22:AQ31&amp;","&amp;AR22:AR31&amp;","&amp;AS22:AS31&amp;","&amp;AT22:AT31&amp;","&amp;AU22:AU31&amp;","&amp;AV22:AV31</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:50">
       <c r="C29" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>135</v>
@@ -6670,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -6748,17 +6768,17 @@
         <v>0</v>
       </c>
       <c r="AW29" s="10" t="str">
-        <f>AC23:AC32&amp;","&amp;AD23:AD32&amp;","&amp;AE23:AE32&amp;","&amp;AF23:AF32&amp;","&amp;AG23:AG32&amp;","&amp;AH23:AH32&amp;","&amp;AI23:AI32&amp;","&amp;AJ23:AJ32&amp;","&amp;AK23:AK32&amp;","&amp;AL23:AL32</f>
+        <f>AC23:AC31&amp;","&amp;AD23:AD31&amp;","&amp;AE23:AE31&amp;","&amp;AF23:AF31&amp;","&amp;AG23:AG31&amp;","&amp;AH23:AH31&amp;","&amp;AI23:AI31&amp;","&amp;AJ23:AJ31&amp;","&amp;AK23:AK31&amp;","&amp;AL23:AL31</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX29" s="10" t="str">
-        <f>AM23:AM32&amp;","&amp;AN23:AN32&amp;","&amp;AO23:AO32&amp;","&amp;AP23:AP32&amp;","&amp;AQ23:AQ32&amp;","&amp;AR23:AR32&amp;","&amp;AS23:AS32&amp;","&amp;AT23:AT32&amp;","&amp;AU23:AU32&amp;","&amp;AV23:AV32</f>
+        <f>AM23:AM31&amp;","&amp;AN23:AN31&amp;","&amp;AO23:AO31&amp;","&amp;AP23:AP31&amp;","&amp;AQ23:AQ31&amp;","&amp;AR23:AR31&amp;","&amp;AS23:AS31&amp;","&amp;AT23:AT31&amp;","&amp;AU23:AU31&amp;","&amp;AV23:AV31</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:50">
       <c r="C30" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>136</v>
@@ -6818,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -6906,7 +6926,7 @@
     </row>
     <row r="31" customHeight="1" spans="3:50">
       <c r="C31" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>137</v>
@@ -6966,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X31" s="1">
         <v>0</v>
@@ -7054,21 +7074,21 @@
     </row>
     <row r="32" customHeight="1" spans="3:50">
       <c r="C32" s="1">
-        <v>2024</v>
+        <v>3000</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="1">
         <v>0</v>
       </c>
       <c r="I32" s="1">
@@ -7092,13 +7112,13 @@
       <c r="O32" s="1">
         <v>0</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="1">
         <v>0</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="1">
         <v>0</v>
       </c>
       <c r="S32" s="1">
@@ -7110,11 +7130,11 @@
       <c r="U32" s="1">
         <v>0</v>
       </c>
-      <c r="V32" s="12">
+      <c r="V32" s="1">
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X32" s="1">
         <v>0</v>
@@ -7192,23 +7212,23 @@
         <v>0</v>
       </c>
       <c r="AW32" s="10" t="str">
-        <f>AC26:AC34&amp;","&amp;AD26:AD34&amp;","&amp;AE26:AE34&amp;","&amp;AF26:AF34&amp;","&amp;AG26:AG34&amp;","&amp;AH26:AH34&amp;","&amp;AI26:AI34&amp;","&amp;AJ26:AJ34&amp;","&amp;AK26:AK34&amp;","&amp;AL26:AL34</f>
+        <f>AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36&amp;","&amp;AK28:AK36&amp;","&amp;AL28:AL36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX32" s="10" t="str">
-        <f>AM26:AM34&amp;","&amp;AN26:AN34&amp;","&amp;AO26:AO34&amp;","&amp;AP26:AP34&amp;","&amp;AQ26:AQ34&amp;","&amp;AR26:AR34&amp;","&amp;AS26:AS34&amp;","&amp;AT26:AT34&amp;","&amp;AU26:AU34&amp;","&amp;AV26:AV34</f>
+        <f>AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36&amp;","&amp;AU28:AU36&amp;","&amp;AV28:AV36</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:50">
       <c r="C33" s="1">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -7350,7 +7370,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:50">
       <c r="C34" s="1">
-        <v>3001</v>
+        <v>3010</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>140</v>
@@ -7498,13 +7518,13 @@
     </row>
     <row r="35" customHeight="1" spans="3:50">
       <c r="C35" s="1">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E35" s="1">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -7646,13 +7666,13 @@
     </row>
     <row r="36" customHeight="1" spans="3:50">
       <c r="C36" s="1">
-        <v>3011</v>
+        <v>3020</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -7794,13 +7814,13 @@
     </row>
     <row r="37" customHeight="1" spans="3:50">
       <c r="C37" s="1">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E37" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -7932,23 +7952,23 @@
         <v>0</v>
       </c>
       <c r="AW37" s="10" t="str">
-        <f>AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41&amp;","&amp;AK33:AK41&amp;","&amp;AL33:AL41</f>
+        <f>AC32:AC41&amp;","&amp;AD32:AD41&amp;","&amp;AE32:AE41&amp;","&amp;AF32:AF41&amp;","&amp;AG32:AG41&amp;","&amp;AH32:AH41&amp;","&amp;AI32:AI41&amp;","&amp;AJ32:AJ41&amp;","&amp;AK32:AK41&amp;","&amp;AL32:AL41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX37" s="10" t="str">
-        <f>AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41&amp;","&amp;AU33:AU41&amp;","&amp;AV33:AV41</f>
+        <f>AM32:AM41&amp;","&amp;AN32:AN41&amp;","&amp;AO32:AO41&amp;","&amp;AP32:AP41&amp;","&amp;AQ32:AQ41&amp;","&amp;AR32:AR41&amp;","&amp;AS32:AS41&amp;","&amp;AT32:AT41&amp;","&amp;AU32:AU41&amp;","&amp;AV32:AV41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:50">
       <c r="C38" s="1">
-        <v>3021</v>
+        <v>3030</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E38" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -7987,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S38" s="1">
         <v>0</v>
@@ -8080,17 +8100,17 @@
         <v>0</v>
       </c>
       <c r="AW38" s="10" t="str">
-        <f>AC33:AC42&amp;","&amp;AD33:AD42&amp;","&amp;AE33:AE42&amp;","&amp;AF33:AF42&amp;","&amp;AG33:AG42&amp;","&amp;AH33:AH42&amp;","&amp;AI33:AI42&amp;","&amp;AJ33:AJ42&amp;","&amp;AK33:AK42&amp;","&amp;AL33:AL42</f>
+        <f>AC32:AC42&amp;","&amp;AD32:AD42&amp;","&amp;AE32:AE42&amp;","&amp;AF32:AF42&amp;","&amp;AG32:AG42&amp;","&amp;AH32:AH42&amp;","&amp;AI32:AI42&amp;","&amp;AJ32:AJ42&amp;","&amp;AK32:AK42&amp;","&amp;AL32:AL42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX38" s="10" t="str">
-        <f>AM33:AM42&amp;","&amp;AN33:AN42&amp;","&amp;AO33:AO42&amp;","&amp;AP33:AP42&amp;","&amp;AQ33:AQ42&amp;","&amp;AR33:AR42&amp;","&amp;AS33:AS42&amp;","&amp;AT33:AT42&amp;","&amp;AU33:AU42&amp;","&amp;AV33:AV42</f>
+        <f>AM32:AM42&amp;","&amp;AN32:AN42&amp;","&amp;AO32:AO42&amp;","&amp;AP32:AP42&amp;","&amp;AQ32:AQ42&amp;","&amp;AR32:AR42&amp;","&amp;AS32:AS42&amp;","&amp;AT32:AT42&amp;","&amp;AU32:AU42&amp;","&amp;AV32:AV42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:50">
       <c r="C39" s="1">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>145</v>
@@ -8135,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="S39" s="1">
         <v>0</v>
@@ -8238,7 +8258,7 @@
     </row>
     <row r="40" customHeight="1" spans="3:50">
       <c r="C40" s="1">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>146</v>
@@ -8277,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Q40" s="1">
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -8376,17 +8396,17 @@
         <v>0</v>
       </c>
       <c r="AW40" s="10" t="str">
-        <f>AC34:AC44&amp;","&amp;AD34:AD44&amp;","&amp;AE34:AE44&amp;","&amp;AF34:AF44&amp;","&amp;AG34:AG44&amp;","&amp;AH34:AH44&amp;","&amp;AI34:AI44&amp;","&amp;AJ34:AJ44&amp;","&amp;AK34:AK44&amp;","&amp;AL34:AL44</f>
+        <f t="shared" ref="AW40:AW45" si="2">AC34:AC46&amp;","&amp;AD34:AD46&amp;","&amp;AE34:AE46&amp;","&amp;AF34:AF46&amp;","&amp;AG34:AG46&amp;","&amp;AH34:AH46&amp;","&amp;AI34:AI46&amp;","&amp;AJ34:AJ46&amp;","&amp;AK34:AK46&amp;","&amp;AL34:AL46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX40" s="10" t="str">
-        <f>AM34:AM44&amp;","&amp;AN34:AN44&amp;","&amp;AO34:AO44&amp;","&amp;AP34:AP44&amp;","&amp;AQ34:AQ44&amp;","&amp;AR34:AR44&amp;","&amp;AS34:AS44&amp;","&amp;AT34:AT44&amp;","&amp;AU34:AU44&amp;","&amp;AV34:AV44</f>
+        <f t="shared" ref="AX40:AX45" si="3">AM34:AM46&amp;","&amp;AN34:AN46&amp;","&amp;AO34:AO46&amp;","&amp;AP34:AP46&amp;","&amp;AQ34:AQ46&amp;","&amp;AR34:AR46&amp;","&amp;AS34:AS46&amp;","&amp;AT34:AT46&amp;","&amp;AU34:AU46&amp;","&amp;AV34:AV46</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:50">
       <c r="C41" s="1">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>147</v>
@@ -8425,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
@@ -8524,17 +8544,17 @@
         <v>0</v>
       </c>
       <c r="AW41" s="10" t="str">
-        <f t="shared" ref="AW41:AW46" si="2">AC35:AC47&amp;","&amp;AD35:AD47&amp;","&amp;AE35:AE47&amp;","&amp;AF35:AF47&amp;","&amp;AG35:AG47&amp;","&amp;AH35:AH47&amp;","&amp;AI35:AI47&amp;","&amp;AJ35:AJ47&amp;","&amp;AK35:AK47&amp;","&amp;AL35:AL47</f>
+        <f t="shared" si="2"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX41" s="10" t="str">
-        <f t="shared" ref="AX41:AX46" si="3">AM35:AM47&amp;","&amp;AN35:AN47&amp;","&amp;AO35:AO47&amp;","&amp;AP35:AP47&amp;","&amp;AQ35:AQ47&amp;","&amp;AR35:AR47&amp;","&amp;AS35:AS47&amp;","&amp;AT35:AT47&amp;","&amp;AU35:AU47&amp;","&amp;AV35:AV47</f>
+        <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:50">
       <c r="C42" s="1">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>148</v>
@@ -8564,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="12">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
@@ -8573,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1">
         <v>0</v>
@@ -8682,7 +8702,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:50">
       <c r="C43" s="1">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>149</v>
@@ -8712,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="12">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -8830,7 +8850,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:50">
       <c r="C44" s="1">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>150</v>
@@ -8851,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -8859,8 +8879,8 @@
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="12">
-        <v>0.005</v>
+      <c r="M44" s="1">
+        <v>0</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -8978,7 +8998,7 @@
     </row>
     <row r="45" customHeight="1" spans="3:50">
       <c r="C45" s="1">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>151</v>
@@ -8999,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -9126,7 +9146,7 @@
     </row>
     <row r="46" customHeight="1" spans="3:50">
       <c r="C46" s="1">
-        <v>3037</v>
+        <v>3050</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>152</v>
@@ -9147,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -9155,7 +9175,7 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="12">
         <v>0</v>
       </c>
       <c r="N46" s="1">
@@ -9207,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AE46" s="1">
         <v>0</v>
@@ -9264,17 +9284,17 @@
         <v>0</v>
       </c>
       <c r="AW46" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f t="shared" ref="AW46:AW51" si="4">AC38:AC50&amp;","&amp;AD38:AD50&amp;","&amp;AE38:AE50&amp;","&amp;AF38:AF50&amp;","&amp;AG38:AG50&amp;","&amp;AH38:AH50&amp;","&amp;AI38:AI50&amp;","&amp;AJ38:AJ50&amp;","&amp;AK38:AK50&amp;","&amp;AL38:AL50</f>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX46" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AX46:AX51" si="5">AM38:AM50&amp;","&amp;AN38:AN50&amp;","&amp;AO38:AO50&amp;","&amp;AP38:AP50&amp;","&amp;AQ38:AQ50&amp;","&amp;AR38:AR50&amp;","&amp;AS38:AS50&amp;","&amp;AT38:AT50&amp;","&amp;AU38:AU50&amp;","&amp;AV38:AV50</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:50">
       <c r="C47" s="1">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>153</v>
@@ -9355,11 +9375,11 @@
         <v>0</v>
       </c>
       <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
         <v>0.002</v>
       </c>
-      <c r="AE47" s="1">
-        <v>0</v>
-      </c>
       <c r="AF47" s="1">
         <v>0</v>
       </c>
@@ -9412,17 +9432,17 @@
         <v>0</v>
       </c>
       <c r="AW47" s="10" t="str">
-        <f t="shared" ref="AW47:AW52" si="4">AC39:AC51&amp;","&amp;AD39:AD51&amp;","&amp;AE39:AE51&amp;","&amp;AF39:AF51&amp;","&amp;AG39:AG51&amp;","&amp;AH39:AH51&amp;","&amp;AI39:AI51&amp;","&amp;AJ39:AJ51&amp;","&amp;AK39:AK51&amp;","&amp;AL39:AL51</f>
-        <v>0,0.002,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="4"/>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX47" s="10" t="str">
-        <f t="shared" ref="AX47:AX52" si="5">AM39:AM51&amp;","&amp;AN39:AN51&amp;","&amp;AO39:AO51&amp;","&amp;AP39:AP51&amp;","&amp;AQ39:AQ51&amp;","&amp;AR39:AR51&amp;","&amp;AS39:AS51&amp;","&amp;AT39:AT51&amp;","&amp;AU39:AU51&amp;","&amp;AV39:AV51</f>
+        <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:50">
       <c r="C48" s="1">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>154</v>
@@ -9506,10 +9526,10 @@
         <v>0</v>
       </c>
       <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
         <v>0.002</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>0</v>
       </c>
       <c r="AG48" s="1">
         <v>0</v>
@@ -9561,7 +9581,7 @@
       </c>
       <c r="AW48" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0.002,0,0,0,0,0,0,0</v>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
       </c>
       <c r="AX48" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9570,7 +9590,7 @@
     </row>
     <row r="49" customHeight="1" spans="3:50">
       <c r="C49" s="1">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>155</v>
@@ -9657,10 +9677,10 @@
         <v>0</v>
       </c>
       <c r="AF49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="1">
         <v>0.002</v>
-      </c>
-      <c r="AG49" s="1">
-        <v>0</v>
       </c>
       <c r="AH49" s="1">
         <v>0</v>
@@ -9709,7 +9729,7 @@
       </c>
       <c r="AW49" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0,0.002,0,0,0,0,0,0</v>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
       <c r="AX49" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9718,7 +9738,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:50">
       <c r="C50" s="1">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>156</v>
@@ -9808,10 +9828,10 @@
         <v>0</v>
       </c>
       <c r="AG50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="1">
         <v>0.002</v>
-      </c>
-      <c r="AH50" s="1">
-        <v>0</v>
       </c>
       <c r="AI50" s="1">
         <v>0</v>
@@ -9857,7 +9877,7 @@
       </c>
       <c r="AW50" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0,0,0.002,0,0,0,0,0</v>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
       <c r="AX50" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9866,7 +9886,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:50">
       <c r="C51" s="1">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>157</v>
@@ -9959,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="AH51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="1">
         <v>0.002</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0</v>
       </c>
       <c r="AJ51" s="1">
         <v>0</v>
@@ -10005,7 +10025,7 @@
       </c>
       <c r="AW51" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0.002,0,0,0,0</v>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
       <c r="AX51" s="10" t="str">
         <f t="shared" si="5"/>
@@ -10014,7 +10034,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:50">
       <c r="C52" s="1">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>158</v>
@@ -10110,11 +10130,11 @@
         <v>0</v>
       </c>
       <c r="AI52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="1">
         <v>0.002</v>
       </c>
-      <c r="AJ52" s="1">
-        <v>0</v>
-      </c>
       <c r="AK52" s="1">
         <v>0</v>
       </c>
@@ -10152,17 +10172,17 @@
         <v>0</v>
       </c>
       <c r="AW52" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0.002,0,0,0</v>
+        <f t="shared" ref="AW47:AW81" si="6">AC46:AC56&amp;","&amp;AD46:AD56&amp;","&amp;AE46:AE56&amp;","&amp;AF46:AF56&amp;","&amp;AG46:AG56&amp;","&amp;AH46:AH56&amp;","&amp;AI46:AI56&amp;","&amp;AJ46:AJ56&amp;","&amp;AK46:AK56&amp;","&amp;AL46:AL56</f>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
       <c r="AX52" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AX47:AX81" si="7">AM46:AM56&amp;","&amp;AN46:AN56&amp;","&amp;AO46:AO56&amp;","&amp;AP46:AP56&amp;","&amp;AQ46:AQ56&amp;","&amp;AR46:AR56&amp;","&amp;AS46:AS56&amp;","&amp;AT46:AT56&amp;","&amp;AU46:AU56&amp;","&amp;AV46:AV56</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:50">
       <c r="C53" s="1">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>159</v>
@@ -10261,11 +10281,11 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="1">
         <v>0.002</v>
       </c>
-      <c r="AK53" s="1">
-        <v>0</v>
-      </c>
       <c r="AL53" s="1">
         <v>0</v>
       </c>
@@ -10300,17 +10320,17 @@
         <v>0</v>
       </c>
       <c r="AW53" s="10" t="str">
-        <f t="shared" ref="AW48:AW82" si="6">AC47:AC57&amp;","&amp;AD47:AD57&amp;","&amp;AE47:AE57&amp;","&amp;AF47:AF57&amp;","&amp;AG47:AG57&amp;","&amp;AH47:AH57&amp;","&amp;AI47:AI57&amp;","&amp;AJ47:AJ57&amp;","&amp;AK47:AK57&amp;","&amp;AL47:AL57</f>
-        <v>0,0,0,0,0,0,0,0.002,0,0</v>
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
       <c r="AX53" s="10" t="str">
-        <f t="shared" ref="AX48:AX82" si="7">AM47:AM57&amp;","&amp;AN47:AN57&amp;","&amp;AO47:AO57&amp;","&amp;AP47:AP57&amp;","&amp;AQ47:AQ57&amp;","&amp;AR47:AR57&amp;","&amp;AS47:AS57&amp;","&amp;AT47:AT57&amp;","&amp;AU47:AU57&amp;","&amp;AV47:AV57</f>
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:50">
       <c r="C54" s="1">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>160</v>
@@ -10412,10 +10432,10 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="1">
         <v>0.002</v>
-      </c>
-      <c r="AL54" s="1">
-        <v>0</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -10449,7 +10469,7 @@
       </c>
       <c r="AW54" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0.002,0</v>
+        <v>0,0,0,0,0,0,0,0,0,0.002</v>
       </c>
       <c r="AX54" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10458,7 +10478,7 @@
     </row>
     <row r="55" customHeight="1" spans="3:50">
       <c r="C55" s="1">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>161</v>
@@ -10539,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AE55" s="1">
         <v>0</v>
@@ -10563,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="1">
         <v>0</v>
@@ -10597,7 +10617,7 @@
       </c>
       <c r="AW55" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0.002</v>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX55" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10606,7 +10626,7 @@
     </row>
     <row r="56" customHeight="1" spans="3:50">
       <c r="C56" s="1">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>162</v>
@@ -10687,10 +10707,10 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>0</v>
       </c>
       <c r="AF56" s="1">
         <v>0</v>
@@ -10745,7 +10765,7 @@
       </c>
       <c r="AW56" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0.005,0,0,0,0,0,0,0,0</v>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX56" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10754,7 +10774,7 @@
     </row>
     <row r="57" customHeight="1" spans="3:50">
       <c r="C57" s="1">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>163</v>
@@ -10838,10 +10858,10 @@
         <v>0</v>
       </c>
       <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>0</v>
       </c>
       <c r="AG57" s="1">
         <v>0</v>
@@ -10893,7 +10913,7 @@
       </c>
       <c r="AW57" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0.005,0,0,0,0,0,0,0</v>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
       <c r="AX57" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10902,7 +10922,7 @@
     </row>
     <row r="58" customHeight="1" spans="3:50">
       <c r="C58" s="1">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>164</v>
@@ -10989,10 +11009,10 @@
         <v>0</v>
       </c>
       <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AG58" s="1">
-        <v>0</v>
       </c>
       <c r="AH58" s="1">
         <v>0</v>
@@ -11041,7 +11061,7 @@
       </c>
       <c r="AW58" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0.005,0,0,0,0,0,0</v>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
       <c r="AX58" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11050,7 +11070,7 @@
     </row>
     <row r="59" customHeight="1" spans="3:50">
       <c r="C59" s="1">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>165</v>
@@ -11140,10 +11160,10 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AH59" s="1">
-        <v>0</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
@@ -11189,7 +11209,7 @@
       </c>
       <c r="AW59" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0.005,0,0,0,0,0</v>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
       <c r="AX59" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11198,7 +11218,7 @@
     </row>
     <row r="60" customHeight="1" spans="3:50">
       <c r="C60" s="1">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>166</v>
@@ -11291,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="AH60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AI60" s="1">
-        <v>0</v>
       </c>
       <c r="AJ60" s="1">
         <v>0</v>
@@ -11337,7 +11357,7 @@
       </c>
       <c r="AW60" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0.005,0,0,0,0</v>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
       <c r="AX60" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11346,7 +11366,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:50">
       <c r="C61" s="1">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>167</v>
@@ -11442,10 +11462,10 @@
         <v>0</v>
       </c>
       <c r="AI61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AJ61" s="1">
-        <v>0</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -11485,7 +11505,7 @@
       </c>
       <c r="AW61" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0.005,0,0,0</v>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
       <c r="AX61" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11494,7 +11514,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:50">
       <c r="C62" s="1">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>168</v>
@@ -11593,10 +11613,10 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AK62" s="1">
-        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -11633,7 +11653,7 @@
       </c>
       <c r="AW62" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0.005,0,0</v>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
       </c>
       <c r="AX62" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11642,7 +11662,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:50">
       <c r="C63" s="1">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>169</v>
@@ -11744,10 +11764,10 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
         <v>0.005</v>
-      </c>
-      <c r="AL63" s="1">
-        <v>0</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11781,164 +11801,164 @@
       </c>
       <c r="AW63" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0.005,0</v>
+        <v>0,0,0,0,0,0,0,0,0,0.005</v>
       </c>
       <c r="AX63" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="3:50">
-      <c r="C64" s="1">
-        <v>3067</v>
-      </c>
-      <c r="D64" s="1" t="s">
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:50">
+      <c r="C64" s="2">
+        <v>3068</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="12">
-        <v>0</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>0</v>
-      </c>
-      <c r="S64" s="1">
-        <v>0</v>
-      </c>
-      <c r="T64" s="1">
-        <v>0</v>
-      </c>
-      <c r="U64" s="1">
-        <v>0</v>
-      </c>
-      <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="1">
-        <v>0</v>
-      </c>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="1">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+      <c r="M64" s="16">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
         <v>0</v>
       </c>
       <c r="AB64" s="1">
         <v>0</v>
       </c>
-      <c r="AC64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="AM64" s="1">
+      <c r="AC64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="2">
         <v>0</v>
       </c>
       <c r="AN64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="10" t="str">
+        <v>0.002</v>
+      </c>
+      <c r="AO64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0.005</v>
-      </c>
-      <c r="AX64" s="10" t="str">
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AX64" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C65" s="2">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>171</v>
@@ -11967,7 +11987,7 @@
       <c r="L65" s="2">
         <v>0</v>
       </c>
-      <c r="M65" s="19">
+      <c r="M65" s="16">
         <v>0</v>
       </c>
       <c r="N65" s="2">
@@ -12048,12 +12068,12 @@
       <c r="AM65" s="2">
         <v>0</v>
       </c>
-      <c r="AN65" s="1">
+      <c r="AN65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="1">
         <v>0.002</v>
       </c>
-      <c r="AO65" s="2">
-        <v>0</v>
-      </c>
       <c r="AP65" s="2">
         <v>0</v>
       </c>
@@ -12075,18 +12095,18 @@
       <c r="AV65" s="2">
         <v>0</v>
       </c>
-      <c r="AW65" s="20" t="str">
+      <c r="AW65" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX65" s="20" t="str">
+      <c r="AX65" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0.002,0,0,0,0,0,0,0,0</v>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C66" s="2">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>172</v>
@@ -12115,7 +12135,7 @@
       <c r="L66" s="2">
         <v>0</v>
       </c>
-      <c r="M66" s="19">
+      <c r="M66" s="16">
         <v>0</v>
       </c>
       <c r="N66" s="2">
@@ -12199,12 +12219,12 @@
       <c r="AN66" s="2">
         <v>0</v>
       </c>
-      <c r="AO66" s="1">
+      <c r="AO66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="1">
         <v>0.002</v>
       </c>
-      <c r="AP66" s="2">
-        <v>0</v>
-      </c>
       <c r="AQ66" s="2">
         <v>0</v>
       </c>
@@ -12223,18 +12243,18 @@
       <c r="AV66" s="2">
         <v>0</v>
       </c>
-      <c r="AW66" s="20" t="str">
+      <c r="AW66" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX66" s="20" t="str">
+      <c r="AX66" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0.002,0,0,0,0,0,0,0</v>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C67" s="2">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>173</v>
@@ -12263,7 +12283,7 @@
       <c r="L67" s="2">
         <v>0</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M67" s="16">
         <v>0</v>
       </c>
       <c r="N67" s="2">
@@ -12350,12 +12370,12 @@
       <c r="AO67" s="2">
         <v>0</v>
       </c>
-      <c r="AP67" s="1">
+      <c r="AP67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="1">
         <v>0.002</v>
       </c>
-      <c r="AQ67" s="2">
-        <v>0</v>
-      </c>
       <c r="AR67" s="2">
         <v>0</v>
       </c>
@@ -12371,18 +12391,18 @@
       <c r="AV67" s="2">
         <v>0</v>
       </c>
-      <c r="AW67" s="20" t="str">
+      <c r="AW67" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX67" s="20" t="str">
+      <c r="AX67" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0.002,0,0,0,0,0,0</v>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C68" s="2">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>174</v>
@@ -12411,7 +12431,7 @@
       <c r="L68" s="2">
         <v>0</v>
       </c>
-      <c r="M68" s="19">
+      <c r="M68" s="16">
         <v>0</v>
       </c>
       <c r="N68" s="2">
@@ -12501,12 +12521,12 @@
       <c r="AP68" s="2">
         <v>0</v>
       </c>
-      <c r="AQ68" s="1">
+      <c r="AQ68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="1">
         <v>0.002</v>
       </c>
-      <c r="AR68" s="2">
-        <v>0</v>
-      </c>
       <c r="AS68" s="2">
         <v>0</v>
       </c>
@@ -12519,18 +12539,18 @@
       <c r="AV68" s="2">
         <v>0</v>
       </c>
-      <c r="AW68" s="20" t="str">
+      <c r="AW68" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX68" s="20" t="str">
+      <c r="AX68" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0.002,0,0,0,0,0</v>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C69" s="2">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>175</v>
@@ -12559,7 +12579,7 @@
       <c r="L69" s="2">
         <v>0</v>
       </c>
-      <c r="M69" s="19">
+      <c r="M69" s="16">
         <v>0</v>
       </c>
       <c r="N69" s="2">
@@ -12652,12 +12672,12 @@
       <c r="AQ69" s="2">
         <v>0</v>
       </c>
-      <c r="AR69" s="1">
+      <c r="AR69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="1">
         <v>0.002</v>
       </c>
-      <c r="AS69" s="2">
-        <v>0</v>
-      </c>
       <c r="AT69" s="2">
         <v>0</v>
       </c>
@@ -12667,18 +12687,18 @@
       <c r="AV69" s="2">
         <v>0</v>
       </c>
-      <c r="AW69" s="20" t="str">
+      <c r="AW69" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX69" s="20" t="str">
+      <c r="AX69" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0.002,0,0,0,0</v>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C70" s="2">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>176</v>
@@ -12707,7 +12727,7 @@
       <c r="L70" s="2">
         <v>0</v>
       </c>
-      <c r="M70" s="19">
+      <c r="M70" s="16">
         <v>0</v>
       </c>
       <c r="N70" s="2">
@@ -12803,30 +12823,30 @@
       <c r="AR70" s="2">
         <v>0</v>
       </c>
-      <c r="AS70" s="1">
+      <c r="AS70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="1">
         <v>0.002</v>
       </c>
-      <c r="AT70" s="2">
-        <v>0</v>
-      </c>
       <c r="AU70" s="2">
         <v>0</v>
       </c>
       <c r="AV70" s="2">
         <v>0</v>
       </c>
-      <c r="AW70" s="20" t="str">
+      <c r="AW70" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX70" s="20" t="str">
+      <c r="AX70" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0.002,0,0,0</v>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C71" s="2">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>177</v>
@@ -12855,7 +12875,7 @@
       <c r="L71" s="2">
         <v>0</v>
       </c>
-      <c r="M71" s="19">
+      <c r="M71" s="16">
         <v>0</v>
       </c>
       <c r="N71" s="2">
@@ -12954,27 +12974,27 @@
       <c r="AS71" s="2">
         <v>0</v>
       </c>
-      <c r="AT71" s="1">
+      <c r="AT71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="1">
         <v>0.002</v>
       </c>
-      <c r="AU71" s="2">
-        <v>0</v>
-      </c>
       <c r="AV71" s="2">
         <v>0</v>
       </c>
-      <c r="AW71" s="20" t="str">
+      <c r="AW71" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX71" s="20" t="str">
+      <c r="AX71" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0.002,0,0</v>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C72" s="2">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>178</v>
@@ -13003,7 +13023,7 @@
       <c r="L72" s="2">
         <v>0</v>
       </c>
-      <c r="M72" s="19">
+      <c r="M72" s="16">
         <v>0</v>
       </c>
       <c r="N72" s="2">
@@ -13105,24 +13125,24 @@
       <c r="AT72" s="2">
         <v>0</v>
       </c>
-      <c r="AU72" s="1">
-        <v>0.002</v>
+      <c r="AU72" s="2">
+        <v>0</v>
       </c>
       <c r="AV72" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW72" s="20" t="str">
+        <v>20</v>
+      </c>
+      <c r="AW72" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX72" s="20" t="str">
+      <c r="AX72" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0,0.002,0</v>
+        <v>0,0,0,0,0,0,0,0,0,20</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C73" s="2">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>179</v>
@@ -13151,7 +13171,7 @@
       <c r="L73" s="2">
         <v>0</v>
       </c>
-      <c r="M73" s="19">
+      <c r="M73" s="12">
         <v>0</v>
       </c>
       <c r="N73" s="2">
@@ -13232,8 +13252,8 @@
       <c r="AM73" s="2">
         <v>0</v>
       </c>
-      <c r="AN73" s="2">
-        <v>0</v>
+      <c r="AN73" s="1">
+        <v>0.005</v>
       </c>
       <c r="AO73" s="2">
         <v>0</v>
@@ -13257,20 +13277,20 @@
         <v>0</v>
       </c>
       <c r="AV73" s="2">
-        <v>20</v>
-      </c>
-      <c r="AW73" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX73" s="20" t="str">
+      <c r="AX73" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0,0,20</v>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C74" s="2">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>180</v>
@@ -13380,12 +13400,12 @@
       <c r="AM74" s="2">
         <v>0</v>
       </c>
-      <c r="AN74" s="1">
+      <c r="AN74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="1">
         <v>0.005</v>
       </c>
-      <c r="AO74" s="2">
-        <v>0</v>
-      </c>
       <c r="AP74" s="2">
         <v>0</v>
       </c>
@@ -13407,18 +13427,18 @@
       <c r="AV74" s="2">
         <v>0</v>
       </c>
-      <c r="AW74" s="20" t="str">
+      <c r="AW74" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX74" s="20" t="str">
+      <c r="AX74" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0.005,0,0,0,0,0,0,0,0</v>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C75" s="2">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>181</v>
@@ -13531,12 +13551,12 @@
       <c r="AN75" s="2">
         <v>0</v>
       </c>
-      <c r="AO75" s="1">
+      <c r="AO75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="1">
         <v>0.005</v>
       </c>
-      <c r="AP75" s="2">
-        <v>0</v>
-      </c>
       <c r="AQ75" s="2">
         <v>0</v>
       </c>
@@ -13555,18 +13575,18 @@
       <c r="AV75" s="2">
         <v>0</v>
       </c>
-      <c r="AW75" s="20" t="str">
+      <c r="AW75" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX75" s="20" t="str">
+      <c r="AX75" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0.005,0,0,0,0,0,0,0</v>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C76" s="2">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>182</v>
@@ -13682,12 +13702,12 @@
       <c r="AO76" s="2">
         <v>0</v>
       </c>
-      <c r="AP76" s="1">
+      <c r="AP76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="1">
         <v>0.005</v>
       </c>
-      <c r="AQ76" s="2">
-        <v>0</v>
-      </c>
       <c r="AR76" s="2">
         <v>0</v>
       </c>
@@ -13703,18 +13723,18 @@
       <c r="AV76" s="2">
         <v>0</v>
       </c>
-      <c r="AW76" s="20" t="str">
+      <c r="AW76" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX76" s="20" t="str">
+      <c r="AX76" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0.005,0,0,0,0,0,0</v>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C77" s="2">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>183</v>
@@ -13833,12 +13853,12 @@
       <c r="AP77" s="2">
         <v>0</v>
       </c>
-      <c r="AQ77" s="1">
+      <c r="AQ77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="1">
         <v>0.005</v>
       </c>
-      <c r="AR77" s="2">
-        <v>0</v>
-      </c>
       <c r="AS77" s="2">
         <v>0</v>
       </c>
@@ -13851,18 +13871,18 @@
       <c r="AV77" s="2">
         <v>0</v>
       </c>
-      <c r="AW77" s="20" t="str">
+      <c r="AW77" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX77" s="20" t="str">
+      <c r="AX77" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0.005,0,0,0,0,0</v>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C78" s="2">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>184</v>
@@ -13984,12 +14004,12 @@
       <c r="AQ78" s="2">
         <v>0</v>
       </c>
-      <c r="AR78" s="1">
+      <c r="AR78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="1">
         <v>0.005</v>
       </c>
-      <c r="AS78" s="2">
-        <v>0</v>
-      </c>
       <c r="AT78" s="2">
         <v>0</v>
       </c>
@@ -13999,18 +14019,18 @@
       <c r="AV78" s="2">
         <v>0</v>
       </c>
-      <c r="AW78" s="20" t="str">
+      <c r="AW78" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX78" s="20" t="str">
+      <c r="AX78" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0.005,0,0,0,0</v>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C79" s="2">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>185</v>
@@ -14135,30 +14155,30 @@
       <c r="AR79" s="2">
         <v>0</v>
       </c>
-      <c r="AS79" s="1">
+      <c r="AS79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT79" s="1">
         <v>0.005</v>
       </c>
-      <c r="AT79" s="2">
-        <v>0</v>
-      </c>
       <c r="AU79" s="2">
         <v>0</v>
       </c>
       <c r="AV79" s="2">
         <v>0</v>
       </c>
-      <c r="AW79" s="20" t="str">
+      <c r="AW79" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX79" s="20" t="str">
+      <c r="AX79" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0.005,0,0,0</v>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C80" s="2">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>186</v>
@@ -14286,27 +14306,27 @@
       <c r="AS80" s="2">
         <v>0</v>
       </c>
-      <c r="AT80" s="1">
+      <c r="AT80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU80" s="1">
         <v>0.005</v>
       </c>
-      <c r="AU80" s="2">
-        <v>0</v>
-      </c>
       <c r="AV80" s="2">
         <v>0</v>
       </c>
-      <c r="AW80" s="20" t="str">
+      <c r="AW80" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX80" s="20" t="str">
+      <c r="AX80" s="19" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0.005,0,0</v>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C81" s="2">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>187</v>
@@ -14437,185 +14457,185 @@
       <c r="AT81" s="2">
         <v>0</v>
       </c>
-      <c r="AU81" s="1">
-        <v>0.005</v>
+      <c r="AU81" s="2">
+        <v>0</v>
       </c>
       <c r="AV81" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW81" s="20" t="str">
+        <v>50</v>
+      </c>
+      <c r="AW81" s="19" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX81" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0,0.005,0</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="1" customHeight="1" spans="3:50">
-      <c r="C82" s="2">
-        <v>3085</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" s="2">
-        <v>0</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0</v>
-      </c>
-      <c r="G82" s="2">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2">
-        <v>0</v>
-      </c>
-      <c r="M82" s="12">
-        <v>0</v>
-      </c>
-      <c r="N82" s="2">
-        <v>0</v>
-      </c>
-      <c r="O82" s="2">
-        <v>0</v>
-      </c>
-      <c r="P82" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>0</v>
-      </c>
-      <c r="R82" s="2">
-        <v>0</v>
-      </c>
-      <c r="S82" s="2">
-        <v>0</v>
-      </c>
-      <c r="T82" s="2">
-        <v>0</v>
-      </c>
-      <c r="U82" s="2">
-        <v>0</v>
-      </c>
-      <c r="V82" s="2">
-        <v>0</v>
-      </c>
-      <c r="W82" s="2">
-        <v>0</v>
-      </c>
-      <c r="X82" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV82" s="2">
-        <v>50</v>
-      </c>
-      <c r="AW82" s="20" t="str">
-        <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX82" s="20" t="str">
+      <c r="AX81" s="19" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:50">
+      <c r="C82" s="1">
+        <v>3200</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="1">
+        <v>180</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="12">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0</v>
+      </c>
+      <c r="X82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW82" s="10" t="str">
+        <f t="shared" ref="AW82:AW95" si="8">AC76:AC86&amp;","&amp;AD76:AD86&amp;","&amp;AE76:AE86&amp;","&amp;AF76:AF86&amp;","&amp;AG76:AG86&amp;","&amp;AH76:AH86&amp;","&amp;AI76:AI86&amp;","&amp;AJ76:AJ86&amp;","&amp;AK76:AK86&amp;","&amp;AL76:AL86</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AX82" s="10" t="str">
+        <f t="shared" ref="AX82:AX95" si="9">AM76:AM86&amp;","&amp;AN76:AN86&amp;","&amp;AO76:AO86&amp;","&amp;AP76:AP86&amp;","&amp;AQ76:AQ86&amp;","&amp;AR76:AR86&amp;","&amp;AS76:AS86&amp;","&amp;AT76:AT86&amp;","&amp;AU76:AU86&amp;","&amp;AV76:AV86</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:50">
       <c r="C83" s="1">
-        <v>3200</v>
-      </c>
-      <c r="D83" s="18" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
         <v>180</v>
       </c>
-      <c r="F83" s="1">
-        <v>0</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
       <c r="H83" s="1">
         <v>0</v>
       </c>
@@ -14740,17 +14760,17 @@
         <v>0</v>
       </c>
       <c r="AW83" s="10" t="str">
-        <f t="shared" ref="AW83:AW96" si="8">AC77:AC87&amp;","&amp;AD77:AD87&amp;","&amp;AE77:AE87&amp;","&amp;AF77:AF87&amp;","&amp;AG77:AG87&amp;","&amp;AH77:AH87&amp;","&amp;AI77:AI87&amp;","&amp;AJ77:AJ87&amp;","&amp;AK77:AK87&amp;","&amp;AL77:AL87</f>
+        <f t="shared" si="8"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX83" s="10" t="str">
-        <f t="shared" ref="AX83:AX96" si="9">AM77:AM87&amp;","&amp;AN77:AN87&amp;","&amp;AO77:AO87&amp;","&amp;AP77:AP87&amp;","&amp;AQ77:AQ87&amp;","&amp;AR77:AR87&amp;","&amp;AS77:AS87&amp;","&amp;AT77:AT87&amp;","&amp;AU77:AU87&amp;","&amp;AV77:AV87</f>
+        <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:50">
       <c r="C84" s="1">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>190</v>
@@ -14762,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
@@ -14804,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V84" s="1">
         <v>0</v>
@@ -14898,7 +14918,7 @@
     </row>
     <row r="85" customHeight="1" spans="3:50">
       <c r="C85" s="1">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>191</v>
@@ -14907,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
@@ -14952,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="V85" s="1">
         <v>0</v>
@@ -14978,7 +14998,7 @@
       <c r="AC85" s="1">
         <v>0</v>
       </c>
-      <c r="AD85" s="2">
+      <c r="AD85" s="1">
         <v>0</v>
       </c>
       <c r="AE85" s="1">
@@ -15046,7 +15066,7 @@
     </row>
     <row r="86" customHeight="1" spans="3:50">
       <c r="C86" s="1">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>192</v>
@@ -15055,13 +15075,13 @@
         <v>0</v>
       </c>
       <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
         <v>0.045</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -15194,7 +15214,7 @@
     </row>
     <row r="87" customHeight="1" spans="3:50">
       <c r="C87" s="1">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>193</v>
@@ -15209,49 +15229,49 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="12">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1">
+        <v>0</v>
+      </c>
+      <c r="V87" s="1">
         <v>0.045</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
-      </c>
-      <c r="J87" s="1">
-        <v>0</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0</v>
-      </c>
-      <c r="L87" s="1">
-        <v>0</v>
-      </c>
-      <c r="M87" s="12">
-        <v>0</v>
-      </c>
-      <c r="N87" s="1">
-        <v>0</v>
-      </c>
-      <c r="O87" s="1">
-        <v>0</v>
-      </c>
-      <c r="P87" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>0</v>
-      </c>
-      <c r="R87" s="1">
-        <v>0</v>
-      </c>
-      <c r="S87" s="1">
-        <v>0</v>
-      </c>
-      <c r="T87" s="1">
-        <v>0</v>
-      </c>
-      <c r="U87" s="1">
-        <v>0</v>
-      </c>
-      <c r="V87" s="1">
-        <v>0</v>
       </c>
       <c r="W87" s="1">
         <v>0</v>
@@ -15342,7 +15362,7 @@
     </row>
     <row r="88" customHeight="1" spans="3:50">
       <c r="C88" s="1">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>194</v>
@@ -15390,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
@@ -15399,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="V88" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="W88" s="1">
         <v>0</v>
@@ -15490,7 +15510,7 @@
     </row>
     <row r="89" customHeight="1" spans="3:50">
       <c r="C89" s="1">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>195</v>
@@ -15538,10 +15558,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
         <v>850</v>
-      </c>
-      <c r="T89" s="1">
-        <v>0</v>
       </c>
       <c r="U89" s="1">
         <v>0</v>
@@ -15638,7 +15658,7 @@
     </row>
     <row r="90" customHeight="1" spans="3:50">
       <c r="C90" s="1">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>196</v>
@@ -15656,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
@@ -15689,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="T90" s="1">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="U90" s="1">
         <v>0</v>
@@ -15786,7 +15806,7 @@
     </row>
     <row r="91" customHeight="1" spans="3:50">
       <c r="C91" s="1">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>197</v>
@@ -15804,10 +15824,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K91" s="1">
         <v>0</v>
@@ -15934,7 +15954,7 @@
     </row>
     <row r="92" customHeight="1" spans="3:50">
       <c r="C92" s="1">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>198</v>
@@ -15955,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="1">
-        <v>210</v>
+        <v>1025</v>
       </c>
       <c r="K92" s="1">
         <v>0</v>
@@ -16082,7 +16102,7 @@
     </row>
     <row r="93" customHeight="1" spans="3:50">
       <c r="C93" s="1">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>199</v>
@@ -16103,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="1">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
         <v>0</v>
@@ -16127,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="S93" s="1">
         <v>0</v>
@@ -16230,7 +16250,7 @@
     </row>
     <row r="94" customHeight="1" spans="3:50">
       <c r="C94" s="1">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>200</v>
@@ -16269,13 +16289,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="Q94" s="1">
         <v>0</v>
       </c>
       <c r="R94" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="S94" s="1">
         <v>0</v>
@@ -16378,7 +16398,7 @@
     </row>
     <row r="95" customHeight="1" spans="3:50">
       <c r="C95" s="1">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>201</v>
@@ -16408,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="12">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="N95" s="1">
         <v>0</v>
@@ -16417,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="P95" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="1">
         <v>0</v>
@@ -16520,154 +16540,6 @@
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX95" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:50">
-      <c r="C96" s="1">
-        <v>3213</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
-        <v>0</v>
-      </c>
-      <c r="J96" s="1">
-        <v>0</v>
-      </c>
-      <c r="K96" s="1">
-        <v>0</v>
-      </c>
-      <c r="L96" s="1">
-        <v>0</v>
-      </c>
-      <c r="M96" s="12">
-        <v>0.045</v>
-      </c>
-      <c r="N96" s="1">
-        <v>0</v>
-      </c>
-      <c r="O96" s="1">
-        <v>0</v>
-      </c>
-      <c r="P96" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="1">
-        <v>0</v>
-      </c>
-      <c r="R96" s="1">
-        <v>0</v>
-      </c>
-      <c r="S96" s="1">
-        <v>0</v>
-      </c>
-      <c r="T96" s="1">
-        <v>0</v>
-      </c>
-      <c r="U96" s="1">
-        <v>0</v>
-      </c>
-      <c r="V96" s="1">
-        <v>0</v>
-      </c>
-      <c r="W96" s="1">
-        <v>0</v>
-      </c>
-      <c r="X96" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV96" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW96" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX96" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>

--- a/config/excel/Att.xlsx
+++ b/config/excel/Att.xlsx
@@ -66,6 +66,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关联hero表attId列。不同角色卡牌1级的</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E7" authorId="0">
       <text>
         <r>
@@ -84,7 +106,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-取卡牌升级50级数值</t>
+取卡牌升级50级数值，注意不是最终值，最终值走公式，还要乘品质和职业系数。所以这里的固定值需要填相同</t>
         </r>
       </text>
     </comment>
@@ -111,7 +133,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0">
+    <comment ref="D20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+此行为卡牌升级固定值，在卡牌升级公式中会被读取。
+但注意此行填的攻防血数值，并不是卡牌1级时的最终值。最终值会根据卡牌升级公式走，还要乘品质系数、职业系数等形成差异。
+此行同时兼顾1级默认值，比如暴击值初始为5%，移动速度初始为每秒10米等，需要填入。升级时只有填了成长率的属性（目前是攻防血）才会走公式。其他没有填成长率的属性为1级的默认值。
+如果想要初始1级时，不同卡牌的默认值有差异，比如卡牌A和卡牌B的初始速度不同。那就只能填多个固定值即多行，分别对应hero表了</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="203">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -524,6 +571,9 @@
     <t>卡牌升级成长率</t>
   </si>
   <si>
+    <t>卡牌升级固定值+1级默认值</t>
+  </si>
+  <si>
     <t>武器升级攻击力固定值</t>
   </si>
   <si>
@@ -757,9 +807,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -796,14 +846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -813,15 +855,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,21 +892,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,9 +905,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,16 +929,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -919,14 +962,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -935,6 +970,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,13 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,13 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,13 +1082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,49 +1094,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,31 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,7 +1130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,7 +1160,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,41 +1250,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,13 +1283,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,16 +1336,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,7 +1365,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,124 +1374,124 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1474,19 +1524,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2687,10 +2737,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX95"/>
+  <dimension ref="A1:AX96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83:K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -3372,13 +3422,13 @@
         <v>112</v>
       </c>
       <c r="E7" s="11">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
@@ -3420,7 +3470,7 @@
         <v>5000</v>
       </c>
       <c r="U7" s="12">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="V7" s="12">
         <v>0</v>
@@ -3431,16 +3481,16 @@
       <c r="X7" s="12">
         <v>200</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="16">
         <v>1000</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="16">
         <v>10000</v>
       </c>
-      <c r="AA7" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="17">
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
         <v>10</v>
       </c>
       <c r="AC7" s="12">
@@ -3521,14 +3571,14 @@
       <c r="D8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>550</v>
       </c>
       <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="H8" s="12">
         <v>0</v>
@@ -3570,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="12">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="V8" s="12">
         <v>0</v>
@@ -3581,16 +3631,16 @@
       <c r="X8" s="12">
         <v>200</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="16">
         <v>1000</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="16">
         <v>10000</v>
       </c>
-      <c r="AA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="17">
+      <c r="AA8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="16">
         <v>10</v>
       </c>
       <c r="AC8" s="12">
@@ -3671,14 +3721,14 @@
       <c r="D9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="12">
-        <v>660</v>
+      <c r="E9" s="11">
+        <v>550</v>
       </c>
       <c r="F9" s="11">
         <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>424</v>
+        <v>550</v>
       </c>
       <c r="H9" s="12">
         <v>0</v>
@@ -3720,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="12">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="V9" s="12">
         <v>0</v>
@@ -3731,16 +3781,16 @@
       <c r="X9" s="12">
         <v>200</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="16">
         <v>1000</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="16">
         <v>10000</v>
       </c>
-      <c r="AA9" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="17">
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16">
         <v>10</v>
       </c>
       <c r="AC9" s="12">
@@ -3773,31 +3823,31 @@
       <c r="AL9" s="12">
         <v>0</v>
       </c>
-      <c r="AM9" s="18" t="s">
+      <c r="AM9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AN9" s="18" t="s">
+      <c r="AN9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AO9" s="18" t="s">
+      <c r="AO9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AP9" s="18" t="s">
+      <c r="AP9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AQ9" s="18" t="s">
+      <c r="AQ9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AR9" s="18" t="s">
+      <c r="AR9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AS9" s="18" t="s">
+      <c r="AS9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AT9" s="18" t="s">
+      <c r="AT9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AU9" s="18" t="s">
+      <c r="AU9" s="17" t="s">
         <v>115</v>
       </c>
       <c r="AV9" s="12">
@@ -3821,14 +3871,14 @@
       <c r="D10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>550</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
       </c>
       <c r="G10" s="12">
-        <v>424</v>
+        <v>550</v>
       </c>
       <c r="H10" s="12">
         <v>0</v>
@@ -3870,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="12">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="V10" s="12">
         <v>0</v>
@@ -3881,16 +3931,16 @@
       <c r="X10" s="12">
         <v>200</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="16">
         <v>1000</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="Z10" s="16">
         <v>10000</v>
       </c>
-      <c r="AA10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="17">
+      <c r="AA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
         <v>10</v>
       </c>
       <c r="AC10" s="12">
@@ -4031,16 +4081,16 @@
       <c r="X11" s="12">
         <v>200</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="16">
         <v>1000</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="Z11" s="16">
         <v>10000</v>
       </c>
-      <c r="AA11" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="17">
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16">
         <v>10</v>
       </c>
       <c r="AC11" s="12">
@@ -4179,16 +4229,16 @@
       <c r="X12" s="12">
         <v>200</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="16">
         <v>1000</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="16">
         <v>10000</v>
       </c>
-      <c r="AA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="17">
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
         <v>10</v>
       </c>
       <c r="AC12" s="12">
@@ -4327,16 +4377,16 @@
       <c r="X13" s="12">
         <v>200</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="16">
         <v>1000</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="Z13" s="16">
         <v>10000</v>
       </c>
-      <c r="AA13" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="17">
+      <c r="AA13" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="16">
         <v>10</v>
       </c>
       <c r="AC13" s="12">
@@ -4464,7 +4514,7 @@
         <v>350</v>
       </c>
       <c r="U14" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -4612,7 +4662,7 @@
         <v>650</v>
       </c>
       <c r="U15" s="1">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
@@ -4760,7 +4810,7 @@
         <v>950</v>
       </c>
       <c r="U16" s="1">
-        <v>1750</v>
+        <v>3500</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4908,7 +4958,7 @@
         <v>1250</v>
       </c>
       <c r="U17" s="1">
-        <v>2250</v>
+        <v>4500</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
@@ -5056,7 +5106,7 @@
         <v>1550</v>
       </c>
       <c r="U18" s="1">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
@@ -5140,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="AW18" s="10" t="str">
-        <f>AC11:AC20&amp;","&amp;AD11:AD20&amp;","&amp;AE11:AE20&amp;","&amp;AF11:AF20&amp;","&amp;AG11:AG20&amp;","&amp;AH11:AH20&amp;","&amp;AI11:AI20&amp;","&amp;AJ11:AJ20&amp;","&amp;AK11:AK20&amp;","&amp;AL11:AL20</f>
+        <f>AC11:AC21&amp;","&amp;AD11:AD21&amp;","&amp;AE11:AE21&amp;","&amp;AF11:AF21&amp;","&amp;AG11:AG21&amp;","&amp;AH11:AH21&amp;","&amp;AI11:AI21&amp;","&amp;AJ11:AJ21&amp;","&amp;AK11:AK21&amp;","&amp;AL11:AL21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX18" s="10" t="str">
-        <f>AM11:AM20&amp;","&amp;AN11:AN20&amp;","&amp;AO11:AO20&amp;","&amp;AP11:AP20&amp;","&amp;AQ11:AQ20&amp;","&amp;AR11:AR20&amp;","&amp;AS11:AS20&amp;","&amp;AT11:AT20&amp;","&amp;AU11:AU20&amp;","&amp;AV11:AV20</f>
+        <f>AM11:AM21&amp;","&amp;AN11:AN21&amp;","&amp;AO11:AO21&amp;","&amp;AP11:AP21&amp;","&amp;AQ11:AQ21&amp;","&amp;AR11:AR21&amp;","&amp;AS11:AS21&amp;","&amp;AT11:AT21&amp;","&amp;AU11:AU21&amp;","&amp;AV11:AV21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
@@ -5288,179 +5338,179 @@
         <v>0</v>
       </c>
       <c r="AW19" s="10" t="str">
-        <f>AC12:AC20&amp;","&amp;AD12:AD20&amp;","&amp;AE12:AE20&amp;","&amp;AF12:AF20&amp;","&amp;AG12:AG20&amp;","&amp;AH12:AH20&amp;","&amp;AI12:AI20&amp;","&amp;AJ12:AJ20&amp;","&amp;AK12:AK20&amp;","&amp;AL12:AL20</f>
+        <f>AC12:AC21&amp;","&amp;AD12:AD21&amp;","&amp;AE12:AE21&amp;","&amp;AF12:AF21&amp;","&amp;AG12:AG21&amp;","&amp;AH12:AH21&amp;","&amp;AI12:AI21&amp;","&amp;AJ12:AJ21&amp;","&amp;AK12:AK21&amp;","&amp;AL12:AL21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX19" s="10" t="str">
-        <f>AM12:AM20&amp;","&amp;AN12:AN20&amp;","&amp;AO12:AO20&amp;","&amp;AP12:AP20&amp;","&amp;AQ12:AQ20&amp;","&amp;AR12:AR20&amp;","&amp;AS12:AS20&amp;","&amp;AT12:AT20&amp;","&amp;AU12:AU20&amp;","&amp;AV12:AV20</f>
+        <f>AM12:AM21&amp;","&amp;AN12:AN21&amp;","&amp;AO12:AO21&amp;","&amp;AP12:AP21&amp;","&amp;AQ12:AQ21&amp;","&amp;AR12:AR21&amp;","&amp;AS12:AS21&amp;","&amp;AT12:AT21&amp;","&amp;AU12:AU21&amp;","&amp;AV12:AV21</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:50">
       <c r="C20" s="1">
-        <v>2000</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="13">
         <v>50</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
+      <c r="G20" s="12">
+        <v>50</v>
       </c>
       <c r="H20" s="12">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>500</v>
+      </c>
+      <c r="K20" s="12">
+        <v>5000</v>
+      </c>
+      <c r="L20" s="12">
         <v>0</v>
       </c>
       <c r="M20" s="12">
         <v>0</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>10</v>
       </c>
       <c r="P20" s="12">
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
-        <v>0</v>
+      <c r="Q20" s="12">
+        <v>0.3</v>
       </c>
       <c r="R20" s="12">
         <v>0</v>
       </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
+      <c r="S20" s="12">
+        <v>5000</v>
+      </c>
+      <c r="T20" s="12">
+        <v>0</v>
+      </c>
+      <c r="U20" s="12">
+        <v>1000</v>
       </c>
       <c r="V20" s="12">
         <v>0</v>
       </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="1">
+      <c r="W20" s="12">
+        <v>2500</v>
+      </c>
+      <c r="X20" s="12">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>1000</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>10000</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="12">
         <v>0</v>
       </c>
       <c r="AW20" s="10" t="str">
-        <f>AC16:AC21&amp;","&amp;AD16:AD21&amp;","&amp;AE16:AE21&amp;","&amp;AF16:AF21&amp;","&amp;AG16:AG21&amp;","&amp;AH16:AH21&amp;","&amp;AI16:AI21&amp;","&amp;AJ16:AJ21&amp;","&amp;AK16:AK21&amp;","&amp;AL16:AL21</f>
+        <f>AC14:AC24&amp;","&amp;AD14:AD24&amp;","&amp;AE14:AE24&amp;","&amp;AF14:AF24&amp;","&amp;AG14:AG24&amp;","&amp;AH14:AH24&amp;","&amp;AI14:AI24&amp;","&amp;AJ14:AJ24&amp;","&amp;AK14:AK24&amp;","&amp;AL14:AL24</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX20" s="10" t="str">
-        <f>AM16:AM21&amp;","&amp;AN16:AN21&amp;","&amp;AO16:AO21&amp;","&amp;AP16:AP21&amp;","&amp;AQ16:AQ21&amp;","&amp;AR16:AR21&amp;","&amp;AS16:AS21&amp;","&amp;AT16:AT21&amp;","&amp;AU16:AU21&amp;","&amp;AV16:AV21</f>
+        <f>AM14:AM24&amp;","&amp;AN14:AN24&amp;","&amp;AO14:AO24&amp;","&amp;AP14:AP24&amp;","&amp;AQ14:AQ24&amp;","&amp;AR14:AR24&amp;","&amp;AS14:AS24&amp;","&amp;AT14:AT24&amp;","&amp;AU14:AU24&amp;","&amp;AV14:AV24</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:50">
       <c r="C21" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D21" s="14" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="F21" s="11">
         <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="12">
         <v>0</v>
       </c>
       <c r="I21" s="1">
@@ -5475,7 +5525,7 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="12">
         <v>0</v>
       </c>
       <c r="N21" s="1">
@@ -5484,13 +5534,13 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="12">
         <v>0</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="12">
         <v>0</v>
       </c>
       <c r="S21" s="1">
@@ -5502,7 +5552,7 @@
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="12">
         <v>0</v>
       </c>
       <c r="W21" s="1">
@@ -5584,31 +5634,31 @@
         <v>0</v>
       </c>
       <c r="AW21" s="10" t="str">
-        <f>AC20:AC25&amp;","&amp;AD20:AD25&amp;","&amp;AE20:AE25&amp;","&amp;AF20:AF25&amp;","&amp;AG20:AG25&amp;","&amp;AH20:AH25&amp;","&amp;AI20:AI25&amp;","&amp;AJ20:AJ25&amp;","&amp;AK20:AK25&amp;","&amp;AL20:AL25</f>
+        <f>AC16:AC22&amp;","&amp;AD16:AD22&amp;","&amp;AE16:AE22&amp;","&amp;AF16:AF22&amp;","&amp;AG16:AG22&amp;","&amp;AH16:AH22&amp;","&amp;AI16:AI22&amp;","&amp;AJ16:AJ22&amp;","&amp;AK16:AK22&amp;","&amp;AL16:AL22</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX21" s="10" t="str">
-        <f>AM20:AM25&amp;","&amp;AN20:AN25&amp;","&amp;AO20:AO25&amp;","&amp;AP20:AP25&amp;","&amp;AQ20:AQ25&amp;","&amp;AR20:AR25&amp;","&amp;AS20:AS25&amp;","&amp;AT20:AT25&amp;","&amp;AU20:AU25&amp;","&amp;AV20:AV25</f>
+        <f>AM16:AM22&amp;","&amp;AN16:AN22&amp;","&amp;AO16:AO22&amp;","&amp;AP16:AP22&amp;","&amp;AQ16:AQ22&amp;","&amp;AR16:AR22&amp;","&amp;AS16:AS22&amp;","&amp;AT16:AT22&amp;","&amp;AU16:AU22&amp;","&amp;AV16:AV22</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:50">
       <c r="C22" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D22" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>128</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
@@ -5623,7 +5673,7 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="1">
         <v>0</v>
       </c>
       <c r="N22" s="1">
@@ -5632,13 +5682,13 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="1">
         <v>0</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="1">
         <v>0</v>
       </c>
       <c r="S22" s="1">
@@ -5650,7 +5700,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="1">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -5672,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="1">
         <v>0</v>
@@ -5732,17 +5782,17 @@
         <v>0</v>
       </c>
       <c r="AW22" s="10" t="str">
-        <f>AC20:AC26&amp;","&amp;AD20:AD26&amp;","&amp;AE20:AE26&amp;","&amp;AF20:AF26&amp;","&amp;AG20:AG26&amp;","&amp;AH20:AH26&amp;","&amp;AI20:AI26&amp;","&amp;AJ20:AJ26&amp;","&amp;AK20:AK26&amp;","&amp;AL20:AL26</f>
-        <v>0.05,0,0,0,0,0,0,0,0,0</v>
+        <f>AC21:AC26&amp;","&amp;AD21:AD26&amp;","&amp;AE21:AE26&amp;","&amp;AF21:AF26&amp;","&amp;AG21:AG26&amp;","&amp;AH21:AH26&amp;","&amp;AI21:AI26&amp;","&amp;AJ21:AJ26&amp;","&amp;AK21:AK26&amp;","&amp;AL21:AL26</f>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX22" s="10" t="str">
-        <f>AM20:AM26&amp;","&amp;AN20:AN26&amp;","&amp;AO20:AO26&amp;","&amp;AP20:AP26&amp;","&amp;AQ20:AQ26&amp;","&amp;AR20:AR26&amp;","&amp;AS20:AS26&amp;","&amp;AT20:AT26&amp;","&amp;AU20:AU26&amp;","&amp;AV20:AV26</f>
+        <f>AM21:AM26&amp;","&amp;AN21:AN26&amp;","&amp;AO21:AO26&amp;","&amp;AP21:AP26&amp;","&amp;AQ21:AQ26&amp;","&amp;AR21:AR26&amp;","&amp;AS21:AS26&amp;","&amp;AT21:AT26&amp;","&amp;AU21:AU26&amp;","&amp;AV21:AV26</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:50">
       <c r="C23" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>129</v>
@@ -5820,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AD23" s="1">
         <v>0</v>
@@ -5880,17 +5930,17 @@
         <v>0</v>
       </c>
       <c r="AW23" s="10" t="str">
-        <f>AC20:AC27&amp;","&amp;AD20:AD27&amp;","&amp;AE20:AE27&amp;","&amp;AF20:AF27&amp;","&amp;AG20:AG27&amp;","&amp;AH20:AH27&amp;","&amp;AI20:AI27&amp;","&amp;AJ20:AJ27&amp;","&amp;AK20:AK27&amp;","&amp;AL20:AL27</f>
-        <v>0.1,0,0,0,0,0,0,0,0,0</v>
+        <f>AC21:AC27&amp;","&amp;AD21:AD27&amp;","&amp;AE21:AE27&amp;","&amp;AF21:AF27&amp;","&amp;AG21:AG27&amp;","&amp;AH21:AH27&amp;","&amp;AI21:AI27&amp;","&amp;AJ21:AJ27&amp;","&amp;AK21:AK27&amp;","&amp;AL21:AL27</f>
+        <v>0.05,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX23" s="10" t="str">
-        <f>AM20:AM27&amp;","&amp;AN20:AN27&amp;","&amp;AO20:AO27&amp;","&amp;AP20:AP27&amp;","&amp;AQ20:AQ27&amp;","&amp;AR20:AR27&amp;","&amp;AS20:AS27&amp;","&amp;AT20:AT27&amp;","&amp;AU20:AU27&amp;","&amp;AV20:AV27</f>
+        <f>AM21:AM27&amp;","&amp;AN21:AN27&amp;","&amp;AO21:AO27&amp;","&amp;AP21:AP27&amp;","&amp;AQ21:AQ27&amp;","&amp;AR21:AR27&amp;","&amp;AS21:AS27&amp;","&amp;AT21:AT27&amp;","&amp;AU21:AU27&amp;","&amp;AV21:AV27</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:50">
       <c r="C24" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>130</v>
@@ -5968,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AD24" s="1">
         <v>0</v>
@@ -6029,7 +6079,7 @@
       </c>
       <c r="AW24" s="10" t="str">
         <f>AC21:AC28&amp;","&amp;AD21:AD28&amp;","&amp;AE21:AE28&amp;","&amp;AF21:AF28&amp;","&amp;AG21:AG28&amp;","&amp;AH21:AH28&amp;","&amp;AI21:AI28&amp;","&amp;AJ21:AJ28&amp;","&amp;AK21:AK28&amp;","&amp;AL21:AL28</f>
-        <v>0.15,0,0,0,0,0,0,0,0,0</v>
+        <v>0.1,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX24" s="10" t="str">
         <f>AM21:AM28&amp;","&amp;AN21:AN28&amp;","&amp;AO21:AO28&amp;","&amp;AP21:AP28&amp;","&amp;AQ21:AQ28&amp;","&amp;AR21:AR28&amp;","&amp;AS21:AS28&amp;","&amp;AT21:AT28&amp;","&amp;AU21:AU28&amp;","&amp;AV21:AV28</f>
@@ -6038,7 +6088,7 @@
     </row>
     <row r="25" customHeight="1" spans="3:50">
       <c r="C25" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
@@ -6116,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AD25" s="1">
         <v>0</v>
@@ -6176,17 +6226,17 @@
         <v>0</v>
       </c>
       <c r="AW25" s="10" t="str">
-        <f>AC21:AC29&amp;","&amp;AD21:AD29&amp;","&amp;AE21:AE29&amp;","&amp;AF21:AF29&amp;","&amp;AG21:AG29&amp;","&amp;AH21:AH29&amp;","&amp;AI21:AI29&amp;","&amp;AJ21:AJ29&amp;","&amp;AK21:AK29&amp;","&amp;AL21:AL29</f>
-        <v>0.2,0,0,0,0,0,0,0,0,0</v>
+        <f>AC22:AC29&amp;","&amp;AD22:AD29&amp;","&amp;AE22:AE29&amp;","&amp;AF22:AF29&amp;","&amp;AG22:AG29&amp;","&amp;AH22:AH29&amp;","&amp;AI22:AI29&amp;","&amp;AJ22:AJ29&amp;","&amp;AK22:AK29&amp;","&amp;AL22:AL29</f>
+        <v>0.15,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX25" s="10" t="str">
-        <f>AM21:AM29&amp;","&amp;AN21:AN29&amp;","&amp;AO21:AO29&amp;","&amp;AP21:AP29&amp;","&amp;AQ21:AQ29&amp;","&amp;AR21:AR29&amp;","&amp;AS21:AS29&amp;","&amp;AT21:AT29&amp;","&amp;AU21:AU29&amp;","&amp;AV21:AV29</f>
+        <f>AM22:AM29&amp;","&amp;AN22:AN29&amp;","&amp;AO22:AO29&amp;","&amp;AP22:AP29&amp;","&amp;AQ22:AQ29&amp;","&amp;AR22:AR29&amp;","&amp;AS22:AS29&amp;","&amp;AT22:AT29&amp;","&amp;AU22:AU29&amp;","&amp;AV22:AV29</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:50">
       <c r="C26" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>132</v>
@@ -6264,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AD26" s="1">
         <v>0</v>
@@ -6324,17 +6374,17 @@
         <v>0</v>
       </c>
       <c r="AW26" s="10" t="str">
-        <f>AC21:AC30&amp;","&amp;AD21:AD30&amp;","&amp;AE21:AE30&amp;","&amp;AF21:AF30&amp;","&amp;AG21:AG30&amp;","&amp;AH21:AH30&amp;","&amp;AI21:AI30&amp;","&amp;AJ21:AJ30&amp;","&amp;AK21:AK30&amp;","&amp;AL21:AL30</f>
-        <v>0.25,0,0,0,0,0,0,0,0,0</v>
+        <f>AC22:AC30&amp;","&amp;AD22:AD30&amp;","&amp;AE22:AE30&amp;","&amp;AF22:AF30&amp;","&amp;AG22:AG30&amp;","&amp;AH22:AH30&amp;","&amp;AI22:AI30&amp;","&amp;AJ22:AJ30&amp;","&amp;AK22:AK30&amp;","&amp;AL22:AL30</f>
+        <v>0.2,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX26" s="10" t="str">
-        <f>AM21:AM30&amp;","&amp;AN21:AN30&amp;","&amp;AO21:AO30&amp;","&amp;AP21:AP30&amp;","&amp;AQ21:AQ30&amp;","&amp;AR21:AR30&amp;","&amp;AS21:AS30&amp;","&amp;AT21:AT30&amp;","&amp;AU21:AU30&amp;","&amp;AV21:AV30</f>
+        <f>AM22:AM30&amp;","&amp;AN22:AN30&amp;","&amp;AO22:AO30&amp;","&amp;AP22:AP30&amp;","&amp;AQ22:AQ30&amp;","&amp;AR22:AR30&amp;","&amp;AS22:AS30&amp;","&amp;AT22:AT30&amp;","&amp;AU22:AU30&amp;","&amp;AV22:AV30</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:50">
       <c r="C27" s="1">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>133</v>
@@ -6394,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
         <v>0</v>
@@ -6412,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD27" s="1">
         <v>0</v>
@@ -6472,17 +6522,17 @@
         <v>0</v>
       </c>
       <c r="AW27" s="10" t="str">
-        <f>AC21:AC31&amp;","&amp;AD21:AD31&amp;","&amp;AE21:AE31&amp;","&amp;AF21:AF31&amp;","&amp;AG21:AG31&amp;","&amp;AH21:AH31&amp;","&amp;AI21:AI31&amp;","&amp;AJ21:AJ31&amp;","&amp;AK21:AK31&amp;","&amp;AL21:AL31</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <f>AC22:AC31&amp;","&amp;AD22:AD31&amp;","&amp;AE22:AE31&amp;","&amp;AF22:AF31&amp;","&amp;AG22:AG31&amp;","&amp;AH22:AH31&amp;","&amp;AI22:AI31&amp;","&amp;AJ22:AJ31&amp;","&amp;AK22:AK31&amp;","&amp;AL22:AL31</f>
+        <v>0.25,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX27" s="10" t="str">
-        <f>AM21:AM31&amp;","&amp;AN21:AN31&amp;","&amp;AO21:AO31&amp;","&amp;AP21:AP31&amp;","&amp;AQ21:AQ31&amp;","&amp;AR21:AR31&amp;","&amp;AS21:AS31&amp;","&amp;AT21:AT31&amp;","&amp;AU21:AU31&amp;","&amp;AV21:AV31</f>
+        <f>AM22:AM31&amp;","&amp;AN22:AN31&amp;","&amp;AO22:AO31&amp;","&amp;AP22:AP31&amp;","&amp;AQ22:AQ31&amp;","&amp;AR22:AR31&amp;","&amp;AS22:AS31&amp;","&amp;AT22:AT31&amp;","&amp;AU22:AU31&amp;","&amp;AV22:AV31</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:50">
       <c r="C28" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>134</v>
@@ -6542,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -6620,17 +6670,17 @@
         <v>0</v>
       </c>
       <c r="AW28" s="10" t="str">
-        <f>AC22:AC31&amp;","&amp;AD22:AD31&amp;","&amp;AE22:AE31&amp;","&amp;AF22:AF31&amp;","&amp;AG22:AG31&amp;","&amp;AH22:AH31&amp;","&amp;AI22:AI31&amp;","&amp;AJ22:AJ31&amp;","&amp;AK22:AK31&amp;","&amp;AL22:AL31</f>
+        <f>AC22:AC32&amp;","&amp;AD22:AD32&amp;","&amp;AE22:AE32&amp;","&amp;AF22:AF32&amp;","&amp;AG22:AG32&amp;","&amp;AH22:AH32&amp;","&amp;AI22:AI32&amp;","&amp;AJ22:AJ32&amp;","&amp;AK22:AK32&amp;","&amp;AL22:AL32</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX28" s="10" t="str">
-        <f>AM22:AM31&amp;","&amp;AN22:AN31&amp;","&amp;AO22:AO31&amp;","&amp;AP22:AP31&amp;","&amp;AQ22:AQ31&amp;","&amp;AR22:AR31&amp;","&amp;AS22:AS31&amp;","&amp;AT22:AT31&amp;","&amp;AU22:AU31&amp;","&amp;AV22:AV31</f>
+        <f>AM22:AM32&amp;","&amp;AN22:AN32&amp;","&amp;AO22:AO32&amp;","&amp;AP22:AP32&amp;","&amp;AQ22:AQ32&amp;","&amp;AR22:AR32&amp;","&amp;AS22:AS32&amp;","&amp;AT22:AT32&amp;","&amp;AU22:AU32&amp;","&amp;AV22:AV32</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:50">
       <c r="C29" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>135</v>
@@ -6690,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -6768,17 +6818,17 @@
         <v>0</v>
       </c>
       <c r="AW29" s="10" t="str">
-        <f>AC23:AC31&amp;","&amp;AD23:AD31&amp;","&amp;AE23:AE31&amp;","&amp;AF23:AF31&amp;","&amp;AG23:AG31&amp;","&amp;AH23:AH31&amp;","&amp;AI23:AI31&amp;","&amp;AJ23:AJ31&amp;","&amp;AK23:AK31&amp;","&amp;AL23:AL31</f>
+        <f>AC23:AC32&amp;","&amp;AD23:AD32&amp;","&amp;AE23:AE32&amp;","&amp;AF23:AF32&amp;","&amp;AG23:AG32&amp;","&amp;AH23:AH32&amp;","&amp;AI23:AI32&amp;","&amp;AJ23:AJ32&amp;","&amp;AK23:AK32&amp;","&amp;AL23:AL32</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX29" s="10" t="str">
-        <f>AM23:AM31&amp;","&amp;AN23:AN31&amp;","&amp;AO23:AO31&amp;","&amp;AP23:AP31&amp;","&amp;AQ23:AQ31&amp;","&amp;AR23:AR31&amp;","&amp;AS23:AS31&amp;","&amp;AT23:AT31&amp;","&amp;AU23:AU31&amp;","&amp;AV23:AV31</f>
+        <f>AM23:AM32&amp;","&amp;AN23:AN32&amp;","&amp;AO23:AO32&amp;","&amp;AP23:AP32&amp;","&amp;AQ23:AQ32&amp;","&amp;AR23:AR32&amp;","&amp;AS23:AS32&amp;","&amp;AT23:AT32&amp;","&amp;AU23:AU32&amp;","&amp;AV23:AV32</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:50">
       <c r="C30" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>136</v>
@@ -6838,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -6926,7 +6976,7 @@
     </row>
     <row r="31" customHeight="1" spans="3:50">
       <c r="C31" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>137</v>
@@ -6986,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X31" s="1">
         <v>0</v>
@@ -7074,21 +7124,21 @@
     </row>
     <row r="32" customHeight="1" spans="3:50">
       <c r="C32" s="1">
-        <v>3000</v>
+        <v>2024</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E32" s="1">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
         <v>0</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="12">
         <v>0</v>
       </c>
       <c r="I32" s="1">
@@ -7112,13 +7162,13 @@
       <c r="O32" s="1">
         <v>0</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="12">
         <v>0</v>
       </c>
       <c r="Q32" s="1">
         <v>0</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="12">
         <v>0</v>
       </c>
       <c r="S32" s="1">
@@ -7130,11 +7180,11 @@
       <c r="U32" s="1">
         <v>0</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="12">
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X32" s="1">
         <v>0</v>
@@ -7212,23 +7262,23 @@
         <v>0</v>
       </c>
       <c r="AW32" s="10" t="str">
-        <f>AC28:AC36&amp;","&amp;AD28:AD36&amp;","&amp;AE28:AE36&amp;","&amp;AF28:AF36&amp;","&amp;AG28:AG36&amp;","&amp;AH28:AH36&amp;","&amp;AI28:AI36&amp;","&amp;AJ28:AJ36&amp;","&amp;AK28:AK36&amp;","&amp;AL28:AL36</f>
+        <f>AC26:AC34&amp;","&amp;AD26:AD34&amp;","&amp;AE26:AE34&amp;","&amp;AF26:AF34&amp;","&amp;AG26:AG34&amp;","&amp;AH26:AH34&amp;","&amp;AI26:AI34&amp;","&amp;AJ26:AJ34&amp;","&amp;AK26:AK34&amp;","&amp;AL26:AL34</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX32" s="10" t="str">
-        <f>AM28:AM36&amp;","&amp;AN28:AN36&amp;","&amp;AO28:AO36&amp;","&amp;AP28:AP36&amp;","&amp;AQ28:AQ36&amp;","&amp;AR28:AR36&amp;","&amp;AS28:AS36&amp;","&amp;AT28:AT36&amp;","&amp;AU28:AU36&amp;","&amp;AV28:AV36</f>
+        <f>AM26:AM34&amp;","&amp;AN26:AN34&amp;","&amp;AO26:AO34&amp;","&amp;AP26:AP34&amp;","&amp;AQ26:AQ34&amp;","&amp;AR26:AR34&amp;","&amp;AS26:AS34&amp;","&amp;AT26:AT34&amp;","&amp;AU26:AU34&amp;","&amp;AV26:AV34</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:50">
       <c r="C33" s="1">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -7370,7 +7420,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:50">
       <c r="C34" s="1">
-        <v>3010</v>
+        <v>3001</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>140</v>
@@ -7518,13 +7568,13 @@
     </row>
     <row r="35" customHeight="1" spans="3:50">
       <c r="C35" s="1">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E35" s="1">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -7666,13 +7716,13 @@
     </row>
     <row r="36" customHeight="1" spans="3:50">
       <c r="C36" s="1">
-        <v>3020</v>
+        <v>3011</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="1">
-        <v>6</v>
+        <v>1200</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -7814,13 +7864,13 @@
     </row>
     <row r="37" customHeight="1" spans="3:50">
       <c r="C37" s="1">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E37" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -7952,23 +8002,23 @@
         <v>0</v>
       </c>
       <c r="AW37" s="10" t="str">
-        <f>AC32:AC41&amp;","&amp;AD32:AD41&amp;","&amp;AE32:AE41&amp;","&amp;AF32:AF41&amp;","&amp;AG32:AG41&amp;","&amp;AH32:AH41&amp;","&amp;AI32:AI41&amp;","&amp;AJ32:AJ41&amp;","&amp;AK32:AK41&amp;","&amp;AL32:AL41</f>
+        <f>AC33:AC41&amp;","&amp;AD33:AD41&amp;","&amp;AE33:AE41&amp;","&amp;AF33:AF41&amp;","&amp;AG33:AG41&amp;","&amp;AH33:AH41&amp;","&amp;AI33:AI41&amp;","&amp;AJ33:AJ41&amp;","&amp;AK33:AK41&amp;","&amp;AL33:AL41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX37" s="10" t="str">
-        <f>AM32:AM41&amp;","&amp;AN32:AN41&amp;","&amp;AO32:AO41&amp;","&amp;AP32:AP41&amp;","&amp;AQ32:AQ41&amp;","&amp;AR32:AR41&amp;","&amp;AS32:AS41&amp;","&amp;AT32:AT41&amp;","&amp;AU32:AU41&amp;","&amp;AV32:AV41</f>
+        <f>AM33:AM41&amp;","&amp;AN33:AN41&amp;","&amp;AO33:AO41&amp;","&amp;AP33:AP41&amp;","&amp;AQ33:AQ41&amp;","&amp;AR33:AR41&amp;","&amp;AS33:AS41&amp;","&amp;AT33:AT41&amp;","&amp;AU33:AU41&amp;","&amp;AV33:AV41</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:50">
       <c r="C38" s="1">
-        <v>3030</v>
+        <v>3021</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -8007,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S38" s="1">
         <v>0</v>
@@ -8100,17 +8150,17 @@
         <v>0</v>
       </c>
       <c r="AW38" s="10" t="str">
-        <f>AC32:AC42&amp;","&amp;AD32:AD42&amp;","&amp;AE32:AE42&amp;","&amp;AF32:AF42&amp;","&amp;AG32:AG42&amp;","&amp;AH32:AH42&amp;","&amp;AI32:AI42&amp;","&amp;AJ32:AJ42&amp;","&amp;AK32:AK42&amp;","&amp;AL32:AL42</f>
+        <f>AC33:AC42&amp;","&amp;AD33:AD42&amp;","&amp;AE33:AE42&amp;","&amp;AF33:AF42&amp;","&amp;AG33:AG42&amp;","&amp;AH33:AH42&amp;","&amp;AI33:AI42&amp;","&amp;AJ33:AJ42&amp;","&amp;AK33:AK42&amp;","&amp;AL33:AL42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX38" s="10" t="str">
-        <f>AM32:AM42&amp;","&amp;AN32:AN42&amp;","&amp;AO32:AO42&amp;","&amp;AP32:AP42&amp;","&amp;AQ32:AQ42&amp;","&amp;AR32:AR42&amp;","&amp;AS32:AS42&amp;","&amp;AT32:AT42&amp;","&amp;AU32:AU42&amp;","&amp;AV32:AV42</f>
+        <f>AM33:AM42&amp;","&amp;AN33:AN42&amp;","&amp;AO33:AO42&amp;","&amp;AP33:AP42&amp;","&amp;AQ33:AQ42&amp;","&amp;AR33:AR42&amp;","&amp;AS33:AS42&amp;","&amp;AT33:AT42&amp;","&amp;AU33:AU42&amp;","&amp;AV33:AV42</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:50">
       <c r="C39" s="1">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>145</v>
@@ -8155,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="S39" s="1">
         <v>0</v>
@@ -8258,7 +8308,7 @@
     </row>
     <row r="40" customHeight="1" spans="3:50">
       <c r="C40" s="1">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>146</v>
@@ -8297,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="1">
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -8396,17 +8446,17 @@
         <v>0</v>
       </c>
       <c r="AW40" s="10" t="str">
-        <f t="shared" ref="AW40:AW45" si="2">AC34:AC46&amp;","&amp;AD34:AD46&amp;","&amp;AE34:AE46&amp;","&amp;AF34:AF46&amp;","&amp;AG34:AG46&amp;","&amp;AH34:AH46&amp;","&amp;AI34:AI46&amp;","&amp;AJ34:AJ46&amp;","&amp;AK34:AK46&amp;","&amp;AL34:AL46</f>
+        <f>AC34:AC44&amp;","&amp;AD34:AD44&amp;","&amp;AE34:AE44&amp;","&amp;AF34:AF44&amp;","&amp;AG34:AG44&amp;","&amp;AH34:AH44&amp;","&amp;AI34:AI44&amp;","&amp;AJ34:AJ44&amp;","&amp;AK34:AK44&amp;","&amp;AL34:AL44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX40" s="10" t="str">
-        <f t="shared" ref="AX40:AX45" si="3">AM34:AM46&amp;","&amp;AN34:AN46&amp;","&amp;AO34:AO46&amp;","&amp;AP34:AP46&amp;","&amp;AQ34:AQ46&amp;","&amp;AR34:AR46&amp;","&amp;AS34:AS46&amp;","&amp;AT34:AT46&amp;","&amp;AU34:AU46&amp;","&amp;AV34:AV46</f>
+        <f>AM34:AM44&amp;","&amp;AN34:AN44&amp;","&amp;AO34:AO44&amp;","&amp;AP34:AP44&amp;","&amp;AQ34:AQ44&amp;","&amp;AR34:AR44&amp;","&amp;AS34:AS44&amp;","&amp;AT34:AT44&amp;","&amp;AU34:AU44&amp;","&amp;AV34:AV44</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:50">
       <c r="C41" s="1">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>147</v>
@@ -8445,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="Q41" s="1">
         <v>0</v>
@@ -8544,17 +8594,17 @@
         <v>0</v>
       </c>
       <c r="AW41" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AW41:AW46" si="2">AC35:AC47&amp;","&amp;AD35:AD47&amp;","&amp;AE35:AE47&amp;","&amp;AF35:AF47&amp;","&amp;AG35:AG47&amp;","&amp;AH35:AH47&amp;","&amp;AI35:AI47&amp;","&amp;AJ35:AJ47&amp;","&amp;AK35:AK47&amp;","&amp;AL35:AL47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX41" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AX41:AX46" si="3">AM35:AM47&amp;","&amp;AN35:AN47&amp;","&amp;AO35:AO47&amp;","&amp;AP35:AP47&amp;","&amp;AQ35:AQ47&amp;","&amp;AR35:AR47&amp;","&amp;AS35:AS47&amp;","&amp;AT35:AT47&amp;","&amp;AU35:AU47&amp;","&amp;AV35:AV47</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:50">
       <c r="C42" s="1">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>148</v>
@@ -8584,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="12">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
@@ -8593,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q42" s="1">
         <v>0</v>
@@ -8702,7 +8752,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:50">
       <c r="C43" s="1">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>149</v>
@@ -8732,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="12">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -8850,7 +8900,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:50">
       <c r="C44" s="1">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>150</v>
@@ -8871,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -8879,8 +8929,8 @@
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="1">
-        <v>0</v>
+      <c r="M44" s="12">
+        <v>0.005</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -8998,7 +9048,7 @@
     </row>
     <row r="45" customHeight="1" spans="3:50">
       <c r="C45" s="1">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>151</v>
@@ -9019,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -9146,7 +9196,7 @@
     </row>
     <row r="46" customHeight="1" spans="3:50">
       <c r="C46" s="1">
-        <v>3050</v>
+        <v>3037</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>152</v>
@@ -9167,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -9175,7 +9225,7 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="1">
         <v>0</v>
       </c>
       <c r="N46" s="1">
@@ -9227,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="1">
         <v>0</v>
@@ -9284,17 +9334,17 @@
         <v>0</v>
       </c>
       <c r="AW46" s="10" t="str">
-        <f t="shared" ref="AW46:AW51" si="4">AC38:AC50&amp;","&amp;AD38:AD50&amp;","&amp;AE38:AE50&amp;","&amp;AF38:AF50&amp;","&amp;AG38:AG50&amp;","&amp;AH38:AH50&amp;","&amp;AI38:AI50&amp;","&amp;AJ38:AJ50&amp;","&amp;AK38:AK50&amp;","&amp;AL38:AL50</f>
-        <v>0,0.002,0,0,0,0,0,0,0,0</v>
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX46" s="10" t="str">
-        <f t="shared" ref="AX46:AX51" si="5">AM38:AM50&amp;","&amp;AN38:AN50&amp;","&amp;AO38:AO50&amp;","&amp;AP38:AP50&amp;","&amp;AQ38:AQ50&amp;","&amp;AR38:AR50&amp;","&amp;AS38:AS50&amp;","&amp;AT38:AT50&amp;","&amp;AU38:AU50&amp;","&amp;AV38:AV50</f>
+        <f t="shared" si="3"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:50">
       <c r="C47" s="1">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>153</v>
@@ -9375,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="AD47" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AE47" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="1">
         <v>0</v>
@@ -9432,17 +9482,17 @@
         <v>0</v>
       </c>
       <c r="AW47" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0,0,0.002,0,0,0,0,0,0,0</v>
+        <f t="shared" ref="AW47:AW52" si="4">AC39:AC51&amp;","&amp;AD39:AD51&amp;","&amp;AE39:AE51&amp;","&amp;AF39:AF51&amp;","&amp;AG39:AG51&amp;","&amp;AH39:AH51&amp;","&amp;AI39:AI51&amp;","&amp;AJ39:AJ51&amp;","&amp;AK39:AK51&amp;","&amp;AL39:AL51</f>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX47" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AX47:AX52" si="5">AM39:AM51&amp;","&amp;AN39:AN51&amp;","&amp;AO39:AO51&amp;","&amp;AP39:AP51&amp;","&amp;AQ39:AQ51&amp;","&amp;AR39:AR51&amp;","&amp;AS39:AS51&amp;","&amp;AT39:AT51&amp;","&amp;AU39:AU51&amp;","&amp;AV39:AV51</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:50">
       <c r="C48" s="1">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>154</v>
@@ -9526,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="AE48" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AF48" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="1">
         <v>0</v>
@@ -9581,7 +9631,7 @@
       </c>
       <c r="AW48" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0,0.002,0,0,0,0,0,0</v>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX48" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9590,7 +9640,7 @@
     </row>
     <row r="49" customHeight="1" spans="3:50">
       <c r="C49" s="1">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>155</v>
@@ -9677,10 +9727,10 @@
         <v>0</v>
       </c>
       <c r="AF49" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG49" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="1">
         <v>0</v>
@@ -9729,7 +9779,7 @@
       </c>
       <c r="AW49" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0,0,0.002,0,0,0,0,0</v>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
       </c>
       <c r="AX49" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9738,7 +9788,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:50">
       <c r="C50" s="1">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>156</v>
@@ -9828,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="AG50" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AH50" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="1">
         <v>0</v>
@@ -9877,7 +9927,7 @@
       </c>
       <c r="AW50" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0.002,0,0,0,0</v>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
       <c r="AX50" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9886,7 +9936,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:50">
       <c r="C51" s="1">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>157</v>
@@ -9979,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AI51" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="1">
         <v>0</v>
@@ -10025,7 +10075,7 @@
       </c>
       <c r="AW51" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>0,0,0,0,0,0,0.002,0,0,0</v>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
       <c r="AX51" s="10" t="str">
         <f t="shared" si="5"/>
@@ -10034,7 +10084,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:50">
       <c r="C52" s="1">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>158</v>
@@ -10130,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="AI52" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="1">
         <v>0</v>
@@ -10172,17 +10222,17 @@
         <v>0</v>
       </c>
       <c r="AW52" s="10" t="str">
-        <f t="shared" ref="AW47:AW81" si="6">AC46:AC56&amp;","&amp;AD46:AD56&amp;","&amp;AE46:AE56&amp;","&amp;AF46:AF56&amp;","&amp;AG46:AG56&amp;","&amp;AH46:AH56&amp;","&amp;AI46:AI56&amp;","&amp;AJ46:AJ56&amp;","&amp;AK46:AK56&amp;","&amp;AL46:AL56</f>
-        <v>0,0,0,0,0,0,0,0.002,0,0</v>
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
       <c r="AX52" s="10" t="str">
-        <f t="shared" ref="AX47:AX81" si="7">AM46:AM56&amp;","&amp;AN46:AN56&amp;","&amp;AO46:AO56&amp;","&amp;AP46:AP56&amp;","&amp;AQ46:AQ56&amp;","&amp;AR46:AR56&amp;","&amp;AS46:AS56&amp;","&amp;AT46:AT56&amp;","&amp;AU46:AU56&amp;","&amp;AV46:AV56</f>
+        <f t="shared" si="5"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:50">
       <c r="C53" s="1">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>159</v>
@@ -10281,10 +10331,10 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AK53" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="1">
         <v>0</v>
@@ -10320,17 +10370,17 @@
         <v>0</v>
       </c>
       <c r="AW53" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0.002,0</v>
+        <f t="shared" ref="AW48:AW82" si="6">AC47:AC57&amp;","&amp;AD47:AD57&amp;","&amp;AE47:AE57&amp;","&amp;AF47:AF57&amp;","&amp;AG47:AG57&amp;","&amp;AH47:AH57&amp;","&amp;AI47:AI57&amp;","&amp;AJ47:AJ57&amp;","&amp;AK47:AK57&amp;","&amp;AL47:AL57</f>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
       <c r="AX53" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AX48:AX82" si="7">AM47:AM57&amp;","&amp;AN47:AN57&amp;","&amp;AO47:AO57&amp;","&amp;AP47:AP57&amp;","&amp;AQ47:AQ57&amp;","&amp;AR47:AR57&amp;","&amp;AS47:AS57&amp;","&amp;AT47:AT57&amp;","&amp;AU47:AU57&amp;","&amp;AV47:AV57</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:50">
       <c r="C54" s="1">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>160</v>
@@ -10432,10 +10482,10 @@
         <v>0</v>
       </c>
       <c r="AK54" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AL54" s="1">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="1">
         <v>0</v>
@@ -10469,7 +10519,7 @@
       </c>
       <c r="AW54" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0.002</v>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
       <c r="AX54" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10478,7 +10528,7 @@
     </row>
     <row r="55" customHeight="1" spans="3:50">
       <c r="C55" s="1">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>161</v>
@@ -10559,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="1">
         <v>0</v>
@@ -10583,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="1">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AM55" s="1">
         <v>0</v>
@@ -10617,7 +10667,7 @@
       </c>
       <c r="AW55" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0.005,0,0,0,0,0,0,0,0</v>
+        <v>0,0,0,0,0,0,0,0,0,0.002</v>
       </c>
       <c r="AX55" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10626,7 +10676,7 @@
     </row>
     <row r="56" customHeight="1" spans="3:50">
       <c r="C56" s="1">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>162</v>
@@ -10707,10 +10757,10 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AE56" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="1">
         <v>0</v>
@@ -10765,7 +10815,7 @@
       </c>
       <c r="AW56" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0.005,0,0,0,0,0,0,0</v>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX56" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10774,7 +10824,7 @@
     </row>
     <row r="57" customHeight="1" spans="3:50">
       <c r="C57" s="1">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>163</v>
@@ -10858,10 +10908,10 @@
         <v>0</v>
       </c>
       <c r="AE57" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AF57" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="1">
         <v>0</v>
@@ -10913,7 +10963,7 @@
       </c>
       <c r="AW57" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0.005,0,0,0,0,0,0</v>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX57" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10922,7 +10972,7 @@
     </row>
     <row r="58" customHeight="1" spans="3:50">
       <c r="C58" s="1">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>164</v>
@@ -11009,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="AF58" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AG58" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="1">
         <v>0</v>
@@ -11061,7 +11111,7 @@
       </c>
       <c r="AW58" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0.005,0,0,0,0,0</v>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
       <c r="AX58" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11070,7 +11120,7 @@
     </row>
     <row r="59" customHeight="1" spans="3:50">
       <c r="C59" s="1">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>165</v>
@@ -11160,10 +11210,10 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AH59" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="1">
         <v>0</v>
@@ -11209,7 +11259,7 @@
       </c>
       <c r="AW59" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0.005,0,0,0,0</v>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
       <c r="AX59" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11218,7 +11268,7 @@
     </row>
     <row r="60" customHeight="1" spans="3:50">
       <c r="C60" s="1">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>166</v>
@@ -11311,10 +11361,10 @@
         <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AI60" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="1">
         <v>0</v>
@@ -11357,7 +11407,7 @@
       </c>
       <c r="AW60" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0.005,0,0,0</v>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
       <c r="AX60" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11366,7 +11416,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:50">
       <c r="C61" s="1">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>167</v>
@@ -11462,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="AI61" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AJ61" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="1">
         <v>0</v>
@@ -11505,7 +11555,7 @@
       </c>
       <c r="AW61" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0.005,0,0</v>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
       <c r="AX61" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11514,7 +11564,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:50">
       <c r="C62" s="1">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>168</v>
@@ -11613,10 +11663,10 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AK62" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="1">
         <v>0</v>
@@ -11653,7 +11703,7 @@
       </c>
       <c r="AW62" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0.005,0</v>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
       <c r="AX62" s="10" t="str">
         <f t="shared" si="7"/>
@@ -11662,7 +11712,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:50">
       <c r="C63" s="1">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>169</v>
@@ -11764,10 +11814,10 @@
         <v>0</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AL63" s="1">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="1">
         <v>0</v>
@@ -11801,164 +11851,164 @@
       </c>
       <c r="AW63" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>0,0,0,0,0,0,0,0,0,0.005</v>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
       </c>
       <c r="AX63" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:50">
-      <c r="C64" s="2">
-        <v>3068</v>
-      </c>
-      <c r="D64" s="2" t="s">
+    <row r="64" customHeight="1" spans="3:50">
+      <c r="C64" s="1">
+        <v>3067</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E64" s="2">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="16">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2">
-        <v>0</v>
-      </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2">
-        <v>0</v>
-      </c>
-      <c r="X64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="2">
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="12">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="1">
         <v>0</v>
       </c>
       <c r="AB64" s="1">
         <v>0</v>
       </c>
-      <c r="AC64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM64" s="2">
+      <c r="AC64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="AM64" s="1">
         <v>0</v>
       </c>
       <c r="AN64" s="1">
-        <v>0.002</v>
-      </c>
-      <c r="AO64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="10" t="str">
         <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0.005</v>
+      </c>
+      <c r="AX64" s="10" t="str">
+        <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX64" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="65" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C65" s="2">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>171</v>
@@ -11987,7 +12037,7 @@
       <c r="L65" s="2">
         <v>0</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M65" s="19">
         <v>0</v>
       </c>
       <c r="N65" s="2">
@@ -12068,12 +12118,12 @@
       <c r="AM65" s="2">
         <v>0</v>
       </c>
-      <c r="AN65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO65" s="1">
+      <c r="AN65" s="1">
         <v>0.002</v>
       </c>
+      <c r="AO65" s="2">
+        <v>0</v>
+      </c>
       <c r="AP65" s="2">
         <v>0</v>
       </c>
@@ -12095,18 +12145,18 @@
       <c r="AV65" s="2">
         <v>0</v>
       </c>
-      <c r="AW65" s="19" t="str">
+      <c r="AW65" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX65" s="19" t="str">
+      <c r="AX65" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0.002,0,0,0,0,0,0,0</v>
+        <v>0,0.002,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C66" s="2">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>172</v>
@@ -12135,7 +12185,7 @@
       <c r="L66" s="2">
         <v>0</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M66" s="19">
         <v>0</v>
       </c>
       <c r="N66" s="2">
@@ -12219,12 +12269,12 @@
       <c r="AN66" s="2">
         <v>0</v>
       </c>
-      <c r="AO66" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP66" s="1">
+      <c r="AO66" s="1">
         <v>0.002</v>
       </c>
+      <c r="AP66" s="2">
+        <v>0</v>
+      </c>
       <c r="AQ66" s="2">
         <v>0</v>
       </c>
@@ -12243,18 +12293,18 @@
       <c r="AV66" s="2">
         <v>0</v>
       </c>
-      <c r="AW66" s="19" t="str">
+      <c r="AW66" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX66" s="19" t="str">
+      <c r="AX66" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0.002,0,0,0,0,0,0</v>
+        <v>0,0,0.002,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C67" s="2">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>173</v>
@@ -12283,7 +12333,7 @@
       <c r="L67" s="2">
         <v>0</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M67" s="19">
         <v>0</v>
       </c>
       <c r="N67" s="2">
@@ -12370,12 +12420,12 @@
       <c r="AO67" s="2">
         <v>0</v>
       </c>
-      <c r="AP67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="1">
+      <c r="AP67" s="1">
         <v>0.002</v>
       </c>
+      <c r="AQ67" s="2">
+        <v>0</v>
+      </c>
       <c r="AR67" s="2">
         <v>0</v>
       </c>
@@ -12391,18 +12441,18 @@
       <c r="AV67" s="2">
         <v>0</v>
       </c>
-      <c r="AW67" s="19" t="str">
+      <c r="AW67" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX67" s="19" t="str">
+      <c r="AX67" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0.002,0,0,0,0,0</v>
+        <v>0,0,0,0.002,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C68" s="2">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>174</v>
@@ -12431,7 +12481,7 @@
       <c r="L68" s="2">
         <v>0</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M68" s="19">
         <v>0</v>
       </c>
       <c r="N68" s="2">
@@ -12521,12 +12571,12 @@
       <c r="AP68" s="2">
         <v>0</v>
       </c>
-      <c r="AQ68" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="1">
+      <c r="AQ68" s="1">
         <v>0.002</v>
       </c>
+      <c r="AR68" s="2">
+        <v>0</v>
+      </c>
       <c r="AS68" s="2">
         <v>0</v>
       </c>
@@ -12539,18 +12589,18 @@
       <c r="AV68" s="2">
         <v>0</v>
       </c>
-      <c r="AW68" s="19" t="str">
+      <c r="AW68" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX68" s="19" t="str">
+      <c r="AX68" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0.002,0,0,0,0</v>
+        <v>0,0,0,0,0.002,0,0,0,0,0</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C69" s="2">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>175</v>
@@ -12579,7 +12629,7 @@
       <c r="L69" s="2">
         <v>0</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M69" s="19">
         <v>0</v>
       </c>
       <c r="N69" s="2">
@@ -12672,12 +12722,12 @@
       <c r="AQ69" s="2">
         <v>0</v>
       </c>
-      <c r="AR69" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS69" s="1">
+      <c r="AR69" s="1">
         <v>0.002</v>
       </c>
+      <c r="AS69" s="2">
+        <v>0</v>
+      </c>
       <c r="AT69" s="2">
         <v>0</v>
       </c>
@@ -12687,18 +12737,18 @@
       <c r="AV69" s="2">
         <v>0</v>
       </c>
-      <c r="AW69" s="19" t="str">
+      <c r="AW69" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX69" s="19" t="str">
+      <c r="AX69" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0.002,0,0,0</v>
+        <v>0,0,0,0,0,0.002,0,0,0,0</v>
       </c>
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C70" s="2">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>176</v>
@@ -12727,7 +12777,7 @@
       <c r="L70" s="2">
         <v>0</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="19">
         <v>0</v>
       </c>
       <c r="N70" s="2">
@@ -12823,30 +12873,30 @@
       <c r="AR70" s="2">
         <v>0</v>
       </c>
-      <c r="AS70" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT70" s="1">
+      <c r="AS70" s="1">
         <v>0.002</v>
       </c>
+      <c r="AT70" s="2">
+        <v>0</v>
+      </c>
       <c r="AU70" s="2">
         <v>0</v>
       </c>
       <c r="AV70" s="2">
         <v>0</v>
       </c>
-      <c r="AW70" s="19" t="str">
+      <c r="AW70" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX70" s="19" t="str">
+      <c r="AX70" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0.002,0,0</v>
+        <v>0,0,0,0,0,0,0.002,0,0,0</v>
       </c>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C71" s="2">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>177</v>
@@ -12875,7 +12925,7 @@
       <c r="L71" s="2">
         <v>0</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M71" s="19">
         <v>0</v>
       </c>
       <c r="N71" s="2">
@@ -12974,27 +13024,27 @@
       <c r="AS71" s="2">
         <v>0</v>
       </c>
-      <c r="AT71" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU71" s="1">
+      <c r="AT71" s="1">
         <v>0.002</v>
       </c>
+      <c r="AU71" s="2">
+        <v>0</v>
+      </c>
       <c r="AV71" s="2">
         <v>0</v>
       </c>
-      <c r="AW71" s="19" t="str">
+      <c r="AW71" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX71" s="19" t="str">
+      <c r="AX71" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0,0.002,0</v>
+        <v>0,0,0,0,0,0,0,0.002,0,0</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C72" s="2">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>178</v>
@@ -13023,7 +13073,7 @@
       <c r="L72" s="2">
         <v>0</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="19">
         <v>0</v>
       </c>
       <c r="N72" s="2">
@@ -13125,24 +13175,24 @@
       <c r="AT72" s="2">
         <v>0</v>
       </c>
-      <c r="AU72" s="2">
-        <v>0</v>
+      <c r="AU72" s="1">
+        <v>0.002</v>
       </c>
       <c r="AV72" s="2">
-        <v>20</v>
-      </c>
-      <c r="AW72" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX72" s="19" t="str">
+      <c r="AX72" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0,0,20</v>
+        <v>0,0,0,0,0,0,0,0,0.002,0</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C73" s="2">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>179</v>
@@ -13171,7 +13221,7 @@
       <c r="L73" s="2">
         <v>0</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="19">
         <v>0</v>
       </c>
       <c r="N73" s="2">
@@ -13252,8 +13302,8 @@
       <c r="AM73" s="2">
         <v>0</v>
       </c>
-      <c r="AN73" s="1">
-        <v>0.005</v>
+      <c r="AN73" s="2">
+        <v>0</v>
       </c>
       <c r="AO73" s="2">
         <v>0</v>
@@ -13277,20 +13327,20 @@
         <v>0</v>
       </c>
       <c r="AV73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW73" s="19" t="str">
+        <v>20</v>
+      </c>
+      <c r="AW73" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX73" s="19" t="str">
+      <c r="AX73" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0.005,0,0,0,0,0,0,0,0</v>
+        <v>0,0,0,0,0,0,0,0,0,20</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C74" s="2">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>180</v>
@@ -13400,12 +13450,12 @@
       <c r="AM74" s="2">
         <v>0</v>
       </c>
-      <c r="AN74" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO74" s="1">
+      <c r="AN74" s="1">
         <v>0.005</v>
       </c>
+      <c r="AO74" s="2">
+        <v>0</v>
+      </c>
       <c r="AP74" s="2">
         <v>0</v>
       </c>
@@ -13427,18 +13477,18 @@
       <c r="AV74" s="2">
         <v>0</v>
       </c>
-      <c r="AW74" s="19" t="str">
+      <c r="AW74" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX74" s="19" t="str">
+      <c r="AX74" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0.005,0,0,0,0,0,0,0</v>
+        <v>0,0.005,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C75" s="2">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>181</v>
@@ -13551,12 +13601,12 @@
       <c r="AN75" s="2">
         <v>0</v>
       </c>
-      <c r="AO75" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP75" s="1">
+      <c r="AO75" s="1">
         <v>0.005</v>
       </c>
+      <c r="AP75" s="2">
+        <v>0</v>
+      </c>
       <c r="AQ75" s="2">
         <v>0</v>
       </c>
@@ -13575,18 +13625,18 @@
       <c r="AV75" s="2">
         <v>0</v>
       </c>
-      <c r="AW75" s="19" t="str">
+      <c r="AW75" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX75" s="19" t="str">
+      <c r="AX75" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0.005,0,0,0,0,0,0</v>
+        <v>0,0,0.005,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C76" s="2">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>182</v>
@@ -13702,12 +13752,12 @@
       <c r="AO76" s="2">
         <v>0</v>
       </c>
-      <c r="AP76" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="1">
+      <c r="AP76" s="1">
         <v>0.005</v>
       </c>
+      <c r="AQ76" s="2">
+        <v>0</v>
+      </c>
       <c r="AR76" s="2">
         <v>0</v>
       </c>
@@ -13723,18 +13773,18 @@
       <c r="AV76" s="2">
         <v>0</v>
       </c>
-      <c r="AW76" s="19" t="str">
+      <c r="AW76" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX76" s="19" t="str">
+      <c r="AX76" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0.005,0,0,0,0,0</v>
+        <v>0,0,0,0.005,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C77" s="2">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>183</v>
@@ -13853,12 +13903,12 @@
       <c r="AP77" s="2">
         <v>0</v>
       </c>
-      <c r="AQ77" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR77" s="1">
+      <c r="AQ77" s="1">
         <v>0.005</v>
       </c>
+      <c r="AR77" s="2">
+        <v>0</v>
+      </c>
       <c r="AS77" s="2">
         <v>0</v>
       </c>
@@ -13871,18 +13921,18 @@
       <c r="AV77" s="2">
         <v>0</v>
       </c>
-      <c r="AW77" s="19" t="str">
+      <c r="AW77" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX77" s="19" t="str">
+      <c r="AX77" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0.005,0,0,0,0</v>
+        <v>0,0,0,0,0.005,0,0,0,0,0</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C78" s="2">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>184</v>
@@ -14004,12 +14054,12 @@
       <c r="AQ78" s="2">
         <v>0</v>
       </c>
-      <c r="AR78" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS78" s="1">
+      <c r="AR78" s="1">
         <v>0.005</v>
       </c>
+      <c r="AS78" s="2">
+        <v>0</v>
+      </c>
       <c r="AT78" s="2">
         <v>0</v>
       </c>
@@ -14019,18 +14069,18 @@
       <c r="AV78" s="2">
         <v>0</v>
       </c>
-      <c r="AW78" s="19" t="str">
+      <c r="AW78" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX78" s="19" t="str">
+      <c r="AX78" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0.005,0,0,0</v>
+        <v>0,0,0,0,0,0.005,0,0,0,0</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C79" s="2">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>185</v>
@@ -14155,30 +14205,30 @@
       <c r="AR79" s="2">
         <v>0</v>
       </c>
-      <c r="AS79" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT79" s="1">
+      <c r="AS79" s="1">
         <v>0.005</v>
       </c>
+      <c r="AT79" s="2">
+        <v>0</v>
+      </c>
       <c r="AU79" s="2">
         <v>0</v>
       </c>
       <c r="AV79" s="2">
         <v>0</v>
       </c>
-      <c r="AW79" s="19" t="str">
+      <c r="AW79" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX79" s="19" t="str">
+      <c r="AX79" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0.005,0,0</v>
+        <v>0,0,0,0,0,0,0.005,0,0,0</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C80" s="2">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>186</v>
@@ -14306,27 +14356,27 @@
       <c r="AS80" s="2">
         <v>0</v>
       </c>
-      <c r="AT80" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU80" s="1">
+      <c r="AT80" s="1">
         <v>0.005</v>
       </c>
+      <c r="AU80" s="2">
+        <v>0</v>
+      </c>
       <c r="AV80" s="2">
         <v>0</v>
       </c>
-      <c r="AW80" s="19" t="str">
+      <c r="AW80" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX80" s="19" t="str">
+      <c r="AX80" s="20" t="str">
         <f t="shared" si="7"/>
-        <v>0,0,0,0,0,0,0,0,0.005,0</v>
+        <v>0,0,0,0,0,0,0,0.005,0,0</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="3:50">
       <c r="C81" s="2">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>187</v>
@@ -14457,184 +14507,184 @@
       <c r="AT81" s="2">
         <v>0</v>
       </c>
-      <c r="AU81" s="2">
-        <v>0</v>
+      <c r="AU81" s="1">
+        <v>0.005</v>
       </c>
       <c r="AV81" s="2">
-        <v>50</v>
-      </c>
-      <c r="AW81" s="19" t="str">
+        <v>0</v>
+      </c>
+      <c r="AW81" s="20" t="str">
         <f t="shared" si="6"/>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
-      <c r="AX81" s="19" t="str">
+      <c r="AX81" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0.005,0</v>
+      </c>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="3:50">
+      <c r="C82" s="2">
+        <v>3085</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="12">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+      <c r="X82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV82" s="2">
+        <v>50</v>
+      </c>
+      <c r="AW82" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AX82" s="20" t="str">
         <f t="shared" si="7"/>
         <v>0,0,0,0,0,0,0,0,0,50</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:50">
-      <c r="C82" s="1">
-        <v>3200</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" s="1">
-        <v>180</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
-        <v>0</v>
-      </c>
-      <c r="L82" s="1">
-        <v>0</v>
-      </c>
-      <c r="M82" s="12">
-        <v>0</v>
-      </c>
-      <c r="N82" s="1">
-        <v>0</v>
-      </c>
-      <c r="O82" s="1">
-        <v>0</v>
-      </c>
-      <c r="P82" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>0</v>
-      </c>
-      <c r="S82" s="1">
-        <v>0</v>
-      </c>
-      <c r="T82" s="1">
-        <v>0</v>
-      </c>
-      <c r="U82" s="1">
-        <v>0</v>
-      </c>
-      <c r="V82" s="1">
-        <v>0</v>
-      </c>
-      <c r="W82" s="1">
-        <v>0</v>
-      </c>
-      <c r="X82" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV82" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW82" s="10" t="str">
-        <f t="shared" ref="AW82:AW95" si="8">AC76:AC86&amp;","&amp;AD76:AD86&amp;","&amp;AE76:AE86&amp;","&amp;AF76:AF86&amp;","&amp;AG76:AG86&amp;","&amp;AH76:AH86&amp;","&amp;AI76:AI86&amp;","&amp;AJ76:AJ86&amp;","&amp;AK76:AK86&amp;","&amp;AL76:AL86</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AX82" s="10" t="str">
-        <f t="shared" ref="AX82:AX95" si="9">AM76:AM86&amp;","&amp;AN76:AN86&amp;","&amp;AO76:AO86&amp;","&amp;AP76:AP86&amp;","&amp;AQ76:AQ86&amp;","&amp;AR76:AR86&amp;","&amp;AS76:AS86&amp;","&amp;AT76:AT86&amp;","&amp;AU76:AU86&amp;","&amp;AV76:AV86</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:50">
       <c r="C83" s="1">
-        <v>3201</v>
-      </c>
-      <c r="D83" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>189</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -14760,17 +14810,17 @@
         <v>0</v>
       </c>
       <c r="AW83" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AW83:AW96" si="8">AC77:AC87&amp;","&amp;AD77:AD87&amp;","&amp;AE77:AE87&amp;","&amp;AF77:AF87&amp;","&amp;AG77:AG87&amp;","&amp;AH77:AH87&amp;","&amp;AI77:AI87&amp;","&amp;AJ77:AJ87&amp;","&amp;AK77:AK87&amp;","&amp;AL77:AL87</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="AX83" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AX83:AX96" si="9">AM77:AM87&amp;","&amp;AN77:AN87&amp;","&amp;AO77:AO87&amp;","&amp;AP77:AP87&amp;","&amp;AQ77:AQ87&amp;","&amp;AR77:AR87&amp;","&amp;AS77:AS87&amp;","&amp;AT77:AT87&amp;","&amp;AU77:AU87&amp;","&amp;AV77:AV87</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:50">
       <c r="C84" s="1">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>190</v>
@@ -14782,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
@@ -14824,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="1">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="V84" s="1">
         <v>0</v>
@@ -14918,7 +14968,7 @@
     </row>
     <row r="85" customHeight="1" spans="3:50">
       <c r="C85" s="1">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>191</v>
@@ -14927,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
         <v>0</v>
@@ -14972,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="1">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V85" s="1">
         <v>0</v>
@@ -14998,7 +15048,7 @@
       <c r="AC85" s="1">
         <v>0</v>
       </c>
-      <c r="AD85" s="1">
+      <c r="AD85" s="2">
         <v>0</v>
       </c>
       <c r="AE85" s="1">
@@ -15066,7 +15116,7 @@
     </row>
     <row r="86" customHeight="1" spans="3:50">
       <c r="C86" s="1">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>192</v>
@@ -15075,13 +15125,13 @@
         <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
       </c>
       <c r="H86" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -15214,7 +15264,7 @@
     </row>
     <row r="87" customHeight="1" spans="3:50">
       <c r="C87" s="1">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>193</v>
@@ -15229,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="1">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -15271,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="V87" s="1">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="W87" s="1">
         <v>0</v>
@@ -15362,7 +15412,7 @@
     </row>
     <row r="88" customHeight="1" spans="3:50">
       <c r="C88" s="1">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>194</v>
@@ -15410,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="T88" s="1">
         <v>0</v>
@@ -15419,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+